--- a/model-inference/decisionTree/experiments/gpu_results/year/year.xlsx
+++ b/model-inference/decisionTree/experiments/gpu_results/year/year.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\11\netsdb\model-inference\decisionTree\experiments\gpu_results\year\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCE71929-AD81-4C7F-9FB8-C16633165A9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4B06F76-F375-4993-8C70-4EDBF37CE956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{EEF78A4B-2F60-4C97-92CE-0B76C8933FCE}"/>
+    <workbookView xWindow="4932" yWindow="336" windowWidth="17280" windowHeight="8964" activeTab="3" xr2:uid="{EEF78A4B-2F60-4C97-92CE-0B76C8933FCE}"/>
   </bookViews>
   <sheets>
     <sheet name="10 trees" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="30">
   <si>
     <t>query size</t>
   </si>
@@ -126,6 +126,9 @@
   </si>
   <si>
     <t>LightGBM</t>
+  </si>
+  <si>
+    <t>XGBoostGPU-1</t>
   </si>
 </sst>
 </file>
@@ -477,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C6EBCB7-83C1-4682-ABDD-EEB3228045BA}">
-  <dimension ref="A1:L81"/>
+  <dimension ref="A1:L86"/>
   <sheetViews>
-    <sheetView topLeftCell="C55" workbookViewId="0">
-      <selection activeCell="L61" sqref="L61"/>
+    <sheetView topLeftCell="C46" workbookViewId="0">
+      <selection activeCell="L55" sqref="L55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -598,11 +601,11 @@
         <v>4257.1122646331696</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K66" si="0">SUM(E3,G3,H3)</f>
+        <f t="shared" ref="K3:K71" si="0">SUM(E3,G3,H3)</f>
         <v>3870.1381683349568</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L66" si="1">PRODUCT(K3,0.001)</f>
+        <f t="shared" ref="L3:L71" si="1">PRODUCT(K3,0.001)</f>
         <v>3.8701381683349569</v>
       </c>
     </row>
@@ -2734,36 +2737,36 @@
         <v>100</v>
       </c>
       <c r="C57" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D57" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E57">
-        <v>3641.4825916290201</v>
+        <v>3722.49436378479</v>
       </c>
       <c r="F57">
-        <v>578.86719703674305</v>
+        <v>201.500654220581</v>
       </c>
       <c r="G57">
-        <v>942.16775894165005</v>
+        <v>5606.2359809875397</v>
       </c>
       <c r="H57">
-        <v>51.697731018066399</v>
+        <v>52.797794342041001</v>
       </c>
       <c r="I57">
-        <v>3393.4102058410599</v>
+        <v>0</v>
       </c>
       <c r="J57">
-        <v>4387.3424530029297</v>
+        <v>5661.0126495361301</v>
       </c>
       <c r="K57">
         <f t="shared" si="0"/>
-        <v>4635.3480815887369</v>
+        <v>9381.5281391143708</v>
       </c>
       <c r="L57">
         <f t="shared" si="1"/>
-        <v>4.6353480815887371</v>
+        <v>9.381528139114371</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
@@ -2774,36 +2777,36 @@
         <v>1000</v>
       </c>
       <c r="C58" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D58" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E58">
-        <v>3685.9960556030201</v>
+        <v>3739.0201091766298</v>
       </c>
       <c r="F58">
-        <v>570.90473175048805</v>
+        <v>210.00099182128901</v>
       </c>
       <c r="G58">
-        <v>139.506578445434</v>
+        <v>1835.6304168701099</v>
       </c>
       <c r="H58">
-        <v>51.910400390625</v>
+        <v>52.637577056884702</v>
       </c>
       <c r="I58">
-        <v>3405.8580398559502</v>
+        <v>0</v>
       </c>
       <c r="J58">
-        <v>3597.341299057</v>
+        <v>1890.27523994445</v>
       </c>
       <c r="K58">
         <f t="shared" si="0"/>
-        <v>3877.4130344390792</v>
+        <v>5627.288103103625</v>
       </c>
       <c r="L58">
         <f t="shared" si="1"/>
-        <v>3.8774130344390794</v>
+        <v>5.6272881031036253</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
@@ -2814,36 +2817,36 @@
         <v>10000</v>
       </c>
       <c r="C59" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D59" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E59">
-        <v>3644.8926925659098</v>
+        <v>3782.5748920440601</v>
       </c>
       <c r="F59">
-        <v>574.27763938903797</v>
+        <v>209.08260345458899</v>
       </c>
       <c r="G59">
-        <v>35.260438919067298</v>
+        <v>1685.42957305908</v>
       </c>
       <c r="H59">
-        <v>51.603078842163001</v>
+        <v>52.320241928100501</v>
       </c>
       <c r="I59">
-        <v>3415.2202606201099</v>
+        <v>0</v>
       </c>
       <c r="J59">
-        <v>3502.1424293517998</v>
+        <v>1739.71581459045</v>
       </c>
       <c r="K59">
         <f t="shared" si="0"/>
-        <v>3731.7562103271403</v>
+        <v>5520.3247070312409</v>
       </c>
       <c r="L59">
         <f t="shared" si="1"/>
-        <v>3.7317562103271404</v>
+        <v>5.5203247070312411</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
@@ -2854,36 +2857,36 @@
         <v>100000</v>
       </c>
       <c r="C60" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D60" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E60">
-        <v>3637.4905109405499</v>
+        <v>3723.4790325164699</v>
       </c>
       <c r="F60">
-        <v>585.74175834655705</v>
+        <v>208.65845680236799</v>
       </c>
       <c r="G60">
-        <v>32.0913791656494</v>
+        <v>1686.2914562225301</v>
       </c>
       <c r="H60">
-        <v>54.162025451660099</v>
+        <v>52.191972732543903</v>
       </c>
       <c r="I60">
-        <v>3427.6251792907701</v>
+        <v>0</v>
       </c>
       <c r="J60">
-        <v>3513.9439105987499</v>
+        <v>1740.44227600097</v>
       </c>
       <c r="K60">
         <f t="shared" si="0"/>
-        <v>3723.7439155578595</v>
+        <v>5461.962461471544</v>
       </c>
       <c r="L60">
         <f t="shared" si="1"/>
-        <v>3.7237439155578596</v>
+        <v>5.4619624614715443</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
@@ -2894,36 +2897,36 @@
         <v>103069</v>
       </c>
       <c r="C61" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D61" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E61">
-        <v>3640.1844024658199</v>
+        <v>3753.15308570861</v>
       </c>
       <c r="F61">
-        <v>570.869922637939</v>
+        <v>207.72004127502399</v>
       </c>
       <c r="G61">
-        <v>17.664432525634702</v>
+        <v>1678.5123348236</v>
       </c>
       <c r="H61">
-        <v>51.021814346313398</v>
+        <v>51.654577255249002</v>
       </c>
       <c r="I61">
-        <v>3423.3226776123001</v>
+        <v>0</v>
       </c>
       <c r="J61">
-        <v>3492.0692443847602</v>
+        <v>1732.1541309356601</v>
       </c>
       <c r="K61">
         <f t="shared" si="0"/>
-        <v>3708.8706493377681</v>
+        <v>5483.3199977874592</v>
       </c>
       <c r="L61">
         <f t="shared" si="1"/>
-        <v>3.7088706493377681</v>
+        <v>5.4833199977874596</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
@@ -2937,33 +2940,33 @@
         <v>18</v>
       </c>
       <c r="D62" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E62">
-        <v>3642.01760292053</v>
+        <v>3641.4825916290201</v>
       </c>
       <c r="F62">
-        <v>567.86823272704999</v>
+        <v>578.86719703674305</v>
       </c>
       <c r="G62">
-        <v>1128.4105777740399</v>
+        <v>942.16775894165005</v>
       </c>
       <c r="H62">
-        <v>51.516771316528299</v>
+        <v>51.697731018066399</v>
       </c>
       <c r="I62">
-        <v>3239.4018173217701</v>
+        <v>3393.4102058410599</v>
       </c>
       <c r="J62">
-        <v>4419.3952083587601</v>
+        <v>4387.3424530029297</v>
       </c>
       <c r="K62">
         <f t="shared" si="0"/>
-        <v>4821.9449520110984</v>
+        <v>4635.3480815887369</v>
       </c>
       <c r="L62">
         <f t="shared" si="1"/>
-        <v>4.8219449520110986</v>
+        <v>4.6353480815887371</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
@@ -2977,33 +2980,33 @@
         <v>18</v>
       </c>
       <c r="D63" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E63">
-        <v>3639.66846466064</v>
+        <v>3685.9960556030201</v>
       </c>
       <c r="F63">
-        <v>573.08578491210903</v>
+        <v>570.90473175048805</v>
       </c>
       <c r="G63">
-        <v>958.13894271850495</v>
+        <v>139.506578445434</v>
       </c>
       <c r="H63">
-        <v>51.2912273406982</v>
+        <v>51.910400390625</v>
       </c>
       <c r="I63">
-        <v>3256.3631534576398</v>
+        <v>3405.8580398559502</v>
       </c>
       <c r="J63">
-        <v>4265.86866378784</v>
+        <v>3597.341299057</v>
       </c>
       <c r="K63">
         <f t="shared" si="0"/>
-        <v>4649.0986347198432</v>
+        <v>3877.4130344390792</v>
       </c>
       <c r="L63">
         <f t="shared" si="1"/>
-        <v>4.6490986347198433</v>
+        <v>3.8774130344390794</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
@@ -3017,33 +3020,33 @@
         <v>18</v>
       </c>
       <c r="D64" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E64">
-        <v>3645.27487754821</v>
+        <v>3644.8926925659098</v>
       </c>
       <c r="F64">
-        <v>568.05610656738202</v>
+        <v>574.27763938903797</v>
       </c>
       <c r="G64">
-        <v>566.07460975646904</v>
+        <v>35.260438919067298</v>
       </c>
       <c r="H64">
-        <v>51.454305648803697</v>
+        <v>51.603078842163001</v>
       </c>
       <c r="I64">
-        <v>3254.89211082458</v>
+        <v>3415.2202606201099</v>
       </c>
       <c r="J64">
-        <v>3872.4808692932102</v>
+        <v>3502.1424293517998</v>
       </c>
       <c r="K64">
         <f t="shared" si="0"/>
-        <v>4262.803792953483</v>
+        <v>3731.7562103271403</v>
       </c>
       <c r="L64">
         <f t="shared" si="1"/>
-        <v>4.2628037929534832</v>
+        <v>3.7317562103271404</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
@@ -3057,33 +3060,33 @@
         <v>18</v>
       </c>
       <c r="D65" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E65">
-        <v>3640.3875350952098</v>
+        <v>3637.4905109405499</v>
       </c>
       <c r="F65">
-        <v>571.305751800537</v>
+        <v>585.74175834655705</v>
       </c>
       <c r="G65">
-        <v>569.48113441467206</v>
+        <v>32.0913791656494</v>
       </c>
       <c r="H65">
-        <v>51.3250827789306</v>
+        <v>54.162025451660099</v>
       </c>
       <c r="I65">
-        <v>3336.3628387451099</v>
+        <v>3427.6251792907701</v>
       </c>
       <c r="J65">
-        <v>3957.2315216064399</v>
+        <v>3513.9439105987499</v>
       </c>
       <c r="K65">
         <f t="shared" si="0"/>
-        <v>4261.1937522888129</v>
+        <v>3723.7439155578595</v>
       </c>
       <c r="L65">
         <f t="shared" si="1"/>
-        <v>4.261193752288813</v>
+        <v>3.7237439155578596</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
@@ -3097,33 +3100,33 @@
         <v>18</v>
       </c>
       <c r="D66" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E66">
-        <v>3645.3309059142998</v>
+        <v>3640.1844024658199</v>
       </c>
       <c r="F66">
-        <v>571.52223587036099</v>
+        <v>570.869922637939</v>
       </c>
       <c r="G66">
-        <v>558.915138244628</v>
+        <v>17.664432525634702</v>
       </c>
       <c r="H66">
-        <v>54.033756256103501</v>
+        <v>51.021814346313398</v>
       </c>
       <c r="I66">
-        <v>3318.01414489746</v>
+        <v>3423.3226776123001</v>
       </c>
       <c r="J66">
-        <v>3931.0393333434999</v>
+        <v>3492.0692443847602</v>
       </c>
       <c r="K66">
         <f t="shared" si="0"/>
-        <v>4258.2798004150318</v>
+        <v>3708.8706493377681</v>
       </c>
       <c r="L66">
         <f t="shared" si="1"/>
-        <v>4.258279800415032</v>
+        <v>3.7088706493377681</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
@@ -3137,33 +3140,33 @@
         <v>18</v>
       </c>
       <c r="D67" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E67">
-        <v>3645.1890468597398</v>
+        <v>3642.01760292053</v>
       </c>
       <c r="F67">
-        <v>570.436716079711</v>
+        <v>567.86823272704999</v>
       </c>
       <c r="G67">
-        <v>959.39421653747502</v>
+        <v>1128.4105777740399</v>
       </c>
       <c r="H67">
-        <v>6776.4258384704499</v>
+        <v>51.516771316528299</v>
       </c>
       <c r="I67">
-        <v>565.80758094787598</v>
+        <v>3239.4018173217701</v>
       </c>
       <c r="J67">
-        <v>8301.6798496246302</v>
+        <v>4419.3952083587601</v>
       </c>
       <c r="K67">
-        <f t="shared" ref="K67:K81" si="2">SUM(E67,G67,H67)</f>
-        <v>11381.009101867665</v>
+        <f t="shared" si="0"/>
+        <v>4821.9449520110984</v>
       </c>
       <c r="L67">
-        <f t="shared" ref="L67:L81" si="3">PRODUCT(K67,0.001)</f>
-        <v>11.381009101867665</v>
+        <f t="shared" si="1"/>
+        <v>4.8219449520110986</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
@@ -3177,33 +3180,33 @@
         <v>18</v>
       </c>
       <c r="D68" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E68">
-        <v>3651.9420146942098</v>
+        <v>3639.66846466064</v>
       </c>
       <c r="F68">
-        <v>566.07675552368096</v>
+        <v>573.08578491210903</v>
       </c>
       <c r="G68">
-        <v>931.29658699035599</v>
+        <v>958.13894271850495</v>
       </c>
       <c r="H68">
-        <v>6742.8960800170898</v>
+        <v>51.2912273406982</v>
       </c>
       <c r="I68">
-        <v>566.82348251342705</v>
+        <v>3256.3631534576398</v>
       </c>
       <c r="J68">
-        <v>8241.0695552825891</v>
+        <v>4265.86866378784</v>
       </c>
       <c r="K68">
-        <f t="shared" si="2"/>
-        <v>11326.134681701657</v>
+        <f t="shared" si="0"/>
+        <v>4649.0986347198432</v>
       </c>
       <c r="L68">
-        <f t="shared" si="3"/>
-        <v>11.326134681701657</v>
+        <f t="shared" si="1"/>
+        <v>4.6490986347198433</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
@@ -3217,33 +3220,33 @@
         <v>18</v>
       </c>
       <c r="D69" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E69">
-        <v>3650.4189968109099</v>
+        <v>3645.27487754821</v>
       </c>
       <c r="F69">
-        <v>572.24845886230401</v>
+        <v>568.05610656738202</v>
       </c>
       <c r="G69">
-        <v>922.09577560424805</v>
+        <v>566.07460975646904</v>
       </c>
       <c r="H69">
-        <v>6770.4241275787299</v>
+        <v>51.454305648803697</v>
       </c>
       <c r="I69">
-        <v>571.84815406799305</v>
+        <v>3254.89211082458</v>
       </c>
       <c r="J69">
-        <v>8264.4200325012207</v>
+        <v>3872.4808692932102</v>
       </c>
       <c r="K69">
-        <f t="shared" si="2"/>
-        <v>11342.938899993887</v>
+        <f t="shared" si="0"/>
+        <v>4262.803792953483</v>
       </c>
       <c r="L69">
-        <f t="shared" si="3"/>
-        <v>11.342938899993888</v>
+        <f t="shared" si="1"/>
+        <v>4.2628037929534832</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
@@ -3257,33 +3260,33 @@
         <v>18</v>
       </c>
       <c r="D70" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E70">
-        <v>3645.5776691436699</v>
+        <v>3640.3875350952098</v>
       </c>
       <c r="F70">
-        <v>566.40887260437</v>
+        <v>571.305751800537</v>
       </c>
       <c r="G70">
-        <v>925.295114517211</v>
+        <v>569.48113441467206</v>
       </c>
       <c r="H70">
-        <v>6808.3822727203296</v>
+        <v>51.3250827789306</v>
       </c>
       <c r="I70">
-        <v>560.294151306152</v>
+        <v>3336.3628387451099</v>
       </c>
       <c r="J70">
-        <v>8294.0237522125208</v>
+        <v>3957.2315216064399</v>
       </c>
       <c r="K70">
-        <f t="shared" si="2"/>
-        <v>11379.255056381211</v>
+        <f t="shared" si="0"/>
+        <v>4261.1937522888129</v>
       </c>
       <c r="L70">
-        <f t="shared" si="3"/>
-        <v>11.379255056381211</v>
+        <f t="shared" si="1"/>
+        <v>4.261193752288813</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
@@ -3297,33 +3300,33 @@
         <v>18</v>
       </c>
       <c r="D71" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E71">
-        <v>3643.5713768005298</v>
+        <v>3645.3309059142998</v>
       </c>
       <c r="F71">
-        <v>569.16308403015103</v>
+        <v>571.52223587036099</v>
       </c>
       <c r="G71">
-        <v>921.52690887451104</v>
+        <v>558.915138244628</v>
       </c>
       <c r="H71">
-        <v>6968.2698249816804</v>
+        <v>54.033756256103501</v>
       </c>
       <c r="I71">
-        <v>567.368984222412</v>
+        <v>3318.01414489746</v>
       </c>
       <c r="J71">
-        <v>8457.2207927703803</v>
+        <v>3931.0393333434999</v>
       </c>
       <c r="K71">
-        <f t="shared" si="2"/>
-        <v>11533.36811065672</v>
+        <f t="shared" si="0"/>
+        <v>4258.2798004150318</v>
       </c>
       <c r="L71">
-        <f t="shared" si="3"/>
-        <v>11.533368110656721</v>
+        <f t="shared" si="1"/>
+        <v>4.258279800415032</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
@@ -3337,33 +3340,33 @@
         <v>18</v>
       </c>
       <c r="D72" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E72">
-        <v>3637.61401176452</v>
+        <v>3645.1890468597398</v>
       </c>
       <c r="F72">
-        <v>570.09530067443802</v>
+        <v>570.436716079711</v>
       </c>
       <c r="G72">
-        <v>314.655542373657</v>
+        <v>959.39421653747502</v>
       </c>
       <c r="H72">
-        <v>51.681280136108398</v>
+        <v>6776.4258384704499</v>
       </c>
       <c r="I72">
-        <v>10848.807334899901</v>
+        <v>565.80758094787598</v>
       </c>
       <c r="J72">
-        <v>11215.2199745178</v>
+        <v>8301.6798496246302</v>
       </c>
       <c r="K72">
-        <f t="shared" si="2"/>
-        <v>4003.9508342742856</v>
+        <f t="shared" ref="K72:K86" si="2">SUM(E72,G72,H72)</f>
+        <v>11381.009101867665</v>
       </c>
       <c r="L72">
-        <f t="shared" si="3"/>
-        <v>4.0039508342742858</v>
+        <f t="shared" ref="L72:L86" si="3">PRODUCT(K72,0.001)</f>
+        <v>11.381009101867665</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
@@ -3377,33 +3380,33 @@
         <v>18</v>
       </c>
       <c r="D73" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E73">
-        <v>3634.0961456298801</v>
+        <v>3651.9420146942098</v>
       </c>
       <c r="F73">
-        <v>565.49978256225495</v>
+        <v>566.07675552368096</v>
       </c>
       <c r="G73">
-        <v>69.139003753662095</v>
+        <v>931.29658699035599</v>
       </c>
       <c r="H73">
-        <v>51.539897918701101</v>
+        <v>6742.8960800170898</v>
       </c>
       <c r="I73">
-        <v>19226.359844207698</v>
+        <v>566.82348251342705</v>
       </c>
       <c r="J73">
-        <v>19347.102880477902</v>
+        <v>8241.0695552825891</v>
       </c>
       <c r="K73">
         <f t="shared" si="2"/>
-        <v>3754.7750473022434</v>
+        <v>11326.134681701657</v>
       </c>
       <c r="L73">
         <f t="shared" si="3"/>
-        <v>3.7547750473022434</v>
+        <v>11.326134681701657</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
@@ -3417,33 +3420,33 @@
         <v>18</v>
       </c>
       <c r="D74" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E74">
-        <v>3639.4515037536598</v>
+        <v>3650.4189968109099</v>
       </c>
       <c r="F74">
-        <v>567.79170036315895</v>
+        <v>572.24845886230401</v>
       </c>
       <c r="G74">
-        <v>41.285037994384702</v>
+        <v>922.09577560424805</v>
       </c>
       <c r="H74">
-        <v>51.382541656494098</v>
+        <v>6770.4241275787299</v>
       </c>
       <c r="I74">
-        <v>27682.805776596</v>
+        <v>571.84815406799305</v>
       </c>
       <c r="J74">
-        <v>27775.539398193301</v>
+        <v>8264.4200325012207</v>
       </c>
       <c r="K74">
         <f t="shared" si="2"/>
-        <v>3732.1190834045387</v>
+        <v>11342.938899993887</v>
       </c>
       <c r="L74">
         <f t="shared" si="3"/>
-        <v>3.7321190834045388</v>
+        <v>11.342938899993888</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
@@ -3457,33 +3460,33 @@
         <v>18</v>
       </c>
       <c r="D75" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E75">
-        <v>3706.4671516418398</v>
+        <v>3645.5776691436699</v>
       </c>
       <c r="F75">
-        <v>573.902368545532</v>
+        <v>566.40887260437</v>
       </c>
       <c r="G75">
-        <v>43.414354324340799</v>
+        <v>925.295114517211</v>
       </c>
       <c r="H75">
-        <v>51.61714553833</v>
+        <v>6808.3822727203296</v>
       </c>
       <c r="I75">
-        <v>26791.352510452201</v>
+        <v>560.294151306152</v>
       </c>
       <c r="J75">
-        <v>26886.450767516999</v>
+        <v>8294.0237522125208</v>
       </c>
       <c r="K75">
         <f t="shared" si="2"/>
-        <v>3801.4986515045107</v>
+        <v>11379.255056381211</v>
       </c>
       <c r="L75">
         <f t="shared" si="3"/>
-        <v>3.8014986515045108</v>
+        <v>11.379255056381211</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
@@ -3497,33 +3500,33 @@
         <v>18</v>
       </c>
       <c r="D76" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E76">
-        <v>3637.4490261077799</v>
+        <v>3643.5713768005298</v>
       </c>
       <c r="F76">
-        <v>573.93932342529297</v>
+        <v>569.16308403015103</v>
       </c>
       <c r="G76">
-        <v>42.521238327026303</v>
+        <v>921.52690887451104</v>
       </c>
       <c r="H76">
-        <v>51.362991333007798</v>
+        <v>6968.2698249816804</v>
       </c>
       <c r="I76">
-        <v>13678.584814071601</v>
+        <v>567.368984222412</v>
       </c>
       <c r="J76">
-        <v>13772.529125213599</v>
+        <v>8457.2207927703803</v>
       </c>
       <c r="K76">
         <f t="shared" si="2"/>
-        <v>3731.3332557678141</v>
+        <v>11533.36811065672</v>
       </c>
       <c r="L76">
         <f t="shared" si="3"/>
-        <v>3.7313332557678143</v>
+        <v>11.533368110656721</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
@@ -3537,33 +3540,33 @@
         <v>18</v>
       </c>
       <c r="D77" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E77">
-        <v>3648.1258869171102</v>
+        <v>3637.61401176452</v>
       </c>
       <c r="F77">
-        <v>570.24335861205998</v>
+        <v>570.09530067443802</v>
       </c>
       <c r="G77">
-        <v>639.36972618103005</v>
+        <v>314.655542373657</v>
       </c>
       <c r="H77">
-        <v>24.244070053100501</v>
+        <v>51.681280136108398</v>
       </c>
       <c r="I77">
-        <v>2435.8694553375199</v>
+        <v>10848.807334899901</v>
       </c>
       <c r="J77">
-        <v>3099.5442867278998</v>
+        <v>11215.2199745178</v>
       </c>
       <c r="K77">
         <f t="shared" si="2"/>
-        <v>4311.7396831512406</v>
+        <v>4003.9508342742856</v>
       </c>
       <c r="L77">
         <f t="shared" si="3"/>
-        <v>4.3117396831512407</v>
+        <v>4.0039508342742858</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
@@ -3577,33 +3580,33 @@
         <v>18</v>
       </c>
       <c r="D78" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E78">
-        <v>3633.3961486816402</v>
+        <v>3634.0961456298801</v>
       </c>
       <c r="F78">
-        <v>570.26886940002396</v>
+        <v>565.49978256225495</v>
       </c>
       <c r="G78">
-        <v>190.49763679504301</v>
+        <v>69.139003753662095</v>
       </c>
       <c r="H78">
-        <v>24.261474609375</v>
+        <v>51.539897918701101</v>
       </c>
       <c r="I78">
-        <v>2439.2232894897402</v>
+        <v>19226.359844207698</v>
       </c>
       <c r="J78">
-        <v>2654.04272079467</v>
+        <v>19347.102880477902</v>
       </c>
       <c r="K78">
         <f t="shared" si="2"/>
-        <v>3848.1552600860582</v>
+        <v>3754.7750473022434</v>
       </c>
       <c r="L78">
         <f t="shared" si="3"/>
-        <v>3.8481552600860582</v>
+        <v>3.7547750473022434</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
@@ -3617,33 +3620,33 @@
         <v>18</v>
       </c>
       <c r="D79" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E79">
-        <v>3657.1617126464798</v>
+        <v>3639.4515037536598</v>
       </c>
       <c r="F79">
-        <v>576.17759704589798</v>
+        <v>567.79170036315895</v>
       </c>
       <c r="G79">
-        <v>161.69142723083399</v>
+        <v>41.285037994384702</v>
       </c>
       <c r="H79">
-        <v>24.84130859375</v>
+        <v>51.382541656494098</v>
       </c>
       <c r="I79">
-        <v>2452.9945850372301</v>
+        <v>27682.805776596</v>
       </c>
       <c r="J79">
-        <v>2639.5850181579499</v>
+        <v>27775.539398193301</v>
       </c>
       <c r="K79">
         <f t="shared" si="2"/>
-        <v>3843.6944484710639</v>
+        <v>3732.1190834045387</v>
       </c>
       <c r="L79">
         <f t="shared" si="3"/>
-        <v>3.843694448471064</v>
+        <v>3.7321190834045388</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
@@ -3657,33 +3660,33 @@
         <v>18</v>
       </c>
       <c r="D80" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E80">
-        <v>3648.5073566436699</v>
+        <v>3706.4671516418398</v>
       </c>
       <c r="F80">
-        <v>576.31564140319801</v>
+        <v>573.902368545532</v>
       </c>
       <c r="G80">
-        <v>214.19191360473599</v>
+        <v>43.414354324340799</v>
       </c>
       <c r="H80">
-        <v>24.2941379547119</v>
+        <v>51.61714553833</v>
       </c>
       <c r="I80">
-        <v>2452.4002075195299</v>
+        <v>26791.352510452201</v>
       </c>
       <c r="J80">
-        <v>2690.9396648406901</v>
+        <v>26886.450767516999</v>
       </c>
       <c r="K80">
         <f t="shared" si="2"/>
-        <v>3886.9934082031177</v>
+        <v>3801.4986515045107</v>
       </c>
       <c r="L80">
         <f t="shared" si="3"/>
-        <v>3.8869934082031179</v>
+        <v>3.8014986515045108</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
@@ -3697,37 +3700,237 @@
         <v>18</v>
       </c>
       <c r="D81" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E81">
-        <v>3658.7660312652501</v>
+        <v>3637.4490261077799</v>
       </c>
       <c r="F81">
-        <v>566.05887413024902</v>
+        <v>573.93932342529297</v>
       </c>
       <c r="G81">
-        <v>213.54866027832</v>
+        <v>42.521238327026303</v>
       </c>
       <c r="H81">
-        <v>25.076150894165</v>
+        <v>51.362991333007798</v>
       </c>
       <c r="I81">
-        <v>2448.65989685058</v>
+        <v>13678.584814071601</v>
       </c>
       <c r="J81">
-        <v>2687.3514652252102</v>
+        <v>13772.529125213599</v>
       </c>
       <c r="K81">
         <f t="shared" si="2"/>
-        <v>3897.390842437735</v>
+        <v>3731.3332557678141</v>
       </c>
       <c r="L81">
         <f t="shared" si="3"/>
+        <v>3.7313332557678143</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>100</v>
+      </c>
+      <c r="B82">
+        <v>100</v>
+      </c>
+      <c r="C82" t="s">
+        <v>18</v>
+      </c>
+      <c r="D82" t="s">
+        <v>15</v>
+      </c>
+      <c r="E82">
+        <v>3648.1258869171102</v>
+      </c>
+      <c r="F82">
+        <v>570.24335861205998</v>
+      </c>
+      <c r="G82">
+        <v>639.36972618103005</v>
+      </c>
+      <c r="H82">
+        <v>24.244070053100501</v>
+      </c>
+      <c r="I82">
+        <v>2435.8694553375199</v>
+      </c>
+      <c r="J82">
+        <v>3099.5442867278998</v>
+      </c>
+      <c r="K82">
+        <f t="shared" si="2"/>
+        <v>4311.7396831512406</v>
+      </c>
+      <c r="L82">
+        <f t="shared" si="3"/>
+        <v>4.3117396831512407</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>1000</v>
+      </c>
+      <c r="B83">
+        <v>1000</v>
+      </c>
+      <c r="C83" t="s">
+        <v>18</v>
+      </c>
+      <c r="D83" t="s">
+        <v>15</v>
+      </c>
+      <c r="E83">
+        <v>3633.3961486816402</v>
+      </c>
+      <c r="F83">
+        <v>570.26886940002396</v>
+      </c>
+      <c r="G83">
+        <v>190.49763679504301</v>
+      </c>
+      <c r="H83">
+        <v>24.261474609375</v>
+      </c>
+      <c r="I83">
+        <v>2439.2232894897402</v>
+      </c>
+      <c r="J83">
+        <v>2654.04272079467</v>
+      </c>
+      <c r="K83">
+        <f t="shared" si="2"/>
+        <v>3848.1552600860582</v>
+      </c>
+      <c r="L83">
+        <f t="shared" si="3"/>
+        <v>3.8481552600860582</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>10000</v>
+      </c>
+      <c r="B84">
+        <v>10000</v>
+      </c>
+      <c r="C84" t="s">
+        <v>18</v>
+      </c>
+      <c r="D84" t="s">
+        <v>15</v>
+      </c>
+      <c r="E84">
+        <v>3657.1617126464798</v>
+      </c>
+      <c r="F84">
+        <v>576.17759704589798</v>
+      </c>
+      <c r="G84">
+        <v>161.69142723083399</v>
+      </c>
+      <c r="H84">
+        <v>24.84130859375</v>
+      </c>
+      <c r="I84">
+        <v>2452.9945850372301</v>
+      </c>
+      <c r="J84">
+        <v>2639.5850181579499</v>
+      </c>
+      <c r="K84">
+        <f t="shared" si="2"/>
+        <v>3843.6944484710639</v>
+      </c>
+      <c r="L84">
+        <f t="shared" si="3"/>
+        <v>3.843694448471064</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>100000</v>
+      </c>
+      <c r="B85">
+        <v>100000</v>
+      </c>
+      <c r="C85" t="s">
+        <v>18</v>
+      </c>
+      <c r="D85" t="s">
+        <v>15</v>
+      </c>
+      <c r="E85">
+        <v>3648.5073566436699</v>
+      </c>
+      <c r="F85">
+        <v>576.31564140319801</v>
+      </c>
+      <c r="G85">
+        <v>214.19191360473599</v>
+      </c>
+      <c r="H85">
+        <v>24.2941379547119</v>
+      </c>
+      <c r="I85">
+        <v>2452.4002075195299</v>
+      </c>
+      <c r="J85">
+        <v>2690.9396648406901</v>
+      </c>
+      <c r="K85">
+        <f t="shared" si="2"/>
+        <v>3886.9934082031177</v>
+      </c>
+      <c r="L85">
+        <f t="shared" si="3"/>
+        <v>3.8869934082031179</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>103069</v>
+      </c>
+      <c r="B86">
+        <v>103069</v>
+      </c>
+      <c r="C86" t="s">
+        <v>18</v>
+      </c>
+      <c r="D86" t="s">
+        <v>15</v>
+      </c>
+      <c r="E86">
+        <v>3658.7660312652501</v>
+      </c>
+      <c r="F86">
+        <v>566.05887413024902</v>
+      </c>
+      <c r="G86">
+        <v>213.54866027832</v>
+      </c>
+      <c r="H86">
+        <v>25.076150894165</v>
+      </c>
+      <c r="I86">
+        <v>2448.65989685058</v>
+      </c>
+      <c r="J86">
+        <v>2687.3514652252102</v>
+      </c>
+      <c r="K86">
+        <f t="shared" si="2"/>
+        <v>3897.390842437735</v>
+      </c>
+      <c r="L86">
+        <f t="shared" si="3"/>
         <v>3.8973908424377353</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="L2:L81">
+  <conditionalFormatting sqref="L2:L86">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -3739,7 +3942,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G81">
+  <conditionalFormatting sqref="G2:G86">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -3757,10 +3960,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BD88DE2-1B17-49A8-A540-6D5302188D9C}">
-  <dimension ref="A1:L75"/>
+  <dimension ref="A1:L80"/>
   <sheetViews>
-    <sheetView topLeftCell="C49" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView topLeftCell="C37" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3878,11 +4081,11 @@
         <v>7168.6527729034397</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K66" si="0">SUM(E3,G3,H3)</f>
+        <f t="shared" ref="K3:K71" si="0">SUM(E3,G3,H3)</f>
         <v>4049.0851402282665</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L66" si="1">PRODUCT(K3,0.001)</f>
+        <f t="shared" ref="L3:L71" si="1">PRODUCT(K3,0.001)</f>
         <v>4.0490851402282662</v>
       </c>
     </row>
@@ -5854,36 +6057,36 @@
         <v>100</v>
       </c>
       <c r="C53" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D53" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E53">
-        <v>3653.0373096466001</v>
+        <v>3662.0326042175202</v>
       </c>
       <c r="F53">
-        <v>656.55064582824696</v>
+        <v>247.43890762329099</v>
       </c>
       <c r="G53">
-        <v>985.32676696777298</v>
+        <v>13440.7472610473</v>
       </c>
       <c r="H53">
-        <v>51.466226577758697</v>
+        <v>51.160097122192298</v>
       </c>
       <c r="I53">
-        <v>9059.3118667602503</v>
+        <v>0</v>
       </c>
       <c r="J53">
-        <v>10096.170425415001</v>
+        <v>13493.810415267901</v>
       </c>
       <c r="K53">
         <f t="shared" si="0"/>
-        <v>4689.8303031921314</v>
+        <v>17153.939962387012</v>
       </c>
       <c r="L53">
         <f t="shared" si="1"/>
-        <v>4.6898303031921316</v>
+        <v>17.153939962387014</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
@@ -5894,36 +6097,36 @@
         <v>1000</v>
       </c>
       <c r="C54" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D54" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E54">
-        <v>3693.5548782348601</v>
+        <v>3901.2012481689399</v>
       </c>
       <c r="F54">
-        <v>638.17667961120605</v>
+        <v>257.15708732604901</v>
       </c>
       <c r="G54">
-        <v>265.94281196594198</v>
+        <v>2833.2850933074901</v>
       </c>
       <c r="H54">
-        <v>51.938295364379798</v>
+        <v>50.853013992309499</v>
       </c>
       <c r="I54">
-        <v>9163.4018421173096</v>
+        <v>0</v>
       </c>
       <c r="J54">
-        <v>9481.3530445098804</v>
+        <v>2886.00611686706</v>
       </c>
       <c r="K54">
         <f t="shared" si="0"/>
-        <v>4011.4359855651819</v>
+        <v>6785.3393554687391</v>
       </c>
       <c r="L54">
         <f t="shared" si="1"/>
-        <v>4.011435985565182</v>
+        <v>6.7853393554687393</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
@@ -5934,36 +6137,36 @@
         <v>10000</v>
       </c>
       <c r="C55" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D55" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E55">
-        <v>3698.9271640777501</v>
+        <v>3667.82593727111</v>
       </c>
       <c r="F55">
-        <v>626.25265121459904</v>
+        <v>256.81734085083002</v>
       </c>
       <c r="G55">
-        <v>218.89638900756799</v>
+        <v>1776.8847942352199</v>
       </c>
       <c r="H55">
-        <v>51.475286483764599</v>
+        <v>51.995754241943303</v>
       </c>
       <c r="I55">
-        <v>9148.2241153717005</v>
+        <v>0</v>
       </c>
       <c r="J55">
-        <v>9418.65992546081</v>
+        <v>1830.83152770996</v>
       </c>
       <c r="K55">
         <f t="shared" si="0"/>
-        <v>3969.2988395690827</v>
+        <v>5496.7064857482728</v>
       </c>
       <c r="L55">
         <f t="shared" si="1"/>
-        <v>3.9692988395690829</v>
+        <v>5.4967064857482733</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
@@ -5974,36 +6177,36 @@
         <v>100000</v>
       </c>
       <c r="C56" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D56" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E56">
-        <v>3686.0644817352199</v>
+        <v>3651.6196727752599</v>
       </c>
       <c r="F56">
-        <v>631.23750686645496</v>
+        <v>257.40003585815401</v>
       </c>
       <c r="G56">
-        <v>216.95089340209901</v>
+        <v>1760.7605457305899</v>
       </c>
       <c r="H56">
-        <v>52.091836929321197</v>
+        <v>50.903081893920898</v>
       </c>
       <c r="I56">
-        <v>9007.8797340392994</v>
+        <v>0</v>
       </c>
       <c r="J56">
-        <v>9276.9825458526593</v>
+        <v>1813.5437965393</v>
       </c>
       <c r="K56">
         <f t="shared" si="0"/>
-        <v>3955.1072120666404</v>
+        <v>5463.2833003997712</v>
       </c>
       <c r="L56">
         <f t="shared" si="1"/>
-        <v>3.9551072120666406</v>
+        <v>5.4632833003997714</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
@@ -6014,36 +6217,36 @@
         <v>103069</v>
       </c>
       <c r="C57" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D57" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E57">
-        <v>3679.52489852905</v>
+        <v>3654.27589416503</v>
       </c>
       <c r="F57">
-        <v>631.29544258117596</v>
+        <v>254.06718254089299</v>
       </c>
       <c r="G57">
-        <v>202.13770866394</v>
+        <v>1750.2300739288301</v>
       </c>
       <c r="H57">
-        <v>51.774978637695298</v>
+        <v>50.825357437133697</v>
       </c>
       <c r="I57">
-        <v>9007.9109668731599</v>
+        <v>0</v>
       </c>
       <c r="J57">
-        <v>9261.8904113769495</v>
+        <v>1802.96754837036</v>
       </c>
       <c r="K57">
         <f t="shared" si="0"/>
-        <v>3933.4375858306853</v>
+        <v>5455.331325530994</v>
       </c>
       <c r="L57">
         <f t="shared" si="1"/>
-        <v>3.9334375858306854</v>
+        <v>5.4553313255309943</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
@@ -6057,33 +6260,33 @@
         <v>18</v>
       </c>
       <c r="D58" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E58">
-        <v>3663.1140708923299</v>
+        <v>3653.0373096466001</v>
       </c>
       <c r="F58">
-        <v>618.79086494445801</v>
+        <v>656.55064582824696</v>
       </c>
       <c r="G58">
-        <v>1173.2261180877599</v>
+        <v>985.32676696777298</v>
       </c>
       <c r="H58">
-        <v>51.695823669433501</v>
+        <v>51.466226577758697</v>
       </c>
       <c r="I58">
-        <v>8956.9833278656006</v>
+        <v>9059.3118667602503</v>
       </c>
       <c r="J58">
-        <v>10181.9763183593</v>
+        <v>10096.170425415001</v>
       </c>
       <c r="K58">
         <f t="shared" si="0"/>
-        <v>4888.0360126495234</v>
+        <v>4689.8303031921314</v>
       </c>
       <c r="L58">
         <f t="shared" si="1"/>
-        <v>4.8880360126495237</v>
+        <v>4.6898303031921316</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
@@ -6097,33 +6300,33 @@
         <v>18</v>
       </c>
       <c r="D59" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E59">
-        <v>3697.42918014526</v>
+        <v>3693.5548782348601</v>
       </c>
       <c r="F59">
-        <v>633.13722610473599</v>
+        <v>638.17667961120605</v>
       </c>
       <c r="G59">
-        <v>713.52887153625397</v>
+        <v>265.94281196594198</v>
       </c>
       <c r="H59">
-        <v>51.311492919921797</v>
+        <v>51.938295364379798</v>
       </c>
       <c r="I59">
-        <v>8922.2803115844708</v>
+        <v>9163.4018421173096</v>
       </c>
       <c r="J59">
-        <v>9687.1883869171106</v>
+        <v>9481.3530445098804</v>
       </c>
       <c r="K59">
         <f t="shared" si="0"/>
-        <v>4462.2695446014359</v>
+        <v>4011.4359855651819</v>
       </c>
       <c r="L59">
         <f t="shared" si="1"/>
-        <v>4.462269544601436</v>
+        <v>4.011435985565182</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
@@ -6137,233 +6340,233 @@
         <v>18</v>
       </c>
       <c r="D60" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E60">
-        <v>3699.1004943847602</v>
+        <v>3698.9271640777501</v>
       </c>
       <c r="F60">
-        <v>633.758068084716</v>
+        <v>626.25265121459904</v>
       </c>
       <c r="G60">
-        <v>672.06645011901799</v>
+        <v>218.89638900756799</v>
       </c>
       <c r="H60">
-        <v>51.790714263916001</v>
+        <v>51.475286483764599</v>
       </c>
       <c r="I60">
-        <v>8990.4117584228497</v>
+        <v>9148.2241153717005</v>
       </c>
       <c r="J60">
-        <v>9714.3363952636701</v>
+        <v>9418.65992546081</v>
       </c>
       <c r="K60">
         <f t="shared" si="0"/>
-        <v>4422.9576587676938</v>
+        <v>3969.2988395690827</v>
       </c>
       <c r="L60">
         <f t="shared" si="1"/>
-        <v>4.422957658767694</v>
+        <v>3.9692988395690829</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>100</v>
+        <v>100000</v>
       </c>
       <c r="B61">
-        <v>100</v>
+        <v>100000</v>
       </c>
       <c r="C61" t="s">
         <v>18</v>
       </c>
       <c r="D61" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E61">
-        <v>3706.9861888885498</v>
+        <v>3686.0644817352199</v>
       </c>
       <c r="F61">
-        <v>643.02992820739701</v>
+        <v>631.23750686645496</v>
       </c>
       <c r="G61">
-        <v>1942.8687095641999</v>
+        <v>216.95089340209901</v>
       </c>
       <c r="H61">
-        <v>6893.8946723937897</v>
+        <v>52.091836929321197</v>
       </c>
       <c r="I61">
-        <v>3396.5232372283899</v>
+        <v>9007.8797340392994</v>
       </c>
       <c r="J61">
-        <v>12233.341693878099</v>
+        <v>9276.9825458526593</v>
       </c>
       <c r="K61">
         <f t="shared" si="0"/>
-        <v>12543.749570846539</v>
+        <v>3955.1072120666404</v>
       </c>
       <c r="L61">
         <f t="shared" si="1"/>
-        <v>12.54374957084654</v>
+        <v>3.9551072120666406</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>1000</v>
+        <v>103069</v>
       </c>
       <c r="B62">
-        <v>1000</v>
+        <v>103069</v>
       </c>
       <c r="C62" t="s">
         <v>18</v>
       </c>
       <c r="D62" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E62">
-        <v>3707.82494544982</v>
+        <v>3679.52489852905</v>
       </c>
       <c r="F62">
-        <v>640.25497436523403</v>
+        <v>631.29544258117596</v>
       </c>
       <c r="G62">
-        <v>1764.27817344665</v>
+        <v>202.13770866394</v>
       </c>
       <c r="H62">
-        <v>6949.68676567077</v>
+        <v>51.774978637695298</v>
       </c>
       <c r="I62">
-        <v>3624.8850822448699</v>
+        <v>9007.9109668731599</v>
       </c>
       <c r="J62">
-        <v>12338.9024734497</v>
+        <v>9261.8904113769495</v>
       </c>
       <c r="K62">
         <f t="shared" si="0"/>
-        <v>12421.789884567239</v>
+        <v>3933.4375858306853</v>
       </c>
       <c r="L62">
         <f t="shared" si="1"/>
-        <v>12.421789884567239</v>
+        <v>3.9334375858306854</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="B63">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="C63" t="s">
         <v>18</v>
       </c>
       <c r="D63" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E63">
-        <v>3751.1172294616699</v>
+        <v>3663.1140708923299</v>
       </c>
       <c r="F63">
-        <v>644.26112174987702</v>
+        <v>618.79086494445801</v>
       </c>
       <c r="G63">
-        <v>1699.59568977355</v>
+        <v>1173.2261180877599</v>
       </c>
       <c r="H63">
-        <v>6791.6774749755796</v>
+        <v>51.695823669433501</v>
       </c>
       <c r="I63">
-        <v>3756.7586898803702</v>
+        <v>8956.9833278656006</v>
       </c>
       <c r="J63">
-        <v>12248.091936111399</v>
+        <v>10181.9763183593</v>
       </c>
       <c r="K63">
         <f t="shared" si="0"/>
-        <v>12242.390394210801</v>
+        <v>4888.0360126495234</v>
       </c>
       <c r="L63">
         <f t="shared" si="1"/>
-        <v>12.242390394210801</v>
+        <v>4.8880360126495237</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>100000</v>
+        <v>1000</v>
       </c>
       <c r="B64">
-        <v>100000</v>
+        <v>1000</v>
       </c>
       <c r="C64" t="s">
         <v>18</v>
       </c>
       <c r="D64" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E64">
-        <v>3712.3656272888102</v>
+        <v>3697.42918014526</v>
       </c>
       <c r="F64">
-        <v>637.75968551635697</v>
+        <v>633.13722610473599</v>
       </c>
       <c r="G64">
-        <v>1743.44944953918</v>
+        <v>713.52887153625397</v>
       </c>
       <c r="H64">
-        <v>6728.6257743835404</v>
+        <v>51.311492919921797</v>
       </c>
       <c r="I64">
-        <v>3344.14720535278</v>
+        <v>8922.2803115844708</v>
       </c>
       <c r="J64">
-        <v>11816.281080245901</v>
+        <v>9687.1883869171106</v>
       </c>
       <c r="K64">
         <f t="shared" si="0"/>
-        <v>12184.44085121153</v>
+        <v>4462.2695446014359</v>
       </c>
       <c r="L64">
         <f t="shared" si="1"/>
-        <v>12.18444085121153</v>
+        <v>4.462269544601436</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>103069</v>
+        <v>10000</v>
       </c>
       <c r="B65">
-        <v>103069</v>
+        <v>10000</v>
       </c>
       <c r="C65" t="s">
         <v>18</v>
       </c>
       <c r="D65" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E65">
-        <v>3719.0928459167399</v>
+        <v>3699.1004943847602</v>
       </c>
       <c r="F65">
-        <v>644.18530464172295</v>
+        <v>633.758068084716</v>
       </c>
       <c r="G65">
-        <v>1736.9301319122301</v>
+        <v>672.06645011901799</v>
       </c>
       <c r="H65">
-        <v>7033.6737632751401</v>
+        <v>51.790714263916001</v>
       </c>
       <c r="I65">
-        <v>3466.2582874298</v>
+        <v>8990.4117584228497</v>
       </c>
       <c r="J65">
-        <v>12236.923694610499</v>
+        <v>9714.3363952636701</v>
       </c>
       <c r="K65">
         <f t="shared" si="0"/>
-        <v>12489.696741104111</v>
+        <v>4422.9576587676938</v>
       </c>
       <c r="L65">
         <f t="shared" si="1"/>
-        <v>12.489696741104112</v>
+        <v>4.422957658767694</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
@@ -6377,33 +6580,33 @@
         <v>18</v>
       </c>
       <c r="D66" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E66">
-        <v>3709.76686477661</v>
+        <v>3706.9861888885498</v>
       </c>
       <c r="F66">
-        <v>631.82425498962402</v>
+        <v>643.02992820739701</v>
       </c>
       <c r="G66">
-        <v>361.33790016174299</v>
+        <v>1942.8687095641999</v>
       </c>
       <c r="H66">
-        <v>53.086757659912102</v>
+        <v>6893.8946723937897</v>
       </c>
       <c r="I66">
-        <v>39302.4327754974</v>
+        <v>3396.5232372283899</v>
       </c>
       <c r="J66">
-        <v>39716.9382572174</v>
+        <v>12233.341693878099</v>
       </c>
       <c r="K66">
         <f t="shared" si="0"/>
-        <v>4124.1915225982648</v>
+        <v>12543.749570846539</v>
       </c>
       <c r="L66">
         <f t="shared" si="1"/>
-        <v>4.1241915225982648</v>
+        <v>12.54374957084654</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
@@ -6417,33 +6620,33 @@
         <v>18</v>
       </c>
       <c r="D67" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E67">
-        <v>3659.9597930908199</v>
+        <v>3707.82494544982</v>
       </c>
       <c r="F67">
-        <v>621.55604362487702</v>
+        <v>640.25497436523403</v>
       </c>
       <c r="G67">
-        <v>120.484590530395</v>
+        <v>1764.27817344665</v>
       </c>
       <c r="H67">
-        <v>51.936626434326101</v>
+        <v>6949.68676567077</v>
       </c>
       <c r="I67">
-        <v>37779.7760963439</v>
+        <v>3624.8850822448699</v>
       </c>
       <c r="J67">
-        <v>37952.275037765503</v>
+        <v>12338.9024734497</v>
       </c>
       <c r="K67">
-        <f t="shared" ref="K67:K75" si="2">SUM(E67,G67,H67)</f>
-        <v>3832.3810100555411</v>
+        <f t="shared" si="0"/>
+        <v>12421.789884567239</v>
       </c>
       <c r="L67">
-        <f t="shared" ref="L67:L75" si="3">PRODUCT(K67,0.001)</f>
-        <v>3.8323810100555411</v>
+        <f t="shared" si="1"/>
+        <v>12.421789884567239</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
@@ -6457,33 +6660,33 @@
         <v>18</v>
       </c>
       <c r="D68" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E68">
-        <v>3657.4645042419402</v>
+        <v>3751.1172294616699</v>
       </c>
       <c r="F68">
-        <v>627.21180915832497</v>
+        <v>644.26112174987702</v>
       </c>
       <c r="G68">
-        <v>93.051671981811495</v>
+        <v>1699.59568977355</v>
       </c>
       <c r="H68">
-        <v>51.677942276000898</v>
+        <v>6791.6774749755796</v>
       </c>
       <c r="I68">
-        <v>39068.597078323299</v>
+        <v>3756.7586898803702</v>
       </c>
       <c r="J68">
-        <v>39213.407754897999</v>
+        <v>12248.091936111399</v>
       </c>
       <c r="K68">
-        <f t="shared" si="2"/>
-        <v>3802.1941184997527</v>
+        <f t="shared" si="0"/>
+        <v>12242.390394210801</v>
       </c>
       <c r="L68">
-        <f t="shared" si="3"/>
-        <v>3.8021941184997528</v>
+        <f t="shared" si="1"/>
+        <v>12.242390394210801</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
@@ -6497,33 +6700,33 @@
         <v>18</v>
       </c>
       <c r="D69" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E69">
-        <v>3655.5352210998499</v>
+        <v>3712.3656272888102</v>
       </c>
       <c r="F69">
-        <v>619.40073966979901</v>
+        <v>637.75968551635697</v>
       </c>
       <c r="G69">
-        <v>97.378253936767507</v>
+        <v>1743.44944953918</v>
       </c>
       <c r="H69">
-        <v>51.713228225708001</v>
+        <v>6728.6257743835404</v>
       </c>
       <c r="I69">
-        <v>64251.581430435101</v>
+        <v>3344.14720535278</v>
       </c>
       <c r="J69">
-        <v>64400.750160217198</v>
+        <v>11816.281080245901</v>
       </c>
       <c r="K69">
-        <f t="shared" si="2"/>
-        <v>3804.6267032623255</v>
+        <f t="shared" si="0"/>
+        <v>12184.44085121153</v>
       </c>
       <c r="L69">
-        <f t="shared" si="3"/>
-        <v>3.8046267032623255</v>
+        <f t="shared" si="1"/>
+        <v>12.18444085121153</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
@@ -6537,33 +6740,33 @@
         <v>18</v>
       </c>
       <c r="D70" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E70">
-        <v>3723.9937782287502</v>
+        <v>3719.0928459167399</v>
       </c>
       <c r="F70">
-        <v>645.51019668579102</v>
+        <v>644.18530464172295</v>
       </c>
       <c r="G70">
-        <v>81.0720920562744</v>
+        <v>1736.9301319122301</v>
       </c>
       <c r="H70">
-        <v>51.490545272827099</v>
+        <v>7033.6737632751401</v>
       </c>
       <c r="I70">
-        <v>47609.8062992095</v>
+        <v>3466.2582874298</v>
       </c>
       <c r="J70">
-        <v>47742.440938949498</v>
+        <v>12236.923694610499</v>
       </c>
       <c r="K70">
-        <f t="shared" si="2"/>
-        <v>3856.5564155578518</v>
+        <f t="shared" si="0"/>
+        <v>12489.696741104111</v>
       </c>
       <c r="L70">
-        <f t="shared" si="3"/>
-        <v>3.856556415557852</v>
+        <f t="shared" si="1"/>
+        <v>12.489696741104112</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
@@ -6577,33 +6780,33 @@
         <v>18</v>
       </c>
       <c r="D71" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E71">
-        <v>3745.18942832946</v>
+        <v>3709.76686477661</v>
       </c>
       <c r="F71">
-        <v>628.32188606262196</v>
+        <v>631.82425498962402</v>
       </c>
       <c r="G71">
-        <v>685.06455421447697</v>
+        <v>361.33790016174299</v>
       </c>
       <c r="H71">
-        <v>24.377822875976499</v>
+        <v>53.086757659912102</v>
       </c>
       <c r="I71">
-        <v>2677.7472496032701</v>
+        <v>39302.4327754974</v>
       </c>
       <c r="J71">
-        <v>3387.2618675231902</v>
+        <v>39716.9382572174</v>
       </c>
       <c r="K71">
-        <f t="shared" si="2"/>
-        <v>4454.6318054199137</v>
+        <f t="shared" si="0"/>
+        <v>4124.1915225982648</v>
       </c>
       <c r="L71">
-        <f t="shared" si="3"/>
-        <v>4.4546318054199139</v>
+        <f t="shared" si="1"/>
+        <v>4.1241915225982648</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
@@ -6617,33 +6820,33 @@
         <v>18</v>
       </c>
       <c r="D72" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E72">
-        <v>3673.6133098602199</v>
+        <v>3659.9597930908199</v>
       </c>
       <c r="F72">
-        <v>634.03511047363202</v>
+        <v>621.55604362487702</v>
       </c>
       <c r="G72">
-        <v>229.83956336975001</v>
+        <v>120.484590530395</v>
       </c>
       <c r="H72">
-        <v>24.302482604980401</v>
+        <v>51.936626434326101</v>
       </c>
       <c r="I72">
-        <v>2640.6576633453301</v>
+        <v>37779.7760963439</v>
       </c>
       <c r="J72">
-        <v>2894.8707580566402</v>
+        <v>37952.275037765503</v>
       </c>
       <c r="K72">
-        <f t="shared" si="2"/>
-        <v>3927.7553558349505</v>
+        <f t="shared" ref="K72:K80" si="2">SUM(E72,G72,H72)</f>
+        <v>3832.3810100555411</v>
       </c>
       <c r="L72">
-        <f t="shared" si="3"/>
-        <v>3.9277553558349507</v>
+        <f t="shared" ref="L72:L80" si="3">PRODUCT(K72,0.001)</f>
+        <v>3.8323810100555411</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
@@ -6657,33 +6860,33 @@
         <v>18</v>
       </c>
       <c r="D73" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E73">
-        <v>3716.0608768463098</v>
+        <v>3657.4645042419402</v>
       </c>
       <c r="F73">
-        <v>634.33814048766999</v>
+        <v>627.21180915832497</v>
       </c>
       <c r="G73">
-        <v>205.65819740295399</v>
+        <v>93.051671981811495</v>
       </c>
       <c r="H73">
-        <v>24.4178771972656</v>
+        <v>51.677942276000898</v>
       </c>
       <c r="I73">
-        <v>2626.2588500976499</v>
+        <v>39068.597078323299</v>
       </c>
       <c r="J73">
-        <v>2856.4074039459201</v>
+        <v>39213.407754897999</v>
       </c>
       <c r="K73">
         <f t="shared" si="2"/>
-        <v>3946.1369514465296</v>
+        <v>3802.1941184997527</v>
       </c>
       <c r="L73">
         <f t="shared" si="3"/>
-        <v>3.9461369514465297</v>
+        <v>3.8021941184997528</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
@@ -6697,33 +6900,33 @@
         <v>18</v>
       </c>
       <c r="D74" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E74">
-        <v>3711.1184597015299</v>
+        <v>3655.5352210998499</v>
       </c>
       <c r="F74">
-        <v>636.63291931152298</v>
+        <v>619.40073966979901</v>
       </c>
       <c r="G74">
-        <v>256.05440139770502</v>
+        <v>97.378253936767507</v>
       </c>
       <c r="H74">
-        <v>24.442434310913001</v>
+        <v>51.713228225708001</v>
       </c>
       <c r="I74">
-        <v>2644.4485187530499</v>
+        <v>64251.581430435101</v>
       </c>
       <c r="J74">
-        <v>2925.0159263610799</v>
+        <v>64400.750160217198</v>
       </c>
       <c r="K74">
         <f t="shared" si="2"/>
-        <v>3991.6152954101481</v>
+        <v>3804.6267032623255</v>
       </c>
       <c r="L74">
         <f t="shared" si="3"/>
-        <v>3.9916152954101483</v>
+        <v>3.8046267032623255</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
@@ -6737,37 +6940,237 @@
         <v>18</v>
       </c>
       <c r="D75" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E75">
-        <v>3732.24830627441</v>
+        <v>3723.9937782287502</v>
       </c>
       <c r="F75">
-        <v>640.91610908508301</v>
+        <v>645.51019668579102</v>
       </c>
       <c r="G75">
-        <v>252.52485275268501</v>
+        <v>81.0720920562744</v>
       </c>
       <c r="H75">
-        <v>24.423122406005799</v>
+        <v>51.490545272827099</v>
       </c>
       <c r="I75">
-        <v>2647.4859714508002</v>
+        <v>47609.8062992095</v>
       </c>
       <c r="J75">
-        <v>2924.5123863220201</v>
+        <v>47742.440938949498</v>
       </c>
       <c r="K75">
         <f t="shared" si="2"/>
-        <v>4009.1962814331009</v>
+        <v>3856.5564155578518</v>
       </c>
       <c r="L75">
         <f t="shared" si="3"/>
+        <v>3.856556415557852</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>100</v>
+      </c>
+      <c r="B76">
+        <v>100</v>
+      </c>
+      <c r="C76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D76" t="s">
+        <v>15</v>
+      </c>
+      <c r="E76">
+        <v>3745.18942832946</v>
+      </c>
+      <c r="F76">
+        <v>628.32188606262196</v>
+      </c>
+      <c r="G76">
+        <v>685.06455421447697</v>
+      </c>
+      <c r="H76">
+        <v>24.377822875976499</v>
+      </c>
+      <c r="I76">
+        <v>2677.7472496032701</v>
+      </c>
+      <c r="J76">
+        <v>3387.2618675231902</v>
+      </c>
+      <c r="K76">
+        <f t="shared" si="2"/>
+        <v>4454.6318054199137</v>
+      </c>
+      <c r="L76">
+        <f t="shared" si="3"/>
+        <v>4.4546318054199139</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>1000</v>
+      </c>
+      <c r="B77">
+        <v>1000</v>
+      </c>
+      <c r="C77" t="s">
+        <v>18</v>
+      </c>
+      <c r="D77" t="s">
+        <v>15</v>
+      </c>
+      <c r="E77">
+        <v>3673.6133098602199</v>
+      </c>
+      <c r="F77">
+        <v>634.03511047363202</v>
+      </c>
+      <c r="G77">
+        <v>229.83956336975001</v>
+      </c>
+      <c r="H77">
+        <v>24.302482604980401</v>
+      </c>
+      <c r="I77">
+        <v>2640.6576633453301</v>
+      </c>
+      <c r="J77">
+        <v>2894.8707580566402</v>
+      </c>
+      <c r="K77">
+        <f t="shared" si="2"/>
+        <v>3927.7553558349505</v>
+      </c>
+      <c r="L77">
+        <f t="shared" si="3"/>
+        <v>3.9277553558349507</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>10000</v>
+      </c>
+      <c r="B78">
+        <v>10000</v>
+      </c>
+      <c r="C78" t="s">
+        <v>18</v>
+      </c>
+      <c r="D78" t="s">
+        <v>15</v>
+      </c>
+      <c r="E78">
+        <v>3716.0608768463098</v>
+      </c>
+      <c r="F78">
+        <v>634.33814048766999</v>
+      </c>
+      <c r="G78">
+        <v>205.65819740295399</v>
+      </c>
+      <c r="H78">
+        <v>24.4178771972656</v>
+      </c>
+      <c r="I78">
+        <v>2626.2588500976499</v>
+      </c>
+      <c r="J78">
+        <v>2856.4074039459201</v>
+      </c>
+      <c r="K78">
+        <f t="shared" si="2"/>
+        <v>3946.1369514465296</v>
+      </c>
+      <c r="L78">
+        <f t="shared" si="3"/>
+        <v>3.9461369514465297</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>100000</v>
+      </c>
+      <c r="B79">
+        <v>100000</v>
+      </c>
+      <c r="C79" t="s">
+        <v>18</v>
+      </c>
+      <c r="D79" t="s">
+        <v>15</v>
+      </c>
+      <c r="E79">
+        <v>3711.1184597015299</v>
+      </c>
+      <c r="F79">
+        <v>636.63291931152298</v>
+      </c>
+      <c r="G79">
+        <v>256.05440139770502</v>
+      </c>
+      <c r="H79">
+        <v>24.442434310913001</v>
+      </c>
+      <c r="I79">
+        <v>2644.4485187530499</v>
+      </c>
+      <c r="J79">
+        <v>2925.0159263610799</v>
+      </c>
+      <c r="K79">
+        <f t="shared" si="2"/>
+        <v>3991.6152954101481</v>
+      </c>
+      <c r="L79">
+        <f t="shared" si="3"/>
+        <v>3.9916152954101483</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>103069</v>
+      </c>
+      <c r="B80">
+        <v>103069</v>
+      </c>
+      <c r="C80" t="s">
+        <v>18</v>
+      </c>
+      <c r="D80" t="s">
+        <v>15</v>
+      </c>
+      <c r="E80">
+        <v>3732.24830627441</v>
+      </c>
+      <c r="F80">
+        <v>640.91610908508301</v>
+      </c>
+      <c r="G80">
+        <v>252.52485275268501</v>
+      </c>
+      <c r="H80">
+        <v>24.423122406005799</v>
+      </c>
+      <c r="I80">
+        <v>2647.4859714508002</v>
+      </c>
+      <c r="J80">
+        <v>2924.5123863220201</v>
+      </c>
+      <c r="K80">
+        <f t="shared" si="2"/>
+        <v>4009.1962814331009</v>
+      </c>
+      <c r="L80">
+        <f t="shared" si="3"/>
         <v>4.009196281433101</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="L2:L75">
+  <conditionalFormatting sqref="L2:L80">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -6779,7 +7182,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G75">
+  <conditionalFormatting sqref="G2:G80">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -6797,10 +7200,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6069E8BF-236C-42C7-9E87-40F9BE888DB8}">
-  <dimension ref="A1:L75"/>
+  <dimension ref="A1:L80"/>
   <sheetViews>
-    <sheetView topLeftCell="C49" workbookViewId="0">
-      <selection activeCell="L52" sqref="L52"/>
+    <sheetView topLeftCell="D61" workbookViewId="0">
+      <selection activeCell="L52" sqref="L52:L57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6918,11 +7321,11 @@
         <v>13471.8191623687</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K66" si="0">SUM(E3,G3,H3)</f>
+        <f t="shared" ref="K3:K71" si="0">SUM(E3,G3,H3)</f>
         <v>4461.0030651092429</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L66" si="1">PRODUCT(K3,0.001)</f>
+        <f t="shared" ref="L3:L71" si="1">PRODUCT(K3,0.001)</f>
         <v>4.4610030651092432</v>
       </c>
     </row>
@@ -8894,36 +9297,36 @@
         <v>100</v>
       </c>
       <c r="C53" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D53" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E53">
-        <v>3735.33129692077</v>
+        <v>3734.23266410827</v>
       </c>
       <c r="F53">
-        <v>823.78053665161099</v>
+        <v>348.83832931518498</v>
       </c>
       <c r="G53">
-        <v>964.42413330078102</v>
+        <v>38869.2467212677</v>
       </c>
       <c r="H53">
-        <v>55.987119674682603</v>
+        <v>51.174879074096602</v>
       </c>
       <c r="I53">
-        <v>23275.1035690307</v>
+        <v>0</v>
       </c>
       <c r="J53">
-        <v>24295.586109161301</v>
+        <v>38922.387838363597</v>
       </c>
       <c r="K53">
         <f t="shared" si="0"/>
-        <v>4755.7425498962339</v>
+        <v>42654.654264450066</v>
       </c>
       <c r="L53">
         <f t="shared" si="1"/>
-        <v>4.755742549896234</v>
+        <v>42.654654264450066</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
@@ -8934,36 +9337,36 @@
         <v>1000</v>
       </c>
       <c r="C54" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D54" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E54">
-        <v>3740.9071922302201</v>
+        <v>3727.4951934814399</v>
       </c>
       <c r="F54">
-        <v>753.82781028747502</v>
+        <v>356.00900650024403</v>
       </c>
       <c r="G54">
-        <v>678.24363708496003</v>
+        <v>5190.8955574035599</v>
       </c>
       <c r="H54">
-        <v>51.606416702270501</v>
+        <v>50.945520401000898</v>
       </c>
       <c r="I54">
-        <v>22822.973728179899</v>
+        <v>0</v>
       </c>
       <c r="J54">
-        <v>23552.890539169301</v>
+        <v>5243.7558174133301</v>
       </c>
       <c r="K54">
         <f t="shared" si="0"/>
-        <v>4470.7572460174506</v>
+        <v>8969.3362712859998</v>
       </c>
       <c r="L54">
         <f t="shared" si="1"/>
-        <v>4.4707572460174507</v>
+        <v>8.9693362712860001</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
@@ -8974,36 +9377,36 @@
         <v>10000</v>
       </c>
       <c r="C55" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D55" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E55">
-        <v>3753.03053855896</v>
+        <v>3727.2920608520499</v>
       </c>
       <c r="F55">
-        <v>744.09794807434002</v>
+        <v>353.66678237914999</v>
       </c>
       <c r="G55">
-        <v>626.19042396545399</v>
+        <v>2167.9837703704802</v>
       </c>
       <c r="H55">
-        <v>51.678895950317298</v>
+        <v>51.002264022827099</v>
       </c>
       <c r="I55">
-        <v>22937.034606933499</v>
+        <v>0</v>
       </c>
       <c r="J55">
-        <v>23614.9747371673</v>
+        <v>2221.0016250610302</v>
       </c>
       <c r="K55">
         <f t="shared" si="0"/>
-        <v>4430.8998584747314</v>
+        <v>5946.2780952453577</v>
       </c>
       <c r="L55">
         <f t="shared" si="1"/>
-        <v>4.4308998584747314</v>
+        <v>5.9462780952453578</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
@@ -9014,36 +9417,36 @@
         <v>100000</v>
       </c>
       <c r="C56" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D56" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E56">
-        <v>3783.5321426391602</v>
+        <v>3717.2024250030499</v>
       </c>
       <c r="F56">
-        <v>753.22961807250897</v>
+        <v>352.47230529785099</v>
       </c>
       <c r="G56">
-        <v>653.96571159362702</v>
+        <v>2004.4386386871299</v>
       </c>
       <c r="H56">
-        <v>51.721572875976499</v>
+        <v>50.994396209716797</v>
       </c>
       <c r="I56">
-        <v>22803.418636322</v>
+        <v>0</v>
       </c>
       <c r="J56">
-        <v>23509.179353713898</v>
+        <v>2057.3770999908402</v>
       </c>
       <c r="K56">
         <f t="shared" si="0"/>
-        <v>4489.2194271087637</v>
+        <v>5772.6354598998969</v>
       </c>
       <c r="L56">
         <f t="shared" si="1"/>
-        <v>4.4892194271087638</v>
+        <v>5.772635459899897</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
@@ -9054,36 +9457,36 @@
         <v>103069</v>
       </c>
       <c r="C57" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D57" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E57">
-        <v>3781.0695171356201</v>
+        <v>3754.6861171722398</v>
       </c>
       <c r="F57">
-        <v>745.78332901000897</v>
+        <v>354.561328887939</v>
       </c>
       <c r="G57">
-        <v>627.88438796997002</v>
+        <v>1981.6601276397701</v>
       </c>
       <c r="H57">
-        <v>51.777839660644503</v>
+        <v>51.103591918945298</v>
       </c>
       <c r="I57">
-        <v>22984.482765197699</v>
+        <v>0</v>
       </c>
       <c r="J57">
-        <v>23664.216279983499</v>
+        <v>2034.7926616668699</v>
       </c>
       <c r="K57">
         <f t="shared" si="0"/>
-        <v>4460.7317447662344</v>
+        <v>5787.4498367309552</v>
       </c>
       <c r="L57">
         <f t="shared" si="1"/>
-        <v>4.4607317447662345</v>
+        <v>5.7874498367309553</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
@@ -9097,33 +9500,33 @@
         <v>18</v>
       </c>
       <c r="D58" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E58">
-        <v>3732.5830459594699</v>
+        <v>3735.33129692077</v>
       </c>
       <c r="F58">
-        <v>754.58693504333496</v>
+        <v>823.78053665161099</v>
       </c>
       <c r="G58">
-        <v>1212.97621726989</v>
+        <v>964.42413330078102</v>
       </c>
       <c r="H58">
-        <v>51.891803741455</v>
+        <v>55.987119674682603</v>
       </c>
       <c r="I58">
-        <v>22724.270105361898</v>
+        <v>23275.1035690307</v>
       </c>
       <c r="J58">
-        <v>23989.224195480299</v>
+        <v>24295.586109161301</v>
       </c>
       <c r="K58">
         <f t="shared" si="0"/>
-        <v>4997.4510669708152</v>
+        <v>4755.7425498962339</v>
       </c>
       <c r="L58">
         <f t="shared" si="1"/>
-        <v>4.9974510669708154</v>
+        <v>4.755742549896234</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
@@ -9137,33 +9540,33 @@
         <v>18</v>
       </c>
       <c r="D59" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E59">
-        <v>3753.3183097839301</v>
+        <v>3740.9071922302201</v>
       </c>
       <c r="F59">
-        <v>747.17950820922795</v>
+        <v>753.82781028747502</v>
       </c>
       <c r="G59">
-        <v>989.24517631530705</v>
+        <v>678.24363708496003</v>
       </c>
       <c r="H59">
-        <v>51.666021347045898</v>
+        <v>51.606416702270501</v>
       </c>
       <c r="I59">
-        <v>22853.904247283899</v>
+        <v>22822.973728179899</v>
       </c>
       <c r="J59">
-        <v>23894.903659820498</v>
+        <v>23552.890539169301</v>
       </c>
       <c r="K59">
         <f t="shared" si="0"/>
-        <v>4794.2295074462827</v>
+        <v>4470.7572460174506</v>
       </c>
       <c r="L59">
         <f t="shared" si="1"/>
-        <v>4.7942295074462828</v>
+        <v>4.4707572460174507</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
@@ -9177,233 +9580,233 @@
         <v>18</v>
       </c>
       <c r="D60" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E60">
-        <v>3731.8739891052201</v>
+        <v>3753.03053855896</v>
       </c>
       <c r="F60">
-        <v>729.20584678649902</v>
+        <v>744.09794807434002</v>
       </c>
       <c r="G60">
-        <v>907.45759010314896</v>
+        <v>626.19042396545399</v>
       </c>
       <c r="H60">
-        <v>53.200006484985302</v>
+        <v>51.678895950317298</v>
       </c>
       <c r="I60">
-        <v>22752.355337142901</v>
+        <v>22937.034606933499</v>
       </c>
       <c r="J60">
-        <v>23713.0870819091</v>
+        <v>23614.9747371673</v>
       </c>
       <c r="K60">
         <f t="shared" si="0"/>
-        <v>4692.5315856933539</v>
+        <v>4430.8998584747314</v>
       </c>
       <c r="L60">
         <f t="shared" si="1"/>
-        <v>4.692531585693354</v>
+        <v>4.4308998584747314</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>100</v>
+        <v>100000</v>
       </c>
       <c r="B61">
-        <v>100</v>
+        <v>100000</v>
       </c>
       <c r="C61" t="s">
         <v>18</v>
       </c>
       <c r="D61" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E61">
-        <v>3734.2195510864199</v>
+        <v>3783.5321426391602</v>
       </c>
       <c r="F61">
-        <v>734.29632186889603</v>
+        <v>753.22961807250897</v>
       </c>
       <c r="G61">
-        <v>4160.8903408050501</v>
+        <v>653.96571159362702</v>
       </c>
       <c r="H61">
-        <v>6820.0976848602204</v>
+        <v>51.721572875976499</v>
       </c>
       <c r="I61">
-        <v>12166.1241054534</v>
+        <v>22803.418636322</v>
       </c>
       <c r="J61">
-        <v>23147.1660137176</v>
+        <v>23509.179353713898</v>
       </c>
       <c r="K61">
         <f t="shared" si="0"/>
-        <v>14715.207576751691</v>
+        <v>4489.2194271087637</v>
       </c>
       <c r="L61">
         <f t="shared" si="1"/>
-        <v>14.715207576751691</v>
+        <v>4.4892194271087638</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>1000</v>
+        <v>103069</v>
       </c>
       <c r="B62">
-        <v>1000</v>
+        <v>103069</v>
       </c>
       <c r="C62" t="s">
         <v>18</v>
       </c>
       <c r="D62" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E62">
-        <v>3733.9351177215499</v>
+        <v>3781.0695171356201</v>
       </c>
       <c r="F62">
-        <v>735.91446876525799</v>
+        <v>745.78332901000897</v>
       </c>
       <c r="G62">
-        <v>3325.8934020995998</v>
+        <v>627.88438796997002</v>
       </c>
       <c r="H62">
-        <v>6945.7826614379801</v>
+        <v>51.777839660644503</v>
       </c>
       <c r="I62">
-        <v>11592.907428741401</v>
+        <v>22984.482765197699</v>
       </c>
       <c r="J62">
-        <v>21864.641189575101</v>
+        <v>23664.216279983499</v>
       </c>
       <c r="K62">
         <f t="shared" si="0"/>
-        <v>14005.61118125913</v>
+        <v>4460.7317447662344</v>
       </c>
       <c r="L62">
         <f t="shared" si="1"/>
-        <v>14.00561118125913</v>
+        <v>4.4607317447662345</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="B63">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="C63" t="s">
         <v>18</v>
       </c>
       <c r="D63" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E63">
-        <v>3702.1062374114899</v>
+        <v>3732.5830459594699</v>
       </c>
       <c r="F63">
-        <v>732.19084739685002</v>
+        <v>754.58693504333496</v>
       </c>
       <c r="G63">
-        <v>2613.7852668762198</v>
+        <v>1212.97621726989</v>
       </c>
       <c r="H63">
-        <v>6827.6479244232096</v>
+        <v>51.891803741455</v>
       </c>
       <c r="I63">
-        <v>12413.014173507599</v>
+        <v>22724.270105361898</v>
       </c>
       <c r="J63">
-        <v>21854.5019626617</v>
+        <v>23989.224195480299</v>
       </c>
       <c r="K63">
         <f t="shared" si="0"/>
-        <v>13143.539428710919</v>
+        <v>4997.4510669708152</v>
       </c>
       <c r="L63">
         <f t="shared" si="1"/>
-        <v>13.14353942871092</v>
+        <v>4.9974510669708154</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>100000</v>
+        <v>1000</v>
       </c>
       <c r="B64">
-        <v>100000</v>
+        <v>1000</v>
       </c>
       <c r="C64" t="s">
         <v>18</v>
       </c>
       <c r="D64" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E64">
-        <v>3700.76513290405</v>
+        <v>3753.3183097839301</v>
       </c>
       <c r="F64">
-        <v>727.15640068054199</v>
+        <v>747.17950820922795</v>
       </c>
       <c r="G64">
-        <v>3419.7320938110302</v>
+        <v>989.24517631530705</v>
       </c>
       <c r="H64">
-        <v>6698.9936828613199</v>
+        <v>51.666021347045898</v>
       </c>
       <c r="I64">
-        <v>12956.832647323599</v>
+        <v>22853.904247283899</v>
       </c>
       <c r="J64">
-        <v>23075.613737106301</v>
+        <v>23894.903659820498</v>
       </c>
       <c r="K64">
         <f t="shared" si="0"/>
-        <v>13819.490909576401</v>
+        <v>4794.2295074462827</v>
       </c>
       <c r="L64">
         <f t="shared" si="1"/>
-        <v>13.819490909576402</v>
+        <v>4.7942295074462828</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>103069</v>
+        <v>10000</v>
       </c>
       <c r="B65">
-        <v>103069</v>
+        <v>10000</v>
       </c>
       <c r="C65" t="s">
         <v>18</v>
       </c>
       <c r="D65" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E65">
-        <v>3728.8496494293199</v>
+        <v>3731.8739891052201</v>
       </c>
       <c r="F65">
-        <v>734.92789268493596</v>
+        <v>729.20584678649902</v>
       </c>
       <c r="G65">
-        <v>3430.0260543823201</v>
+        <v>907.45759010314896</v>
       </c>
       <c r="H65">
-        <v>6855.1752567291196</v>
+        <v>53.200006484985302</v>
       </c>
       <c r="I65">
-        <v>12965.602397918699</v>
+        <v>22752.355337142901</v>
       </c>
       <c r="J65">
-        <v>23250.867843627901</v>
+        <v>23713.0870819091</v>
       </c>
       <c r="K65">
         <f t="shared" si="0"/>
-        <v>14014.050960540761</v>
+        <v>4692.5315856933539</v>
       </c>
       <c r="L65">
         <f t="shared" si="1"/>
-        <v>14.014050960540761</v>
+        <v>4.692531585693354</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
@@ -9417,33 +9820,33 @@
         <v>18</v>
       </c>
       <c r="D66" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E66">
-        <v>3736.3948822021398</v>
+        <v>3734.2195510864199</v>
       </c>
       <c r="F66">
-        <v>733.11543464660599</v>
+        <v>734.29632186889603</v>
       </c>
       <c r="G66">
-        <v>474.89237785339299</v>
+        <v>4160.8903408050501</v>
       </c>
       <c r="H66">
-        <v>52.170991897583001</v>
+        <v>6820.0976848602204</v>
       </c>
       <c r="I66">
-        <v>53189.529657363797</v>
+        <v>12166.1241054534</v>
       </c>
       <c r="J66">
-        <v>53716.684103011998</v>
+        <v>23147.1660137176</v>
       </c>
       <c r="K66">
         <f t="shared" si="0"/>
-        <v>4263.4582519531159</v>
+        <v>14715.207576751691</v>
       </c>
       <c r="L66">
         <f t="shared" si="1"/>
-        <v>4.2634582519531161</v>
+        <v>14.715207576751691</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
@@ -9457,33 +9860,33 @@
         <v>18</v>
       </c>
       <c r="D67" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E67">
-        <v>3719.9583053588799</v>
+        <v>3733.9351177215499</v>
       </c>
       <c r="F67">
-        <v>749.405860900878</v>
+        <v>735.91446876525799</v>
       </c>
       <c r="G67">
-        <v>270.18499374389597</v>
+        <v>3325.8934020995998</v>
       </c>
       <c r="H67">
-        <v>51.848888397216797</v>
+        <v>6945.7826614379801</v>
       </c>
       <c r="I67">
-        <v>58386.091232299797</v>
+        <v>11592.907428741401</v>
       </c>
       <c r="J67">
-        <v>58708.216428756699</v>
+        <v>21864.641189575101</v>
       </c>
       <c r="K67">
-        <f t="shared" ref="K67:K75" si="2">SUM(E67,G67,H67)</f>
-        <v>4041.9921874999927</v>
+        <f t="shared" si="0"/>
+        <v>14005.61118125913</v>
       </c>
       <c r="L67">
-        <f t="shared" ref="L67:L75" si="3">PRODUCT(K67,0.001)</f>
-        <v>4.0419921874999929</v>
+        <f t="shared" si="1"/>
+        <v>14.00561118125913</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
@@ -9497,33 +9900,33 @@
         <v>18</v>
       </c>
       <c r="D68" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E68">
-        <v>3712.4485969543398</v>
+        <v>3702.1062374114899</v>
       </c>
       <c r="F68">
-        <v>737.06030845641999</v>
+        <v>732.19084739685002</v>
       </c>
       <c r="G68">
-        <v>216.759920120239</v>
+        <v>2613.7852668762198</v>
       </c>
       <c r="H68">
-        <v>52.352666854858398</v>
+        <v>6827.6479244232096</v>
       </c>
       <c r="I68">
-        <v>75144.069910049395</v>
+        <v>12413.014173507599</v>
       </c>
       <c r="J68">
-        <v>75413.268327712998</v>
+        <v>21854.5019626617</v>
       </c>
       <c r="K68">
-        <f t="shared" si="2"/>
-        <v>3981.561183929437</v>
+        <f t="shared" si="0"/>
+        <v>13143.539428710919</v>
       </c>
       <c r="L68">
-        <f t="shared" si="3"/>
-        <v>3.9815611839294371</v>
+        <f t="shared" si="1"/>
+        <v>13.14353942871092</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
@@ -9537,33 +9940,33 @@
         <v>18</v>
       </c>
       <c r="D69" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E69">
-        <v>3726.81784629821</v>
+        <v>3700.76513290405</v>
       </c>
       <c r="F69">
-        <v>734.75289344787598</v>
+        <v>727.15640068054199</v>
       </c>
       <c r="G69">
-        <v>226.48215293884201</v>
+        <v>3419.7320938110302</v>
       </c>
       <c r="H69">
-        <v>51.959753036499002</v>
+        <v>6698.9936828613199</v>
       </c>
       <c r="I69">
-        <v>154911.60082816999</v>
+        <v>12956.832647323599</v>
       </c>
       <c r="J69">
-        <v>155190.13476371701</v>
+        <v>23075.613737106301</v>
       </c>
       <c r="K69">
-        <f t="shared" si="2"/>
-        <v>4005.2597522735509</v>
+        <f t="shared" si="0"/>
+        <v>13819.490909576401</v>
       </c>
       <c r="L69">
-        <f t="shared" si="3"/>
-        <v>4.0052597522735507</v>
+        <f t="shared" si="1"/>
+        <v>13.819490909576402</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
@@ -9577,33 +9980,33 @@
         <v>18</v>
       </c>
       <c r="D70" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E70">
-        <v>3722.9795455932599</v>
+        <v>3728.8496494293199</v>
       </c>
       <c r="F70">
-        <v>739.54701423644997</v>
+        <v>734.92789268493596</v>
       </c>
       <c r="G70">
-        <v>230.15213012695301</v>
+        <v>3430.0260543823201</v>
       </c>
       <c r="H70">
-        <v>52.3059368133544</v>
+        <v>6855.1752567291196</v>
       </c>
       <c r="I70">
-        <v>124715.757608413</v>
+        <v>12965.602397918699</v>
       </c>
       <c r="J70">
-        <v>124998.297214508</v>
+        <v>23250.867843627901</v>
       </c>
       <c r="K70">
-        <f t="shared" si="2"/>
-        <v>4005.4376125335675</v>
+        <f t="shared" si="0"/>
+        <v>14014.050960540761</v>
       </c>
       <c r="L70">
-        <f t="shared" si="3"/>
-        <v>4.0054376125335676</v>
+        <f t="shared" si="1"/>
+        <v>14.014050960540761</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
@@ -9617,33 +10020,33 @@
         <v>18</v>
       </c>
       <c r="D71" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E71">
-        <v>3736.8102073669402</v>
+        <v>3736.3948822021398</v>
       </c>
       <c r="F71">
-        <v>730.11898994445801</v>
+        <v>733.11543464660599</v>
       </c>
       <c r="G71">
-        <v>793.845176696777</v>
+        <v>474.89237785339299</v>
       </c>
       <c r="H71">
-        <v>24.5807170867919</v>
+        <v>52.170991897583001</v>
       </c>
       <c r="I71">
-        <v>3131.1354637145901</v>
+        <v>53189.529657363797</v>
       </c>
       <c r="J71">
-        <v>3949.6474266052201</v>
+        <v>53716.684103011998</v>
       </c>
       <c r="K71">
-        <f t="shared" si="2"/>
-        <v>4555.2361011505091</v>
+        <f t="shared" si="0"/>
+        <v>4263.4582519531159</v>
       </c>
       <c r="L71">
-        <f t="shared" si="3"/>
-        <v>4.5552361011505091</v>
+        <f t="shared" si="1"/>
+        <v>4.2634582519531161</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
@@ -9657,33 +10060,33 @@
         <v>18</v>
       </c>
       <c r="D72" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E72">
-        <v>3717.4932956695502</v>
+        <v>3719.9583053588799</v>
       </c>
       <c r="F72">
-        <v>724.73120689391999</v>
+        <v>749.405860900878</v>
       </c>
       <c r="G72">
-        <v>324.15771484375</v>
+        <v>270.18499374389597</v>
       </c>
       <c r="H72">
-        <v>24.2996215820312</v>
+        <v>51.848888397216797</v>
       </c>
       <c r="I72">
-        <v>3021.07644081115</v>
+        <v>58386.091232299797</v>
       </c>
       <c r="J72">
-        <v>3369.6029186248702</v>
+        <v>58708.216428756699</v>
       </c>
       <c r="K72">
-        <f t="shared" si="2"/>
-        <v>4065.9506320953315</v>
+        <f t="shared" ref="K72:K80" si="2">SUM(E72,G72,H72)</f>
+        <v>4041.9921874999927</v>
       </c>
       <c r="L72">
-        <f t="shared" si="3"/>
-        <v>4.0659506320953316</v>
+        <f t="shared" ref="L72:L80" si="3">PRODUCT(K72,0.001)</f>
+        <v>4.0419921874999929</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
@@ -9697,33 +10100,33 @@
         <v>18</v>
       </c>
       <c r="D73" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E73">
-        <v>3713.49000930786</v>
+        <v>3712.4485969543398</v>
       </c>
       <c r="F73">
-        <v>728.05452346801701</v>
+        <v>737.06030845641999</v>
       </c>
       <c r="G73">
-        <v>316.66445732116699</v>
+        <v>216.759920120239</v>
       </c>
       <c r="H73">
-        <v>24.420738220214801</v>
+        <v>52.352666854858398</v>
       </c>
       <c r="I73">
-        <v>2975.4986763000402</v>
+        <v>75144.069910049395</v>
       </c>
       <c r="J73">
-        <v>3316.65968894958</v>
+        <v>75413.268327712998</v>
       </c>
       <c r="K73">
         <f t="shared" si="2"/>
-        <v>4054.5752048492418</v>
+        <v>3981.561183929437</v>
       </c>
       <c r="L73">
         <f t="shared" si="3"/>
-        <v>4.0545752048492423</v>
+        <v>3.9815611839294371</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
@@ -9737,33 +10140,33 @@
         <v>18</v>
       </c>
       <c r="D74" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E74">
-        <v>3769.1903114318802</v>
+        <v>3726.81784629821</v>
       </c>
       <c r="F74">
-        <v>736.06801033019997</v>
+        <v>734.75289344787598</v>
       </c>
       <c r="G74">
-        <v>362.73860931396399</v>
+        <v>226.48215293884201</v>
       </c>
       <c r="H74">
-        <v>24.4598388671875</v>
+        <v>51.959753036499002</v>
       </c>
       <c r="I74">
-        <v>2981.90331459045</v>
+        <v>154911.60082816999</v>
       </c>
       <c r="J74">
-        <v>3369.18067932128</v>
+        <v>155190.13476371701</v>
       </c>
       <c r="K74">
         <f t="shared" si="2"/>
-        <v>4156.3887596130317</v>
+        <v>4005.2597522735509</v>
       </c>
       <c r="L74">
         <f t="shared" si="3"/>
-        <v>4.1563887596130318</v>
+        <v>4.0052597522735507</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
@@ -9777,37 +10180,237 @@
         <v>18</v>
       </c>
       <c r="D75" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E75">
-        <v>3707.8163623809801</v>
+        <v>3722.9795455932599</v>
       </c>
       <c r="F75">
-        <v>739.84169960021904</v>
+        <v>739.54701423644997</v>
       </c>
       <c r="G75">
-        <v>358.76560211181601</v>
+        <v>230.15213012695301</v>
       </c>
       <c r="H75">
-        <v>24.4395732879638</v>
+        <v>52.3059368133544</v>
       </c>
       <c r="I75">
-        <v>2965.0254249572699</v>
+        <v>124715.757608413</v>
       </c>
       <c r="J75">
-        <v>3348.3157157897899</v>
+        <v>124998.297214508</v>
       </c>
       <c r="K75">
         <f t="shared" si="2"/>
-        <v>4091.0215377807599</v>
+        <v>4005.4376125335675</v>
       </c>
       <c r="L75">
         <f t="shared" si="3"/>
+        <v>4.0054376125335676</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>100</v>
+      </c>
+      <c r="B76">
+        <v>100</v>
+      </c>
+      <c r="C76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D76" t="s">
+        <v>15</v>
+      </c>
+      <c r="E76">
+        <v>3736.8102073669402</v>
+      </c>
+      <c r="F76">
+        <v>730.11898994445801</v>
+      </c>
+      <c r="G76">
+        <v>793.845176696777</v>
+      </c>
+      <c r="H76">
+        <v>24.5807170867919</v>
+      </c>
+      <c r="I76">
+        <v>3131.1354637145901</v>
+      </c>
+      <c r="J76">
+        <v>3949.6474266052201</v>
+      </c>
+      <c r="K76">
+        <f t="shared" si="2"/>
+        <v>4555.2361011505091</v>
+      </c>
+      <c r="L76">
+        <f t="shared" si="3"/>
+        <v>4.5552361011505091</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>1000</v>
+      </c>
+      <c r="B77">
+        <v>1000</v>
+      </c>
+      <c r="C77" t="s">
+        <v>18</v>
+      </c>
+      <c r="D77" t="s">
+        <v>15</v>
+      </c>
+      <c r="E77">
+        <v>3717.4932956695502</v>
+      </c>
+      <c r="F77">
+        <v>724.73120689391999</v>
+      </c>
+      <c r="G77">
+        <v>324.15771484375</v>
+      </c>
+      <c r="H77">
+        <v>24.2996215820312</v>
+      </c>
+      <c r="I77">
+        <v>3021.07644081115</v>
+      </c>
+      <c r="J77">
+        <v>3369.6029186248702</v>
+      </c>
+      <c r="K77">
+        <f t="shared" si="2"/>
+        <v>4065.9506320953315</v>
+      </c>
+      <c r="L77">
+        <f t="shared" si="3"/>
+        <v>4.0659506320953316</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>10000</v>
+      </c>
+      <c r="B78">
+        <v>10000</v>
+      </c>
+      <c r="C78" t="s">
+        <v>18</v>
+      </c>
+      <c r="D78" t="s">
+        <v>15</v>
+      </c>
+      <c r="E78">
+        <v>3713.49000930786</v>
+      </c>
+      <c r="F78">
+        <v>728.05452346801701</v>
+      </c>
+      <c r="G78">
+        <v>316.66445732116699</v>
+      </c>
+      <c r="H78">
+        <v>24.420738220214801</v>
+      </c>
+      <c r="I78">
+        <v>2975.4986763000402</v>
+      </c>
+      <c r="J78">
+        <v>3316.65968894958</v>
+      </c>
+      <c r="K78">
+        <f t="shared" si="2"/>
+        <v>4054.5752048492418</v>
+      </c>
+      <c r="L78">
+        <f t="shared" si="3"/>
+        <v>4.0545752048492423</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>100000</v>
+      </c>
+      <c r="B79">
+        <v>100000</v>
+      </c>
+      <c r="C79" t="s">
+        <v>18</v>
+      </c>
+      <c r="D79" t="s">
+        <v>15</v>
+      </c>
+      <c r="E79">
+        <v>3769.1903114318802</v>
+      </c>
+      <c r="F79">
+        <v>736.06801033019997</v>
+      </c>
+      <c r="G79">
+        <v>362.73860931396399</v>
+      </c>
+      <c r="H79">
+        <v>24.4598388671875</v>
+      </c>
+      <c r="I79">
+        <v>2981.90331459045</v>
+      </c>
+      <c r="J79">
+        <v>3369.18067932128</v>
+      </c>
+      <c r="K79">
+        <f t="shared" si="2"/>
+        <v>4156.3887596130317</v>
+      </c>
+      <c r="L79">
+        <f t="shared" si="3"/>
+        <v>4.1563887596130318</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>103069</v>
+      </c>
+      <c r="B80">
+        <v>103069</v>
+      </c>
+      <c r="C80" t="s">
+        <v>18</v>
+      </c>
+      <c r="D80" t="s">
+        <v>15</v>
+      </c>
+      <c r="E80">
+        <v>3707.8163623809801</v>
+      </c>
+      <c r="F80">
+        <v>739.84169960021904</v>
+      </c>
+      <c r="G80">
+        <v>358.76560211181601</v>
+      </c>
+      <c r="H80">
+        <v>24.4395732879638</v>
+      </c>
+      <c r="I80">
+        <v>2965.0254249572699</v>
+      </c>
+      <c r="J80">
+        <v>3348.3157157897899</v>
+      </c>
+      <c r="K80">
+        <f t="shared" si="2"/>
+        <v>4091.0215377807599</v>
+      </c>
+      <c r="L80">
+        <f t="shared" si="3"/>
         <v>4.0910215377807599</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="L2:L75">
+  <conditionalFormatting sqref="L2:L80">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -9819,7 +10422,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G75">
+  <conditionalFormatting sqref="G2:G80">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -9840,7 +10443,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9974,7 +10577,7 @@
         <v>3.9</v>
       </c>
       <c r="G10">
-        <v>5.65</v>
+        <v>5.46</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -9994,7 +10597,7 @@
         <v>3.96</v>
       </c>
       <c r="G11">
-        <v>5.9</v>
+        <v>5.77</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">

--- a/model-inference/decisionTree/experiments/gpu_results/year/year.xlsx
+++ b/model-inference/decisionTree/experiments/gpu_results/year/year.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\11\netsdb\model-inference\decisionTree\experiments\gpu_results\year\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4B06F76-F375-4993-8C70-4EDBF37CE956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5A9257A-D554-4848-B79B-7317959E110D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4932" yWindow="336" windowWidth="17280" windowHeight="8964" activeTab="3" xr2:uid="{EEF78A4B-2F60-4C97-92CE-0B76C8933FCE}"/>
+    <workbookView xWindow="12732" yWindow="1536" windowWidth="17280" windowHeight="8964" activeTab="3" xr2:uid="{EEF78A4B-2F60-4C97-92CE-0B76C8933FCE}"/>
   </bookViews>
   <sheets>
-    <sheet name="10 trees" sheetId="1" r:id="rId1"/>
-    <sheet name="500 trees" sheetId="2" r:id="rId2"/>
-    <sheet name="1600 trees" sheetId="3" r:id="rId3"/>
+    <sheet name="10_trees" sheetId="1" r:id="rId1"/>
+    <sheet name="500_trees" sheetId="2" r:id="rId2"/>
+    <sheet name="1600_trees" sheetId="3" r:id="rId3"/>
     <sheet name="final" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -135,6 +135,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -164,8 +167,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -482,8 +486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C6EBCB7-83C1-4682-ABDD-EEB3228045BA}">
   <dimension ref="A1:L86"/>
   <sheetViews>
-    <sheetView topLeftCell="C46" workbookViewId="0">
-      <selection activeCell="L55" sqref="L55"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C95" sqref="C95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3960,10 +3964,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BD88DE2-1B17-49A8-A540-6D5302188D9C}">
-  <dimension ref="A1:L80"/>
+  <dimension ref="A1:L86"/>
   <sheetViews>
-    <sheetView topLeftCell="C37" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70:A71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4081,11 +4085,11 @@
         <v>7168.6527729034397</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K71" si="0">SUM(E3,G3,H3)</f>
+        <f t="shared" ref="K3:K77" si="0">SUM(E3,G3,H3)</f>
         <v>4049.0851402282665</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L71" si="1">PRODUCT(K3,0.001)</f>
+        <f t="shared" ref="L3:L77" si="1">PRODUCT(K3,0.001)</f>
         <v>4.0490851402282662</v>
       </c>
     </row>
@@ -4331,90 +4335,20 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>100</v>
-      </c>
-      <c r="B10">
-        <v>100</v>
-      </c>
-      <c r="C10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10">
-        <v>3718.9621925353999</v>
-      </c>
-      <c r="F10">
-        <v>160.95590591430599</v>
-      </c>
-      <c r="G10">
-        <v>3834.1529369354198</v>
-      </c>
-      <c r="H10">
-        <v>6696.5966224670401</v>
-      </c>
-      <c r="I10">
-        <v>7564.73875045776</v>
-      </c>
-      <c r="J10">
-        <v>18095.5395698547</v>
-      </c>
-      <c r="K10">
-        <f t="shared" si="0"/>
-        <v>14249.711751937859</v>
-      </c>
-      <c r="L10">
-        <f t="shared" si="1"/>
-        <v>14.249711751937859</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>1000</v>
-      </c>
-      <c r="B11">
-        <v>1000</v>
-      </c>
-      <c r="C11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11">
-        <v>3705.4631710052399</v>
-      </c>
-      <c r="F11">
-        <v>163.17248344421299</v>
-      </c>
-      <c r="G11">
-        <v>1900.1183509826601</v>
-      </c>
-      <c r="H11">
-        <v>6736.6445064544596</v>
-      </c>
-      <c r="I11">
-        <v>5858.3018779754602</v>
-      </c>
-      <c r="J11">
-        <v>14495.1214790344</v>
-      </c>
-      <c r="K11">
-        <f t="shared" si="0"/>
-        <v>12342.226028442361</v>
-      </c>
-      <c r="L11">
-        <f t="shared" si="1"/>
-        <v>12.342226028442361</v>
+        <v>103069</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="B12">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
@@ -4423,38 +4357,38 @@
         <v>13</v>
       </c>
       <c r="E12">
-        <v>3710.56032180786</v>
+        <v>3718.9621925353999</v>
       </c>
       <c r="F12">
-        <v>161.397457122802</v>
+        <v>160.95590591430599</v>
       </c>
       <c r="G12">
-        <v>1836.43531799316</v>
+        <v>3834.1529369354198</v>
       </c>
       <c r="H12">
-        <v>6861.3047599792399</v>
+        <v>6696.5966224670401</v>
       </c>
       <c r="I12">
-        <v>5590.0738239288303</v>
+        <v>7564.73875045776</v>
       </c>
       <c r="J12">
-        <v>14287.8720760345</v>
+        <v>18095.5395698547</v>
       </c>
       <c r="K12">
         <f t="shared" si="0"/>
-        <v>12408.300399780259</v>
+        <v>14249.711751937859</v>
       </c>
       <c r="L12">
         <f t="shared" si="1"/>
-        <v>12.408300399780259</v>
+        <v>14.249711751937859</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>100000</v>
+        <v>1000</v>
       </c>
       <c r="B13">
-        <v>100000</v>
+        <v>1000</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
@@ -4463,38 +4397,38 @@
         <v>13</v>
       </c>
       <c r="E13">
-        <v>3743.5119152069001</v>
+        <v>3705.4631710052399</v>
       </c>
       <c r="F13">
-        <v>161.60249710082999</v>
+        <v>163.17248344421299</v>
       </c>
       <c r="G13">
-        <v>1879.5192241668699</v>
+        <v>1900.1183509826601</v>
       </c>
       <c r="H13">
-        <v>6834.5379829406702</v>
+        <v>6736.6445064544596</v>
       </c>
       <c r="I13">
-        <v>8286.8578433990406</v>
+        <v>5858.3018779754602</v>
       </c>
       <c r="J13">
-        <v>17000.972509384101</v>
+        <v>14495.1214790344</v>
       </c>
       <c r="K13">
         <f t="shared" si="0"/>
-        <v>12457.56912231444</v>
+        <v>12342.226028442361</v>
       </c>
       <c r="L13">
         <f t="shared" si="1"/>
-        <v>12.457569122314441</v>
+        <v>12.342226028442361</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>103069</v>
+        <v>10000</v>
       </c>
       <c r="B14">
-        <v>103069</v>
+        <v>10000</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
@@ -4503,118 +4437,118 @@
         <v>13</v>
       </c>
       <c r="E14">
-        <v>3732.8231334686202</v>
+        <v>3710.56032180786</v>
       </c>
       <c r="F14">
-        <v>161.77344322204499</v>
+        <v>161.397457122802</v>
       </c>
       <c r="G14">
-        <v>1847.6169109344401</v>
+        <v>1836.43531799316</v>
       </c>
       <c r="H14">
-        <v>6749.3209838867097</v>
+        <v>6861.3047599792399</v>
       </c>
       <c r="I14">
-        <v>7151.67236328125</v>
+        <v>5590.0738239288303</v>
       </c>
       <c r="J14">
-        <v>15748.6712932586</v>
+        <v>14287.8720760345</v>
       </c>
       <c r="K14">
         <f t="shared" si="0"/>
-        <v>12329.761028289769</v>
+        <v>12408.300399780259</v>
       </c>
       <c r="L14">
         <f t="shared" si="1"/>
-        <v>12.32976102828977</v>
+        <v>12.408300399780259</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>100</v>
+        <v>100000</v>
       </c>
       <c r="B15">
-        <v>100</v>
+        <v>100000</v>
       </c>
       <c r="C15" t="s">
         <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E15">
-        <v>3710.52956581115</v>
+        <v>3743.5119152069001</v>
       </c>
       <c r="F15">
-        <v>161.885738372802</v>
+        <v>161.60249710082999</v>
       </c>
       <c r="G15">
-        <v>372.69520759582502</v>
+        <v>1879.5192241668699</v>
       </c>
       <c r="H15">
-        <v>51.425457000732401</v>
+        <v>6834.5379829406702</v>
       </c>
       <c r="I15">
-        <v>34674.584865570003</v>
+        <v>8286.8578433990406</v>
       </c>
       <c r="J15">
-        <v>35098.790884017901</v>
+        <v>17000.972509384101</v>
       </c>
       <c r="K15">
         <f t="shared" si="0"/>
-        <v>4134.6502304077076</v>
+        <v>12457.56912231444</v>
       </c>
       <c r="L15">
         <f t="shared" si="1"/>
-        <v>4.1346502304077077</v>
+        <v>12.457569122314441</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>1000</v>
+        <v>103069</v>
       </c>
       <c r="B16">
-        <v>1000</v>
+        <v>103069</v>
       </c>
       <c r="C16" t="s">
         <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E16">
-        <v>3708.8501453399599</v>
+        <v>3732.8231334686202</v>
       </c>
       <c r="F16">
-        <v>159.942150115966</v>
+        <v>161.77344322204499</v>
       </c>
       <c r="G16">
-        <v>124.61090087890599</v>
+        <v>1847.6169109344401</v>
       </c>
       <c r="H16">
-        <v>51.2466430664062</v>
+        <v>6749.3209838867097</v>
       </c>
       <c r="I16">
-        <v>32306.272983551</v>
+        <v>7151.67236328125</v>
       </c>
       <c r="J16">
-        <v>32482.238531112602</v>
+        <v>15748.6712932586</v>
       </c>
       <c r="K16">
         <f t="shared" si="0"/>
-        <v>3884.707689285272</v>
+        <v>12329.761028289769</v>
       </c>
       <c r="L16">
         <f t="shared" si="1"/>
-        <v>3.8847076892852721</v>
+        <v>12.32976102828977</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="B17">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="C17" t="s">
         <v>10</v>
@@ -4623,38 +4557,38 @@
         <v>14</v>
       </c>
       <c r="E17">
-        <v>3728.1169891357399</v>
+        <v>3710.52956581115</v>
       </c>
       <c r="F17">
-        <v>159.811973571777</v>
+        <v>161.885738372802</v>
       </c>
       <c r="G17">
-        <v>96.204757690429602</v>
+        <v>372.69520759582502</v>
       </c>
       <c r="H17">
-        <v>51.974296569824197</v>
+        <v>51.425457000732401</v>
       </c>
       <c r="I17">
-        <v>33336.258411407398</v>
+        <v>34674.584865570003</v>
       </c>
       <c r="J17">
-        <v>33484.524726867603</v>
+        <v>35098.790884017901</v>
       </c>
       <c r="K17">
         <f t="shared" si="0"/>
-        <v>3876.2960433959938</v>
+        <v>4134.6502304077076</v>
       </c>
       <c r="L17">
         <f t="shared" si="1"/>
-        <v>3.8762960433959939</v>
+        <v>4.1346502304077077</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>100000</v>
+        <v>1000</v>
       </c>
       <c r="B18">
-        <v>100000</v>
+        <v>1000</v>
       </c>
       <c r="C18" t="s">
         <v>10</v>
@@ -4663,38 +4597,38 @@
         <v>14</v>
       </c>
       <c r="E18">
-        <v>3713.6583328247002</v>
+        <v>3708.8501453399599</v>
       </c>
       <c r="F18">
-        <v>162.23907470703099</v>
+        <v>159.942150115966</v>
       </c>
       <c r="G18">
-        <v>96.143007278442298</v>
+        <v>124.61090087890599</v>
       </c>
       <c r="H18">
-        <v>51.292181015014599</v>
+        <v>51.2466430664062</v>
       </c>
       <c r="I18">
-        <v>58808.439254760699</v>
+        <v>32306.272983551</v>
       </c>
       <c r="J18">
-        <v>58955.957174301097</v>
+        <v>32482.238531112602</v>
       </c>
       <c r="K18">
         <f t="shared" si="0"/>
-        <v>3861.0935211181572</v>
+        <v>3884.707689285272</v>
       </c>
       <c r="L18">
         <f t="shared" si="1"/>
-        <v>3.8610935211181574</v>
+        <v>3.8847076892852721</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>103069</v>
+        <v>10000</v>
       </c>
       <c r="B19">
-        <v>103069</v>
+        <v>10000</v>
       </c>
       <c r="C19" t="s">
         <v>10</v>
@@ -4703,118 +4637,118 @@
         <v>14</v>
       </c>
       <c r="E19">
-        <v>3710.4408740997301</v>
+        <v>3728.1169891357399</v>
       </c>
       <c r="F19">
-        <v>161.58032417297301</v>
+        <v>159.811973571777</v>
       </c>
       <c r="G19">
-        <v>79.534530639648395</v>
+        <v>96.204757690429602</v>
       </c>
       <c r="H19">
-        <v>52.518844604492102</v>
+        <v>51.974296569824197</v>
       </c>
       <c r="I19">
-        <v>44904.436349868702</v>
+        <v>33336.258411407398</v>
       </c>
       <c r="J19">
-        <v>45036.5800857543</v>
+        <v>33484.524726867603</v>
       </c>
       <c r="K19">
         <f t="shared" si="0"/>
-        <v>3842.4942493438707</v>
+        <v>3876.2960433959938</v>
       </c>
       <c r="L19">
         <f t="shared" si="1"/>
-        <v>3.8424942493438707</v>
+        <v>3.8762960433959939</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>100</v>
+        <v>100000</v>
       </c>
       <c r="B20">
-        <v>100</v>
+        <v>100000</v>
       </c>
       <c r="C20" t="s">
         <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E20">
-        <v>3726.38034820556</v>
+        <v>3713.6583328247002</v>
       </c>
       <c r="F20">
-        <v>164.912223815917</v>
+        <v>162.23907470703099</v>
       </c>
       <c r="G20">
-        <v>801.54919624328602</v>
+        <v>96.143007278442298</v>
       </c>
       <c r="H20">
-        <v>24.5273113250732</v>
+        <v>51.292181015014599</v>
       </c>
       <c r="I20">
-        <v>5957.6387405395499</v>
+        <v>58808.439254760699</v>
       </c>
       <c r="J20">
-        <v>6783.7996482849103</v>
+        <v>58955.957174301097</v>
       </c>
       <c r="K20">
         <f t="shared" si="0"/>
-        <v>4552.4568557739194</v>
+        <v>3861.0935211181572</v>
       </c>
       <c r="L20">
         <f t="shared" si="1"/>
-        <v>4.5524568557739196</v>
+        <v>3.8610935211181574</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>1000</v>
+        <v>103069</v>
       </c>
       <c r="B21">
-        <v>1000</v>
+        <v>103069</v>
       </c>
       <c r="C21" t="s">
         <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E21">
-        <v>3703.6294937133698</v>
+        <v>3710.4408740997301</v>
       </c>
       <c r="F21">
-        <v>160.04610061645499</v>
+        <v>161.58032417297301</v>
       </c>
       <c r="G21">
-        <v>213.799238204956</v>
+        <v>79.534530639648395</v>
       </c>
       <c r="H21">
-        <v>24.428844451904201</v>
+        <v>52.518844604492102</v>
       </c>
       <c r="I21">
-        <v>2577.9175758361798</v>
+        <v>44904.436349868702</v>
       </c>
       <c r="J21">
-        <v>2816.2217140197699</v>
+        <v>45036.5800857543</v>
       </c>
       <c r="K21">
         <f t="shared" si="0"/>
-        <v>3941.8575763702302</v>
+        <v>3842.4942493438707</v>
       </c>
       <c r="L21">
         <f t="shared" si="1"/>
-        <v>3.9418575763702304</v>
+        <v>3.8424942493438707</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="B22">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="C22" t="s">
         <v>10</v>
@@ -4823,38 +4757,38 @@
         <v>15</v>
       </c>
       <c r="E22">
-        <v>3707.6747417449901</v>
+        <v>3726.38034820556</v>
       </c>
       <c r="F22">
-        <v>161.057472229003</v>
+        <v>164.912223815917</v>
       </c>
       <c r="G22">
-        <v>188.12370300292901</v>
+        <v>801.54919624328602</v>
       </c>
       <c r="H22">
-        <v>24.863719940185501</v>
+        <v>24.5273113250732</v>
       </c>
       <c r="I22">
-        <v>2568.7189102172802</v>
+        <v>5957.6387405395499</v>
       </c>
       <c r="J22">
-        <v>2781.7947864532398</v>
+        <v>6783.7996482849103</v>
       </c>
       <c r="K22">
         <f t="shared" si="0"/>
-        <v>3920.6621646881049</v>
+        <v>4552.4568557739194</v>
       </c>
       <c r="L22">
         <f t="shared" si="1"/>
-        <v>3.920662164688105</v>
+        <v>4.5524568557739196</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>100000</v>
+        <v>1000</v>
       </c>
       <c r="B23">
-        <v>100000</v>
+        <v>1000</v>
       </c>
       <c r="C23" t="s">
         <v>10</v>
@@ -4863,38 +4797,38 @@
         <v>15</v>
       </c>
       <c r="E23">
-        <v>3718.29295158386</v>
+        <v>3703.6294937133698</v>
       </c>
       <c r="F23">
-        <v>161.50403022766099</v>
+        <v>160.04610061645499</v>
       </c>
       <c r="G23">
-        <v>237.64538764953599</v>
+        <v>213.799238204956</v>
       </c>
       <c r="H23">
-        <v>24.51753616333</v>
+        <v>24.428844451904201</v>
       </c>
       <c r="I23">
-        <v>2561.8729591369602</v>
+        <v>2577.9175758361798</v>
       </c>
       <c r="J23">
-        <v>2824.1069316864</v>
+        <v>2816.2217140197699</v>
       </c>
       <c r="K23">
         <f t="shared" si="0"/>
-        <v>3980.4558753967262</v>
+        <v>3941.8575763702302</v>
       </c>
       <c r="L23">
         <f t="shared" si="1"/>
-        <v>3.9804558753967263</v>
+        <v>3.9418575763702304</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>103069</v>
+        <v>10000</v>
       </c>
       <c r="B24">
-        <v>103069</v>
+        <v>10000</v>
       </c>
       <c r="C24" t="s">
         <v>10</v>
@@ -4903,118 +4837,118 @@
         <v>15</v>
       </c>
       <c r="E24">
-        <v>3716.30930900573</v>
+        <v>3707.6747417449901</v>
       </c>
       <c r="F24">
-        <v>164.68214988708399</v>
+        <v>161.057472229003</v>
       </c>
       <c r="G24">
-        <v>234.001874923706</v>
+        <v>188.12370300292901</v>
       </c>
       <c r="H24">
-        <v>26.385068893432599</v>
+        <v>24.863719940185501</v>
       </c>
       <c r="I24">
-        <v>2576.2214660644499</v>
+        <v>2568.7189102172802</v>
       </c>
       <c r="J24">
-        <v>2836.6873264312699</v>
+        <v>2781.7947864532398</v>
       </c>
       <c r="K24">
         <f t="shared" si="0"/>
-        <v>3976.6962528228687</v>
+        <v>3920.6621646881049</v>
       </c>
       <c r="L24">
         <f t="shared" si="1"/>
-        <v>3.9766962528228689</v>
+        <v>3.920662164688105</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>100</v>
+        <v>100000</v>
       </c>
       <c r="B25">
-        <v>100</v>
+        <v>100000</v>
       </c>
       <c r="C25" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E25">
-        <v>3693.6399936675998</v>
+        <v>3718.29295158386</v>
       </c>
       <c r="F25">
-        <v>283.26416015625</v>
+        <v>161.50403022766099</v>
       </c>
       <c r="G25">
-        <v>977.64253616332996</v>
+        <v>237.64538764953599</v>
       </c>
       <c r="H25">
-        <v>51.0156154632568</v>
+        <v>24.51753616333</v>
       </c>
       <c r="I25">
-        <v>25123.910903930599</v>
+        <v>2561.8729591369602</v>
       </c>
       <c r="J25">
-        <v>26152.6346206665</v>
+        <v>2824.1069316864</v>
       </c>
       <c r="K25">
         <f t="shared" si="0"/>
-        <v>4722.2981452941867</v>
+        <v>3980.4558753967262</v>
       </c>
       <c r="L25">
         <f t="shared" si="1"/>
-        <v>4.7222981452941868</v>
+        <v>3.9804558753967263</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>1000</v>
+        <v>103069</v>
       </c>
       <c r="B26">
-        <v>1000</v>
+        <v>103069</v>
       </c>
       <c r="C26" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E26">
-        <v>3710.18409729003</v>
+        <v>3716.30930900573</v>
       </c>
       <c r="F26">
-        <v>256.44874572753901</v>
+        <v>164.68214988708399</v>
       </c>
       <c r="G26">
-        <v>271.86441421508698</v>
+        <v>234.001874923706</v>
       </c>
       <c r="H26">
-        <v>51.8286228179931</v>
+        <v>26.385068893432599</v>
       </c>
       <c r="I26">
-        <v>25166.501760482701</v>
+        <v>2576.2214660644499</v>
       </c>
       <c r="J26">
-        <v>25490.258216857899</v>
+        <v>2836.6873264312699</v>
       </c>
       <c r="K26">
         <f t="shared" si="0"/>
-        <v>4033.8771343231101</v>
+        <v>3976.6962528228687</v>
       </c>
       <c r="L26">
         <f t="shared" si="1"/>
-        <v>4.0338771343231103</v>
+        <v>3.9766962528228689</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="B27">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="C27" t="s">
         <v>16</v>
@@ -5023,38 +4957,38 @@
         <v>11</v>
       </c>
       <c r="E27">
-        <v>3678.5969734191799</v>
+        <v>3693.6399936675998</v>
       </c>
       <c r="F27">
-        <v>203.25803756713799</v>
+        <v>283.26416015625</v>
       </c>
       <c r="G27">
-        <v>219.10429000854401</v>
+        <v>977.64253616332996</v>
       </c>
       <c r="H27">
-        <v>51.728487014770501</v>
+        <v>51.0156154632568</v>
       </c>
       <c r="I27">
-        <v>25316.725969314499</v>
+        <v>25123.910903930599</v>
       </c>
       <c r="J27">
-        <v>25587.630748748699</v>
+        <v>26152.6346206665</v>
       </c>
       <c r="K27">
         <f t="shared" si="0"/>
-        <v>3949.4297504424944</v>
+        <v>4722.2981452941867</v>
       </c>
       <c r="L27">
         <f t="shared" si="1"/>
-        <v>3.9494297504424947</v>
+        <v>4.7222981452941868</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>100000</v>
+        <v>1000</v>
       </c>
       <c r="B28">
-        <v>100000</v>
+        <v>1000</v>
       </c>
       <c r="C28" t="s">
         <v>16</v>
@@ -5063,38 +4997,38 @@
         <v>11</v>
       </c>
       <c r="E28">
-        <v>3686.0704421997002</v>
+        <v>3710.18409729003</v>
       </c>
       <c r="F28">
-        <v>204.04028892516999</v>
+        <v>256.44874572753901</v>
       </c>
       <c r="G28">
-        <v>222.01180458068799</v>
+        <v>271.86441421508698</v>
       </c>
       <c r="H28">
-        <v>51.230907440185497</v>
+        <v>51.8286228179931</v>
       </c>
       <c r="I28">
-        <v>25309.3378543853</v>
+        <v>25166.501760482701</v>
       </c>
       <c r="J28">
-        <v>25582.649469375599</v>
+        <v>25490.258216857899</v>
       </c>
       <c r="K28">
         <f t="shared" si="0"/>
-        <v>3959.3131542205738</v>
+        <v>4033.8771343231101</v>
       </c>
       <c r="L28">
         <f t="shared" si="1"/>
-        <v>3.9593131542205739</v>
+        <v>4.0338771343231103</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>103069</v>
+        <v>10000</v>
       </c>
       <c r="B29">
-        <v>103069</v>
+        <v>10000</v>
       </c>
       <c r="C29" t="s">
         <v>16</v>
@@ -5103,118 +5037,118 @@
         <v>11</v>
       </c>
       <c r="E29">
-        <v>3680.19676208496</v>
+        <v>3678.5969734191799</v>
       </c>
       <c r="F29">
-        <v>203.97067070007299</v>
+        <v>203.25803756713799</v>
       </c>
       <c r="G29">
-        <v>202.21471786499001</v>
+        <v>219.10429000854401</v>
       </c>
       <c r="H29">
-        <v>51.107645034790004</v>
+        <v>51.728487014770501</v>
       </c>
       <c r="I29">
-        <v>25917.621612548799</v>
+        <v>25316.725969314499</v>
       </c>
       <c r="J29">
-        <v>26171.024560928301</v>
+        <v>25587.630748748699</v>
       </c>
       <c r="K29">
         <f t="shared" si="0"/>
-        <v>3933.5191249847403</v>
+        <v>3949.4297504424944</v>
       </c>
       <c r="L29">
         <f t="shared" si="1"/>
-        <v>3.9335191249847403</v>
+        <v>3.9494297504424947</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>100</v>
+        <v>100000</v>
       </c>
       <c r="B30">
-        <v>100</v>
+        <v>100000</v>
       </c>
       <c r="C30" t="s">
         <v>16</v>
       </c>
       <c r="D30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E30">
-        <v>3724.4248390197699</v>
+        <v>3686.0704421997002</v>
       </c>
       <c r="F30">
-        <v>201.88522338867099</v>
+        <v>204.04028892516999</v>
       </c>
       <c r="G30">
-        <v>1681.03456497192</v>
+        <v>222.01180458068799</v>
       </c>
       <c r="H30">
-        <v>51.3021945953369</v>
+        <v>51.230907440185497</v>
       </c>
       <c r="I30">
-        <v>24489.069700241002</v>
+        <v>25309.3378543853</v>
       </c>
       <c r="J30">
-        <v>26221.479177474899</v>
+        <v>25582.649469375599</v>
       </c>
       <c r="K30">
         <f t="shared" si="0"/>
-        <v>5456.761598587027</v>
+        <v>3959.3131542205738</v>
       </c>
       <c r="L30">
         <f t="shared" si="1"/>
-        <v>5.4567615985870273</v>
+        <v>3.9593131542205739</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>1000</v>
+        <v>103069</v>
       </c>
       <c r="B31">
-        <v>1000</v>
+        <v>103069</v>
       </c>
       <c r="C31" t="s">
         <v>16</v>
       </c>
       <c r="D31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E31">
-        <v>3689.49294090271</v>
+        <v>3680.19676208496</v>
       </c>
       <c r="F31">
-        <v>254.99606132507299</v>
+        <v>203.97067070007299</v>
       </c>
       <c r="G31">
-        <v>1449.41306114196</v>
+        <v>202.21471786499001</v>
       </c>
       <c r="H31">
-        <v>53.334474563598597</v>
+        <v>51.107645034790004</v>
       </c>
       <c r="I31">
-        <v>25126.7895698547</v>
+        <v>25917.621612548799</v>
       </c>
       <c r="J31">
-        <v>26629.6150684356</v>
+        <v>26171.024560928301</v>
       </c>
       <c r="K31">
         <f t="shared" si="0"/>
-        <v>5192.2404766082691</v>
+        <v>3933.5191249847403</v>
       </c>
       <c r="L31">
         <f t="shared" si="1"/>
-        <v>5.1922404766082693</v>
+        <v>3.9335191249847403</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="B32">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="C32" t="s">
         <v>16</v>
@@ -5223,198 +5157,128 @@
         <v>12</v>
       </c>
       <c r="E32">
-        <v>3679.2986392974799</v>
+        <v>3724.4248390197699</v>
       </c>
       <c r="F32">
-        <v>252.54011154174799</v>
+        <v>201.88522338867099</v>
       </c>
       <c r="G32">
-        <v>1348.5693931579499</v>
+        <v>1681.03456497192</v>
       </c>
       <c r="H32">
-        <v>51.712989807128899</v>
+        <v>51.3021945953369</v>
       </c>
       <c r="I32">
-        <v>24586.833238601601</v>
+        <v>24489.069700241002</v>
       </c>
       <c r="J32">
-        <v>25987.217426300002</v>
+        <v>26221.479177474899</v>
       </c>
       <c r="K32">
         <f t="shared" si="0"/>
-        <v>5079.5810222625587</v>
+        <v>5456.761598587027</v>
       </c>
       <c r="L32">
         <f t="shared" si="1"/>
-        <v>5.079581022262559</v>
+        <v>5.4567615985870273</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="B33">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="C33" t="s">
         <v>16</v>
       </c>
       <c r="D33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E33">
-        <v>3702.2566795349098</v>
+        <v>3689.49294090271</v>
       </c>
       <c r="F33">
-        <v>256.39128684997502</v>
+        <v>254.99606132507299</v>
       </c>
       <c r="G33">
-        <v>1951.03907585144</v>
+        <v>1449.41306114196</v>
       </c>
       <c r="H33">
-        <v>6762.0935440063404</v>
+        <v>53.334474563598597</v>
       </c>
       <c r="I33">
-        <v>6206.0694694518997</v>
+        <v>25126.7895698547</v>
       </c>
       <c r="J33">
-        <v>14919.259548187199</v>
+        <v>26629.6150684356</v>
       </c>
       <c r="K33">
         <f t="shared" si="0"/>
-        <v>12415.389299392689</v>
+        <v>5192.2404766082691</v>
       </c>
       <c r="L33">
         <f t="shared" si="1"/>
-        <v>12.41538929939269</v>
+        <v>5.1922404766082693</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="B34">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="C34" t="s">
         <v>16</v>
       </c>
       <c r="D34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E34">
-        <v>3720.3121185302698</v>
+        <v>3679.2986392974799</v>
       </c>
       <c r="F34">
-        <v>260.987520217895</v>
+        <v>252.54011154174799</v>
       </c>
       <c r="G34">
-        <v>1759.41967964172</v>
+        <v>1348.5693931579499</v>
       </c>
       <c r="H34">
-        <v>6681.7052364349302</v>
+        <v>51.712989807128899</v>
       </c>
       <c r="I34">
-        <v>4534.0697765350296</v>
+        <v>24586.833238601601</v>
       </c>
       <c r="J34">
-        <v>12975.253343582101</v>
+        <v>25987.217426300002</v>
       </c>
       <c r="K34">
         <f t="shared" si="0"/>
-        <v>12161.437034606919</v>
+        <v>5079.5810222625587</v>
       </c>
       <c r="L34">
         <f t="shared" si="1"/>
-        <v>12.161437034606919</v>
+        <v>5.079581022262559</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>10000</v>
-      </c>
-      <c r="B35">
-        <v>10000</v>
-      </c>
-      <c r="C35" t="s">
-        <v>16</v>
-      </c>
-      <c r="D35" t="s">
-        <v>13</v>
-      </c>
-      <c r="E35">
-        <v>3734.8415851592999</v>
-      </c>
-      <c r="F35">
-        <v>259.388208389282</v>
-      </c>
-      <c r="G35">
-        <v>1678.7075996398901</v>
-      </c>
-      <c r="H35">
-        <v>6674.01075363159</v>
-      </c>
-      <c r="I35">
-        <v>4980.0734519958496</v>
-      </c>
-      <c r="J35">
-        <v>13332.848072052</v>
-      </c>
-      <c r="K35">
-        <f t="shared" si="0"/>
-        <v>12087.559938430779</v>
-      </c>
-      <c r="L35">
-        <f t="shared" si="1"/>
-        <v>12.087559938430779</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>100000</v>
-      </c>
-      <c r="B36">
-        <v>100000</v>
-      </c>
-      <c r="C36" t="s">
-        <v>16</v>
-      </c>
-      <c r="D36" t="s">
-        <v>13</v>
-      </c>
-      <c r="E36">
-        <v>3681.0684204101499</v>
-      </c>
-      <c r="F36">
-        <v>258.99744033813403</v>
-      </c>
-      <c r="G36">
-        <v>1694.77844238281</v>
-      </c>
-      <c r="H36">
-        <v>6836.87376976013</v>
-      </c>
-      <c r="I36">
-        <v>4360.9993457794099</v>
-      </c>
-      <c r="J36">
-        <v>12892.714023590001</v>
-      </c>
-      <c r="K36">
-        <f t="shared" si="0"/>
-        <v>12212.72063255309</v>
-      </c>
-      <c r="L36">
-        <f t="shared" si="1"/>
-        <v>12.21272063255309</v>
+        <v>103069</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>103069</v>
+        <v>100</v>
       </c>
       <c r="B37">
-        <v>103069</v>
+        <v>100</v>
       </c>
       <c r="C37" t="s">
         <v>16</v>
@@ -5423,198 +5287,198 @@
         <v>13</v>
       </c>
       <c r="E37">
-        <v>3686.46168708801</v>
+        <v>3702.2566795349098</v>
       </c>
       <c r="F37">
-        <v>257.46107101440401</v>
+        <v>256.39128684997502</v>
       </c>
       <c r="G37">
-        <v>1714.4255638122499</v>
+        <v>1951.03907585144</v>
       </c>
       <c r="H37">
-        <v>6767.6658630371003</v>
+        <v>6762.0935440063404</v>
       </c>
       <c r="I37">
-        <v>4320.4007148742603</v>
+        <v>6206.0694694518997</v>
       </c>
       <c r="J37">
-        <v>12802.5496006011</v>
+        <v>14919.259548187199</v>
       </c>
       <c r="K37">
         <f t="shared" si="0"/>
-        <v>12168.55311393736</v>
+        <v>12415.389299392689</v>
       </c>
       <c r="L37">
         <f t="shared" si="1"/>
-        <v>12.16855311393736</v>
+        <v>12.41538929939269</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="B38">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="C38" t="s">
         <v>16</v>
       </c>
       <c r="D38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E38">
-        <v>3659.16013717651</v>
+        <v>3720.3121185302698</v>
       </c>
       <c r="F38">
-        <v>258.35371017455998</v>
+        <v>260.987520217895</v>
       </c>
       <c r="G38">
-        <v>367.15602874755803</v>
+        <v>1759.41967964172</v>
       </c>
       <c r="H38">
-        <v>51.385164260864201</v>
+        <v>6681.7052364349302</v>
       </c>
       <c r="I38">
-        <v>72234.322786331104</v>
+        <v>4534.0697765350296</v>
       </c>
       <c r="J38">
-        <v>72652.947664260806</v>
+        <v>12975.253343582101</v>
       </c>
       <c r="K38">
         <f t="shared" si="0"/>
-        <v>4077.7013301849324</v>
+        <v>12161.437034606919</v>
       </c>
       <c r="L38">
         <f t="shared" si="1"/>
-        <v>4.0777013301849321</v>
+        <v>12.161437034606919</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="B39">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="C39" t="s">
         <v>16</v>
       </c>
       <c r="D39" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E39">
-        <v>3686.6610050201398</v>
+        <v>3734.8415851592999</v>
       </c>
       <c r="F39">
-        <v>259.381294250488</v>
+        <v>259.388208389282</v>
       </c>
       <c r="G39">
-        <v>121.468067169189</v>
+        <v>1678.7075996398901</v>
       </c>
       <c r="H39">
-        <v>51.539182662963803</v>
+        <v>6674.01075363159</v>
       </c>
       <c r="I39">
-        <v>69830.259323120103</v>
+        <v>4980.0734519958496</v>
       </c>
       <c r="J39">
-        <v>70003.350019454898</v>
+        <v>13332.848072052</v>
       </c>
       <c r="K39">
         <f t="shared" si="0"/>
-        <v>3859.6682548522926</v>
+        <v>12087.559938430779</v>
       </c>
       <c r="L39">
         <f t="shared" si="1"/>
-        <v>3.8596682548522927</v>
+        <v>12.087559938430779</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="B40">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="C40" t="s">
         <v>16</v>
       </c>
       <c r="D40" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E40">
-        <v>3699.7745037078798</v>
+        <v>3681.0684204101499</v>
       </c>
       <c r="F40">
-        <v>259.23538208007801</v>
+        <v>258.99744033813403</v>
       </c>
       <c r="G40">
-        <v>95.507383346557603</v>
+        <v>1694.77844238281</v>
       </c>
       <c r="H40">
-        <v>51.652908325195298</v>
+        <v>6836.87376976013</v>
       </c>
       <c r="I40">
-        <v>71132.929325103702</v>
+        <v>4360.9993457794099</v>
       </c>
       <c r="J40">
-        <v>71280.169963836597</v>
+        <v>12892.714023590001</v>
       </c>
       <c r="K40">
         <f t="shared" si="0"/>
-        <v>3846.9347953796328</v>
+        <v>12212.72063255309</v>
       </c>
       <c r="L40">
         <f t="shared" si="1"/>
-        <v>3.8469347953796329</v>
+        <v>12.21272063255309</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>100000</v>
+        <v>103069</v>
       </c>
       <c r="B41">
-        <v>100000</v>
+        <v>103069</v>
       </c>
       <c r="C41" t="s">
         <v>16</v>
       </c>
       <c r="D41" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E41">
-        <v>3696.4600086212099</v>
+        <v>3686.46168708801</v>
       </c>
       <c r="F41">
-        <v>256.99734687805102</v>
+        <v>257.46107101440401</v>
       </c>
       <c r="G41">
-        <v>98.636150360107393</v>
+        <v>1714.4255638122499</v>
       </c>
       <c r="H41">
-        <v>51.549911499023402</v>
+        <v>6767.6658630371003</v>
       </c>
       <c r="I41">
-        <v>97386.697053909302</v>
+        <v>4320.4007148742603</v>
       </c>
       <c r="J41">
-        <v>97536.970138549805</v>
+        <v>12802.5496006011</v>
       </c>
       <c r="K41">
         <f t="shared" si="0"/>
-        <v>3846.6460704803408</v>
+        <v>12168.55311393736</v>
       </c>
       <c r="L41">
         <f t="shared" si="1"/>
-        <v>3.8466460704803409</v>
+        <v>12.16855311393736</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>103069</v>
+        <v>100</v>
       </c>
       <c r="B42">
-        <v>103069</v>
+        <v>100</v>
       </c>
       <c r="C42" t="s">
         <v>16</v>
@@ -5623,198 +5487,198 @@
         <v>14</v>
       </c>
       <c r="E42">
-        <v>3721.3475704193102</v>
+        <v>3659.16013717651</v>
       </c>
       <c r="F42">
-        <v>259.150981903076</v>
+        <v>258.35371017455998</v>
       </c>
       <c r="G42">
-        <v>94.695329666137695</v>
+        <v>367.15602874755803</v>
       </c>
       <c r="H42">
-        <v>51.656007766723597</v>
+        <v>51.385164260864201</v>
       </c>
       <c r="I42">
-        <v>64168.761968612598</v>
+        <v>72234.322786331104</v>
       </c>
       <c r="J42">
-        <v>64315.195083618099</v>
+        <v>72652.947664260806</v>
       </c>
       <c r="K42">
         <f t="shared" si="0"/>
-        <v>3867.6989078521715</v>
+        <v>4077.7013301849324</v>
       </c>
       <c r="L42">
         <f t="shared" si="1"/>
-        <v>3.8676989078521715</v>
+        <v>4.0777013301849321</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="B43">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="C43" t="s">
         <v>16</v>
       </c>
       <c r="D43" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E43">
-        <v>3737.3523712158199</v>
+        <v>3686.6610050201398</v>
       </c>
       <c r="F43">
-        <v>261.11984252929602</v>
+        <v>259.381294250488</v>
       </c>
       <c r="G43">
-        <v>984.32302474975495</v>
+        <v>121.468067169189</v>
       </c>
       <c r="H43">
-        <v>23.798465728759702</v>
+        <v>51.539182662963803</v>
       </c>
       <c r="I43">
-        <v>2752.4597644805899</v>
+        <v>69830.259323120103</v>
       </c>
       <c r="J43">
-        <v>3760.6551647186202</v>
+        <v>70003.350019454898</v>
       </c>
       <c r="K43">
         <f t="shared" si="0"/>
-        <v>4745.4738616943341</v>
+        <v>3859.6682548522926</v>
       </c>
       <c r="L43">
         <f t="shared" si="1"/>
-        <v>4.7454738616943342</v>
+        <v>3.8596682548522927</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="B44">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="C44" t="s">
         <v>16</v>
       </c>
       <c r="D44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E44">
-        <v>3738.26026916503</v>
+        <v>3699.7745037078798</v>
       </c>
       <c r="F44">
-        <v>256.92725181579499</v>
+        <v>259.23538208007801</v>
       </c>
       <c r="G44">
-        <v>230.83591461181601</v>
+        <v>95.507383346557603</v>
       </c>
       <c r="H44">
-        <v>23.494243621826101</v>
+        <v>51.652908325195298</v>
       </c>
       <c r="I44">
-        <v>2676.7029762267998</v>
+        <v>71132.929325103702</v>
       </c>
       <c r="J44">
-        <v>2931.1075210571198</v>
+        <v>71280.169963836597</v>
       </c>
       <c r="K44">
         <f t="shared" si="0"/>
-        <v>3992.5904273986721</v>
+        <v>3846.9347953796328</v>
       </c>
       <c r="L44">
         <f t="shared" si="1"/>
-        <v>3.9925904273986723</v>
+        <v>3.8469347953796329</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="B45">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="C45" t="s">
         <v>16</v>
       </c>
       <c r="D45" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E45">
-        <v>3711.7640972137401</v>
+        <v>3696.4600086212099</v>
       </c>
       <c r="F45">
-        <v>260.23387908935501</v>
+        <v>256.99734687805102</v>
       </c>
       <c r="G45">
-        <v>174.316883087158</v>
+        <v>98.636150360107393</v>
       </c>
       <c r="H45">
-        <v>23.5006809234619</v>
+        <v>51.549911499023402</v>
       </c>
       <c r="I45">
-        <v>2724.23243522644</v>
+        <v>97386.697053909302</v>
       </c>
       <c r="J45">
-        <v>2922.11961746215</v>
+        <v>97536.970138549805</v>
       </c>
       <c r="K45">
         <f t="shared" si="0"/>
-        <v>3909.5816612243602</v>
+        <v>3846.6460704803408</v>
       </c>
       <c r="L45">
         <f t="shared" si="1"/>
-        <v>3.9095816612243603</v>
+        <v>3.8466460704803409</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>100000</v>
+        <v>103069</v>
       </c>
       <c r="B46">
-        <v>100000</v>
+        <v>103069</v>
       </c>
       <c r="C46" t="s">
         <v>16</v>
       </c>
       <c r="D46" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E46">
-        <v>3705.9383392333898</v>
+        <v>3721.3475704193102</v>
       </c>
       <c r="F46">
-        <v>264.35017585754298</v>
+        <v>259.150981903076</v>
       </c>
       <c r="G46">
-        <v>198.669910430908</v>
+        <v>94.695329666137695</v>
       </c>
       <c r="H46">
-        <v>23.516178131103501</v>
+        <v>51.656007766723597</v>
       </c>
       <c r="I46">
-        <v>2724.1384983062699</v>
+        <v>64168.761968612598</v>
       </c>
       <c r="J46">
-        <v>2946.40064239501</v>
+        <v>64315.195083618099</v>
       </c>
       <c r="K46">
         <f t="shared" si="0"/>
-        <v>3928.1244277954015</v>
+        <v>3867.6989078521715</v>
       </c>
       <c r="L46">
         <f t="shared" si="1"/>
-        <v>3.9281244277954017</v>
+        <v>3.8676989078521715</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>103069</v>
+        <v>100</v>
       </c>
       <c r="B47">
-        <v>103069</v>
+        <v>100</v>
       </c>
       <c r="C47" t="s">
         <v>16</v>
@@ -5823,198 +5687,198 @@
         <v>15</v>
       </c>
       <c r="E47">
-        <v>3706.05373382568</v>
+        <v>3737.3523712158199</v>
       </c>
       <c r="F47">
-        <v>259.06229019164999</v>
+        <v>261.11984252929602</v>
       </c>
       <c r="G47">
-        <v>169.00920867919899</v>
+        <v>984.32302474975495</v>
       </c>
       <c r="H47">
-        <v>23.747205734252901</v>
+        <v>23.798465728759702</v>
       </c>
       <c r="I47">
-        <v>2713.9656543731599</v>
+        <v>2752.4597644805899</v>
       </c>
       <c r="J47">
-        <v>2906.79931640625</v>
+        <v>3760.6551647186202</v>
       </c>
       <c r="K47">
         <f t="shared" si="0"/>
-        <v>3898.8101482391321</v>
+        <v>4745.4738616943341</v>
       </c>
       <c r="L47">
         <f t="shared" si="1"/>
-        <v>3.8988101482391322</v>
+        <v>4.7454738616943342</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="B48">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="C48" t="s">
         <v>16</v>
       </c>
       <c r="D48" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E48">
-        <v>3727.3929119110098</v>
+        <v>3738.26026916503</v>
       </c>
       <c r="F48">
-        <v>261.696338653564</v>
+        <v>256.92725181579499</v>
       </c>
       <c r="G48">
-        <v>13709.3605995178</v>
+        <v>230.83591461181601</v>
       </c>
       <c r="H48">
-        <v>51.221609115600501</v>
+        <v>23.494243621826101</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>2676.7029762267998</v>
       </c>
       <c r="J48">
-        <v>13762.5441551208</v>
+        <v>2931.1075210571198</v>
       </c>
       <c r="K48">
         <f t="shared" si="0"/>
-        <v>17487.975120544412</v>
+        <v>3992.5904273986721</v>
       </c>
       <c r="L48">
         <f t="shared" si="1"/>
-        <v>17.487975120544412</v>
+        <v>3.9925904273986723</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="B49">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="C49" t="s">
         <v>16</v>
       </c>
       <c r="D49" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E49">
-        <v>3688.9569759368801</v>
+        <v>3711.7640972137401</v>
       </c>
       <c r="F49">
-        <v>257.29990005493102</v>
+        <v>260.23387908935501</v>
       </c>
       <c r="G49">
-        <v>2978.06763648986</v>
+        <v>174.316883087158</v>
       </c>
       <c r="H49">
-        <v>51.1844158172607</v>
+        <v>23.5006809234619</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>2724.23243522644</v>
       </c>
       <c r="J49">
-        <v>3031.1634540557802</v>
+        <v>2922.11961746215</v>
       </c>
       <c r="K49">
         <f t="shared" si="0"/>
-        <v>6718.2090282440004</v>
+        <v>3909.5816612243602</v>
       </c>
       <c r="L49">
         <f t="shared" si="1"/>
-        <v>6.7182090282440008</v>
+        <v>3.9095816612243603</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="B50">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="C50" t="s">
         <v>16</v>
       </c>
       <c r="D50" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E50">
-        <v>3702.1749019622798</v>
+        <v>3705.9383392333898</v>
       </c>
       <c r="F50">
-        <v>256.617546081542</v>
+        <v>264.35017585754298</v>
       </c>
       <c r="G50">
-        <v>1960.4728221893299</v>
+        <v>198.669910430908</v>
       </c>
       <c r="H50">
-        <v>50.965547561645501</v>
+        <v>23.516178131103501</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>2724.1384983062699</v>
       </c>
       <c r="J50">
-        <v>2013.4160518646199</v>
+        <v>2946.40064239501</v>
       </c>
       <c r="K50">
         <f t="shared" si="0"/>
-        <v>5713.613271713255</v>
+        <v>3928.1244277954015</v>
       </c>
       <c r="L50">
         <f t="shared" si="1"/>
-        <v>5.7136132717132551</v>
+        <v>3.9281244277954017</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>100000</v>
+        <v>103069</v>
       </c>
       <c r="B51">
-        <v>100000</v>
+        <v>103069</v>
       </c>
       <c r="C51" t="s">
         <v>16</v>
       </c>
       <c r="D51" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E51">
-        <v>3688.61985206604</v>
+        <v>3706.05373382568</v>
       </c>
       <c r="F51">
-        <v>258.13031196594198</v>
+        <v>259.06229019164999</v>
       </c>
       <c r="G51">
-        <v>1912.29677200317</v>
+        <v>169.00920867919899</v>
       </c>
       <c r="H51">
-        <v>50.954103469848597</v>
+        <v>23.747205734252901</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>2713.9656543731599</v>
       </c>
       <c r="J51">
-        <v>1965.1963710784901</v>
+        <v>2906.79931640625</v>
       </c>
       <c r="K51">
         <f t="shared" si="0"/>
-        <v>5651.8707275390589</v>
+        <v>3898.8101482391321</v>
       </c>
       <c r="L51">
         <f t="shared" si="1"/>
-        <v>5.6518707275390589</v>
+        <v>3.8988101482391322</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>103069</v>
+        <v>100</v>
       </c>
       <c r="B52">
-        <v>103069</v>
+        <v>100</v>
       </c>
       <c r="C52" t="s">
         <v>16</v>
@@ -6023,198 +5887,198 @@
         <v>17</v>
       </c>
       <c r="E52">
-        <v>3730.33618927001</v>
+        <v>3727.3929119110098</v>
       </c>
       <c r="F52">
-        <v>260.90359687805102</v>
+        <v>261.696338653564</v>
       </c>
       <c r="G52">
-        <v>1900.59423446655</v>
+        <v>13709.3605995178</v>
       </c>
       <c r="H52">
-        <v>50.865650177001903</v>
+        <v>51.221609115600501</v>
       </c>
       <c r="I52">
         <v>0</v>
       </c>
       <c r="J52">
-        <v>1953.4537792205799</v>
+        <v>13762.5441551208</v>
       </c>
       <c r="K52">
         <f t="shared" si="0"/>
-        <v>5681.7960739135615</v>
+        <v>17487.975120544412</v>
       </c>
       <c r="L52">
         <f t="shared" si="1"/>
-        <v>5.6817960739135618</v>
+        <v>17.487975120544412</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="B53">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="C53" t="s">
         <v>16</v>
       </c>
       <c r="D53" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E53">
-        <v>3662.0326042175202</v>
+        <v>3688.9569759368801</v>
       </c>
       <c r="F53">
-        <v>247.43890762329099</v>
+        <v>257.29990005493102</v>
       </c>
       <c r="G53">
-        <v>13440.7472610473</v>
+        <v>2978.06763648986</v>
       </c>
       <c r="H53">
-        <v>51.160097122192298</v>
+        <v>51.1844158172607</v>
       </c>
       <c r="I53">
         <v>0</v>
       </c>
       <c r="J53">
-        <v>13493.810415267901</v>
+        <v>3031.1634540557802</v>
       </c>
       <c r="K53">
         <f t="shared" si="0"/>
-        <v>17153.939962387012</v>
+        <v>6718.2090282440004</v>
       </c>
       <c r="L53">
         <f t="shared" si="1"/>
-        <v>17.153939962387014</v>
+        <v>6.7182090282440008</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="B54">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="C54" t="s">
         <v>16</v>
       </c>
       <c r="D54" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E54">
-        <v>3901.2012481689399</v>
+        <v>3702.1749019622798</v>
       </c>
       <c r="F54">
-        <v>257.15708732604901</v>
+        <v>256.617546081542</v>
       </c>
       <c r="G54">
-        <v>2833.2850933074901</v>
+        <v>1960.4728221893299</v>
       </c>
       <c r="H54">
-        <v>50.853013992309499</v>
+        <v>50.965547561645501</v>
       </c>
       <c r="I54">
         <v>0</v>
       </c>
       <c r="J54">
-        <v>2886.00611686706</v>
+        <v>2013.4160518646199</v>
       </c>
       <c r="K54">
         <f t="shared" si="0"/>
-        <v>6785.3393554687391</v>
+        <v>5713.613271713255</v>
       </c>
       <c r="L54">
         <f t="shared" si="1"/>
-        <v>6.7853393554687393</v>
+        <v>5.7136132717132551</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="B55">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="C55" t="s">
         <v>16</v>
       </c>
       <c r="D55" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E55">
-        <v>3667.82593727111</v>
+        <v>3688.61985206604</v>
       </c>
       <c r="F55">
-        <v>256.81734085083002</v>
+        <v>258.13031196594198</v>
       </c>
       <c r="G55">
-        <v>1776.8847942352199</v>
+        <v>1912.29677200317</v>
       </c>
       <c r="H55">
-        <v>51.995754241943303</v>
+        <v>50.954103469848597</v>
       </c>
       <c r="I55">
         <v>0</v>
       </c>
       <c r="J55">
-        <v>1830.83152770996</v>
+        <v>1965.1963710784901</v>
       </c>
       <c r="K55">
         <f t="shared" si="0"/>
-        <v>5496.7064857482728</v>
+        <v>5651.8707275390589</v>
       </c>
       <c r="L55">
         <f t="shared" si="1"/>
-        <v>5.4967064857482733</v>
+        <v>5.6518707275390589</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>100000</v>
+        <v>103069</v>
       </c>
       <c r="B56">
-        <v>100000</v>
+        <v>103069</v>
       </c>
       <c r="C56" t="s">
         <v>16</v>
       </c>
       <c r="D56" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E56">
-        <v>3651.6196727752599</v>
+        <v>3730.33618927001</v>
       </c>
       <c r="F56">
-        <v>257.40003585815401</v>
+        <v>260.90359687805102</v>
       </c>
       <c r="G56">
-        <v>1760.7605457305899</v>
+        <v>1900.59423446655</v>
       </c>
       <c r="H56">
-        <v>50.903081893920898</v>
+        <v>50.865650177001903</v>
       </c>
       <c r="I56">
         <v>0</v>
       </c>
       <c r="J56">
-        <v>1813.5437965393</v>
+        <v>1953.4537792205799</v>
       </c>
       <c r="K56">
         <f t="shared" si="0"/>
-        <v>5463.2833003997712</v>
+        <v>5681.7960739135615</v>
       </c>
       <c r="L56">
         <f t="shared" si="1"/>
-        <v>5.4632833003997714</v>
+        <v>5.6817960739135618</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>103069</v>
+        <v>100</v>
       </c>
       <c r="B57">
-        <v>103069</v>
+        <v>100</v>
       </c>
       <c r="C57" t="s">
         <v>16</v>
@@ -6223,198 +6087,198 @@
         <v>29</v>
       </c>
       <c r="E57">
-        <v>3654.27589416503</v>
+        <v>3662.0326042175202</v>
       </c>
       <c r="F57">
-        <v>254.06718254089299</v>
+        <v>247.43890762329099</v>
       </c>
       <c r="G57">
-        <v>1750.2300739288301</v>
+        <v>13440.7472610473</v>
       </c>
       <c r="H57">
-        <v>50.825357437133697</v>
+        <v>51.160097122192298</v>
       </c>
       <c r="I57">
         <v>0</v>
       </c>
       <c r="J57">
-        <v>1802.96754837036</v>
+        <v>13493.810415267901</v>
       </c>
       <c r="K57">
         <f t="shared" si="0"/>
-        <v>5455.331325530994</v>
+        <v>17153.939962387012</v>
       </c>
       <c r="L57">
         <f t="shared" si="1"/>
-        <v>5.4553313255309943</v>
+        <v>17.153939962387014</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="B58">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="C58" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D58" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E58">
-        <v>3653.0373096466001</v>
+        <v>3901.2012481689399</v>
       </c>
       <c r="F58">
-        <v>656.55064582824696</v>
+        <v>257.15708732604901</v>
       </c>
       <c r="G58">
-        <v>985.32676696777298</v>
+        <v>2833.2850933074901</v>
       </c>
       <c r="H58">
-        <v>51.466226577758697</v>
+        <v>50.853013992309499</v>
       </c>
       <c r="I58">
-        <v>9059.3118667602503</v>
+        <v>0</v>
       </c>
       <c r="J58">
-        <v>10096.170425415001</v>
+        <v>2886.00611686706</v>
       </c>
       <c r="K58">
         <f t="shared" si="0"/>
-        <v>4689.8303031921314</v>
+        <v>6785.3393554687391</v>
       </c>
       <c r="L58">
         <f t="shared" si="1"/>
-        <v>4.6898303031921316</v>
+        <v>6.7853393554687393</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="B59">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="C59" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D59" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E59">
-        <v>3693.5548782348601</v>
+        <v>3667.82593727111</v>
       </c>
       <c r="F59">
-        <v>638.17667961120605</v>
+        <v>256.81734085083002</v>
       </c>
       <c r="G59">
-        <v>265.94281196594198</v>
+        <v>1776.8847942352199</v>
       </c>
       <c r="H59">
-        <v>51.938295364379798</v>
+        <v>51.995754241943303</v>
       </c>
       <c r="I59">
-        <v>9163.4018421173096</v>
+        <v>0</v>
       </c>
       <c r="J59">
-        <v>9481.3530445098804</v>
+        <v>1830.83152770996</v>
       </c>
       <c r="K59">
         <f t="shared" si="0"/>
-        <v>4011.4359855651819</v>
+        <v>5496.7064857482728</v>
       </c>
       <c r="L59">
         <f t="shared" si="1"/>
-        <v>4.011435985565182</v>
+        <v>5.4967064857482733</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="B60">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="C60" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D60" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E60">
-        <v>3698.9271640777501</v>
+        <v>3651.6196727752599</v>
       </c>
       <c r="F60">
-        <v>626.25265121459904</v>
+        <v>257.40003585815401</v>
       </c>
       <c r="G60">
-        <v>218.89638900756799</v>
+        <v>1760.7605457305899</v>
       </c>
       <c r="H60">
-        <v>51.475286483764599</v>
+        <v>50.903081893920898</v>
       </c>
       <c r="I60">
-        <v>9148.2241153717005</v>
+        <v>0</v>
       </c>
       <c r="J60">
-        <v>9418.65992546081</v>
+        <v>1813.5437965393</v>
       </c>
       <c r="K60">
         <f t="shared" si="0"/>
-        <v>3969.2988395690827</v>
+        <v>5463.2833003997712</v>
       </c>
       <c r="L60">
         <f t="shared" si="1"/>
-        <v>3.9692988395690829</v>
+        <v>5.4632833003997714</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>100000</v>
+        <v>103069</v>
       </c>
       <c r="B61">
-        <v>100000</v>
+        <v>103069</v>
       </c>
       <c r="C61" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D61" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E61">
-        <v>3686.0644817352199</v>
+        <v>3654.27589416503</v>
       </c>
       <c r="F61">
-        <v>631.23750686645496</v>
+        <v>254.06718254089299</v>
       </c>
       <c r="G61">
-        <v>216.95089340209901</v>
+        <v>1750.2300739288301</v>
       </c>
       <c r="H61">
-        <v>52.091836929321197</v>
+        <v>50.825357437133697</v>
       </c>
       <c r="I61">
-        <v>9007.8797340392994</v>
+        <v>0</v>
       </c>
       <c r="J61">
-        <v>9276.9825458526593</v>
+        <v>1802.96754837036</v>
       </c>
       <c r="K61">
         <f t="shared" si="0"/>
-        <v>3955.1072120666404</v>
+        <v>5455.331325530994</v>
       </c>
       <c r="L61">
         <f t="shared" si="1"/>
-        <v>3.9551072120666406</v>
+        <v>5.4553313255309943</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>103069</v>
+        <v>100</v>
       </c>
       <c r="B62">
-        <v>103069</v>
+        <v>100</v>
       </c>
       <c r="C62" t="s">
         <v>18</v>
@@ -6423,754 +6287,924 @@
         <v>11</v>
       </c>
       <c r="E62">
-        <v>3679.52489852905</v>
+        <v>3653.0373096466001</v>
       </c>
       <c r="F62">
-        <v>631.29544258117596</v>
+        <v>656.55064582824696</v>
       </c>
       <c r="G62">
-        <v>202.13770866394</v>
+        <v>985.32676696777298</v>
       </c>
       <c r="H62">
-        <v>51.774978637695298</v>
+        <v>51.466226577758697</v>
       </c>
       <c r="I62">
-        <v>9007.9109668731599</v>
+        <v>9059.3118667602503</v>
       </c>
       <c r="J62">
-        <v>9261.8904113769495</v>
+        <v>10096.170425415001</v>
       </c>
       <c r="K62">
         <f t="shared" si="0"/>
-        <v>3933.4375858306853</v>
+        <v>4689.8303031921314</v>
       </c>
       <c r="L62">
         <f t="shared" si="1"/>
-        <v>3.9334375858306854</v>
+        <v>4.6898303031921316</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="B63">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="C63" t="s">
         <v>18</v>
       </c>
       <c r="D63" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E63">
-        <v>3663.1140708923299</v>
+        <v>3693.5548782348601</v>
       </c>
       <c r="F63">
-        <v>618.79086494445801</v>
+        <v>638.17667961120605</v>
       </c>
       <c r="G63">
-        <v>1173.2261180877599</v>
+        <v>265.94281196594198</v>
       </c>
       <c r="H63">
-        <v>51.695823669433501</v>
+        <v>51.938295364379798</v>
       </c>
       <c r="I63">
-        <v>8956.9833278656006</v>
+        <v>9163.4018421173096</v>
       </c>
       <c r="J63">
-        <v>10181.9763183593</v>
+        <v>9481.3530445098804</v>
       </c>
       <c r="K63">
         <f t="shared" si="0"/>
-        <v>4888.0360126495234</v>
+        <v>4011.4359855651819</v>
       </c>
       <c r="L63">
         <f t="shared" si="1"/>
-        <v>4.8880360126495237</v>
+        <v>4.011435985565182</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="B64">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="C64" t="s">
         <v>18</v>
       </c>
       <c r="D64" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E64">
-        <v>3697.42918014526</v>
+        <v>3698.9271640777501</v>
       </c>
       <c r="F64">
-        <v>633.13722610473599</v>
+        <v>626.25265121459904</v>
       </c>
       <c r="G64">
-        <v>713.52887153625397</v>
+        <v>218.89638900756799</v>
       </c>
       <c r="H64">
-        <v>51.311492919921797</v>
+        <v>51.475286483764599</v>
       </c>
       <c r="I64">
-        <v>8922.2803115844708</v>
+        <v>9148.2241153717005</v>
       </c>
       <c r="J64">
-        <v>9687.1883869171106</v>
+        <v>9418.65992546081</v>
       </c>
       <c r="K64">
         <f t="shared" si="0"/>
-        <v>4462.2695446014359</v>
+        <v>3969.2988395690827</v>
       </c>
       <c r="L64">
         <f t="shared" si="1"/>
-        <v>4.462269544601436</v>
+        <v>3.9692988395690829</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="B65">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="C65" t="s">
         <v>18</v>
       </c>
       <c r="D65" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E65">
-        <v>3699.1004943847602</v>
+        <v>3686.0644817352199</v>
       </c>
       <c r="F65">
-        <v>633.758068084716</v>
+        <v>631.23750686645496</v>
       </c>
       <c r="G65">
-        <v>672.06645011901799</v>
+        <v>216.95089340209901</v>
       </c>
       <c r="H65">
-        <v>51.790714263916001</v>
+        <v>52.091836929321197</v>
       </c>
       <c r="I65">
-        <v>8990.4117584228497</v>
+        <v>9007.8797340392994</v>
       </c>
       <c r="J65">
-        <v>9714.3363952636701</v>
+        <v>9276.9825458526593</v>
       </c>
       <c r="K65">
         <f t="shared" si="0"/>
-        <v>4422.9576587676938</v>
+        <v>3955.1072120666404</v>
       </c>
       <c r="L65">
         <f t="shared" si="1"/>
-        <v>4.422957658767694</v>
+        <v>3.9551072120666406</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>100</v>
+        <v>103069</v>
       </c>
       <c r="B66">
-        <v>100</v>
+        <v>103069</v>
       </c>
       <c r="C66" t="s">
         <v>18</v>
       </c>
       <c r="D66" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E66">
-        <v>3706.9861888885498</v>
+        <v>3679.52489852905</v>
       </c>
       <c r="F66">
-        <v>643.02992820739701</v>
+        <v>631.29544258117596</v>
       </c>
       <c r="G66">
-        <v>1942.8687095641999</v>
+        <v>202.13770866394</v>
       </c>
       <c r="H66">
-        <v>6893.8946723937897</v>
+        <v>51.774978637695298</v>
       </c>
       <c r="I66">
-        <v>3396.5232372283899</v>
+        <v>9007.9109668731599</v>
       </c>
       <c r="J66">
-        <v>12233.341693878099</v>
+        <v>9261.8904113769495</v>
       </c>
       <c r="K66">
         <f t="shared" si="0"/>
-        <v>12543.749570846539</v>
+        <v>3933.4375858306853</v>
       </c>
       <c r="L66">
         <f t="shared" si="1"/>
-        <v>12.54374957084654</v>
+        <v>3.9334375858306854</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="B67">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="C67" t="s">
         <v>18</v>
       </c>
       <c r="D67" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E67">
-        <v>3707.82494544982</v>
+        <v>3663.1140708923299</v>
       </c>
       <c r="F67">
-        <v>640.25497436523403</v>
+        <v>618.79086494445801</v>
       </c>
       <c r="G67">
-        <v>1764.27817344665</v>
+        <v>1173.2261180877599</v>
       </c>
       <c r="H67">
-        <v>6949.68676567077</v>
+        <v>51.695823669433501</v>
       </c>
       <c r="I67">
-        <v>3624.8850822448699</v>
+        <v>8956.9833278656006</v>
       </c>
       <c r="J67">
-        <v>12338.9024734497</v>
+        <v>10181.9763183593</v>
       </c>
       <c r="K67">
         <f t="shared" si="0"/>
-        <v>12421.789884567239</v>
+        <v>4888.0360126495234</v>
       </c>
       <c r="L67">
         <f t="shared" si="1"/>
-        <v>12.421789884567239</v>
+        <v>4.8880360126495237</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="B68">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="C68" t="s">
         <v>18</v>
       </c>
       <c r="D68" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E68">
-        <v>3751.1172294616699</v>
+        <v>3697.42918014526</v>
       </c>
       <c r="F68">
-        <v>644.26112174987702</v>
+        <v>633.13722610473599</v>
       </c>
       <c r="G68">
-        <v>1699.59568977355</v>
+        <v>713.52887153625397</v>
       </c>
       <c r="H68">
-        <v>6791.6774749755796</v>
+        <v>51.311492919921797</v>
       </c>
       <c r="I68">
-        <v>3756.7586898803702</v>
+        <v>8922.2803115844708</v>
       </c>
       <c r="J68">
-        <v>12248.091936111399</v>
+        <v>9687.1883869171106</v>
       </c>
       <c r="K68">
         <f t="shared" si="0"/>
-        <v>12242.390394210801</v>
+        <v>4462.2695446014359</v>
       </c>
       <c r="L68">
         <f t="shared" si="1"/>
-        <v>12.242390394210801</v>
+        <v>4.462269544601436</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="B69">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="C69" t="s">
         <v>18</v>
       </c>
       <c r="D69" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E69">
-        <v>3712.3656272888102</v>
+        <v>3699.1004943847602</v>
       </c>
       <c r="F69">
-        <v>637.75968551635697</v>
+        <v>633.758068084716</v>
       </c>
       <c r="G69">
-        <v>1743.44944953918</v>
+        <v>672.06645011901799</v>
       </c>
       <c r="H69">
-        <v>6728.6257743835404</v>
+        <v>51.790714263916001</v>
       </c>
       <c r="I69">
-        <v>3344.14720535278</v>
+        <v>8990.4117584228497</v>
       </c>
       <c r="J69">
-        <v>11816.281080245901</v>
+        <v>9714.3363952636701</v>
       </c>
       <c r="K69">
         <f t="shared" si="0"/>
-        <v>12184.44085121153</v>
+        <v>4422.9576587676938</v>
       </c>
       <c r="L69">
         <f t="shared" si="1"/>
-        <v>12.18444085121153</v>
+        <v>4.422957658767694</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>103069</v>
-      </c>
-      <c r="B70">
-        <v>103069</v>
-      </c>
-      <c r="C70" t="s">
-        <v>18</v>
-      </c>
-      <c r="D70" t="s">
-        <v>13</v>
-      </c>
-      <c r="E70">
-        <v>3719.0928459167399</v>
-      </c>
-      <c r="F70">
-        <v>644.18530464172295</v>
-      </c>
-      <c r="G70">
-        <v>1736.9301319122301</v>
-      </c>
-      <c r="H70">
-        <v>7033.6737632751401</v>
-      </c>
-      <c r="I70">
-        <v>3466.2582874298</v>
-      </c>
-      <c r="J70">
-        <v>12236.923694610499</v>
-      </c>
-      <c r="K70">
-        <f t="shared" si="0"/>
-        <v>12489.696741104111</v>
-      </c>
-      <c r="L70">
-        <f t="shared" si="1"/>
-        <v>12.489696741104112</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>100</v>
-      </c>
-      <c r="B71">
-        <v>100</v>
-      </c>
-      <c r="C71" t="s">
-        <v>18</v>
-      </c>
-      <c r="D71" t="s">
-        <v>14</v>
-      </c>
-      <c r="E71">
-        <v>3709.76686477661</v>
-      </c>
-      <c r="F71">
-        <v>631.82425498962402</v>
-      </c>
-      <c r="G71">
-        <v>361.33790016174299</v>
-      </c>
-      <c r="H71">
-        <v>53.086757659912102</v>
-      </c>
-      <c r="I71">
-        <v>39302.4327754974</v>
-      </c>
-      <c r="J71">
-        <v>39716.9382572174</v>
-      </c>
-      <c r="K71">
-        <f t="shared" si="0"/>
-        <v>4124.1915225982648</v>
-      </c>
-      <c r="L71">
-        <f t="shared" si="1"/>
-        <v>4.1241915225982648</v>
+        <v>103069</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="B72">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="C72" t="s">
         <v>18</v>
       </c>
       <c r="D72" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E72">
-        <v>3659.9597930908199</v>
+        <v>3706.9861888885498</v>
       </c>
       <c r="F72">
-        <v>621.55604362487702</v>
+        <v>643.02992820739701</v>
       </c>
       <c r="G72">
-        <v>120.484590530395</v>
+        <v>1942.8687095641999</v>
       </c>
       <c r="H72">
-        <v>51.936626434326101</v>
+        <v>6893.8946723937897</v>
       </c>
       <c r="I72">
-        <v>37779.7760963439</v>
+        <v>3396.5232372283899</v>
       </c>
       <c r="J72">
-        <v>37952.275037765503</v>
+        <v>12233.341693878099</v>
       </c>
       <c r="K72">
-        <f t="shared" ref="K72:K80" si="2">SUM(E72,G72,H72)</f>
-        <v>3832.3810100555411</v>
+        <f t="shared" si="0"/>
+        <v>12543.749570846539</v>
       </c>
       <c r="L72">
-        <f t="shared" ref="L72:L80" si="3">PRODUCT(K72,0.001)</f>
-        <v>3.8323810100555411</v>
+        <f t="shared" si="1"/>
+        <v>12.54374957084654</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="B73">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="C73" t="s">
         <v>18</v>
       </c>
       <c r="D73" t="s">
+        <v>13</v>
+      </c>
+      <c r="E73">
+        <v>3707.82494544982</v>
+      </c>
+      <c r="F73">
+        <v>640.25497436523403</v>
+      </c>
+      <c r="G73">
+        <v>1764.27817344665</v>
+      </c>
+      <c r="H73">
+        <v>6949.68676567077</v>
+      </c>
+      <c r="I73">
+        <v>3624.8850822448699</v>
+      </c>
+      <c r="J73">
+        <v>12338.9024734497</v>
+      </c>
+      <c r="K73">
+        <f t="shared" si="0"/>
+        <v>12421.789884567239</v>
+      </c>
+      <c r="L73">
+        <f t="shared" si="1"/>
+        <v>12.421789884567239</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>10000</v>
+      </c>
+      <c r="B74">
+        <v>10000</v>
+      </c>
+      <c r="C74" t="s">
+        <v>18</v>
+      </c>
+      <c r="D74" t="s">
+        <v>13</v>
+      </c>
+      <c r="E74">
+        <v>3751.1172294616699</v>
+      </c>
+      <c r="F74">
+        <v>644.26112174987702</v>
+      </c>
+      <c r="G74">
+        <v>1699.59568977355</v>
+      </c>
+      <c r="H74">
+        <v>6791.6774749755796</v>
+      </c>
+      <c r="I74">
+        <v>3756.7586898803702</v>
+      </c>
+      <c r="J74">
+        <v>12248.091936111399</v>
+      </c>
+      <c r="K74">
+        <f t="shared" si="0"/>
+        <v>12242.390394210801</v>
+      </c>
+      <c r="L74">
+        <f t="shared" si="1"/>
+        <v>12.242390394210801</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>100000</v>
+      </c>
+      <c r="B75">
+        <v>100000</v>
+      </c>
+      <c r="C75" t="s">
+        <v>18</v>
+      </c>
+      <c r="D75" t="s">
+        <v>13</v>
+      </c>
+      <c r="E75">
+        <v>3712.3656272888102</v>
+      </c>
+      <c r="F75">
+        <v>637.75968551635697</v>
+      </c>
+      <c r="G75">
+        <v>1743.44944953918</v>
+      </c>
+      <c r="H75">
+        <v>6728.6257743835404</v>
+      </c>
+      <c r="I75">
+        <v>3344.14720535278</v>
+      </c>
+      <c r="J75">
+        <v>11816.281080245901</v>
+      </c>
+      <c r="K75">
+        <f t="shared" si="0"/>
+        <v>12184.44085121153</v>
+      </c>
+      <c r="L75">
+        <f t="shared" si="1"/>
+        <v>12.18444085121153</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>103069</v>
+      </c>
+      <c r="B76">
+        <v>103069</v>
+      </c>
+      <c r="C76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D76" t="s">
+        <v>13</v>
+      </c>
+      <c r="E76">
+        <v>3719.0928459167399</v>
+      </c>
+      <c r="F76">
+        <v>644.18530464172295</v>
+      </c>
+      <c r="G76">
+        <v>1736.9301319122301</v>
+      </c>
+      <c r="H76">
+        <v>7033.6737632751401</v>
+      </c>
+      <c r="I76">
+        <v>3466.2582874298</v>
+      </c>
+      <c r="J76">
+        <v>12236.923694610499</v>
+      </c>
+      <c r="K76">
+        <f t="shared" si="0"/>
+        <v>12489.696741104111</v>
+      </c>
+      <c r="L76">
+        <f t="shared" si="1"/>
+        <v>12.489696741104112</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>100</v>
+      </c>
+      <c r="B77">
+        <v>100</v>
+      </c>
+      <c r="C77" t="s">
+        <v>18</v>
+      </c>
+      <c r="D77" t="s">
         <v>14</v>
       </c>
-      <c r="E73">
+      <c r="E77">
+        <v>3709.76686477661</v>
+      </c>
+      <c r="F77">
+        <v>631.82425498962402</v>
+      </c>
+      <c r="G77">
+        <v>361.33790016174299</v>
+      </c>
+      <c r="H77">
+        <v>53.086757659912102</v>
+      </c>
+      <c r="I77">
+        <v>39302.4327754974</v>
+      </c>
+      <c r="J77">
+        <v>39716.9382572174</v>
+      </c>
+      <c r="K77">
+        <f t="shared" si="0"/>
+        <v>4124.1915225982648</v>
+      </c>
+      <c r="L77">
+        <f t="shared" si="1"/>
+        <v>4.1241915225982648</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>1000</v>
+      </c>
+      <c r="B78">
+        <v>1000</v>
+      </c>
+      <c r="C78" t="s">
+        <v>18</v>
+      </c>
+      <c r="D78" t="s">
+        <v>14</v>
+      </c>
+      <c r="E78">
+        <v>3659.9597930908199</v>
+      </c>
+      <c r="F78">
+        <v>621.55604362487702</v>
+      </c>
+      <c r="G78">
+        <v>120.484590530395</v>
+      </c>
+      <c r="H78">
+        <v>51.936626434326101</v>
+      </c>
+      <c r="I78">
+        <v>37779.7760963439</v>
+      </c>
+      <c r="J78">
+        <v>37952.275037765503</v>
+      </c>
+      <c r="K78">
+        <f t="shared" ref="K78:K86" si="2">SUM(E78,G78,H78)</f>
+        <v>3832.3810100555411</v>
+      </c>
+      <c r="L78">
+        <f t="shared" ref="L78:L86" si="3">PRODUCT(K78,0.001)</f>
+        <v>3.8323810100555411</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>10000</v>
+      </c>
+      <c r="B79">
+        <v>10000</v>
+      </c>
+      <c r="C79" t="s">
+        <v>18</v>
+      </c>
+      <c r="D79" t="s">
+        <v>14</v>
+      </c>
+      <c r="E79">
         <v>3657.4645042419402</v>
       </c>
-      <c r="F73">
+      <c r="F79">
         <v>627.21180915832497</v>
       </c>
-      <c r="G73">
+      <c r="G79">
         <v>93.051671981811495</v>
       </c>
-      <c r="H73">
+      <c r="H79">
         <v>51.677942276000898</v>
       </c>
-      <c r="I73">
+      <c r="I79">
         <v>39068.597078323299</v>
       </c>
-      <c r="J73">
+      <c r="J79">
         <v>39213.407754897999</v>
       </c>
-      <c r="K73">
+      <c r="K79">
         <f t="shared" si="2"/>
         <v>3802.1941184997527</v>
       </c>
-      <c r="L73">
+      <c r="L79">
         <f t="shared" si="3"/>
         <v>3.8021941184997528</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A74">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A80">
         <v>100000</v>
       </c>
-      <c r="B74">
+      <c r="B80">
         <v>100000</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C80" t="s">
         <v>18</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D80" t="s">
         <v>14</v>
       </c>
-      <c r="E74">
+      <c r="E80">
         <v>3655.5352210998499</v>
       </c>
-      <c r="F74">
+      <c r="F80">
         <v>619.40073966979901</v>
       </c>
-      <c r="G74">
+      <c r="G80">
         <v>97.378253936767507</v>
       </c>
-      <c r="H74">
+      <c r="H80">
         <v>51.713228225708001</v>
       </c>
-      <c r="I74">
+      <c r="I80">
         <v>64251.581430435101</v>
       </c>
-      <c r="J74">
+      <c r="J80">
         <v>64400.750160217198</v>
       </c>
-      <c r="K74">
+      <c r="K80">
         <f t="shared" si="2"/>
         <v>3804.6267032623255</v>
       </c>
-      <c r="L74">
+      <c r="L80">
         <f t="shared" si="3"/>
         <v>3.8046267032623255</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A75">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A81">
         <v>103069</v>
       </c>
-      <c r="B75">
+      <c r="B81">
         <v>103069</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C81" t="s">
         <v>18</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D81" t="s">
         <v>14</v>
       </c>
-      <c r="E75">
+      <c r="E81">
         <v>3723.9937782287502</v>
       </c>
-      <c r="F75">
+      <c r="F81">
         <v>645.51019668579102</v>
       </c>
-      <c r="G75">
+      <c r="G81">
         <v>81.0720920562744</v>
       </c>
-      <c r="H75">
+      <c r="H81">
         <v>51.490545272827099</v>
       </c>
-      <c r="I75">
+      <c r="I81">
         <v>47609.8062992095</v>
       </c>
-      <c r="J75">
+      <c r="J81">
         <v>47742.440938949498</v>
       </c>
-      <c r="K75">
+      <c r="K81">
         <f t="shared" si="2"/>
         <v>3856.5564155578518</v>
       </c>
-      <c r="L75">
+      <c r="L81">
         <f t="shared" si="3"/>
         <v>3.856556415557852</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A76">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A82">
         <v>100</v>
       </c>
-      <c r="B76">
+      <c r="B82">
         <v>100</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C82" t="s">
         <v>18</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D82" t="s">
         <v>15</v>
       </c>
-      <c r="E76">
+      <c r="E82">
         <v>3745.18942832946</v>
       </c>
-      <c r="F76">
+      <c r="F82">
         <v>628.32188606262196</v>
       </c>
-      <c r="G76">
+      <c r="G82">
         <v>685.06455421447697</v>
       </c>
-      <c r="H76">
+      <c r="H82">
         <v>24.377822875976499</v>
       </c>
-      <c r="I76">
+      <c r="I82">
         <v>2677.7472496032701</v>
       </c>
-      <c r="J76">
+      <c r="J82">
         <v>3387.2618675231902</v>
       </c>
-      <c r="K76">
+      <c r="K82">
         <f t="shared" si="2"/>
         <v>4454.6318054199137</v>
       </c>
-      <c r="L76">
+      <c r="L82">
         <f t="shared" si="3"/>
         <v>4.4546318054199139</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A77">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A83">
         <v>1000</v>
       </c>
-      <c r="B77">
+      <c r="B83">
         <v>1000</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C83" t="s">
         <v>18</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D83" t="s">
         <v>15</v>
       </c>
-      <c r="E77">
+      <c r="E83">
         <v>3673.6133098602199</v>
       </c>
-      <c r="F77">
+      <c r="F83">
         <v>634.03511047363202</v>
       </c>
-      <c r="G77">
+      <c r="G83">
         <v>229.83956336975001</v>
       </c>
-      <c r="H77">
+      <c r="H83">
         <v>24.302482604980401</v>
       </c>
-      <c r="I77">
+      <c r="I83">
         <v>2640.6576633453301</v>
       </c>
-      <c r="J77">
+      <c r="J83">
         <v>2894.8707580566402</v>
       </c>
-      <c r="K77">
+      <c r="K83">
         <f t="shared" si="2"/>
         <v>3927.7553558349505</v>
       </c>
-      <c r="L77">
+      <c r="L83">
         <f t="shared" si="3"/>
         <v>3.9277553558349507</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A78">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A84">
         <v>10000</v>
       </c>
-      <c r="B78">
+      <c r="B84">
         <v>10000</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C84" t="s">
         <v>18</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D84" t="s">
         <v>15</v>
       </c>
-      <c r="E78">
+      <c r="E84">
         <v>3716.0608768463098</v>
       </c>
-      <c r="F78">
+      <c r="F84">
         <v>634.33814048766999</v>
       </c>
-      <c r="G78">
+      <c r="G84">
         <v>205.65819740295399</v>
       </c>
-      <c r="H78">
+      <c r="H84">
         <v>24.4178771972656</v>
       </c>
-      <c r="I78">
+      <c r="I84">
         <v>2626.2588500976499</v>
       </c>
-      <c r="J78">
+      <c r="J84">
         <v>2856.4074039459201</v>
       </c>
-      <c r="K78">
+      <c r="K84">
         <f t="shared" si="2"/>
         <v>3946.1369514465296</v>
       </c>
-      <c r="L78">
+      <c r="L84">
         <f t="shared" si="3"/>
         <v>3.9461369514465297</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A79">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A85">
         <v>100000</v>
       </c>
-      <c r="B79">
+      <c r="B85">
         <v>100000</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C85" t="s">
         <v>18</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D85" t="s">
         <v>15</v>
       </c>
-      <c r="E79">
+      <c r="E85">
         <v>3711.1184597015299</v>
       </c>
-      <c r="F79">
+      <c r="F85">
         <v>636.63291931152298</v>
       </c>
-      <c r="G79">
+      <c r="G85">
         <v>256.05440139770502</v>
       </c>
-      <c r="H79">
+      <c r="H85">
         <v>24.442434310913001</v>
       </c>
-      <c r="I79">
+      <c r="I85">
         <v>2644.4485187530499</v>
       </c>
-      <c r="J79">
+      <c r="J85">
         <v>2925.0159263610799</v>
       </c>
-      <c r="K79">
+      <c r="K85">
         <f t="shared" si="2"/>
         <v>3991.6152954101481</v>
       </c>
-      <c r="L79">
+      <c r="L85">
         <f t="shared" si="3"/>
         <v>3.9916152954101483</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A80">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A86">
         <v>103069</v>
       </c>
-      <c r="B80">
+      <c r="B86">
         <v>103069</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C86" t="s">
         <v>18</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D86" t="s">
         <v>15</v>
       </c>
-      <c r="E80">
+      <c r="E86">
         <v>3732.24830627441</v>
       </c>
-      <c r="F80">
+      <c r="F86">
         <v>640.91610908508301</v>
       </c>
-      <c r="G80">
+      <c r="G86">
         <v>252.52485275268501</v>
       </c>
-      <c r="H80">
+      <c r="H86">
         <v>24.423122406005799</v>
       </c>
-      <c r="I80">
+      <c r="I86">
         <v>2647.4859714508002</v>
       </c>
-      <c r="J80">
+      <c r="J86">
         <v>2924.5123863220201</v>
       </c>
-      <c r="K80">
+      <c r="K86">
         <f t="shared" si="2"/>
         <v>4009.1962814331009</v>
       </c>
-      <c r="L80">
+      <c r="L86">
         <f t="shared" si="3"/>
         <v>4.009196281433101</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="L2:L80">
+  <conditionalFormatting sqref="L2:L86">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -7182,7 +7216,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G80">
+  <conditionalFormatting sqref="G2:G86">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -7200,10 +7234,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6069E8BF-236C-42C7-9E87-40F9BE888DB8}">
-  <dimension ref="A1:L80"/>
+  <dimension ref="A1:L86"/>
   <sheetViews>
-    <sheetView topLeftCell="D61" workbookViewId="0">
-      <selection activeCell="L52" sqref="L52:L57"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7321,11 +7355,11 @@
         <v>13471.8191623687</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K71" si="0">SUM(E3,G3,H3)</f>
+        <f t="shared" ref="K3:K77" si="0">SUM(E3,G3,H3)</f>
         <v>4461.0030651092429</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L71" si="1">PRODUCT(K3,0.001)</f>
+        <f t="shared" ref="L3:L77" si="1">PRODUCT(K3,0.001)</f>
         <v>4.4610030651092432</v>
       </c>
     </row>
@@ -7571,90 +7605,20 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>100</v>
-      </c>
-      <c r="B10">
-        <v>100</v>
-      </c>
-      <c r="C10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10">
-        <v>3788.11645507812</v>
-      </c>
-      <c r="F10">
-        <v>428.83324623107899</v>
-      </c>
-      <c r="G10">
-        <v>7307.55567550659</v>
-      </c>
-      <c r="H10">
-        <v>6790.4438972473099</v>
-      </c>
-      <c r="I10">
-        <v>32101.6318798065</v>
-      </c>
-      <c r="J10">
-        <v>46199.690818786599</v>
-      </c>
-      <c r="K10">
-        <f t="shared" si="0"/>
-        <v>17886.11602783202</v>
-      </c>
-      <c r="L10">
-        <f t="shared" si="1"/>
-        <v>17.886116027832021</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>1000</v>
-      </c>
-      <c r="B11">
-        <v>1000</v>
-      </c>
-      <c r="C11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11">
-        <v>3757.3697566986002</v>
-      </c>
-      <c r="F11">
-        <v>433.68887901306101</v>
-      </c>
-      <c r="G11">
-        <v>4231.0748100280698</v>
-      </c>
-      <c r="H11">
-        <v>6873.3813762664704</v>
-      </c>
-      <c r="I11">
-        <v>26069.956541061401</v>
-      </c>
-      <c r="J11">
-        <v>37174.472808837803</v>
-      </c>
-      <c r="K11">
-        <f t="shared" si="0"/>
-        <v>14861.82594299314</v>
-      </c>
-      <c r="L11">
-        <f t="shared" si="1"/>
-        <v>14.861825942993141</v>
+        <v>103069</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="B12">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
@@ -7663,38 +7627,38 @@
         <v>13</v>
       </c>
       <c r="E12">
-        <v>3733.4189414978</v>
+        <v>3788.11645507812</v>
       </c>
       <c r="F12">
-        <v>434.07654762267998</v>
+        <v>428.83324623107899</v>
       </c>
       <c r="G12">
-        <v>3552.4053573608398</v>
+        <v>7307.55567550659</v>
       </c>
       <c r="H12">
-        <v>6732.1195602416901</v>
+        <v>6790.4438972473099</v>
       </c>
       <c r="I12">
-        <v>25556.510210037199</v>
+        <v>32101.6318798065</v>
       </c>
       <c r="J12">
-        <v>35841.087818145701</v>
+        <v>46199.690818786599</v>
       </c>
       <c r="K12">
         <f t="shared" si="0"/>
-        <v>14017.943859100331</v>
+        <v>17886.11602783202</v>
       </c>
       <c r="L12">
         <f t="shared" si="1"/>
-        <v>14.017943859100331</v>
+        <v>17.886116027832021</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>100000</v>
+        <v>1000</v>
       </c>
       <c r="B13">
-        <v>100000</v>
+        <v>1000</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
@@ -7703,38 +7667,38 @@
         <v>13</v>
       </c>
       <c r="E13">
-        <v>3755.53464889526</v>
+        <v>3757.3697566986002</v>
       </c>
       <c r="F13">
-        <v>432.186841964721</v>
+        <v>433.68887901306101</v>
       </c>
       <c r="G13">
-        <v>4015.6493186950602</v>
+        <v>4231.0748100280698</v>
       </c>
       <c r="H13">
-        <v>6913.5098457336398</v>
+        <v>6873.3813762664704</v>
       </c>
       <c r="I13">
-        <v>24281.197071075399</v>
+        <v>26069.956541061401</v>
       </c>
       <c r="J13">
-        <v>35210.4396820068</v>
+        <v>37174.472808837803</v>
       </c>
       <c r="K13">
         <f t="shared" si="0"/>
-        <v>14684.69381332396</v>
+        <v>14861.82594299314</v>
       </c>
       <c r="L13">
         <f t="shared" si="1"/>
-        <v>14.68469381332396</v>
+        <v>14.861825942993141</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>103069</v>
+        <v>10000</v>
       </c>
       <c r="B14">
-        <v>103069</v>
+        <v>10000</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
@@ -7743,118 +7707,118 @@
         <v>13</v>
       </c>
       <c r="E14">
-        <v>3712.6500606536802</v>
+        <v>3733.4189414978</v>
       </c>
       <c r="F14">
-        <v>428.49469184875397</v>
+        <v>434.07654762267998</v>
       </c>
       <c r="G14">
-        <v>4008.71849060058</v>
+        <v>3552.4053573608398</v>
       </c>
       <c r="H14">
-        <v>6830.99436759948</v>
+        <v>6732.1195602416901</v>
       </c>
       <c r="I14">
-        <v>27086.190700530999</v>
+        <v>25556.510210037199</v>
       </c>
       <c r="J14">
-        <v>37925.965785980203</v>
+        <v>35841.087818145701</v>
       </c>
       <c r="K14">
         <f t="shared" si="0"/>
-        <v>14552.36291885374</v>
+        <v>14017.943859100331</v>
       </c>
       <c r="L14">
         <f t="shared" si="1"/>
-        <v>14.55236291885374</v>
+        <v>14.017943859100331</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>100</v>
+        <v>100000</v>
       </c>
       <c r="B15">
-        <v>100</v>
+        <v>100000</v>
       </c>
       <c r="C15" t="s">
         <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E15">
-        <v>3759.4225406646701</v>
+        <v>3755.53464889526</v>
       </c>
       <c r="F15">
-        <v>435.21523475646899</v>
+        <v>432.186841964721</v>
       </c>
       <c r="G15">
-        <v>495.28884887695301</v>
+        <v>4015.6493186950602</v>
       </c>
       <c r="H15">
-        <v>51.715612411499002</v>
+        <v>6913.5098457336398</v>
       </c>
       <c r="I15">
-        <v>34466.516017913797</v>
+        <v>24281.197071075399</v>
       </c>
       <c r="J15">
-        <v>35013.612031936602</v>
+        <v>35210.4396820068</v>
       </c>
       <c r="K15">
         <f t="shared" si="0"/>
-        <v>4306.4270019531223</v>
+        <v>14684.69381332396</v>
       </c>
       <c r="L15">
         <f t="shared" si="1"/>
-        <v>4.3064270019531223</v>
+        <v>14.68469381332396</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>1000</v>
+        <v>103069</v>
       </c>
       <c r="B16">
-        <v>1000</v>
+        <v>103069</v>
       </c>
       <c r="C16" t="s">
         <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E16">
-        <v>3743.43919754028</v>
+        <v>3712.6500606536802</v>
       </c>
       <c r="F16">
-        <v>433.19511413574202</v>
+        <v>428.49469184875397</v>
       </c>
       <c r="G16">
-        <v>282.43088722228998</v>
+        <v>4008.71849060058</v>
       </c>
       <c r="H16">
-        <v>51.426649093627901</v>
+        <v>6830.99436759948</v>
       </c>
       <c r="I16">
-        <v>38260.1616382598</v>
+        <v>27086.190700530999</v>
       </c>
       <c r="J16">
-        <v>38594.113111495899</v>
+        <v>37925.965785980203</v>
       </c>
       <c r="K16">
         <f t="shared" si="0"/>
-        <v>4077.296733856198</v>
+        <v>14552.36291885374</v>
       </c>
       <c r="L16">
         <f t="shared" si="1"/>
-        <v>4.0772967338561985</v>
+        <v>14.55236291885374</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="B17">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="C17" t="s">
         <v>10</v>
@@ -7863,38 +7827,38 @@
         <v>14</v>
       </c>
       <c r="E17">
-        <v>3725.9035110473601</v>
+        <v>3759.4225406646701</v>
       </c>
       <c r="F17">
-        <v>433.06851387023897</v>
+        <v>435.21523475646899</v>
       </c>
       <c r="G17">
-        <v>249.12023544311501</v>
+        <v>495.28884887695301</v>
       </c>
       <c r="H17">
-        <v>51.358938217163001</v>
+        <v>51.715612411499002</v>
       </c>
       <c r="I17">
-        <v>54537.004709243702</v>
+        <v>34466.516017913797</v>
       </c>
       <c r="J17">
-        <v>54837.572336196899</v>
+        <v>35013.612031936602</v>
       </c>
       <c r="K17">
         <f t="shared" si="0"/>
-        <v>4026.382684707638</v>
+        <v>4306.4270019531223</v>
       </c>
       <c r="L17">
         <f t="shared" si="1"/>
-        <v>4.026382684707638</v>
+        <v>4.3064270019531223</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>100000</v>
+        <v>1000</v>
       </c>
       <c r="B18">
-        <v>100000</v>
+        <v>1000</v>
       </c>
       <c r="C18" t="s">
         <v>10</v>
@@ -7903,38 +7867,38 @@
         <v>14</v>
       </c>
       <c r="E18">
-        <v>3734.1501712799</v>
+        <v>3743.43919754028</v>
       </c>
       <c r="F18">
-        <v>435.90092658996502</v>
+        <v>433.19511413574202</v>
       </c>
       <c r="G18">
-        <v>261.81483268737702</v>
+        <v>282.43088722228998</v>
       </c>
       <c r="H18">
-        <v>51.4056682586669</v>
+        <v>51.426649093627901</v>
       </c>
       <c r="I18">
-        <v>136017.10414886399</v>
+        <v>38260.1616382598</v>
       </c>
       <c r="J18">
-        <v>136330.411195755</v>
+        <v>38594.113111495899</v>
       </c>
       <c r="K18">
         <f t="shared" si="0"/>
-        <v>4047.370672225944</v>
+        <v>4077.296733856198</v>
       </c>
       <c r="L18">
         <f t="shared" si="1"/>
-        <v>4.0473706722259442</v>
+        <v>4.0772967338561985</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>103069</v>
+        <v>10000</v>
       </c>
       <c r="B19">
-        <v>103069</v>
+        <v>10000</v>
       </c>
       <c r="C19" t="s">
         <v>10</v>
@@ -7943,118 +7907,118 @@
         <v>14</v>
       </c>
       <c r="E19">
-        <v>3729.60495948791</v>
+        <v>3725.9035110473601</v>
       </c>
       <c r="F19">
-        <v>432.060956954956</v>
+        <v>433.06851387023897</v>
       </c>
       <c r="G19">
-        <v>235.44025421142501</v>
+        <v>249.12023544311501</v>
       </c>
       <c r="H19">
-        <v>55.441379547119098</v>
+        <v>51.358938217163001</v>
       </c>
       <c r="I19">
-        <v>115725.60977935699</v>
+        <v>54537.004709243702</v>
       </c>
       <c r="J19">
-        <v>116016.58630371001</v>
+        <v>54837.572336196899</v>
       </c>
       <c r="K19">
         <f t="shared" si="0"/>
-        <v>4020.486593246454</v>
+        <v>4026.382684707638</v>
       </c>
       <c r="L19">
         <f t="shared" si="1"/>
-        <v>4.0204865932464537</v>
+        <v>4.026382684707638</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>100</v>
+        <v>100000</v>
       </c>
       <c r="B20">
-        <v>100</v>
+        <v>100000</v>
       </c>
       <c r="C20" t="s">
         <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E20">
-        <v>3748.01588058471</v>
+        <v>3734.1501712799</v>
       </c>
       <c r="F20">
-        <v>438.95673751830998</v>
+        <v>435.90092658996502</v>
       </c>
       <c r="G20">
-        <v>916.83864593505803</v>
+        <v>261.81483268737702</v>
       </c>
       <c r="H20">
-        <v>25.187492370605401</v>
+        <v>51.4056682586669</v>
       </c>
       <c r="I20">
-        <v>6460.6189727783203</v>
+        <v>136017.10414886399</v>
       </c>
       <c r="J20">
-        <v>7402.7218818664496</v>
+        <v>136330.411195755</v>
       </c>
       <c r="K20">
         <f t="shared" si="0"/>
-        <v>4690.0420188903736</v>
+        <v>4047.370672225944</v>
       </c>
       <c r="L20">
         <f t="shared" si="1"/>
-        <v>4.6900420188903738</v>
+        <v>4.0473706722259442</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>1000</v>
+        <v>103069</v>
       </c>
       <c r="B21">
-        <v>1000</v>
+        <v>103069</v>
       </c>
       <c r="C21" t="s">
         <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E21">
-        <v>3849.0853309631302</v>
+        <v>3729.60495948791</v>
       </c>
       <c r="F21">
-        <v>437.62397766113202</v>
+        <v>432.060956954956</v>
       </c>
       <c r="G21">
-        <v>278.92446517944302</v>
+        <v>235.44025421142501</v>
       </c>
       <c r="H21">
-        <v>27.7693271636962</v>
+        <v>55.441379547119098</v>
       </c>
       <c r="I21">
-        <v>2923.2501983642501</v>
+        <v>115725.60977935699</v>
       </c>
       <c r="J21">
-        <v>3230.0248146057102</v>
+        <v>116016.58630371001</v>
       </c>
       <c r="K21">
         <f t="shared" si="0"/>
-        <v>4155.7791233062699</v>
+        <v>4020.486593246454</v>
       </c>
       <c r="L21">
         <f t="shared" si="1"/>
-        <v>4.15577912330627</v>
+        <v>4.0204865932464537</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="B22">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="C22" t="s">
         <v>10</v>
@@ -8063,38 +8027,38 @@
         <v>15</v>
       </c>
       <c r="E22">
-        <v>3760.8990669250402</v>
+        <v>3748.01588058471</v>
       </c>
       <c r="F22">
-        <v>429.85987663268997</v>
+        <v>438.95673751830998</v>
       </c>
       <c r="G22">
-        <v>254.459857940673</v>
+        <v>916.83864593505803</v>
       </c>
       <c r="H22">
-        <v>24.918556213378899</v>
+        <v>25.187492370605401</v>
       </c>
       <c r="I22">
-        <v>2916.78977012634</v>
+        <v>6460.6189727783203</v>
       </c>
       <c r="J22">
-        <v>3196.2461471557599</v>
+        <v>7402.7218818664496</v>
       </c>
       <c r="K22">
         <f t="shared" si="0"/>
-        <v>4040.277481079092</v>
+        <v>4690.0420188903736</v>
       </c>
       <c r="L22">
         <f t="shared" si="1"/>
-        <v>4.0402774810790918</v>
+        <v>4.6900420188903738</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>100000</v>
+        <v>1000</v>
       </c>
       <c r="B23">
-        <v>100000</v>
+        <v>1000</v>
       </c>
       <c r="C23" t="s">
         <v>10</v>
@@ -8103,38 +8067,38 @@
         <v>15</v>
       </c>
       <c r="E23">
-        <v>3782.7818393707198</v>
+        <v>3849.0853309631302</v>
       </c>
       <c r="F23">
-        <v>436.26976013183503</v>
+        <v>437.62397766113202</v>
       </c>
       <c r="G23">
-        <v>298.76804351806601</v>
+        <v>278.92446517944302</v>
       </c>
       <c r="H23">
-        <v>25.213241577148398</v>
+        <v>27.7693271636962</v>
       </c>
       <c r="I23">
-        <v>2923.6087799072202</v>
+        <v>2923.2501983642501</v>
       </c>
       <c r="J23">
-        <v>3247.6620674133301</v>
+        <v>3230.0248146057102</v>
       </c>
       <c r="K23">
         <f t="shared" si="0"/>
-        <v>4106.7631244659342</v>
+        <v>4155.7791233062699</v>
       </c>
       <c r="L23">
         <f t="shared" si="1"/>
-        <v>4.1067631244659344</v>
+        <v>4.15577912330627</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>103069</v>
+        <v>10000</v>
       </c>
       <c r="B24">
-        <v>103069</v>
+        <v>10000</v>
       </c>
       <c r="C24" t="s">
         <v>10</v>
@@ -8143,118 +8107,118 @@
         <v>15</v>
       </c>
       <c r="E24">
-        <v>3761.9454860687201</v>
+        <v>3760.8990669250402</v>
       </c>
       <c r="F24">
-        <v>430.10640144348099</v>
+        <v>429.85987663268997</v>
       </c>
       <c r="G24">
-        <v>294.65413093566798</v>
+        <v>254.459857940673</v>
       </c>
       <c r="H24">
-        <v>24.594783782958899</v>
+        <v>24.918556213378899</v>
       </c>
       <c r="I24">
-        <v>2892.0307159423801</v>
+        <v>2916.78977012634</v>
       </c>
       <c r="J24">
-        <v>3211.3678455352701</v>
+        <v>3196.2461471557599</v>
       </c>
       <c r="K24">
         <f t="shared" si="0"/>
-        <v>4081.1944007873471</v>
+        <v>4040.277481079092</v>
       </c>
       <c r="L24">
         <f t="shared" si="1"/>
-        <v>4.0811944007873473</v>
+        <v>4.0402774810790918</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>100</v>
+        <v>100000</v>
       </c>
       <c r="B25">
-        <v>100</v>
+        <v>100000</v>
       </c>
       <c r="C25" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E25">
-        <v>3755.3937435150101</v>
+        <v>3782.7818393707198</v>
       </c>
       <c r="F25">
-        <v>357.953071594238</v>
+        <v>436.26976013183503</v>
       </c>
       <c r="G25">
-        <v>988.89684677124001</v>
+        <v>298.76804351806601</v>
       </c>
       <c r="H25">
-        <v>51.161766052246001</v>
+        <v>25.213241577148398</v>
       </c>
       <c r="I25">
-        <v>74677.679061889605</v>
+        <v>2923.6087799072202</v>
       </c>
       <c r="J25">
-        <v>75717.815399169893</v>
+        <v>3247.6620674133301</v>
       </c>
       <c r="K25">
         <f t="shared" si="0"/>
-        <v>4795.4523563384964</v>
+        <v>4106.7631244659342</v>
       </c>
       <c r="L25">
         <f t="shared" si="1"/>
-        <v>4.7954523563384965</v>
+        <v>4.1067631244659344</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>1000</v>
+        <v>103069</v>
       </c>
       <c r="B26">
-        <v>1000</v>
+        <v>103069</v>
       </c>
       <c r="C26" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E26">
-        <v>3740.9582138061501</v>
+        <v>3761.9454860687201</v>
       </c>
       <c r="F26">
-        <v>304.79645729064902</v>
+        <v>430.10640144348099</v>
       </c>
       <c r="G26">
-        <v>672.20973968505803</v>
+        <v>294.65413093566798</v>
       </c>
       <c r="H26">
-        <v>51.313877105712798</v>
+        <v>24.594783782958899</v>
       </c>
       <c r="I26">
-        <v>74122.476339340195</v>
+        <v>2892.0307159423801</v>
       </c>
       <c r="J26">
-        <v>74846.068859100298</v>
+        <v>3211.3678455352701</v>
       </c>
       <c r="K26">
         <f t="shared" si="0"/>
-        <v>4464.4818305969211</v>
+        <v>4081.1944007873471</v>
       </c>
       <c r="L26">
         <f t="shared" si="1"/>
-        <v>4.4644818305969212</v>
+        <v>4.0811944007873473</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="B27">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="C27" t="s">
         <v>16</v>
@@ -8263,38 +8227,38 @@
         <v>11</v>
       </c>
       <c r="E27">
-        <v>3754.9715042114199</v>
+        <v>3755.3937435150101</v>
       </c>
       <c r="F27">
-        <v>299.36695098876902</v>
+        <v>357.953071594238</v>
       </c>
       <c r="G27">
-        <v>623.39568138122502</v>
+        <v>988.89684677124001</v>
       </c>
       <c r="H27">
-        <v>51.157712936401303</v>
+        <v>51.161766052246001</v>
       </c>
       <c r="I27">
-        <v>74647.751331329302</v>
+        <v>74677.679061889605</v>
       </c>
       <c r="J27">
-        <v>75322.376012802095</v>
+        <v>75717.815399169893</v>
       </c>
       <c r="K27">
         <f t="shared" si="0"/>
-        <v>4429.5248985290464</v>
+        <v>4795.4523563384964</v>
       </c>
       <c r="L27">
         <f t="shared" si="1"/>
-        <v>4.4295248985290465</v>
+        <v>4.7954523563384965</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>100000</v>
+        <v>1000</v>
       </c>
       <c r="B28">
-        <v>100000</v>
+        <v>1000</v>
       </c>
       <c r="C28" t="s">
         <v>16</v>
@@ -8303,38 +8267,38 @@
         <v>11</v>
       </c>
       <c r="E28">
-        <v>3712.6109600067098</v>
+        <v>3740.9582138061501</v>
       </c>
       <c r="F28">
-        <v>302.05941200256302</v>
+        <v>304.79645729064902</v>
       </c>
       <c r="G28">
-        <v>649.40762519836403</v>
+        <v>672.20973968505803</v>
       </c>
       <c r="H28">
-        <v>51.459550857543903</v>
+        <v>51.313877105712798</v>
       </c>
       <c r="I28">
-        <v>75074.067115783604</v>
+        <v>74122.476339340195</v>
       </c>
       <c r="J28">
-        <v>75775.008201599107</v>
+        <v>74846.068859100298</v>
       </c>
       <c r="K28">
         <f t="shared" si="0"/>
-        <v>4413.4781360626175</v>
+        <v>4464.4818305969211</v>
       </c>
       <c r="L28">
         <f t="shared" si="1"/>
-        <v>4.4134781360626176</v>
+        <v>4.4644818305969212</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>103069</v>
+        <v>10000</v>
       </c>
       <c r="B29">
-        <v>103069</v>
+        <v>10000</v>
       </c>
       <c r="C29" t="s">
         <v>16</v>
@@ -8343,118 +8307,118 @@
         <v>11</v>
       </c>
       <c r="E29">
-        <v>3704.1950225830001</v>
+        <v>3754.9715042114199</v>
       </c>
       <c r="F29">
-        <v>359.59625244140602</v>
+        <v>299.36695098876902</v>
       </c>
       <c r="G29">
-        <v>626.72472000122002</v>
+        <v>623.39568138122502</v>
       </c>
       <c r="H29">
-        <v>51.445960998535099</v>
+        <v>51.157712936401303</v>
       </c>
       <c r="I29">
-        <v>75044.000148773193</v>
+        <v>74647.751331329302</v>
       </c>
       <c r="J29">
-        <v>75722.251653671206</v>
+        <v>75322.376012802095</v>
       </c>
       <c r="K29">
         <f t="shared" si="0"/>
-        <v>4382.3657035827555</v>
+        <v>4429.5248985290464</v>
       </c>
       <c r="L29">
         <f t="shared" si="1"/>
-        <v>4.3823657035827557</v>
+        <v>4.4295248985290465</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>100</v>
+        <v>100000</v>
       </c>
       <c r="B30">
-        <v>100</v>
+        <v>100000</v>
       </c>
       <c r="C30" t="s">
         <v>16</v>
       </c>
       <c r="D30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E30">
-        <v>3745.4981803894002</v>
+        <v>3712.6109600067098</v>
       </c>
       <c r="F30">
-        <v>356.09173774719198</v>
+        <v>302.05941200256302</v>
       </c>
       <c r="G30">
-        <v>1549.92079734802</v>
+        <v>649.40762519836403</v>
       </c>
       <c r="H30">
-        <v>51.560163497924798</v>
+        <v>51.459550857543903</v>
       </c>
       <c r="I30">
-        <v>73422.228813171299</v>
+        <v>75074.067115783604</v>
       </c>
       <c r="J30">
-        <v>75023.782014846802</v>
+        <v>75775.008201599107</v>
       </c>
       <c r="K30">
         <f t="shared" si="0"/>
-        <v>5346.9791412353452</v>
+        <v>4413.4781360626175</v>
       </c>
       <c r="L30">
         <f t="shared" si="1"/>
-        <v>5.3469791412353453</v>
+        <v>4.4134781360626176</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>1000</v>
+        <v>103069</v>
       </c>
       <c r="B31">
-        <v>1000</v>
+        <v>103069</v>
       </c>
       <c r="C31" t="s">
         <v>16</v>
       </c>
       <c r="D31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E31">
-        <v>3759.5996856689399</v>
+        <v>3704.1950225830001</v>
       </c>
       <c r="F31">
-        <v>357.89346694946198</v>
+        <v>359.59625244140602</v>
       </c>
       <c r="G31">
-        <v>1293.07103157043</v>
+        <v>626.72472000122002</v>
       </c>
       <c r="H31">
-        <v>53.227424621582003</v>
+        <v>51.445960998535099</v>
       </c>
       <c r="I31">
-        <v>73307.336807250904</v>
+        <v>75044.000148773193</v>
       </c>
       <c r="J31">
-        <v>74653.711080551104</v>
+        <v>75722.251653671206</v>
       </c>
       <c r="K31">
         <f t="shared" si="0"/>
-        <v>5105.8981418609519</v>
+        <v>4382.3657035827555</v>
       </c>
       <c r="L31">
         <f t="shared" si="1"/>
-        <v>5.1058981418609521</v>
+        <v>4.3823657035827557</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="B32">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="C32" t="s">
         <v>16</v>
@@ -8463,198 +8427,128 @@
         <v>12</v>
       </c>
       <c r="E32">
-        <v>3739.46070671081</v>
+        <v>3745.4981803894002</v>
       </c>
       <c r="F32">
-        <v>300.92072486877402</v>
+        <v>356.09173774719198</v>
       </c>
       <c r="G32">
-        <v>1532.7882766723601</v>
+        <v>1549.92079734802</v>
       </c>
       <c r="H32">
-        <v>53.878307342529297</v>
+        <v>51.560163497924798</v>
       </c>
       <c r="I32">
-        <v>73951.924562454195</v>
+        <v>73422.228813171299</v>
       </c>
       <c r="J32">
-        <v>75538.671731948794</v>
+        <v>75023.782014846802</v>
       </c>
       <c r="K32">
         <f t="shared" si="0"/>
-        <v>5326.1272907256989</v>
+        <v>5346.9791412353452</v>
       </c>
       <c r="L32">
         <f t="shared" si="1"/>
-        <v>5.3261272907256991</v>
+        <v>5.3469791412353453</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="B33">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="C33" t="s">
         <v>16</v>
       </c>
       <c r="D33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E33">
-        <v>3719.0058231353701</v>
+        <v>3759.5996856689399</v>
       </c>
       <c r="F33">
-        <v>355.15022277832003</v>
+        <v>357.89346694946198</v>
       </c>
       <c r="G33">
-        <v>3902.53686904907</v>
+        <v>1293.07103157043</v>
       </c>
       <c r="H33">
-        <v>6927.7858734130796</v>
+        <v>53.227424621582003</v>
       </c>
       <c r="I33">
-        <v>20903.353929519599</v>
+        <v>73307.336807250904</v>
       </c>
       <c r="J33">
-        <v>31733.730792999198</v>
+        <v>74653.711080551104</v>
       </c>
       <c r="K33">
         <f t="shared" si="0"/>
-        <v>14549.32856559752</v>
+        <v>5105.8981418609519</v>
       </c>
       <c r="L33">
         <f t="shared" si="1"/>
-        <v>14.54932856559752</v>
+        <v>5.1058981418609521</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="B34">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="C34" t="s">
         <v>16</v>
       </c>
       <c r="D34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E34">
-        <v>3833.33396911621</v>
+        <v>3739.46070671081</v>
       </c>
       <c r="F34">
-        <v>354.44545745849598</v>
+        <v>300.92072486877402</v>
       </c>
       <c r="G34">
-        <v>2853.2392978668199</v>
+        <v>1532.7882766723601</v>
       </c>
       <c r="H34">
-        <v>6753.4956932067798</v>
+        <v>53.878307342529297</v>
       </c>
       <c r="I34">
-        <v>20959.389925003001</v>
+        <v>73951.924562454195</v>
       </c>
       <c r="J34">
-        <v>30566.183090209899</v>
+        <v>75538.671731948794</v>
       </c>
       <c r="K34">
         <f t="shared" si="0"/>
-        <v>13440.06896018981</v>
+        <v>5326.1272907256989</v>
       </c>
       <c r="L34">
         <f t="shared" si="1"/>
-        <v>13.44006896018981</v>
+        <v>5.3261272907256991</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>10000</v>
-      </c>
-      <c r="B35">
-        <v>10000</v>
-      </c>
-      <c r="C35" t="s">
-        <v>16</v>
-      </c>
-      <c r="D35" t="s">
-        <v>13</v>
-      </c>
-      <c r="E35">
-        <v>3747.4825382232598</v>
-      </c>
-      <c r="F35">
-        <v>357.10191726684502</v>
-      </c>
-      <c r="G35">
-        <v>2673.0115413665699</v>
-      </c>
-      <c r="H35">
-        <v>6867.6717281341498</v>
-      </c>
-      <c r="I35">
-        <v>19996.252775192199</v>
-      </c>
-      <c r="J35">
-        <v>29536.993265151901</v>
-      </c>
-      <c r="K35">
-        <f t="shared" si="0"/>
-        <v>13288.165807723979</v>
-      </c>
-      <c r="L35">
-        <f t="shared" si="1"/>
-        <v>13.288165807723979</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>100000</v>
-      </c>
-      <c r="B36">
-        <v>100000</v>
-      </c>
-      <c r="C36" t="s">
-        <v>16</v>
-      </c>
-      <c r="D36" t="s">
-        <v>13</v>
-      </c>
-      <c r="E36">
-        <v>3728.6376953125</v>
-      </c>
-      <c r="F36">
-        <v>355.36241531372002</v>
-      </c>
-      <c r="G36">
-        <v>3462.4357223510701</v>
-      </c>
-      <c r="H36">
-        <v>6750.2408027648898</v>
-      </c>
-      <c r="I36">
-        <v>20646.618843078599</v>
-      </c>
-      <c r="J36">
-        <v>30859.356880187901</v>
-      </c>
-      <c r="K36">
-        <f t="shared" si="0"/>
-        <v>13941.31422042846</v>
-      </c>
-      <c r="L36">
-        <f t="shared" si="1"/>
-        <v>13.94131422042846</v>
+        <v>103069</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>103069</v>
+        <v>100</v>
       </c>
       <c r="B37">
-        <v>103069</v>
+        <v>100</v>
       </c>
       <c r="C37" t="s">
         <v>16</v>
@@ -8663,198 +8557,198 @@
         <v>13</v>
       </c>
       <c r="E37">
-        <v>3705.3961753845201</v>
+        <v>3719.0058231353701</v>
       </c>
       <c r="F37">
-        <v>356.33039474487299</v>
+        <v>355.15022277832003</v>
       </c>
       <c r="G37">
-        <v>3481.0650348663298</v>
+        <v>3902.53686904907</v>
       </c>
       <c r="H37">
-        <v>6725.5253791809</v>
+        <v>6927.7858734130796</v>
       </c>
       <c r="I37">
-        <v>21019.325256347602</v>
+        <v>20903.353929519599</v>
       </c>
       <c r="J37">
-        <v>31225.980758666901</v>
+        <v>31733.730792999198</v>
       </c>
       <c r="K37">
         <f t="shared" si="0"/>
-        <v>13911.98658943175</v>
+        <v>14549.32856559752</v>
       </c>
       <c r="L37">
         <f t="shared" si="1"/>
-        <v>13.91198658943175</v>
+        <v>14.54932856559752</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="B38">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="C38" t="s">
         <v>16</v>
       </c>
       <c r="D38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E38">
-        <v>3759.7203254699698</v>
+        <v>3833.33396911621</v>
       </c>
       <c r="F38">
-        <v>355.19862174987702</v>
+        <v>354.44545745849598</v>
       </c>
       <c r="G38">
-        <v>477.72097587585398</v>
+        <v>2853.2392978668199</v>
       </c>
       <c r="H38">
-        <v>51.577568054199197</v>
+        <v>6753.4956932067798</v>
       </c>
       <c r="I38">
-        <v>153989.182472229</v>
+        <v>20959.389925003001</v>
       </c>
       <c r="J38">
-        <v>154518.57042312599</v>
+        <v>30566.183090209899</v>
       </c>
       <c r="K38">
         <f t="shared" si="0"/>
-        <v>4289.0188694000226</v>
+        <v>13440.06896018981</v>
       </c>
       <c r="L38">
         <f t="shared" si="1"/>
-        <v>4.2890188694000226</v>
+        <v>13.44006896018981</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="B39">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="C39" t="s">
         <v>16</v>
       </c>
       <c r="D39" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E39">
-        <v>3726.9480228424</v>
+        <v>3747.4825382232598</v>
       </c>
       <c r="F39">
-        <v>357.07640647888098</v>
+        <v>357.10191726684502</v>
       </c>
       <c r="G39">
-        <v>249.00460243225001</v>
+        <v>2673.0115413665699</v>
       </c>
       <c r="H39">
-        <v>53.004026412963803</v>
+        <v>6867.6717281341498</v>
       </c>
       <c r="I39">
-        <v>159959.57207679699</v>
+        <v>19996.252775192199</v>
       </c>
       <c r="J39">
-        <v>160261.67082786499</v>
+        <v>29536.993265151901</v>
       </c>
       <c r="K39">
         <f t="shared" si="0"/>
-        <v>4028.9566516876139</v>
+        <v>13288.165807723979</v>
       </c>
       <c r="L39">
         <f t="shared" si="1"/>
-        <v>4.0289566516876141</v>
+        <v>13.288165807723979</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="B40">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="C40" t="s">
         <v>16</v>
       </c>
       <c r="D40" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E40">
-        <v>3925.80246925354</v>
+        <v>3728.6376953125</v>
       </c>
       <c r="F40">
-        <v>355.87334632873501</v>
+        <v>355.36241531372002</v>
       </c>
       <c r="G40">
-        <v>235.65649986266999</v>
+        <v>3462.4357223510701</v>
       </c>
       <c r="H40">
-        <v>51.690578460693303</v>
+        <v>6750.2408027648898</v>
       </c>
       <c r="I40">
-        <v>176505.10001182501</v>
+        <v>20646.618843078599</v>
       </c>
       <c r="J40">
-        <v>176792.53244400001</v>
+        <v>30859.356880187901</v>
       </c>
       <c r="K40">
         <f t="shared" si="0"/>
-        <v>4213.1495475769034</v>
+        <v>13941.31422042846</v>
       </c>
       <c r="L40">
         <f t="shared" si="1"/>
-        <v>4.2131495475769034</v>
+        <v>13.94131422042846</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>100000</v>
+        <v>103069</v>
       </c>
       <c r="B41">
-        <v>100000</v>
+        <v>103069</v>
       </c>
       <c r="C41" t="s">
         <v>16</v>
       </c>
       <c r="D41" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E41">
-        <v>3715.1372432708699</v>
+        <v>3705.3961753845201</v>
       </c>
       <c r="F41">
-        <v>352.79965400695801</v>
+        <v>356.33039474487299</v>
       </c>
       <c r="G41">
-        <v>235.75735092163001</v>
+        <v>3481.0650348663298</v>
       </c>
       <c r="H41">
-        <v>54.049730300903299</v>
+        <v>6725.5253791809</v>
       </c>
       <c r="I41">
-        <v>255987.609386444</v>
+        <v>21019.325256347602</v>
       </c>
       <c r="J41">
-        <v>256277.50253677301</v>
+        <v>31225.980758666901</v>
       </c>
       <c r="K41">
         <f t="shared" si="0"/>
-        <v>4004.9443244934032</v>
+        <v>13911.98658943175</v>
       </c>
       <c r="L41">
         <f t="shared" si="1"/>
-        <v>4.0049443244934029</v>
+        <v>13.91198658943175</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>103069</v>
+        <v>100</v>
       </c>
       <c r="B42">
-        <v>103069</v>
+        <v>100</v>
       </c>
       <c r="C42" t="s">
         <v>16</v>
@@ -8863,198 +8757,198 @@
         <v>14</v>
       </c>
       <c r="E42">
-        <v>3727.6983261108398</v>
+        <v>3759.7203254699698</v>
       </c>
       <c r="F42">
-        <v>354.59303855895899</v>
+        <v>355.19862174987702</v>
       </c>
       <c r="G42">
-        <v>190.170526504516</v>
+        <v>477.72097587585398</v>
       </c>
       <c r="H42">
-        <v>51.409721374511697</v>
+        <v>51.577568054199197</v>
       </c>
       <c r="I42">
-        <v>177136.558294296</v>
+        <v>153989.182472229</v>
       </c>
       <c r="J42">
-        <v>177378.24296951201</v>
+        <v>154518.57042312599</v>
       </c>
       <c r="K42">
         <f t="shared" si="0"/>
-        <v>3969.2785739898677</v>
+        <v>4289.0188694000226</v>
       </c>
       <c r="L42">
         <f t="shared" si="1"/>
-        <v>3.9692785739898677</v>
+        <v>4.2890188694000226</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="B43">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="C43" t="s">
         <v>16</v>
       </c>
       <c r="D43" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E43">
-        <v>3735.8045578002898</v>
+        <v>3726.9480228424</v>
       </c>
       <c r="F43">
-        <v>359.16209220886202</v>
+        <v>357.07640647888098</v>
       </c>
       <c r="G43">
-        <v>819.20361518859795</v>
+        <v>249.00460243225001</v>
       </c>
       <c r="H43">
-        <v>23.720502853393501</v>
+        <v>53.004026412963803</v>
       </c>
       <c r="I43">
-        <v>2856.56762123107</v>
+        <v>159959.57207679699</v>
       </c>
       <c r="J43">
-        <v>3699.5720863342199</v>
+        <v>160261.67082786499</v>
       </c>
       <c r="K43">
         <f t="shared" si="0"/>
-        <v>4578.7286758422815</v>
+        <v>4028.9566516876139</v>
       </c>
       <c r="L43">
         <f t="shared" si="1"/>
-        <v>4.5787286758422816</v>
+        <v>4.0289566516876141</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="B44">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="C44" t="s">
         <v>16</v>
       </c>
       <c r="D44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E44">
-        <v>3715.2442932128902</v>
+        <v>3925.80246925354</v>
       </c>
       <c r="F44">
-        <v>358.17456245422301</v>
+        <v>355.87334632873501</v>
       </c>
       <c r="G44">
-        <v>266.785860061645</v>
+        <v>235.65649986266999</v>
       </c>
       <c r="H44">
-        <v>23.455619812011701</v>
+        <v>51.690578460693303</v>
       </c>
       <c r="I44">
-        <v>2779.20579910278</v>
+        <v>176505.10001182501</v>
       </c>
       <c r="J44">
-        <v>3069.5326328277501</v>
+        <v>176792.53244400001</v>
       </c>
       <c r="K44">
         <f t="shared" si="0"/>
-        <v>4005.4857730865469</v>
+        <v>4213.1495475769034</v>
       </c>
       <c r="L44">
         <f t="shared" si="1"/>
-        <v>4.005485773086547</v>
+        <v>4.2131495475769034</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="B45">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="C45" t="s">
         <v>16</v>
       </c>
       <c r="D45" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E45">
-        <v>3704.8058509826601</v>
+        <v>3715.1372432708699</v>
       </c>
       <c r="F45">
-        <v>357.35535621642998</v>
+        <v>352.79965400695801</v>
       </c>
       <c r="G45">
-        <v>230.86190223693799</v>
+        <v>235.75735092163001</v>
       </c>
       <c r="H45">
-        <v>23.5393047332763</v>
+        <v>54.049730300903299</v>
       </c>
       <c r="I45">
-        <v>2753.8778781890801</v>
+        <v>255987.609386444</v>
       </c>
       <c r="J45">
-        <v>3008.3575248718198</v>
+        <v>256277.50253677301</v>
       </c>
       <c r="K45">
         <f t="shared" si="0"/>
-        <v>3959.2070579528745</v>
+        <v>4004.9443244934032</v>
       </c>
       <c r="L45">
         <f t="shared" si="1"/>
-        <v>3.9592070579528746</v>
+        <v>4.0049443244934029</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>100000</v>
+        <v>103069</v>
       </c>
       <c r="B46">
-        <v>100000</v>
+        <v>103069</v>
       </c>
       <c r="C46" t="s">
         <v>16</v>
       </c>
       <c r="D46" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E46">
-        <v>3725.4171371459902</v>
+        <v>3727.6983261108398</v>
       </c>
       <c r="F46">
-        <v>358.57319831848099</v>
+        <v>354.59303855895899</v>
       </c>
       <c r="G46">
-        <v>243.48759651184</v>
+        <v>190.170526504516</v>
       </c>
       <c r="H46">
-        <v>23.514747619628899</v>
+        <v>51.409721374511697</v>
       </c>
       <c r="I46">
-        <v>2750.0476837158199</v>
+        <v>177136.558294296</v>
       </c>
       <c r="J46">
-        <v>3017.1279907226499</v>
+        <v>177378.24296951201</v>
       </c>
       <c r="K46">
         <f t="shared" si="0"/>
-        <v>3992.419481277459</v>
+        <v>3969.2785739898677</v>
       </c>
       <c r="L46">
         <f t="shared" si="1"/>
-        <v>3.9924194812774592</v>
+        <v>3.9692785739898677</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>103069</v>
+        <v>100</v>
       </c>
       <c r="B47">
-        <v>103069</v>
+        <v>100</v>
       </c>
       <c r="C47" t="s">
         <v>16</v>
@@ -9063,198 +8957,198 @@
         <v>15</v>
       </c>
       <c r="E47">
-        <v>3757.7261924743598</v>
+        <v>3735.8045578002898</v>
       </c>
       <c r="F47">
-        <v>356.32228851318303</v>
+        <v>359.16209220886202</v>
       </c>
       <c r="G47">
-        <v>221.45557403564399</v>
+        <v>819.20361518859795</v>
       </c>
       <c r="H47">
-        <v>23.801088333129801</v>
+        <v>23.720502853393501</v>
       </c>
       <c r="I47">
-        <v>2754.1453838348302</v>
+        <v>2856.56762123107</v>
       </c>
       <c r="J47">
-        <v>2999.4888305663999</v>
+        <v>3699.5720863342199</v>
       </c>
       <c r="K47">
         <f t="shared" si="0"/>
-        <v>4002.9828548431337</v>
+        <v>4578.7286758422815</v>
       </c>
       <c r="L47">
         <f t="shared" si="1"/>
-        <v>4.0029828548431334</v>
+        <v>4.5787286758422816</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="B48">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="C48" t="s">
         <v>16</v>
       </c>
       <c r="D48" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E48">
-        <v>3711.5147113799999</v>
+        <v>3715.2442932128902</v>
       </c>
       <c r="F48">
-        <v>351.28641128539999</v>
+        <v>358.17456245422301</v>
       </c>
       <c r="G48">
-        <v>36866.260528564402</v>
+        <v>266.785860061645</v>
       </c>
       <c r="H48">
-        <v>51.2411594390869</v>
+        <v>23.455619812011701</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>2779.20579910278</v>
       </c>
       <c r="J48">
-        <v>36919.4369316101</v>
+        <v>3069.5326328277501</v>
       </c>
       <c r="K48">
         <f t="shared" si="0"/>
-        <v>40629.016399383487</v>
+        <v>4005.4857730865469</v>
       </c>
       <c r="L48">
         <f t="shared" si="1"/>
-        <v>40.629016399383488</v>
+        <v>4.005485773086547</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="B49">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="C49" t="s">
         <v>16</v>
       </c>
       <c r="D49" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E49">
-        <v>3716.8617248535102</v>
+        <v>3704.8058509826601</v>
       </c>
       <c r="F49">
-        <v>357.52892494201598</v>
+        <v>357.35535621642998</v>
       </c>
       <c r="G49">
-        <v>5376.4429092407199</v>
+        <v>230.86190223693799</v>
       </c>
       <c r="H49">
-        <v>51.038265228271399</v>
+        <v>23.5393047332763</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>2753.8778781890801</v>
       </c>
       <c r="J49">
-        <v>5429.5060634613001</v>
+        <v>3008.3575248718198</v>
       </c>
       <c r="K49">
         <f t="shared" si="0"/>
-        <v>9144.3428993225025</v>
+        <v>3959.2070579528745</v>
       </c>
       <c r="L49">
         <f t="shared" si="1"/>
-        <v>9.1443428993225027</v>
+        <v>3.9592070579528746</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="B50">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="C50" t="s">
         <v>16</v>
       </c>
       <c r="D50" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E50">
-        <v>3728.4634113311699</v>
+        <v>3725.4171371459902</v>
       </c>
       <c r="F50">
-        <v>361.45210266113202</v>
+        <v>358.57319831848099</v>
       </c>
       <c r="G50">
-        <v>2345.5417156219401</v>
+        <v>243.48759651184</v>
       </c>
       <c r="H50">
-        <v>52.756786346435497</v>
+        <v>23.514747619628899</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>2750.0476837158199</v>
       </c>
       <c r="J50">
-        <v>2400.36988258361</v>
+        <v>3017.1279907226499</v>
       </c>
       <c r="K50">
         <f t="shared" si="0"/>
-        <v>6126.761913299546</v>
+        <v>3992.419481277459</v>
       </c>
       <c r="L50">
         <f t="shared" si="1"/>
-        <v>6.1267619132995463</v>
+        <v>3.9924194812774592</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>100000</v>
+        <v>103069</v>
       </c>
       <c r="B51">
-        <v>100000</v>
+        <v>103069</v>
       </c>
       <c r="C51" t="s">
         <v>16</v>
       </c>
       <c r="D51" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E51">
-        <v>3747.5724220275802</v>
+        <v>3757.7261924743598</v>
       </c>
       <c r="F51">
-        <v>360.702276229858</v>
+        <v>356.32228851318303</v>
       </c>
       <c r="G51">
-        <v>2149.8670578002898</v>
+        <v>221.45557403564399</v>
       </c>
       <c r="H51">
-        <v>52.567243576049798</v>
+        <v>23.801088333129801</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>2754.1453838348302</v>
       </c>
       <c r="J51">
-        <v>2204.3707370758002</v>
+        <v>2999.4888305663999</v>
       </c>
       <c r="K51">
         <f t="shared" si="0"/>
-        <v>5950.0067234039198</v>
+        <v>4002.9828548431337</v>
       </c>
       <c r="L51">
         <f t="shared" si="1"/>
-        <v>5.95000672340392</v>
+        <v>4.0029828548431334</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>103069</v>
+        <v>100</v>
       </c>
       <c r="B52">
-        <v>103069</v>
+        <v>100</v>
       </c>
       <c r="C52" t="s">
         <v>16</v>
@@ -9263,198 +9157,198 @@
         <v>17</v>
       </c>
       <c r="E52">
-        <v>3747.3881244659401</v>
+        <v>3711.5147113799999</v>
       </c>
       <c r="F52">
-        <v>357.61117935180602</v>
+        <v>351.28641128539999</v>
       </c>
       <c r="G52">
-        <v>2105.8814525604198</v>
+        <v>36866.260528564402</v>
       </c>
       <c r="H52">
-        <v>50.975561141967702</v>
+        <v>51.2411594390869</v>
       </c>
       <c r="I52">
         <v>0</v>
       </c>
       <c r="J52">
-        <v>2158.8556766510001</v>
+        <v>36919.4369316101</v>
       </c>
       <c r="K52">
         <f t="shared" si="0"/>
-        <v>5904.2451381683277</v>
+        <v>40629.016399383487</v>
       </c>
       <c r="L52">
         <f t="shared" si="1"/>
-        <v>5.9042451381683279</v>
+        <v>40.629016399383488</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="B53">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="C53" t="s">
         <v>16</v>
       </c>
       <c r="D53" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E53">
-        <v>3734.23266410827</v>
+        <v>3716.8617248535102</v>
       </c>
       <c r="F53">
-        <v>348.83832931518498</v>
+        <v>357.52892494201598</v>
       </c>
       <c r="G53">
-        <v>38869.2467212677</v>
+        <v>5376.4429092407199</v>
       </c>
       <c r="H53">
-        <v>51.174879074096602</v>
+        <v>51.038265228271399</v>
       </c>
       <c r="I53">
         <v>0</v>
       </c>
       <c r="J53">
-        <v>38922.387838363597</v>
+        <v>5429.5060634613001</v>
       </c>
       <c r="K53">
         <f t="shared" si="0"/>
-        <v>42654.654264450066</v>
+        <v>9144.3428993225025</v>
       </c>
       <c r="L53">
         <f t="shared" si="1"/>
-        <v>42.654654264450066</v>
+        <v>9.1443428993225027</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="B54">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="C54" t="s">
         <v>16</v>
       </c>
       <c r="D54" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E54">
-        <v>3727.4951934814399</v>
+        <v>3728.4634113311699</v>
       </c>
       <c r="F54">
-        <v>356.00900650024403</v>
+        <v>361.45210266113202</v>
       </c>
       <c r="G54">
-        <v>5190.8955574035599</v>
+        <v>2345.5417156219401</v>
       </c>
       <c r="H54">
-        <v>50.945520401000898</v>
+        <v>52.756786346435497</v>
       </c>
       <c r="I54">
         <v>0</v>
       </c>
       <c r="J54">
-        <v>5243.7558174133301</v>
+        <v>2400.36988258361</v>
       </c>
       <c r="K54">
         <f t="shared" si="0"/>
-        <v>8969.3362712859998</v>
+        <v>6126.761913299546</v>
       </c>
       <c r="L54">
         <f t="shared" si="1"/>
-        <v>8.9693362712860001</v>
+        <v>6.1267619132995463</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="B55">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="C55" t="s">
         <v>16</v>
       </c>
       <c r="D55" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E55">
-        <v>3727.2920608520499</v>
+        <v>3747.5724220275802</v>
       </c>
       <c r="F55">
-        <v>353.66678237914999</v>
+        <v>360.702276229858</v>
       </c>
       <c r="G55">
-        <v>2167.9837703704802</v>
+        <v>2149.8670578002898</v>
       </c>
       <c r="H55">
-        <v>51.002264022827099</v>
+        <v>52.567243576049798</v>
       </c>
       <c r="I55">
         <v>0</v>
       </c>
       <c r="J55">
-        <v>2221.0016250610302</v>
+        <v>2204.3707370758002</v>
       </c>
       <c r="K55">
         <f t="shared" si="0"/>
-        <v>5946.2780952453577</v>
+        <v>5950.0067234039198</v>
       </c>
       <c r="L55">
         <f t="shared" si="1"/>
-        <v>5.9462780952453578</v>
+        <v>5.95000672340392</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>100000</v>
+        <v>103069</v>
       </c>
       <c r="B56">
-        <v>100000</v>
+        <v>103069</v>
       </c>
       <c r="C56" t="s">
         <v>16</v>
       </c>
       <c r="D56" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E56">
-        <v>3717.2024250030499</v>
+        <v>3747.3881244659401</v>
       </c>
       <c r="F56">
-        <v>352.47230529785099</v>
+        <v>357.61117935180602</v>
       </c>
       <c r="G56">
-        <v>2004.4386386871299</v>
+        <v>2105.8814525604198</v>
       </c>
       <c r="H56">
-        <v>50.994396209716797</v>
+        <v>50.975561141967702</v>
       </c>
       <c r="I56">
         <v>0</v>
       </c>
       <c r="J56">
-        <v>2057.3770999908402</v>
+        <v>2158.8556766510001</v>
       </c>
       <c r="K56">
         <f t="shared" si="0"/>
-        <v>5772.6354598998969</v>
+        <v>5904.2451381683277</v>
       </c>
       <c r="L56">
         <f t="shared" si="1"/>
-        <v>5.772635459899897</v>
+        <v>5.9042451381683279</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>103069</v>
+        <v>100</v>
       </c>
       <c r="B57">
-        <v>103069</v>
+        <v>100</v>
       </c>
       <c r="C57" t="s">
         <v>16</v>
@@ -9463,198 +9357,198 @@
         <v>29</v>
       </c>
       <c r="E57">
-        <v>3754.6861171722398</v>
+        <v>3734.23266410827</v>
       </c>
       <c r="F57">
-        <v>354.561328887939</v>
+        <v>348.83832931518498</v>
       </c>
       <c r="G57">
-        <v>1981.6601276397701</v>
+        <v>38869.2467212677</v>
       </c>
       <c r="H57">
-        <v>51.103591918945298</v>
+        <v>51.174879074096602</v>
       </c>
       <c r="I57">
         <v>0</v>
       </c>
       <c r="J57">
-        <v>2034.7926616668699</v>
+        <v>38922.387838363597</v>
       </c>
       <c r="K57">
         <f t="shared" si="0"/>
-        <v>5787.4498367309552</v>
+        <v>42654.654264450066</v>
       </c>
       <c r="L57">
         <f t="shared" si="1"/>
-        <v>5.7874498367309553</v>
+        <v>42.654654264450066</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="B58">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="C58" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D58" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E58">
-        <v>3735.33129692077</v>
+        <v>3727.4951934814399</v>
       </c>
       <c r="F58">
-        <v>823.78053665161099</v>
+        <v>356.00900650024403</v>
       </c>
       <c r="G58">
-        <v>964.42413330078102</v>
+        <v>5190.8955574035599</v>
       </c>
       <c r="H58">
-        <v>55.987119674682603</v>
+        <v>50.945520401000898</v>
       </c>
       <c r="I58">
-        <v>23275.1035690307</v>
+        <v>0</v>
       </c>
       <c r="J58">
-        <v>24295.586109161301</v>
+        <v>5243.7558174133301</v>
       </c>
       <c r="K58">
         <f t="shared" si="0"/>
-        <v>4755.7425498962339</v>
+        <v>8969.3362712859998</v>
       </c>
       <c r="L58">
         <f t="shared" si="1"/>
-        <v>4.755742549896234</v>
+        <v>8.9693362712860001</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="B59">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="C59" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D59" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E59">
-        <v>3740.9071922302201</v>
+        <v>3727.2920608520499</v>
       </c>
       <c r="F59">
-        <v>753.82781028747502</v>
+        <v>353.66678237914999</v>
       </c>
       <c r="G59">
-        <v>678.24363708496003</v>
+        <v>2167.9837703704802</v>
       </c>
       <c r="H59">
-        <v>51.606416702270501</v>
+        <v>51.002264022827099</v>
       </c>
       <c r="I59">
-        <v>22822.973728179899</v>
+        <v>0</v>
       </c>
       <c r="J59">
-        <v>23552.890539169301</v>
+        <v>2221.0016250610302</v>
       </c>
       <c r="K59">
         <f t="shared" si="0"/>
-        <v>4470.7572460174506</v>
+        <v>5946.2780952453577</v>
       </c>
       <c r="L59">
         <f t="shared" si="1"/>
-        <v>4.4707572460174507</v>
+        <v>5.9462780952453578</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="B60">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="C60" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D60" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E60">
-        <v>3753.03053855896</v>
+        <v>3717.2024250030499</v>
       </c>
       <c r="F60">
-        <v>744.09794807434002</v>
+        <v>352.47230529785099</v>
       </c>
       <c r="G60">
-        <v>626.19042396545399</v>
+        <v>2004.4386386871299</v>
       </c>
       <c r="H60">
-        <v>51.678895950317298</v>
+        <v>50.994396209716797</v>
       </c>
       <c r="I60">
-        <v>22937.034606933499</v>
+        <v>0</v>
       </c>
       <c r="J60">
-        <v>23614.9747371673</v>
+        <v>2057.3770999908402</v>
       </c>
       <c r="K60">
         <f t="shared" si="0"/>
-        <v>4430.8998584747314</v>
+        <v>5772.6354598998969</v>
       </c>
       <c r="L60">
         <f t="shared" si="1"/>
-        <v>4.4308998584747314</v>
+        <v>5.772635459899897</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>100000</v>
+        <v>103069</v>
       </c>
       <c r="B61">
-        <v>100000</v>
+        <v>103069</v>
       </c>
       <c r="C61" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D61" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E61">
-        <v>3783.5321426391602</v>
+        <v>3754.6861171722398</v>
       </c>
       <c r="F61">
-        <v>753.22961807250897</v>
+        <v>354.561328887939</v>
       </c>
       <c r="G61">
-        <v>653.96571159362702</v>
+        <v>1981.6601276397701</v>
       </c>
       <c r="H61">
-        <v>51.721572875976499</v>
+        <v>51.103591918945298</v>
       </c>
       <c r="I61">
-        <v>22803.418636322</v>
+        <v>0</v>
       </c>
       <c r="J61">
-        <v>23509.179353713898</v>
+        <v>2034.7926616668699</v>
       </c>
       <c r="K61">
         <f t="shared" si="0"/>
-        <v>4489.2194271087637</v>
+        <v>5787.4498367309552</v>
       </c>
       <c r="L61">
         <f t="shared" si="1"/>
-        <v>4.4892194271087638</v>
+        <v>5.7874498367309553</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>103069</v>
+        <v>100</v>
       </c>
       <c r="B62">
-        <v>103069</v>
+        <v>100</v>
       </c>
       <c r="C62" t="s">
         <v>18</v>
@@ -9663,754 +9557,924 @@
         <v>11</v>
       </c>
       <c r="E62">
-        <v>3781.0695171356201</v>
+        <v>3735.33129692077</v>
       </c>
       <c r="F62">
-        <v>745.78332901000897</v>
+        <v>823.78053665161099</v>
       </c>
       <c r="G62">
-        <v>627.88438796997002</v>
+        <v>964.42413330078102</v>
       </c>
       <c r="H62">
-        <v>51.777839660644503</v>
+        <v>55.987119674682603</v>
       </c>
       <c r="I62">
-        <v>22984.482765197699</v>
+        <v>23275.1035690307</v>
       </c>
       <c r="J62">
-        <v>23664.216279983499</v>
+        <v>24295.586109161301</v>
       </c>
       <c r="K62">
         <f t="shared" si="0"/>
-        <v>4460.7317447662344</v>
+        <v>4755.7425498962339</v>
       </c>
       <c r="L62">
         <f t="shared" si="1"/>
-        <v>4.4607317447662345</v>
+        <v>4.755742549896234</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="B63">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="C63" t="s">
         <v>18</v>
       </c>
       <c r="D63" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E63">
-        <v>3732.5830459594699</v>
+        <v>3740.9071922302201</v>
       </c>
       <c r="F63">
-        <v>754.58693504333496</v>
+        <v>753.82781028747502</v>
       </c>
       <c r="G63">
-        <v>1212.97621726989</v>
+        <v>678.24363708496003</v>
       </c>
       <c r="H63">
-        <v>51.891803741455</v>
+        <v>51.606416702270501</v>
       </c>
       <c r="I63">
-        <v>22724.270105361898</v>
+        <v>22822.973728179899</v>
       </c>
       <c r="J63">
-        <v>23989.224195480299</v>
+        <v>23552.890539169301</v>
       </c>
       <c r="K63">
         <f t="shared" si="0"/>
-        <v>4997.4510669708152</v>
+        <v>4470.7572460174506</v>
       </c>
       <c r="L63">
         <f t="shared" si="1"/>
-        <v>4.9974510669708154</v>
+        <v>4.4707572460174507</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="B64">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="C64" t="s">
         <v>18</v>
       </c>
       <c r="D64" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E64">
-        <v>3753.3183097839301</v>
+        <v>3753.03053855896</v>
       </c>
       <c r="F64">
-        <v>747.17950820922795</v>
+        <v>744.09794807434002</v>
       </c>
       <c r="G64">
-        <v>989.24517631530705</v>
+        <v>626.19042396545399</v>
       </c>
       <c r="H64">
-        <v>51.666021347045898</v>
+        <v>51.678895950317298</v>
       </c>
       <c r="I64">
-        <v>22853.904247283899</v>
+        <v>22937.034606933499</v>
       </c>
       <c r="J64">
-        <v>23894.903659820498</v>
+        <v>23614.9747371673</v>
       </c>
       <c r="K64">
         <f t="shared" si="0"/>
-        <v>4794.2295074462827</v>
+        <v>4430.8998584747314</v>
       </c>
       <c r="L64">
         <f t="shared" si="1"/>
-        <v>4.7942295074462828</v>
+        <v>4.4308998584747314</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="B65">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="C65" t="s">
         <v>18</v>
       </c>
       <c r="D65" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E65">
-        <v>3731.8739891052201</v>
+        <v>3783.5321426391602</v>
       </c>
       <c r="F65">
-        <v>729.20584678649902</v>
+        <v>753.22961807250897</v>
       </c>
       <c r="G65">
-        <v>907.45759010314896</v>
+        <v>653.96571159362702</v>
       </c>
       <c r="H65">
-        <v>53.200006484985302</v>
+        <v>51.721572875976499</v>
       </c>
       <c r="I65">
-        <v>22752.355337142901</v>
+        <v>22803.418636322</v>
       </c>
       <c r="J65">
-        <v>23713.0870819091</v>
+        <v>23509.179353713898</v>
       </c>
       <c r="K65">
         <f t="shared" si="0"/>
-        <v>4692.5315856933539</v>
+        <v>4489.2194271087637</v>
       </c>
       <c r="L65">
         <f t="shared" si="1"/>
-        <v>4.692531585693354</v>
+        <v>4.4892194271087638</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>100</v>
+        <v>103069</v>
       </c>
       <c r="B66">
-        <v>100</v>
+        <v>103069</v>
       </c>
       <c r="C66" t="s">
         <v>18</v>
       </c>
       <c r="D66" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E66">
-        <v>3734.2195510864199</v>
+        <v>3781.0695171356201</v>
       </c>
       <c r="F66">
-        <v>734.29632186889603</v>
+        <v>745.78332901000897</v>
       </c>
       <c r="G66">
-        <v>4160.8903408050501</v>
+        <v>627.88438796997002</v>
       </c>
       <c r="H66">
-        <v>6820.0976848602204</v>
+        <v>51.777839660644503</v>
       </c>
       <c r="I66">
-        <v>12166.1241054534</v>
+        <v>22984.482765197699</v>
       </c>
       <c r="J66">
-        <v>23147.1660137176</v>
+        <v>23664.216279983499</v>
       </c>
       <c r="K66">
         <f t="shared" si="0"/>
-        <v>14715.207576751691</v>
+        <v>4460.7317447662344</v>
       </c>
       <c r="L66">
         <f t="shared" si="1"/>
-        <v>14.715207576751691</v>
+        <v>4.4607317447662345</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="B67">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="C67" t="s">
         <v>18</v>
       </c>
       <c r="D67" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E67">
-        <v>3733.9351177215499</v>
+        <v>3732.5830459594699</v>
       </c>
       <c r="F67">
-        <v>735.91446876525799</v>
+        <v>754.58693504333496</v>
       </c>
       <c r="G67">
-        <v>3325.8934020995998</v>
+        <v>1212.97621726989</v>
       </c>
       <c r="H67">
-        <v>6945.7826614379801</v>
+        <v>51.891803741455</v>
       </c>
       <c r="I67">
-        <v>11592.907428741401</v>
+        <v>22724.270105361898</v>
       </c>
       <c r="J67">
-        <v>21864.641189575101</v>
+        <v>23989.224195480299</v>
       </c>
       <c r="K67">
         <f t="shared" si="0"/>
-        <v>14005.61118125913</v>
+        <v>4997.4510669708152</v>
       </c>
       <c r="L67">
         <f t="shared" si="1"/>
-        <v>14.00561118125913</v>
+        <v>4.9974510669708154</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="B68">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="C68" t="s">
         <v>18</v>
       </c>
       <c r="D68" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E68">
-        <v>3702.1062374114899</v>
+        <v>3753.3183097839301</v>
       </c>
       <c r="F68">
-        <v>732.19084739685002</v>
+        <v>747.17950820922795</v>
       </c>
       <c r="G68">
-        <v>2613.7852668762198</v>
+        <v>989.24517631530705</v>
       </c>
       <c r="H68">
-        <v>6827.6479244232096</v>
+        <v>51.666021347045898</v>
       </c>
       <c r="I68">
-        <v>12413.014173507599</v>
+        <v>22853.904247283899</v>
       </c>
       <c r="J68">
-        <v>21854.5019626617</v>
+        <v>23894.903659820498</v>
       </c>
       <c r="K68">
         <f t="shared" si="0"/>
-        <v>13143.539428710919</v>
+        <v>4794.2295074462827</v>
       </c>
       <c r="L68">
         <f t="shared" si="1"/>
-        <v>13.14353942871092</v>
+        <v>4.7942295074462828</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="B69">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="C69" t="s">
         <v>18</v>
       </c>
       <c r="D69" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E69">
-        <v>3700.76513290405</v>
+        <v>3731.8739891052201</v>
       </c>
       <c r="F69">
-        <v>727.15640068054199</v>
+        <v>729.20584678649902</v>
       </c>
       <c r="G69">
-        <v>3419.7320938110302</v>
+        <v>907.45759010314896</v>
       </c>
       <c r="H69">
-        <v>6698.9936828613199</v>
+        <v>53.200006484985302</v>
       </c>
       <c r="I69">
-        <v>12956.832647323599</v>
+        <v>22752.355337142901</v>
       </c>
       <c r="J69">
-        <v>23075.613737106301</v>
+        <v>23713.0870819091</v>
       </c>
       <c r="K69">
         <f t="shared" si="0"/>
-        <v>13819.490909576401</v>
+        <v>4692.5315856933539</v>
       </c>
       <c r="L69">
         <f t="shared" si="1"/>
-        <v>13.819490909576402</v>
+        <v>4.692531585693354</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>103069</v>
-      </c>
-      <c r="B70">
-        <v>103069</v>
-      </c>
-      <c r="C70" t="s">
-        <v>18</v>
-      </c>
-      <c r="D70" t="s">
-        <v>13</v>
-      </c>
-      <c r="E70">
-        <v>3728.8496494293199</v>
-      </c>
-      <c r="F70">
-        <v>734.92789268493596</v>
-      </c>
-      <c r="G70">
-        <v>3430.0260543823201</v>
-      </c>
-      <c r="H70">
-        <v>6855.1752567291196</v>
-      </c>
-      <c r="I70">
-        <v>12965.602397918699</v>
-      </c>
-      <c r="J70">
-        <v>23250.867843627901</v>
-      </c>
-      <c r="K70">
-        <f t="shared" si="0"/>
-        <v>14014.050960540761</v>
-      </c>
-      <c r="L70">
-        <f t="shared" si="1"/>
-        <v>14.014050960540761</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>100</v>
-      </c>
-      <c r="B71">
-        <v>100</v>
-      </c>
-      <c r="C71" t="s">
-        <v>18</v>
-      </c>
-      <c r="D71" t="s">
-        <v>14</v>
-      </c>
-      <c r="E71">
-        <v>3736.3948822021398</v>
-      </c>
-      <c r="F71">
-        <v>733.11543464660599</v>
-      </c>
-      <c r="G71">
-        <v>474.89237785339299</v>
-      </c>
-      <c r="H71">
-        <v>52.170991897583001</v>
-      </c>
-      <c r="I71">
-        <v>53189.529657363797</v>
-      </c>
-      <c r="J71">
-        <v>53716.684103011998</v>
-      </c>
-      <c r="K71">
-        <f t="shared" si="0"/>
-        <v>4263.4582519531159</v>
-      </c>
-      <c r="L71">
-        <f t="shared" si="1"/>
-        <v>4.2634582519531161</v>
+        <v>103069</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="B72">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="C72" t="s">
         <v>18</v>
       </c>
       <c r="D72" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E72">
-        <v>3719.9583053588799</v>
+        <v>3734.2195510864199</v>
       </c>
       <c r="F72">
-        <v>749.405860900878</v>
+        <v>734.29632186889603</v>
       </c>
       <c r="G72">
-        <v>270.18499374389597</v>
+        <v>4160.8903408050501</v>
       </c>
       <c r="H72">
-        <v>51.848888397216797</v>
+        <v>6820.0976848602204</v>
       </c>
       <c r="I72">
-        <v>58386.091232299797</v>
+        <v>12166.1241054534</v>
       </c>
       <c r="J72">
-        <v>58708.216428756699</v>
+        <v>23147.1660137176</v>
       </c>
       <c r="K72">
-        <f t="shared" ref="K72:K80" si="2">SUM(E72,G72,H72)</f>
-        <v>4041.9921874999927</v>
+        <f t="shared" si="0"/>
+        <v>14715.207576751691</v>
       </c>
       <c r="L72">
-        <f t="shared" ref="L72:L80" si="3">PRODUCT(K72,0.001)</f>
-        <v>4.0419921874999929</v>
+        <f t="shared" si="1"/>
+        <v>14.715207576751691</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="B73">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="C73" t="s">
         <v>18</v>
       </c>
       <c r="D73" t="s">
+        <v>13</v>
+      </c>
+      <c r="E73">
+        <v>3733.9351177215499</v>
+      </c>
+      <c r="F73">
+        <v>735.91446876525799</v>
+      </c>
+      <c r="G73">
+        <v>3325.8934020995998</v>
+      </c>
+      <c r="H73">
+        <v>6945.7826614379801</v>
+      </c>
+      <c r="I73">
+        <v>11592.907428741401</v>
+      </c>
+      <c r="J73">
+        <v>21864.641189575101</v>
+      </c>
+      <c r="K73">
+        <f t="shared" si="0"/>
+        <v>14005.61118125913</v>
+      </c>
+      <c r="L73">
+        <f t="shared" si="1"/>
+        <v>14.00561118125913</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>10000</v>
+      </c>
+      <c r="B74">
+        <v>10000</v>
+      </c>
+      <c r="C74" t="s">
+        <v>18</v>
+      </c>
+      <c r="D74" t="s">
+        <v>13</v>
+      </c>
+      <c r="E74">
+        <v>3702.1062374114899</v>
+      </c>
+      <c r="F74">
+        <v>732.19084739685002</v>
+      </c>
+      <c r="G74">
+        <v>2613.7852668762198</v>
+      </c>
+      <c r="H74">
+        <v>6827.6479244232096</v>
+      </c>
+      <c r="I74">
+        <v>12413.014173507599</v>
+      </c>
+      <c r="J74">
+        <v>21854.5019626617</v>
+      </c>
+      <c r="K74">
+        <f t="shared" si="0"/>
+        <v>13143.539428710919</v>
+      </c>
+      <c r="L74">
+        <f t="shared" si="1"/>
+        <v>13.14353942871092</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>100000</v>
+      </c>
+      <c r="B75">
+        <v>100000</v>
+      </c>
+      <c r="C75" t="s">
+        <v>18</v>
+      </c>
+      <c r="D75" t="s">
+        <v>13</v>
+      </c>
+      <c r="E75">
+        <v>3700.76513290405</v>
+      </c>
+      <c r="F75">
+        <v>727.15640068054199</v>
+      </c>
+      <c r="G75">
+        <v>3419.7320938110302</v>
+      </c>
+      <c r="H75">
+        <v>6698.9936828613199</v>
+      </c>
+      <c r="I75">
+        <v>12956.832647323599</v>
+      </c>
+      <c r="J75">
+        <v>23075.613737106301</v>
+      </c>
+      <c r="K75">
+        <f t="shared" si="0"/>
+        <v>13819.490909576401</v>
+      </c>
+      <c r="L75">
+        <f t="shared" si="1"/>
+        <v>13.819490909576402</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>103069</v>
+      </c>
+      <c r="B76">
+        <v>103069</v>
+      </c>
+      <c r="C76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D76" t="s">
+        <v>13</v>
+      </c>
+      <c r="E76">
+        <v>3728.8496494293199</v>
+      </c>
+      <c r="F76">
+        <v>734.92789268493596</v>
+      </c>
+      <c r="G76">
+        <v>3430.0260543823201</v>
+      </c>
+      <c r="H76">
+        <v>6855.1752567291196</v>
+      </c>
+      <c r="I76">
+        <v>12965.602397918699</v>
+      </c>
+      <c r="J76">
+        <v>23250.867843627901</v>
+      </c>
+      <c r="K76">
+        <f t="shared" si="0"/>
+        <v>14014.050960540761</v>
+      </c>
+      <c r="L76">
+        <f t="shared" si="1"/>
+        <v>14.014050960540761</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>100</v>
+      </c>
+      <c r="B77">
+        <v>100</v>
+      </c>
+      <c r="C77" t="s">
+        <v>18</v>
+      </c>
+      <c r="D77" t="s">
         <v>14</v>
       </c>
-      <c r="E73">
+      <c r="E77">
+        <v>3736.3948822021398</v>
+      </c>
+      <c r="F77">
+        <v>733.11543464660599</v>
+      </c>
+      <c r="G77">
+        <v>474.89237785339299</v>
+      </c>
+      <c r="H77">
+        <v>52.170991897583001</v>
+      </c>
+      <c r="I77">
+        <v>53189.529657363797</v>
+      </c>
+      <c r="J77">
+        <v>53716.684103011998</v>
+      </c>
+      <c r="K77">
+        <f t="shared" si="0"/>
+        <v>4263.4582519531159</v>
+      </c>
+      <c r="L77">
+        <f t="shared" si="1"/>
+        <v>4.2634582519531161</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>1000</v>
+      </c>
+      <c r="B78">
+        <v>1000</v>
+      </c>
+      <c r="C78" t="s">
+        <v>18</v>
+      </c>
+      <c r="D78" t="s">
+        <v>14</v>
+      </c>
+      <c r="E78">
+        <v>3719.9583053588799</v>
+      </c>
+      <c r="F78">
+        <v>749.405860900878</v>
+      </c>
+      <c r="G78">
+        <v>270.18499374389597</v>
+      </c>
+      <c r="H78">
+        <v>51.848888397216797</v>
+      </c>
+      <c r="I78">
+        <v>58386.091232299797</v>
+      </c>
+      <c r="J78">
+        <v>58708.216428756699</v>
+      </c>
+      <c r="K78">
+        <f t="shared" ref="K78:K86" si="2">SUM(E78,G78,H78)</f>
+        <v>4041.9921874999927</v>
+      </c>
+      <c r="L78">
+        <f t="shared" ref="L78:L86" si="3">PRODUCT(K78,0.001)</f>
+        <v>4.0419921874999929</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>10000</v>
+      </c>
+      <c r="B79">
+        <v>10000</v>
+      </c>
+      <c r="C79" t="s">
+        <v>18</v>
+      </c>
+      <c r="D79" t="s">
+        <v>14</v>
+      </c>
+      <c r="E79">
         <v>3712.4485969543398</v>
       </c>
-      <c r="F73">
+      <c r="F79">
         <v>737.06030845641999</v>
       </c>
-      <c r="G73">
+      <c r="G79">
         <v>216.759920120239</v>
       </c>
-      <c r="H73">
+      <c r="H79">
         <v>52.352666854858398</v>
       </c>
-      <c r="I73">
+      <c r="I79">
         <v>75144.069910049395</v>
       </c>
-      <c r="J73">
+      <c r="J79">
         <v>75413.268327712998</v>
       </c>
-      <c r="K73">
+      <c r="K79">
         <f t="shared" si="2"/>
         <v>3981.561183929437</v>
       </c>
-      <c r="L73">
+      <c r="L79">
         <f t="shared" si="3"/>
         <v>3.9815611839294371</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A74">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A80">
         <v>100000</v>
       </c>
-      <c r="B74">
+      <c r="B80">
         <v>100000</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C80" t="s">
         <v>18</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D80" t="s">
         <v>14</v>
       </c>
-      <c r="E74">
+      <c r="E80">
         <v>3726.81784629821</v>
       </c>
-      <c r="F74">
+      <c r="F80">
         <v>734.75289344787598</v>
       </c>
-      <c r="G74">
+      <c r="G80">
         <v>226.48215293884201</v>
       </c>
-      <c r="H74">
+      <c r="H80">
         <v>51.959753036499002</v>
       </c>
-      <c r="I74">
+      <c r="I80">
         <v>154911.60082816999</v>
       </c>
-      <c r="J74">
+      <c r="J80">
         <v>155190.13476371701</v>
       </c>
-      <c r="K74">
+      <c r="K80">
         <f t="shared" si="2"/>
         <v>4005.2597522735509</v>
       </c>
-      <c r="L74">
+      <c r="L80">
         <f t="shared" si="3"/>
         <v>4.0052597522735507</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A75">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A81">
         <v>103069</v>
       </c>
-      <c r="B75">
+      <c r="B81">
         <v>103069</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C81" t="s">
         <v>18</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D81" t="s">
         <v>14</v>
       </c>
-      <c r="E75">
+      <c r="E81">
         <v>3722.9795455932599</v>
       </c>
-      <c r="F75">
+      <c r="F81">
         <v>739.54701423644997</v>
       </c>
-      <c r="G75">
+      <c r="G81">
         <v>230.15213012695301</v>
       </c>
-      <c r="H75">
+      <c r="H81">
         <v>52.3059368133544</v>
       </c>
-      <c r="I75">
+      <c r="I81">
         <v>124715.757608413</v>
       </c>
-      <c r="J75">
+      <c r="J81">
         <v>124998.297214508</v>
       </c>
-      <c r="K75">
+      <c r="K81">
         <f t="shared" si="2"/>
         <v>4005.4376125335675</v>
       </c>
-      <c r="L75">
+      <c r="L81">
         <f t="shared" si="3"/>
         <v>4.0054376125335676</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A76">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A82">
         <v>100</v>
       </c>
-      <c r="B76">
+      <c r="B82">
         <v>100</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C82" t="s">
         <v>18</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D82" t="s">
         <v>15</v>
       </c>
-      <c r="E76">
+      <c r="E82">
         <v>3736.8102073669402</v>
       </c>
-      <c r="F76">
+      <c r="F82">
         <v>730.11898994445801</v>
       </c>
-      <c r="G76">
+      <c r="G82">
         <v>793.845176696777</v>
       </c>
-      <c r="H76">
+      <c r="H82">
         <v>24.5807170867919</v>
       </c>
-      <c r="I76">
+      <c r="I82">
         <v>3131.1354637145901</v>
       </c>
-      <c r="J76">
+      <c r="J82">
         <v>3949.6474266052201</v>
       </c>
-      <c r="K76">
+      <c r="K82">
         <f t="shared" si="2"/>
         <v>4555.2361011505091</v>
       </c>
-      <c r="L76">
+      <c r="L82">
         <f t="shared" si="3"/>
         <v>4.5552361011505091</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A77">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A83">
         <v>1000</v>
       </c>
-      <c r="B77">
+      <c r="B83">
         <v>1000</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C83" t="s">
         <v>18</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D83" t="s">
         <v>15</v>
       </c>
-      <c r="E77">
+      <c r="E83">
         <v>3717.4932956695502</v>
       </c>
-      <c r="F77">
+      <c r="F83">
         <v>724.73120689391999</v>
       </c>
-      <c r="G77">
+      <c r="G83">
         <v>324.15771484375</v>
       </c>
-      <c r="H77">
+      <c r="H83">
         <v>24.2996215820312</v>
       </c>
-      <c r="I77">
+      <c r="I83">
         <v>3021.07644081115</v>
       </c>
-      <c r="J77">
+      <c r="J83">
         <v>3369.6029186248702</v>
       </c>
-      <c r="K77">
+      <c r="K83">
         <f t="shared" si="2"/>
         <v>4065.9506320953315</v>
       </c>
-      <c r="L77">
+      <c r="L83">
         <f t="shared" si="3"/>
         <v>4.0659506320953316</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A78">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A84">
         <v>10000</v>
       </c>
-      <c r="B78">
+      <c r="B84">
         <v>10000</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C84" t="s">
         <v>18</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D84" t="s">
         <v>15</v>
       </c>
-      <c r="E78">
+      <c r="E84">
         <v>3713.49000930786</v>
       </c>
-      <c r="F78">
+      <c r="F84">
         <v>728.05452346801701</v>
       </c>
-      <c r="G78">
+      <c r="G84">
         <v>316.66445732116699</v>
       </c>
-      <c r="H78">
+      <c r="H84">
         <v>24.420738220214801</v>
       </c>
-      <c r="I78">
+      <c r="I84">
         <v>2975.4986763000402</v>
       </c>
-      <c r="J78">
+      <c r="J84">
         <v>3316.65968894958</v>
       </c>
-      <c r="K78">
+      <c r="K84">
         <f t="shared" si="2"/>
         <v>4054.5752048492418</v>
       </c>
-      <c r="L78">
+      <c r="L84">
         <f t="shared" si="3"/>
         <v>4.0545752048492423</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A79">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A85">
         <v>100000</v>
       </c>
-      <c r="B79">
+      <c r="B85">
         <v>100000</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C85" t="s">
         <v>18</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D85" t="s">
         <v>15</v>
       </c>
-      <c r="E79">
+      <c r="E85">
         <v>3769.1903114318802</v>
       </c>
-      <c r="F79">
+      <c r="F85">
         <v>736.06801033019997</v>
       </c>
-      <c r="G79">
+      <c r="G85">
         <v>362.73860931396399</v>
       </c>
-      <c r="H79">
+      <c r="H85">
         <v>24.4598388671875</v>
       </c>
-      <c r="I79">
+      <c r="I85">
         <v>2981.90331459045</v>
       </c>
-      <c r="J79">
+      <c r="J85">
         <v>3369.18067932128</v>
       </c>
-      <c r="K79">
+      <c r="K85">
         <f t="shared" si="2"/>
         <v>4156.3887596130317</v>
       </c>
-      <c r="L79">
+      <c r="L85">
         <f t="shared" si="3"/>
         <v>4.1563887596130318</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A80">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A86">
         <v>103069</v>
       </c>
-      <c r="B80">
+      <c r="B86">
         <v>103069</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C86" t="s">
         <v>18</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D86" t="s">
         <v>15</v>
       </c>
-      <c r="E80">
+      <c r="E86">
         <v>3707.8163623809801</v>
       </c>
-      <c r="F80">
+      <c r="F86">
         <v>739.84169960021904</v>
       </c>
-      <c r="G80">
+      <c r="G86">
         <v>358.76560211181601</v>
       </c>
-      <c r="H80">
+      <c r="H86">
         <v>24.4395732879638</v>
       </c>
-      <c r="I80">
+      <c r="I86">
         <v>2965.0254249572699</v>
       </c>
-      <c r="J80">
+      <c r="J86">
         <v>3348.3157157897899</v>
       </c>
-      <c r="K80">
+      <c r="K86">
         <f t="shared" si="2"/>
         <v>4091.0215377807599</v>
       </c>
-      <c r="L80">
+      <c r="L86">
         <f t="shared" si="3"/>
         <v>4.0910215377807599</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="L2:L80">
+  <conditionalFormatting sqref="L2:L86">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -10422,7 +10486,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G80">
+  <conditionalFormatting sqref="G2:G86">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -10443,7 +10507,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10471,51 +10535,63 @@
       <c r="A3">
         <v>10</v>
       </c>
-      <c r="B3">
-        <v>3.76</v>
-      </c>
-      <c r="C3">
-        <v>4.25</v>
-      </c>
-      <c r="D3">
-        <v>3.73</v>
-      </c>
-      <c r="E3">
-        <v>3.83</v>
+      <c r="B3" s="1">
+        <f>MIN('10_trees'!L2:'10_trees'!L6)</f>
+        <v>3.7620997428893976</v>
+      </c>
+      <c r="C3" s="1">
+        <f>MIN('10_trees'!L7:'10_trees'!L11)</f>
+        <v>4.253980159759517</v>
+      </c>
+      <c r="D3" s="1">
+        <f>MIN('10_trees'!L17:'10_trees'!L21)</f>
+        <v>3.7304422855377184</v>
+      </c>
+      <c r="E3" s="1">
+        <f>MIN('10_trees'!L22:'10_trees'!L26)</f>
+        <v>3.8343448638915927</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>500</v>
       </c>
-      <c r="B4">
-        <v>3.93</v>
-      </c>
-      <c r="C4">
-        <v>4.45</v>
-      </c>
-      <c r="D4">
-        <v>3.84</v>
-      </c>
-      <c r="E4">
-        <v>3.92</v>
+      <c r="B4" s="1">
+        <f>MIN('500_trees'!L2:'500_trees'!L6)</f>
+        <v>3.93013262748718</v>
+      </c>
+      <c r="C4" s="1">
+        <f>MIN('500_trees'!L7:'500_trees'!L11)</f>
+        <v>4.4514961242675772</v>
+      </c>
+      <c r="D4" s="1">
+        <f>MIN('500_trees'!L17:'500_trees'!L21)</f>
+        <v>3.8424942493438707</v>
+      </c>
+      <c r="E4" s="1">
+        <f>MIN('500_trees'!L22:'500_trees'!L26)</f>
+        <v>3.920662164688105</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1600</v>
       </c>
-      <c r="B5">
-        <v>4.93</v>
-      </c>
-      <c r="C5">
-        <v>4.71</v>
-      </c>
-      <c r="D5">
-        <v>4.0199999999999996</v>
-      </c>
-      <c r="E5">
-        <v>4.04</v>
+      <c r="B5" s="1">
+        <f>MIN('1600_trees'!L2:'1600_trees'!L6)</f>
+        <v>4.3931708335876403</v>
+      </c>
+      <c r="C5" s="1">
+        <f>MIN('1600_trees'!L7:'1600_trees'!L11)</f>
+        <v>4.7095069885253897</v>
+      </c>
+      <c r="D5" s="1">
+        <f>MIN('1600_trees'!L17:'1600_trees'!L21)</f>
+        <v>4.0204865932464537</v>
+      </c>
+      <c r="E5" s="1">
+        <f>MIN('1600_trees'!L22:'1600_trees'!L26)</f>
+        <v>4.0402774810790918</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -10544,60 +10620,78 @@
       <c r="A9">
         <v>10</v>
       </c>
-      <c r="B9">
-        <v>3.72</v>
-      </c>
-      <c r="C9">
-        <v>4.68</v>
-      </c>
-      <c r="D9">
-        <v>3.76</v>
-      </c>
-      <c r="E9">
-        <v>3.83</v>
-      </c>
-      <c r="G9">
-        <v>5.45</v>
+      <c r="B9" s="1">
+        <f>MIN('10_trees'!L27:'10_trees'!L31)</f>
+        <v>3.7153203487396191</v>
+      </c>
+      <c r="C9" s="1">
+        <f>MIN('10_trees'!L32:'10_trees'!L36)</f>
+        <v>4.6826474666595379</v>
+      </c>
+      <c r="D9" s="1">
+        <f>MIN('10_trees'!L42:'10_trees'!L46)</f>
+        <v>3.756667613983145</v>
+      </c>
+      <c r="E9" s="1">
+        <f>MIN('10_trees'!L47:'10_trees'!L51)</f>
+        <v>3.8332576751708967</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1">
+        <f>MIN('10_trees'!L57:'10_trees'!L61)</f>
+        <v>5.4619624614715443</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>500</v>
       </c>
-      <c r="B10">
-        <v>3.93</v>
-      </c>
-      <c r="C10">
-        <v>5.08</v>
-      </c>
-      <c r="D10">
-        <v>3.85</v>
-      </c>
-      <c r="E10">
-        <v>3.9</v>
-      </c>
-      <c r="G10">
-        <v>5.46</v>
+      <c r="B10" s="1">
+        <f>MIN('500_trees'!L27:'500_trees'!L31)</f>
+        <v>3.9335191249847403</v>
+      </c>
+      <c r="C10" s="1">
+        <f>MIN('500_trees'!L32:'500_trees'!L36)</f>
+        <v>5.079581022262559</v>
+      </c>
+      <c r="D10" s="1">
+        <f>MIN('500_trees'!L42:'500_trees'!L46)</f>
+        <v>3.8466460704803409</v>
+      </c>
+      <c r="E10" s="1">
+        <f>MIN('500_trees'!L47:'500_trees'!L51)</f>
+        <v>3.8988101482391322</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1">
+        <f>MIN('500_trees'!L57:'500_trees'!L61)</f>
+        <v>5.4553313255309943</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1600</v>
       </c>
-      <c r="B11">
-        <v>4.38</v>
-      </c>
-      <c r="C11">
-        <v>5.1100000000000003</v>
-      </c>
-      <c r="D11">
-        <v>3.97</v>
-      </c>
-      <c r="E11">
-        <v>3.96</v>
-      </c>
-      <c r="G11">
-        <v>5.77</v>
+      <c r="B11" s="1">
+        <f>MIN('1600_trees'!L27:'1600_trees'!L31)</f>
+        <v>4.3823657035827557</v>
+      </c>
+      <c r="C11" s="1">
+        <f>MIN('1600_trees'!L32:'1600_trees'!L36)</f>
+        <v>5.1058981418609521</v>
+      </c>
+      <c r="D11" s="1">
+        <f>MIN('1600_trees'!L42:'1600_trees'!L46)</f>
+        <v>3.9692785739898677</v>
+      </c>
+      <c r="E11" s="1">
+        <f>MIN('1600_trees'!L47:'1600_trees'!L51)</f>
+        <v>3.9592070579528746</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1">
+        <f>MIN('1600_trees'!L57:'1600_trees'!L61)</f>
+        <v>5.772635459899897</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -10623,54 +10717,67 @@
       <c r="A15">
         <v>10</v>
       </c>
-      <c r="B15">
-        <v>3.71</v>
-      </c>
-      <c r="C15">
-        <v>4.26</v>
-      </c>
-      <c r="D15">
-        <v>3.73</v>
-      </c>
-      <c r="E15">
-        <v>3.84</v>
+      <c r="B15" s="1">
+        <f>MIN('10_trees'!L62:'10_trees'!L66)</f>
+        <v>3.7088706493377681</v>
+      </c>
+      <c r="C15" s="1">
+        <f>MIN('10_trees'!L67:'10_trees'!L71)</f>
+        <v>4.258279800415032</v>
+      </c>
+      <c r="D15" s="1">
+        <f>MIN('10_trees'!L77:'10_trees'!L81)</f>
+        <v>3.7313332557678143</v>
+      </c>
+      <c r="E15" s="1">
+        <f>MIN('10_trees'!L82:'10_trees'!L86)</f>
+        <v>3.843694448471064</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>500</v>
       </c>
-      <c r="B16">
-        <v>3.93</v>
-      </c>
-      <c r="C16">
-        <v>4.42</v>
-      </c>
-      <c r="D16">
-        <v>3.8</v>
-      </c>
-      <c r="E16">
-        <v>3.93</v>
+      <c r="B16" s="1">
+        <f>MIN('500_trees'!L62:'500_trees'!L66)</f>
+        <v>3.9334375858306854</v>
+      </c>
+      <c r="C16" s="1">
+        <f>MIN('500_trees'!L67:'500_trees'!L71)</f>
+        <v>4.422957658767694</v>
+      </c>
+      <c r="D16" s="1">
+        <f>MIN('500_trees'!L77:'500_trees'!L81)</f>
+        <v>3.8021941184997528</v>
+      </c>
+      <c r="E16" s="1">
+        <f>MIN('500_trees'!L82:'500_trees'!L86)</f>
+        <v>3.9277553558349507</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1600</v>
       </c>
-      <c r="B17">
-        <v>4.46</v>
-      </c>
-      <c r="C17">
-        <v>4.6900000000000004</v>
-      </c>
-      <c r="D17">
-        <v>3.98</v>
-      </c>
-      <c r="E17">
-        <v>4.05</v>
+      <c r="B17" s="1">
+        <f>MIN('1600_trees'!L62:'1600_trees'!L66)</f>
+        <v>4.4308998584747314</v>
+      </c>
+      <c r="C17" s="1">
+        <f>MIN('1600_trees'!L67:'1600_trees'!L71)</f>
+        <v>4.692531585693354</v>
+      </c>
+      <c r="D17" s="1">
+        <f>MIN('1600_trees'!L77:'1600_trees'!L81)</f>
+        <v>3.9815611839294371</v>
+      </c>
+      <c r="E17" s="1">
+        <f>MIN('1600_trees'!L82:'1600_trees'!L86)</f>
+        <v>4.0545752048492423</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/model-inference/decisionTree/experiments/gpu_results/year/year.xlsx
+++ b/model-inference/decisionTree/experiments/gpu_results/year/year.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\11\netsdb\model-inference\decisionTree\experiments\gpu_results\year\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5A9257A-D554-4848-B79B-7317959E110D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B76AE7-335B-42B9-BAE6-CDC35E9D67A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12732" yWindow="1536" windowWidth="17280" windowHeight="8964" activeTab="3" xr2:uid="{EEF78A4B-2F60-4C97-92CE-0B76C8933FCE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{EEF78A4B-2F60-4C97-92CE-0B76C8933FCE}"/>
   </bookViews>
   <sheets>
     <sheet name="10_trees" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="1600_trees" sheetId="3" r:id="rId3"/>
     <sheet name="final" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="30">
   <si>
     <t>query size</t>
   </si>
@@ -185,6 +185,7025 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Year RandomForest Total</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$B$1:$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="1">
+                  <c:v>HB-Pytorch</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$3:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$B$3:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3.7620997428893976</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.93013262748718</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.3931708335876403</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CAE2-4736-9652-4FB641A571EB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$C$1:$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Random Forest</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>HB-TS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$3:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$C$3:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4.253980159759517</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.4514961242675772</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.7095069885253897</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CAE2-4736-9652-4FB641A571EB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$D$1:$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Random Forest</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>HB-TVM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$3:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$D$3:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3.7304422855377184</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.8424942493438707</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0204865932464537</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-CAE2-4736-9652-4FB641A571EB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$E$1:$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Random Forest</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FIL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$3:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$E$3:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3.8343448638915927</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.920662164688105</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0402774810790918</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-CAE2-4736-9652-4FB641A571EB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="428436143"/>
+        <c:axId val="428432815"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="428436143"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="428432815"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="428432815"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="428436143"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Year XGBoost Total</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$B$7:$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="1">
+                  <c:v>HB-Pytorch</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$9:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$B$9:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3.7153203487396191</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.9335191249847403</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.3823657035827557</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-77F1-47F0-88C5-15C5E394ED29}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$C$7:$C$8</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>XGBoost</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>HB-TS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$9:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$C$9:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4.6826474666595379</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.079581022262559</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.1058981418609521</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-77F1-47F0-88C5-15C5E394ED29}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$D$7:$D$8</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>XGBoost</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>HB-TVM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$9:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$D$9:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3.756667613983145</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.8466460704803409</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.9692785739898677</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-77F1-47F0-88C5-15C5E394ED29}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$E$7:$E$8</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>XGBoost</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FIL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$9:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$E$9:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3.8332576751708967</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.8988101482391322</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.9592070579528746</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-77F1-47F0-88C5-15C5E394ED29}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$G$7:$G$8</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>XGBoost</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Xgboost</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$9:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$G$9:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5.4619624614715443</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.4553313255309943</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.772635459899897</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-77F1-47F0-88C5-15C5E394ED29}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="2133482175"/>
+        <c:axId val="2133483007"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>final!$F$7:$F$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="0">
+                        <c:v>XGBoost</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>FIL</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent5"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>final!$A$9:$A$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1600</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>final!$F$9:$F$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.0</c:formatCode>
+                      <c:ptCount val="3"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-77F1-47F0-88C5-15C5E394ED29}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2133482175"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2133483007"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2133483007"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2133482175"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Year LightGBM Total</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$B$13:$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="1">
+                  <c:v>HB-Pytorch</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$15:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$B$15:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3.7088706493377681</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.9334375858306854</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.4308998584747314</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F43A-48BF-99F1-539DA8DEF292}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$C$13:$C$14</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>LightGBM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>HB-TS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$15:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$C$15:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4.258279800415032</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.422957658767694</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.692531585693354</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F43A-48BF-99F1-539DA8DEF292}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$D$13:$D$14</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>LightGBM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>HB-TVM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$15:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$D$15:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3.7313332557678143</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.8021941184997528</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.9815611839294371</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F43A-48BF-99F1-539DA8DEF292}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$E$13:$E$14</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>LightGBM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FIL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$15:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$E$15:$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3.843694448471064</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.9277553558349507</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0545752048492423</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F43A-48BF-99F1-539DA8DEF292}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="415333823"/>
+        <c:axId val="415323839"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="415333823"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="415323839"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="415323839"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="415333823"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Year Randomforest Inference</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$N$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-Pytorch</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$M$3:$M$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$N$3:$N$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>18.346786499023398</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>195.952892303466</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>601.53794288635197</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-106B-40F9-9179-BAA0AED5EF97}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$O$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-TS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$M$3:$M$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$O$3:$O$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>558.16221237182594</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>665.90309143066395</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>927.26707458496003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-106B-40F9-9179-BAA0AED5EF97}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$P$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-TVM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$M$3:$M$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$P$3:$P$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>40.835857391357401</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>79.534530639648395</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>235.44025421142501</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-106B-40F9-9179-BAA0AED5EF97}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$Q$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FIL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$M$3:$M$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$Q$3:$Q$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>161.466836929321</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>188.12370300292901</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>254.459857940673</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-106B-40F9-9179-BAA0AED5EF97}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="2136824831"/>
+        <c:axId val="2136825247"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2136824831"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2136825247"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2136825247"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2136824831"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Year XGBoost Inference</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$N$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-Pytorch</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$M$9:$M$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$N$9:$N$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>17.700910568237301</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>202.21471786499001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>623.39568138122502</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-55CB-48B6-9081-2117AADB801D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$O$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-TS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$M$9:$M$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$O$9:$O$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>940.92893600463799</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1348.5693931579499</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1293.07103157043</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-55CB-48B6-9081-2117AADB801D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$P$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-TVM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$M$9:$M$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$P$9:$P$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>41.346788406371999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>94.695329666137695</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>190.170526504516</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-55CB-48B6-9081-2117AADB801D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$Q$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FIL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$M$9:$M$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$Q$9:$Q$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>146.77286148071201</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>169.00920867919899</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>221.45557403564399</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-55CB-48B6-9081-2117AADB801D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$S$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Xgboost</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$M$9:$M$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$S$9:$S$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1678.5123348236</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1750.2300739288301</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1981.6601276397701</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-55CB-48B6-9081-2117AADB801D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="428430735"/>
+        <c:axId val="428436559"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>final!$R$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent5"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>final!$M$9:$M$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1600</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>final!$R$9:$R$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.0</c:formatCode>
+                      <c:ptCount val="3"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-55CB-48B6-9081-2117AADB801D}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="428430735"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="428436559"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="428436559"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="428430735"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Year LightGBM inference</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$N$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-Pytorch</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$M$15:$M$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$N$15:$N$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>17.664432525634702</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>202.13770866394</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>626.19042396545399</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4AD9-4E20-AC49-E977C7F09A53}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$O$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-TS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$M$15:$M$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$O$15:$O$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>558.915138244628</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>672.06645011901799</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>907.45759010314896</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4AD9-4E20-AC49-E977C7F09A53}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$P$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-TVM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$M$15:$M$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$P$15:$P$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>41.285037994384702</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>81.0720920562744</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>216.759920120239</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4AD9-4E20-AC49-E977C7F09A53}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$Q$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FIL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$M$15:$M$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$Q$15:$Q$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>161.69142723083399</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>205.65819740295399</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>316.66445732116699</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4AD9-4E20-AC49-E977C7F09A53}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="493770447"/>
+        <c:axId val="493763791"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="493770447"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="493763791"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="493763791"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="493770447"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{824C5388-0E72-F455-6CE8-4FEC9D6446CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1444E134-85BE-CE40-D508-8559F80DF85C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FF7493C-189D-E203-DD16-7F4E3956AD28}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E563D523-A0CA-FA3A-4055-4C19A47DD065}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F7C60E5-A659-2133-C82C-B8474BB78BB9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59ED7529-33F2-AAF2-5D5B-1CF011F89050}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7236,7 +14255,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6069E8BF-236C-42C7-9E87-40F9BE888DB8}">
   <dimension ref="A1:L86"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
+    <sheetView topLeftCell="A58" workbookViewId="0">
       <selection activeCell="A10" sqref="A10:A11"/>
     </sheetView>
   </sheetViews>
@@ -10504,20 +17523,23 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B5AD779-DEE6-4939-B35F-9679408944DA}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:S17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="U57" sqref="U57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="O1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>22</v>
       </c>
@@ -10530,8 +17552,20 @@
       <c r="E2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="N2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>10</v>
       </c>
@@ -10551,8 +17585,27 @@
         <f>MIN('10_trees'!L22:'10_trees'!L26)</f>
         <v>3.8343448638915927</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="M3">
+        <v>10</v>
+      </c>
+      <c r="N3" s="1">
+        <f>MIN('10_trees'!G2:'10_trees'!G6)</f>
+        <v>18.346786499023398</v>
+      </c>
+      <c r="O3" s="1">
+        <f>MIN('10_trees'!G7:'10_trees'!G11)</f>
+        <v>558.16221237182594</v>
+      </c>
+      <c r="P3" s="1">
+        <f>MIN('10_trees'!G17:'10_trees'!G21)</f>
+        <v>40.835857391357401</v>
+      </c>
+      <c r="Q3" s="1">
+        <f>MIN('10_trees'!G22:'10_trees'!G26)</f>
+        <v>161.466836929321</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>500</v>
       </c>
@@ -10572,8 +17625,27 @@
         <f>MIN('500_trees'!L22:'500_trees'!L26)</f>
         <v>3.920662164688105</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="M4">
+        <v>500</v>
+      </c>
+      <c r="N4" s="1">
+        <f>MIN('500_trees'!G2:'500_trees'!G6)</f>
+        <v>195.952892303466</v>
+      </c>
+      <c r="O4" s="1">
+        <f>MIN('500_trees'!G7:'500_trees'!G11)</f>
+        <v>665.90309143066395</v>
+      </c>
+      <c r="P4" s="1">
+        <f>MIN('500_trees'!G17:'500_trees'!G21)</f>
+        <v>79.534530639648395</v>
+      </c>
+      <c r="Q4" s="1">
+        <f>MIN('500_trees'!G22:'500_trees'!G26)</f>
+        <v>188.12370300292901</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1600</v>
       </c>
@@ -10593,13 +17665,35 @@
         <f>MIN('1600_trees'!L22:'1600_trees'!L26)</f>
         <v>4.0402774810790918</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="M5">
+        <v>1600</v>
+      </c>
+      <c r="N5" s="1">
+        <f>MIN('1600_trees'!G2:'1600_trees'!G6)</f>
+        <v>601.53794288635197</v>
+      </c>
+      <c r="O5" s="1">
+        <f>MIN('1600_trees'!G7:'1600_trees'!G11)</f>
+        <v>927.26707458496003</v>
+      </c>
+      <c r="P5" s="1">
+        <f>MIN('1600_trees'!G17:'1600_trees'!G21)</f>
+        <v>235.44025421142501</v>
+      </c>
+      <c r="Q5" s="1">
+        <f>MIN('1600_trees'!G22:'1600_trees'!G26)</f>
+        <v>254.459857940673</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="O7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>22</v>
       </c>
@@ -10615,8 +17709,23 @@
       <c r="G8" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="N8" t="s">
+        <v>22</v>
+      </c>
+      <c r="O8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P8" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>25</v>
+      </c>
+      <c r="S8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>10</v>
       </c>
@@ -10641,8 +17750,32 @@
         <f>MIN('10_trees'!L57:'10_trees'!L61)</f>
         <v>5.4619624614715443</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="M9">
+        <v>10</v>
+      </c>
+      <c r="N9" s="1">
+        <f>MIN('10_trees'!G27:'10_trees'!G31)</f>
+        <v>17.700910568237301</v>
+      </c>
+      <c r="O9" s="1">
+        <f>MIN('10_trees'!G32:'10_trees'!G36)</f>
+        <v>940.92893600463799</v>
+      </c>
+      <c r="P9" s="1">
+        <f>MIN('10_trees'!G42:'10_trees'!G46)</f>
+        <v>41.346788406371999</v>
+      </c>
+      <c r="Q9" s="1">
+        <f>MIN('10_trees'!G47:'10_trees'!G51)</f>
+        <v>146.77286148071201</v>
+      </c>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1">
+        <f>MIN('10_trees'!G57:'10_trees'!G61)</f>
+        <v>1678.5123348236</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>500</v>
       </c>
@@ -10667,8 +17800,32 @@
         <f>MIN('500_trees'!L57:'500_trees'!L61)</f>
         <v>5.4553313255309943</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="M10">
+        <v>500</v>
+      </c>
+      <c r="N10" s="1">
+        <f>MIN('500_trees'!G27:'500_trees'!G31)</f>
+        <v>202.21471786499001</v>
+      </c>
+      <c r="O10" s="1">
+        <f>MIN('500_trees'!G32:'500_trees'!G36)</f>
+        <v>1348.5693931579499</v>
+      </c>
+      <c r="P10" s="1">
+        <f>MIN('500_trees'!G42:'500_trees'!G46)</f>
+        <v>94.695329666137695</v>
+      </c>
+      <c r="Q10" s="1">
+        <f>MIN('500_trees'!G47:'500_trees'!G51)</f>
+        <v>169.00920867919899</v>
+      </c>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1">
+        <f>MIN('500_trees'!G57:'500_trees'!G61)</f>
+        <v>1750.2300739288301</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1600</v>
       </c>
@@ -10693,13 +17850,40 @@
         <f>MIN('1600_trees'!L57:'1600_trees'!L61)</f>
         <v>5.772635459899897</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="M11">
+        <v>1600</v>
+      </c>
+      <c r="N11" s="1">
+        <f>MIN('1600_trees'!G27:'1600_trees'!G31)</f>
+        <v>623.39568138122502</v>
+      </c>
+      <c r="O11" s="1">
+        <f>MIN('1600_trees'!G32:'1600_trees'!G36)</f>
+        <v>1293.07103157043</v>
+      </c>
+      <c r="P11" s="1">
+        <f>MIN('1600_trees'!G42:'1600_trees'!G46)</f>
+        <v>190.170526504516</v>
+      </c>
+      <c r="Q11" s="1">
+        <f>MIN('1600_trees'!G47:'1600_trees'!G51)</f>
+        <v>221.45557403564399</v>
+      </c>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1">
+        <f>MIN('1600_trees'!G57:'1600_trees'!G61)</f>
+        <v>1981.6601276397701</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="O13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>22</v>
       </c>
@@ -10712,8 +17896,20 @@
       <c r="E14" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="N14" t="s">
+        <v>22</v>
+      </c>
+      <c r="O14" t="s">
+        <v>23</v>
+      </c>
+      <c r="P14" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>10</v>
       </c>
@@ -10733,8 +17929,27 @@
         <f>MIN('10_trees'!L82:'10_trees'!L86)</f>
         <v>3.843694448471064</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="M15">
+        <v>10</v>
+      </c>
+      <c r="N15" s="1">
+        <f>MIN('10_trees'!G62:'10_trees'!G66)</f>
+        <v>17.664432525634702</v>
+      </c>
+      <c r="O15" s="1">
+        <f>MIN('10_trees'!G67:'10_trees'!G71)</f>
+        <v>558.915138244628</v>
+      </c>
+      <c r="P15" s="1">
+        <f>MIN('10_trees'!G77:'10_trees'!G81)</f>
+        <v>41.285037994384702</v>
+      </c>
+      <c r="Q15" s="1">
+        <f>MIN('10_trees'!G82:'10_trees'!G86)</f>
+        <v>161.69142723083399</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>500</v>
       </c>
@@ -10754,8 +17969,27 @@
         <f>MIN('500_trees'!L82:'500_trees'!L86)</f>
         <v>3.9277553558349507</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="M16">
+        <v>500</v>
+      </c>
+      <c r="N16" s="1">
+        <f>MIN('500_trees'!G62:'500_trees'!G66)</f>
+        <v>202.13770866394</v>
+      </c>
+      <c r="O16" s="1">
+        <f>MIN('500_trees'!G67:'500_trees'!G71)</f>
+        <v>672.06645011901799</v>
+      </c>
+      <c r="P16" s="1">
+        <f>MIN('500_trees'!G77:'500_trees'!G81)</f>
+        <v>81.0720920562744</v>
+      </c>
+      <c r="Q16" s="1">
+        <f>MIN('500_trees'!G82:'500_trees'!G86)</f>
+        <v>205.65819740295399</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1600</v>
       </c>
@@ -10775,9 +18009,29 @@
         <f>MIN('1600_trees'!L82:'1600_trees'!L86)</f>
         <v>4.0545752048492423</v>
       </c>
+      <c r="M17">
+        <v>1600</v>
+      </c>
+      <c r="N17" s="1">
+        <f>MIN('1600_trees'!G62:'1600_trees'!G66)</f>
+        <v>626.19042396545399</v>
+      </c>
+      <c r="O17" s="1">
+        <f>MIN('1600_trees'!G67:'1600_trees'!G71)</f>
+        <v>907.45759010314896</v>
+      </c>
+      <c r="P17" s="1">
+        <f>MIN('1600_trees'!G77:'1600_trees'!G81)</f>
+        <v>216.759920120239</v>
+      </c>
+      <c r="Q17" s="1">
+        <f>MIN('1600_trees'!G82:'1600_trees'!G86)</f>
+        <v>316.66445732116699</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/model-inference/decisionTree/experiments/gpu_results/year/year.xlsx
+++ b/model-inference/decisionTree/experiments/gpu_results/year/year.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\11\netsdb\model-inference\decisionTree\experiments\gpu_results\year\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B76AE7-335B-42B9-BAE6-CDC35E9D67A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EE09A3E-A78D-4C6A-A993-50B452BA4214}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{EEF78A4B-2F60-4C97-92CE-0B76C8933FCE}"/>
+    <workbookView xWindow="12672" yWindow="2508" windowWidth="17280" windowHeight="8964" activeTab="3" xr2:uid="{EEF78A4B-2F60-4C97-92CE-0B76C8933FCE}"/>
   </bookViews>
   <sheets>
     <sheet name="10_trees" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="31">
   <si>
     <t>query size</t>
   </si>
@@ -130,6 +130,9 @@
   <si>
     <t>XGBoostGPU-1</t>
   </si>
+  <si>
+    <t>CPU</t>
+  </si>
 </sst>
 </file>
 
@@ -188,1794 +191,6 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Year RandomForest Total</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>final!$B$1:$B$2</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="1">
-                  <c:v>HB-Pytorch</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>final!$A$3:$A$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1600</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>final!$B$3:$B$5</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>3.7620997428893976</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.93013262748718</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.3931708335876403</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CAE2-4736-9652-4FB641A571EB}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>final!$C$1:$C$2</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Random Forest</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>HB-TS</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>final!$A$3:$A$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1600</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>final!$C$3:$C$5</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>4.253980159759517</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.4514961242675772</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.7095069885253897</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-CAE2-4736-9652-4FB641A571EB}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>final!$D$1:$D$2</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Random Forest</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>HB-TVM</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>final!$A$3:$A$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1600</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>final!$D$3:$D$5</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>3.7304422855377184</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.8424942493438707</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.0204865932464537</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-CAE2-4736-9652-4FB641A571EB}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>final!$E$1:$E$2</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Random Forest</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>FIL</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>final!$A$3:$A$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1600</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>final!$E$3:$E$5</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>3.8343448638915927</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.920662164688105</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.0402774810790918</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-CAE2-4736-9652-4FB641A571EB}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="428436143"/>
-        <c:axId val="428432815"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="428436143"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="428432815"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="428432815"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="428436143"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Year XGBoost Total</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>final!$B$7:$B$8</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="1">
-                  <c:v>HB-Pytorch</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>final!$A$9:$A$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1600</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>final!$B$9:$B$11</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>3.7153203487396191</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.9335191249847403</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.3823657035827557</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-77F1-47F0-88C5-15C5E394ED29}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>final!$C$7:$C$8</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>XGBoost</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>HB-TS</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>final!$A$9:$A$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1600</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>final!$C$9:$C$11</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>4.6826474666595379</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.079581022262559</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.1058981418609521</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-77F1-47F0-88C5-15C5E394ED29}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>final!$D$7:$D$8</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>XGBoost</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>HB-TVM</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>final!$A$9:$A$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1600</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>final!$D$9:$D$11</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>3.756667613983145</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.8466460704803409</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.9692785739898677</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-77F1-47F0-88C5-15C5E394ED29}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>final!$E$7:$E$8</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>XGBoost</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>FIL</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>final!$A$9:$A$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1600</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>final!$E$9:$E$11</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>3.8332576751708967</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.8988101482391322</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.9592070579528746</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-77F1-47F0-88C5-15C5E394ED29}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>final!$G$7:$G$8</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>XGBoost</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Xgboost</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>final!$A$9:$A$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1600</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>final!$G$9:$G$11</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>5.4619624614715443</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.4553313255309943</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.772635459899897</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-77F1-47F0-88C5-15C5E394ED29}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="2133482175"/>
-        <c:axId val="2133483007"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="4"/>
-                <c:order val="4"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>final!$F$7:$F$8</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="2"/>
-                      <c:pt idx="0">
-                        <c:v>XGBoost</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>FIL</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent5"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:cat>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>final!$A$9:$A$11</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="3"/>
-                      <c:pt idx="0">
-                        <c:v>10</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>500</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>1600</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>final!$F$9:$F$11</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>0.0</c:formatCode>
-                      <c:ptCount val="3"/>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000004-77F1-47F0-88C5-15C5E394ED29}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-          </c:ext>
-        </c:extLst>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="2133482175"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2133483007"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="2133483007"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2133482175"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Year LightGBM Total</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>final!$B$13:$B$14</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="1">
-                  <c:v>HB-Pytorch</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>final!$A$15:$A$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1600</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>final!$B$15:$B$17</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>3.7088706493377681</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.9334375858306854</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.4308998584747314</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F43A-48BF-99F1-539DA8DEF292}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>final!$C$13:$C$14</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>LightGBM</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>HB-TS</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>final!$A$15:$A$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1600</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>final!$C$15:$C$17</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>4.258279800415032</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.422957658767694</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.692531585693354</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F43A-48BF-99F1-539DA8DEF292}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>final!$D$13:$D$14</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>LightGBM</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>HB-TVM</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>final!$A$15:$A$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1600</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>final!$D$15:$D$17</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>3.7313332557678143</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.8021941184997528</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.9815611839294371</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-F43A-48BF-99F1-539DA8DEF292}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>final!$E$13:$E$14</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>LightGBM</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>FIL</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>final!$A$15:$A$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1600</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>final!$E$15:$E$17</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>3.843694448471064</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.9277553558349507</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.0545752048492423</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-F43A-48BF-99F1-539DA8DEF292}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="415333823"/>
-        <c:axId val="415323839"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="415333823"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="415323839"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="415323839"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="415333823"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2511,7 +726,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3191,7 +1406,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3648,6 +1863,3497 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="493770447"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Year Randomforest</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Total</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-Pytorch</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$3:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$B$3:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3.7620997428893976</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.93013262748718</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.3931708335876403</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-30D2-4FF0-A11A-2285F822C7BA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-TS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$3:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$C$3:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4.253980159759517</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.4514961242675772</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.7095069885253897</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-30D2-4FF0-A11A-2285F822C7BA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-TVM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$3:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$D$3:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3.7304422855377184</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.8424942493438707</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0204865932464537</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-30D2-4FF0-A11A-2285F822C7BA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FIL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$3:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$E$3:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3.8343448638915927</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.920662164688105</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0402774810790918</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-30D2-4FF0-A11A-2285F822C7BA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CPU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$3:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$H$3:$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-30D2-4FF0-A11A-2285F822C7BA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1843050191"/>
+        <c:axId val="1843047279"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>final!$F$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent5"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="outEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>final!$A$3:$A$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1600</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>final!$F$3:$F$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-30D2-4FF0-A11A-2285F822C7BA}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="5"/>
+                <c:order val="5"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>final!$G$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent6"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="outEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>final!$A$3:$A$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1600</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>final!$G$3:$G$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000005-30D2-4FF0-A11A-2285F822C7BA}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1843050191"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1843047279"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1843047279"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1843050191"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Year XGBoost Total</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-Pytorch</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$9:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$B$9:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3.7153203487396191</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.9335191249847403</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.3823657035827557</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F871-42C5-81D2-6000A67110B9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$C$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-TS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$9:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$C$9:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4.6826474666595379</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.079581022262559</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.1058981418609521</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F871-42C5-81D2-6000A67110B9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$D$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-TVM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$9:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$D$9:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3.756667613983145</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.8466460704803409</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.9692785739898677</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F871-42C5-81D2-6000A67110B9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$E$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FIL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$9:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$E$9:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3.8332576751708967</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.8988101482391322</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.9592070579528746</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F871-42C5-81D2-6000A67110B9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$G$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Xgboost</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$9:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$G$9:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5.4619624614715443</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.4553313255309943</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.772635459899897</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-F871-42C5-81D2-6000A67110B9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$H$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CPU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$9:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$H$9:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-F871-42C5-81D2-6000A67110B9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1910722223"/>
+        <c:axId val="1910721807"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>final!$F$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent5"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="outEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>final!$A$9:$A$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1600</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>final!$F$9:$F$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.0</c:formatCode>
+                      <c:ptCount val="3"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-F871-42C5-81D2-6000A67110B9}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1910722223"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1910721807"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1910721807"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1910722223"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Year LightGBM</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Total</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-Pytorch</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$15:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$B$15:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3.7088706493377681</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.9334375858306854</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.4308998584747314</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7956-48E4-8515-DEC06D63CA20}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$C$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-TS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$15:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$C$15:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4.258279800415032</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.422957658767694</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.692531585693354</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7956-48E4-8515-DEC06D63CA20}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$D$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-TVM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$15:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$D$15:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3.7313332557678143</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.8021941184997528</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.9815611839294371</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7956-48E4-8515-DEC06D63CA20}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$E$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FIL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$15:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$E$15:$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3.843694448471064</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.9277553558349507</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0545752048492423</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7956-48E4-8515-DEC06D63CA20}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$H$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CPU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$15:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$H$15:$H$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-7956-48E4-8515-DEC06D63CA20}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1907436463"/>
+        <c:axId val="1907436879"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>final!$F$14</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent5"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="outEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>final!$A$15:$A$17</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1600</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>final!$F$15:$F$17</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-7956-48E4-8515-DEC06D63CA20}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="5"/>
+                <c:order val="5"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>final!$G$14</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent6"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="outEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>final!$A$15:$A$17</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1600</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>final!$G$15:$G$17</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000005-7956-48E4-8515-DEC06D63CA20}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1907436463"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1907436879"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1907436879"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1907436463"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6989,114 +8695,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{824C5388-0E72-F455-6CE8-4FEC9D6446CD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>236220</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>541020</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1444E134-85BE-CE40-D508-8559F80DF85C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>281940</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>586740</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FF7493C-189D-E203-DD16-7F4E3956AD28}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>358140</xdr:colOff>
       <xdr:row>18</xdr:row>
@@ -7125,7 +8723,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7161,7 +8759,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7186,6 +8784,114 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59ED7529-33F2-AAF2-5D5B-1CF011F89050}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{255C1433-6B30-8C3F-FD97-C42BC389FFEC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{413E7E8C-605B-6183-78CF-587425DC075C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01DC753C-EEF7-C8DC-7759-D96CE245C72F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17525,8 +19231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B5AD779-DEE6-4939-B35F-9679408944DA}">
   <dimension ref="A1:S17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="U57" sqref="U57"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="I49" sqref="I49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17552,6 +19258,9 @@
       <c r="E2" t="s">
         <v>25</v>
       </c>
+      <c r="H2" t="s">
+        <v>30</v>
+      </c>
       <c r="N2" t="s">
         <v>22</v>
       </c>
@@ -17585,6 +19294,9 @@
         <f>MIN('10_trees'!L22:'10_trees'!L26)</f>
         <v>3.8343448638915927</v>
       </c>
+      <c r="H3">
+        <v>4.5</v>
+      </c>
       <c r="M3">
         <v>10</v>
       </c>
@@ -17625,6 +19337,9 @@
         <f>MIN('500_trees'!L22:'500_trees'!L26)</f>
         <v>3.920662164688105</v>
       </c>
+      <c r="H4">
+        <v>5.4</v>
+      </c>
       <c r="M4">
         <v>500</v>
       </c>
@@ -17665,6 +19380,9 @@
         <f>MIN('1600_trees'!L22:'1600_trees'!L26)</f>
         <v>4.0402774810790918</v>
       </c>
+      <c r="H5">
+        <v>6.8</v>
+      </c>
       <c r="M5">
         <v>1600</v>
       </c>
@@ -17708,6 +19426,9 @@
       </c>
       <c r="G8" t="s">
         <v>27</v>
+      </c>
+      <c r="H8" t="s">
+        <v>30</v>
       </c>
       <c r="N8" t="s">
         <v>22</v>
@@ -17750,6 +19471,9 @@
         <f>MIN('10_trees'!L57:'10_trees'!L61)</f>
         <v>5.4619624614715443</v>
       </c>
+      <c r="H9">
+        <v>4.4000000000000004</v>
+      </c>
       <c r="M9">
         <v>10</v>
       </c>
@@ -17800,6 +19524,9 @@
         <f>MIN('500_trees'!L57:'500_trees'!L61)</f>
         <v>5.4553313255309943</v>
       </c>
+      <c r="H10">
+        <v>4.9000000000000004</v>
+      </c>
       <c r="M10">
         <v>500</v>
       </c>
@@ -17850,6 +19577,9 @@
         <f>MIN('1600_trees'!L57:'1600_trees'!L61)</f>
         <v>5.772635459899897</v>
       </c>
+      <c r="H11">
+        <v>5.8</v>
+      </c>
       <c r="M11">
         <v>1600</v>
       </c>
@@ -17896,6 +19626,9 @@
       <c r="E14" t="s">
         <v>25</v>
       </c>
+      <c r="H14" t="s">
+        <v>30</v>
+      </c>
       <c r="N14" t="s">
         <v>22</v>
       </c>
@@ -17929,6 +19662,9 @@
         <f>MIN('10_trees'!L82:'10_trees'!L86)</f>
         <v>3.843694448471064</v>
       </c>
+      <c r="H15">
+        <v>4.5</v>
+      </c>
       <c r="M15">
         <v>10</v>
       </c>
@@ -17969,6 +19705,9 @@
         <f>MIN('500_trees'!L82:'500_trees'!L86)</f>
         <v>3.9277553558349507</v>
       </c>
+      <c r="H16">
+        <v>4.8</v>
+      </c>
       <c r="M16">
         <v>500</v>
       </c>
@@ -18008,6 +19747,9 @@
       <c r="E17" s="1">
         <f>MIN('1600_trees'!L82:'1600_trees'!L86)</f>
         <v>4.0545752048492423</v>
+      </c>
+      <c r="H17">
+        <v>5.7</v>
       </c>
       <c r="M17">
         <v>1600</v>

--- a/model-inference/decisionTree/experiments/gpu_results/year/year.xlsx
+++ b/model-inference/decisionTree/experiments/gpu_results/year/year.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\11\netsdb\model-inference\decisionTree\experiments\gpu_results\year\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EE09A3E-A78D-4C6A-A993-50B452BA4214}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{120217F9-959A-4887-AA63-8E4CA3A282ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12672" yWindow="2508" windowWidth="17280" windowHeight="8964" activeTab="3" xr2:uid="{EEF78A4B-2F60-4C97-92CE-0B76C8933FCE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{EEF78A4B-2F60-4C97-92CE-0B76C8933FCE}"/>
   </bookViews>
   <sheets>
     <sheet name="10_trees" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="32">
   <si>
     <t>query size</t>
   </si>
@@ -132,6 +132,9 @@
   </si>
   <si>
     <t>CPU</t>
+  </si>
+  <si>
+    <t>average</t>
   </si>
 </sst>
 </file>
@@ -2130,13 +2133,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>3.7620997428893976</c:v>
+                  <c:v>3.7733657595552037</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.93013262748718</c:v>
+                  <c:v>3.9510727164186061</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.3931708335876403</c:v>
+                  <c:v>4.3566460844911159</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2254,13 +2257,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>4.253980159759517</c:v>
+                  <c:v>4.3133995768464626</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.4514961242675772</c:v>
+                  <c:v>4.4214158293641628</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.7095069885253897</c:v>
+                  <c:v>4.6828046080506862</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2378,13 +2381,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>3.7304422855377184</c:v>
+                  <c:v>3.7964127299226353</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.8424942493438707</c:v>
+                  <c:v>3.8362257716096471</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0204865932464537</c:v>
+                  <c:v>3.9950540301240505</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2502,13 +2505,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>3.8343448638915927</c:v>
+                  <c:v>3.8899255034364288</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.920662164688105</c:v>
+                  <c:v>3.9171598193086212</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0402774810790918</c:v>
+                  <c:v>3.9835508105195583</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2798,7 +2801,7 @@
                 <c:order val="5"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>final!$G$2</c15:sqref>
@@ -2858,7 +2861,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -2880,7 +2883,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>final!$A$3:$A$5</c15:sqref>
@@ -2904,7 +2907,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>final!$G$3:$G$5</c15:sqref>
@@ -2917,7 +2920,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000005-30D2-4FF0-A11A-2285F822C7BA}"/>
                   </c:ext>
@@ -3293,13 +3296,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>3.7153203487396191</c:v>
+                  <c:v>3.7730760809815953</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.9335191249847403</c:v>
+                  <c:v>3.9574947592652863</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.3823657035827557</c:v>
+                  <c:v>4.3787257906831325</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3417,13 +3420,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>4.6826474666595379</c:v>
+                  <c:v>4.6966603037751735</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.079581022262559</c:v>
+                  <c:v>5.1044547793305846</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.1058981418609521</c:v>
+                  <c:v>5.0504708525575186</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3541,13 +3544,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>3.756667613983145</c:v>
+                  <c:v>3.7971110579408238</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.8466460704803409</c:v>
+                  <c:v>3.8505237337983678</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.9692785739898677</c:v>
+                  <c:v>3.9457526442445343</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3665,13 +3668,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>3.8332576751708967</c:v>
+                  <c:v>3.8743772742188991</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.8988101482391322</c:v>
+                  <c:v>3.8969288107789581</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.9592070579528746</c:v>
+                  <c:v>3.9494290587342804</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3789,13 +3792,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>5.4619624614715443</c:v>
+                  <c:v>5.434339308444355</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.4553313255309943</c:v>
+                  <c:v>5.5052278277314697</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.772635459899897</c:v>
+                  <c:v>5.7369361159242214</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4453,13 +4456,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>3.7088706493377681</c:v>
+                  <c:v>3.7728586432374547</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.9334375858306854</c:v>
+                  <c:v>3.9580850836671417</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.4308998584747314</c:v>
+                  <c:v>4.382041716281277</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4577,13 +4580,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>4.258279800415032</c:v>
+                  <c:v>4.317121290866238</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.422957658767694</c:v>
+                  <c:v>4.4280295607484401</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.692531585693354</c:v>
+                  <c:v>4.6648299929536403</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4701,13 +4704,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>3.7313332557678143</c:v>
+                  <c:v>3.7968399760163853</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.8021941184997528</c:v>
+                  <c:v>3.836735033694608</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.9815611839294371</c:v>
+                  <c:v>3.9732849833406036</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4825,13 +4828,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>3.843694448471064</c:v>
+                  <c:v>3.8907051321900905</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.9277553558349507</c:v>
+                  <c:v>3.9342484709657262</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0545752048492423</c:v>
+                  <c:v>4.0452575919068883</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5121,7 +5124,7 @@
                 <c:order val="5"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>final!$G$14</c15:sqref>
@@ -5181,7 +5184,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -5203,7 +5206,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>final!$A$15:$A$17</c15:sqref>
@@ -5227,7 +5230,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>final!$G$15:$G$17</c15:sqref>
@@ -5240,7 +5243,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000005-7956-48E4-8515-DEC06D63CA20}"/>
                   </c:ext>
@@ -9209,10 +9212,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C6EBCB7-83C1-4682-ABDD-EEB3228045BA}">
-  <dimension ref="A1:L86"/>
+  <dimension ref="A1:L88"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C95" sqref="C95"/>
+    <sheetView topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="K86" sqref="K86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9290,12 +9293,12 @@
         <v>159295.368671417</v>
       </c>
       <c r="K2">
-        <f>SUM(E2,G2,H2)</f>
-        <v>5098.8385677337556</v>
+        <f>SUM($E$88,G2,H2)</f>
+        <v>5152.0822283662319</v>
       </c>
       <c r="L2">
         <f>PRODUCT(K2,0.001)</f>
-        <v>5.0988385677337558</v>
+        <v>5.1520822283662318</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -9330,12 +9333,12 @@
         <v>4257.1122646331696</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K71" si="0">SUM(E3,G3,H3)</f>
-        <v>3870.1381683349568</v>
+        <f t="shared" ref="K3:K66" si="0">SUM($E$88,G3,H3)</f>
+        <v>3893.490814868313</v>
       </c>
       <c r="L3">
         <f t="shared" ref="L3:L71" si="1">PRODUCT(K3,0.001)</f>
-        <v>3.8701381683349569</v>
+        <v>3.8934908148683132</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -9371,11 +9374,11 @@
       </c>
       <c r="K4">
         <f t="shared" si="0"/>
-        <v>3774.611234664917</v>
+        <v>3791.8489214814731</v>
       </c>
       <c r="L4">
         <f t="shared" si="1"/>
-        <v>3.774611234664917</v>
+        <v>3.7918489214814732</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -9411,11 +9414,11 @@
       </c>
       <c r="K5">
         <f t="shared" si="0"/>
-        <v>3769.631624221799</v>
+        <v>3787.1618506349155</v>
       </c>
       <c r="L5">
         <f t="shared" si="1"/>
-        <v>3.7696316242217991</v>
+        <v>3.7871618506349156</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -9451,11 +9454,11 @@
       </c>
       <c r="K6">
         <f t="shared" si="0"/>
-        <v>3762.0997428893975</v>
+        <v>3773.3657595552036</v>
       </c>
       <c r="L6">
         <f t="shared" si="1"/>
-        <v>3.7620997428893976</v>
+        <v>3.7733657595552037</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -9491,11 +9494,11 @@
       </c>
       <c r="K7">
         <f t="shared" si="0"/>
-        <v>11339.512109756464</v>
+        <v>11338.588022891381</v>
       </c>
       <c r="L7">
         <f t="shared" si="1"/>
-        <v>11.339512109756464</v>
+        <v>11.338588022891381</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -9531,11 +9534,11 @@
       </c>
       <c r="K8">
         <f t="shared" si="0"/>
-        <v>7719.6824550628562</v>
+        <v>7764.0614745057628</v>
       </c>
       <c r="L8">
         <f t="shared" si="1"/>
-        <v>7.7196824550628564</v>
+        <v>7.7640614745057626</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -9571,11 +9574,11 @@
       </c>
       <c r="K9">
         <f t="shared" si="0"/>
-        <v>4269.7398662567093</v>
+        <v>4323.2281443513457</v>
       </c>
       <c r="L9">
         <f t="shared" si="1"/>
-        <v>4.2697398662567094</v>
+        <v>4.3232281443513454</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -9611,11 +9614,11 @@
       </c>
       <c r="K10">
         <f t="shared" si="0"/>
-        <v>4274.0380764007559</v>
+        <v>4326.2462851441924</v>
       </c>
       <c r="L10">
         <f t="shared" si="1"/>
-        <v>4.2740380764007559</v>
+        <v>4.3262462851441921</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -9651,11 +9654,11 @@
       </c>
       <c r="K11">
         <f t="shared" si="0"/>
-        <v>4253.9801597595169</v>
+        <v>4313.3995768464629</v>
       </c>
       <c r="L11">
         <f t="shared" si="1"/>
-        <v>4.253980159759517</v>
+        <v>4.3133995768464626</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -9691,11 +9694,11 @@
       </c>
       <c r="K12">
         <f t="shared" si="0"/>
-        <v>82721.647977828907</v>
+        <v>82785.038256350803</v>
       </c>
       <c r="L12">
         <f t="shared" si="1"/>
-        <v>82.721647977828908</v>
+        <v>82.785038256350802</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -9731,11 +9734,11 @@
       </c>
       <c r="K13">
         <f t="shared" si="0"/>
-        <v>11335.147857666012</v>
+        <v>11355.830216113429</v>
       </c>
       <c r="L13">
         <f t="shared" si="1"/>
-        <v>11.335147857666012</v>
+        <v>11.355830216113429</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -9771,11 +9774,11 @@
       </c>
       <c r="K14">
         <f t="shared" si="0"/>
-        <v>11455.20377159117</v>
+        <v>11506.079458896016</v>
       </c>
       <c r="L14">
         <f t="shared" si="1"/>
-        <v>11.455203771591171</v>
+        <v>11.506079458896016</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
@@ -9811,11 +9814,11 @@
       </c>
       <c r="K15">
         <f t="shared" si="0"/>
-        <v>11580.53755760192</v>
+        <v>11450.899386111596</v>
       </c>
       <c r="L15">
         <f t="shared" si="1"/>
-        <v>11.58053755760192</v>
+        <v>11.450899386111596</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
@@ -9851,11 +9854,11 @@
       </c>
       <c r="K16">
         <f t="shared" si="0"/>
-        <v>11589.510917663563</v>
+        <v>11550.608181659079</v>
       </c>
       <c r="L16">
         <f t="shared" si="1"/>
-        <v>11.589510917663564</v>
+        <v>11.550608181659079</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -9891,11 +9894,11 @@
       </c>
       <c r="K17">
         <f t="shared" si="0"/>
-        <v>4052.8309345245302</v>
+        <v>4070.2159640229766</v>
       </c>
       <c r="L17">
         <f t="shared" si="1"/>
-        <v>4.0528309345245299</v>
+        <v>4.0702159640229763</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -9931,11 +9934,11 @@
       </c>
       <c r="K18">
         <f t="shared" si="0"/>
-        <v>3784.6765518188445</v>
+        <v>3824.8775240815708</v>
       </c>
       <c r="L18">
         <f t="shared" si="1"/>
-        <v>3.7846765518188445</v>
+        <v>3.8248775240815709</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
@@ -9971,11 +9974,11 @@
       </c>
       <c r="K19">
         <f t="shared" si="0"/>
-        <v>3795.8934307098389</v>
+        <v>3796.4127299226352</v>
       </c>
       <c r="L19">
         <f t="shared" si="1"/>
-        <v>3.7958934307098389</v>
+        <v>3.7964127299226353</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
@@ -10011,11 +10014,11 @@
       </c>
       <c r="K20">
         <f t="shared" si="0"/>
-        <v>3730.4422855377184</v>
+        <v>3798.8410231507846</v>
       </c>
       <c r="L20">
         <f t="shared" si="1"/>
-        <v>3.7304422855377184</v>
+        <v>3.7988410231507848</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -10051,11 +10054,11 @@
       </c>
       <c r="K21">
         <f t="shared" si="0"/>
-        <v>3742.0332431793163</v>
+        <v>3797.2519633210727</v>
       </c>
       <c r="L21">
         <f t="shared" si="1"/>
-        <v>3.7420332431793164</v>
+        <v>3.7972519633210728</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
@@ -10091,11 +10094,11 @@
       </c>
       <c r="K22">
         <f t="shared" si="0"/>
-        <v>7279.7577381133879</v>
+        <v>7351.8440958894244</v>
       </c>
       <c r="L22">
         <f t="shared" si="1"/>
-        <v>7.2797577381133882</v>
+        <v>7.3518440958894242</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
@@ -10131,11 +10134,11 @@
       </c>
       <c r="K23">
         <f t="shared" si="0"/>
-        <v>3861.828565597531</v>
+        <v>3914.6850344575473</v>
       </c>
       <c r="L23">
         <f t="shared" si="1"/>
-        <v>3.8618285655975311</v>
+        <v>3.9146850344575475</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
@@ -10171,11 +10174,11 @@
       </c>
       <c r="K24">
         <f t="shared" si="0"/>
-        <v>3834.3448638915925</v>
+        <v>3889.9255034364287</v>
       </c>
       <c r="L24">
         <f t="shared" si="1"/>
-        <v>3.8343448638915927</v>
+        <v>3.8899255034364288</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
@@ -10211,11 +10214,11 @@
       </c>
       <c r="K25">
         <f t="shared" si="0"/>
-        <v>3901.5648365020706</v>
+        <v>3941.431784335477</v>
       </c>
       <c r="L25">
         <f t="shared" si="1"/>
-        <v>3.9015648365020708</v>
+        <v>3.9414317843354771</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
@@ -10251,11 +10254,11 @@
       </c>
       <c r="K26">
         <f t="shared" si="0"/>
-        <v>3900.0675678253133</v>
+        <v>3940.6984087861597</v>
       </c>
       <c r="L26">
         <f t="shared" si="1"/>
-        <v>3.9000675678253134</v>
+        <v>3.9406984087861598</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
@@ -10291,11 +10294,11 @@
       </c>
       <c r="K27">
         <f t="shared" si="0"/>
-        <v>4690.2122497558494</v>
+        <v>4706.9003817475859</v>
       </c>
       <c r="L27">
         <f t="shared" si="1"/>
-        <v>4.6902122497558496</v>
+        <v>4.7069003817475856</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
@@ -10331,11 +10334,11 @@
       </c>
       <c r="K28">
         <f t="shared" si="0"/>
-        <v>3828.7334442138572</v>
+        <v>3899.8146292604033</v>
       </c>
       <c r="L28">
         <f t="shared" si="1"/>
-        <v>3.8287334442138574</v>
+        <v>3.8998146292604035</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
@@ -10371,11 +10374,11 @@
       </c>
       <c r="K29">
         <f t="shared" si="0"/>
-        <v>3747.0369338989194</v>
+        <v>3792.4611803926059</v>
       </c>
       <c r="L29">
         <f t="shared" si="1"/>
-        <v>3.7470369338989196</v>
+        <v>3.792461180392606</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
@@ -10411,11 +10414,11 @@
       </c>
       <c r="K30">
         <f t="shared" si="0"/>
-        <v>3753.419637680051</v>
+        <v>3788.3448836244174</v>
       </c>
       <c r="L30">
         <f t="shared" si="1"/>
-        <v>3.753419637680051</v>
+        <v>3.7883448836244176</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
@@ -10451,11 +10454,11 @@
       </c>
       <c r="K31">
         <f t="shared" si="0"/>
-        <v>3715.320348739619</v>
+        <v>3773.0760809815952</v>
       </c>
       <c r="L31">
         <f t="shared" si="1"/>
-        <v>3.7153203487396191</v>
+        <v>3.7730760809815953</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
@@ -10491,11 +10494,11 @@
       </c>
       <c r="K32">
         <f t="shared" si="0"/>
-        <v>5751.596212387074</v>
+        <v>5811.2461802400103</v>
       </c>
       <c r="L32">
         <f t="shared" si="1"/>
-        <v>5.7515962123870743</v>
+        <v>5.8112461802400102</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
@@ -10531,11 +10534,11 @@
       </c>
       <c r="K33">
         <f t="shared" si="0"/>
-        <v>5591.4223194122178</v>
+        <v>5634.9358794129839</v>
       </c>
       <c r="L33">
         <f t="shared" si="1"/>
-        <v>5.5914223194122181</v>
+        <v>5.6349358794129838</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
@@ -10571,11 +10574,11 @@
       </c>
       <c r="K34">
         <f t="shared" si="0"/>
-        <v>5028.9576053619257</v>
+        <v>5090.6601187623519</v>
       </c>
       <c r="L34">
         <f t="shared" si="1"/>
-        <v>5.028957605361926</v>
+        <v>5.0906601187623517</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
@@ -10611,11 +10614,11 @@
       </c>
       <c r="K35">
         <f t="shared" si="0"/>
-        <v>4974.1630554199155</v>
+        <v>5020.7827326692113</v>
       </c>
       <c r="L35">
         <f t="shared" si="1"/>
-        <v>4.9741630554199157</v>
+        <v>5.0207827326692112</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
@@ -10651,11 +10654,11 @@
       </c>
       <c r="K36">
         <f t="shared" si="0"/>
-        <v>4682.6474666595377</v>
+        <v>4696.6603037751738</v>
       </c>
       <c r="L36">
         <f t="shared" si="1"/>
-        <v>4.6826474666595379</v>
+        <v>4.6966603037751735</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
@@ -10691,11 +10694,11 @@
       </c>
       <c r="K37">
         <f t="shared" si="0"/>
-        <v>11467.492818832392</v>
+        <v>11535.268330279689</v>
       </c>
       <c r="L37">
         <f t="shared" si="1"/>
-        <v>11.467492818832392</v>
+        <v>11.535268330279688</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
@@ -10731,11 +10734,11 @@
       </c>
       <c r="K38">
         <f t="shared" si="0"/>
-        <v>11303.035736083973</v>
+        <v>11354.131483737328</v>
       </c>
       <c r="L38">
         <f t="shared" si="1"/>
-        <v>11.303035736083974</v>
+        <v>11.354131483737328</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
@@ -10771,11 +10774,11 @@
       </c>
       <c r="K39">
         <f t="shared" si="0"/>
-        <v>11631.442785263049</v>
+        <v>11695.387863818505</v>
       </c>
       <c r="L39">
         <f t="shared" si="1"/>
-        <v>11.631442785263049</v>
+        <v>11.695387863818505</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
@@ -10811,11 +10814,11 @@
       </c>
       <c r="K40">
         <f t="shared" si="0"/>
-        <v>11351.930856704706</v>
+        <v>11418.536209765773</v>
       </c>
       <c r="L40">
         <f t="shared" si="1"/>
-        <v>11.351930856704707</v>
+        <v>11.418536209765772</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
@@ -10851,11 +10854,11 @@
       </c>
       <c r="K41">
         <f t="shared" si="0"/>
-        <v>11342.314958572382</v>
+        <v>11405.031704608298</v>
       </c>
       <c r="L41">
         <f t="shared" si="1"/>
-        <v>11.342314958572382</v>
+        <v>11.405031704608298</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
@@ -10891,11 +10894,11 @@
       </c>
       <c r="K42">
         <f t="shared" si="0"/>
-        <v>4011.0137462615912</v>
+        <v>4070.5394980348174</v>
       </c>
       <c r="L42">
         <f t="shared" si="1"/>
-        <v>4.0110137462615914</v>
+        <v>4.0705394980348171</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
@@ -10931,11 +10934,11 @@
       </c>
       <c r="K43">
         <f t="shared" si="0"/>
-        <v>3756.6676139831447</v>
+        <v>3825.2251383699008</v>
       </c>
       <c r="L43">
         <f t="shared" si="1"/>
-        <v>3.756667613983145</v>
+        <v>3.825225138369901</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
@@ -10971,11 +10974,11 @@
       </c>
       <c r="K44">
         <f t="shared" si="0"/>
-        <v>3971.6758728027276</v>
+        <v>3797.1110579408237</v>
       </c>
       <c r="L44">
         <f t="shared" si="1"/>
-        <v>3.9716758728027277</v>
+        <v>3.7971110579408238</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
@@ -11011,11 +11014,11 @@
       </c>
       <c r="K45">
         <f t="shared" si="0"/>
-        <v>3774.5673656463605</v>
+        <v>3798.9466425813266</v>
       </c>
       <c r="L45">
         <f t="shared" si="1"/>
-        <v>3.7745673656463605</v>
+        <v>3.7989466425813267</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
@@ -11051,11 +11054,11 @@
       </c>
       <c r="K46">
         <f t="shared" si="0"/>
-        <v>3784.9850654602005</v>
+        <v>3797.2402808106967</v>
       </c>
       <c r="L46">
         <f t="shared" si="1"/>
-        <v>3.7849850654602006</v>
+        <v>3.7972402808106969</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
@@ -11091,11 +11094,11 @@
       </c>
       <c r="K47">
         <f t="shared" si="0"/>
-        <v>4459.8276615142768</v>
+        <v>4530.9155222810332</v>
       </c>
       <c r="L47">
         <f t="shared" si="1"/>
-        <v>4.4598276615142769</v>
+        <v>4.5309155222810329</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
@@ -11131,11 +11134,11 @@
       </c>
       <c r="K48">
         <f t="shared" si="0"/>
-        <v>3875.8096694946207</v>
+        <v>3914.331936541897</v>
       </c>
       <c r="L48">
         <f t="shared" si="1"/>
-        <v>3.8758096694946209</v>
+        <v>3.9143319365418972</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
@@ -11171,11 +11174,11 @@
       </c>
       <c r="K49">
         <f t="shared" si="0"/>
-        <v>3838.2942676544126</v>
+        <v>3875.823759738309</v>
       </c>
       <c r="L49">
         <f t="shared" si="1"/>
-        <v>3.8382942676544127</v>
+        <v>3.8758237597383092</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
@@ -11211,11 +11214,11 @@
       </c>
       <c r="K50">
         <f t="shared" si="0"/>
-        <v>3833.2576751708966</v>
+        <v>3903.9013621247827</v>
       </c>
       <c r="L50">
         <f t="shared" si="1"/>
-        <v>3.8332576751708967</v>
+        <v>3.9039013621247829</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
@@ -11251,11 +11254,11 @@
       </c>
       <c r="K51">
         <f t="shared" si="0"/>
-        <v>3932.8110218048027</v>
+        <v>3874.3772742188989</v>
       </c>
       <c r="L51">
         <f t="shared" si="1"/>
-        <v>3.9328110218048029</v>
+        <v>3.8743772742188991</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
@@ -11291,11 +11294,11 @@
       </c>
       <c r="K52">
         <f t="shared" si="0"/>
-        <v>32540.509700775092</v>
+        <v>32590.786242190647</v>
       </c>
       <c r="L52">
         <f t="shared" si="1"/>
-        <v>32.54050970077509</v>
+        <v>32.590786242190646</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
@@ -11331,11 +11334,11 @@
       </c>
       <c r="K53">
         <f t="shared" si="0"/>
-        <v>5560.3685379028238</v>
+        <v>5628.9530035890102</v>
       </c>
       <c r="L53">
         <f t="shared" si="1"/>
-        <v>5.560368537902824</v>
+        <v>5.6289530035890101</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
@@ -11371,11 +11374,11 @@
       </c>
       <c r="K54">
         <f t="shared" si="0"/>
-        <v>5484.2498302459571</v>
+        <v>5516.1373850739928</v>
       </c>
       <c r="L54">
         <f t="shared" si="1"/>
-        <v>5.4842498302459575</v>
+        <v>5.5161373850739928</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
@@ -11411,11 +11414,11 @@
       </c>
       <c r="K55">
         <f t="shared" si="0"/>
-        <v>5450.2272605895914</v>
+        <v>5515.8426997102279</v>
       </c>
       <c r="L55">
         <f t="shared" si="1"/>
-        <v>5.4502272605895916</v>
+        <v>5.5158426997102277</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
@@ -11451,11 +11454,11 @@
       </c>
       <c r="K56">
         <f t="shared" si="0"/>
-        <v>5468.7359333038221</v>
+        <v>5541.7838332093688</v>
       </c>
       <c r="L56">
         <f t="shared" si="1"/>
-        <v>5.4687359333038223</v>
+        <v>5.5417838332093687</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
@@ -11491,11 +11494,11 @@
       </c>
       <c r="K57">
         <f t="shared" si="0"/>
-        <v>9381.5281391143708</v>
+        <v>9363.2061716950866</v>
       </c>
       <c r="L57">
         <f t="shared" si="1"/>
-        <v>9.381528139114371</v>
+        <v>9.3632061716950865</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
@@ -11531,11 +11534,11 @@
       </c>
       <c r="K58">
         <f t="shared" si="0"/>
-        <v>5627.288103103625</v>
+        <v>5592.4403902925005</v>
       </c>
       <c r="L58">
         <f t="shared" si="1"/>
-        <v>5.6272881031036253</v>
+        <v>5.5924403902925004</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
@@ -11571,11 +11574,11 @@
       </c>
       <c r="K59">
         <f t="shared" si="0"/>
-        <v>5520.3247070312409</v>
+        <v>5441.9222113526866</v>
       </c>
       <c r="L59">
         <f t="shared" si="1"/>
-        <v>5.5203247070312411</v>
+        <v>5.4419222113526864</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
@@ -11611,11 +11614,11 @@
       </c>
       <c r="K60">
         <f t="shared" si="0"/>
-        <v>5461.962461471544</v>
+        <v>5442.6558253205803</v>
       </c>
       <c r="L60">
         <f t="shared" si="1"/>
-        <v>5.4619624614715443</v>
+        <v>5.4426558253205801</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
@@ -11651,11 +11654,11 @@
       </c>
       <c r="K61">
         <f t="shared" si="0"/>
-        <v>5483.3199977874592</v>
+        <v>5434.3393084443551</v>
       </c>
       <c r="L61">
         <f t="shared" si="1"/>
-        <v>5.4833199977874596</v>
+        <v>5.434339308444355</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
@@ -11691,11 +11694,11 @@
       </c>
       <c r="K62">
         <f t="shared" si="0"/>
-        <v>4635.3480815887369</v>
+        <v>4698.0378863252226</v>
       </c>
       <c r="L62">
         <f t="shared" si="1"/>
-        <v>4.6353480815887371</v>
+        <v>4.6980378863252223</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
@@ -11731,11 +11734,11 @@
       </c>
       <c r="K63">
         <f t="shared" si="0"/>
-        <v>3877.4130344390792</v>
+        <v>3895.5893752015654</v>
       </c>
       <c r="L63">
         <f t="shared" si="1"/>
-        <v>3.8774130344390794</v>
+        <v>3.8955893752015656</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
@@ -11771,11 +11774,11 @@
       </c>
       <c r="K64">
         <f t="shared" si="0"/>
-        <v>3731.7562103271403</v>
+        <v>3791.0359141267368</v>
       </c>
       <c r="L64">
         <f t="shared" si="1"/>
-        <v>3.7317562103271404</v>
+        <v>3.7910359141267369</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
@@ -11811,11 +11814,11 @@
       </c>
       <c r="K65">
         <f t="shared" si="0"/>
-        <v>3723.7439155578595</v>
+        <v>3790.4258009828159</v>
       </c>
       <c r="L65">
         <f t="shared" si="1"/>
-        <v>3.7237439155578596</v>
+        <v>3.790425800982816</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
@@ -11851,11 +11854,11 @@
       </c>
       <c r="K66">
         <f t="shared" si="0"/>
-        <v>3708.8706493377681</v>
+        <v>3772.8586432374545</v>
       </c>
       <c r="L66">
         <f t="shared" si="1"/>
-        <v>3.7088706493377681</v>
+        <v>3.7728586432374547</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
@@ -11890,12 +11893,12 @@
         <v>4419.3952083587601</v>
       </c>
       <c r="K67">
-        <f t="shared" si="0"/>
-        <v>4821.9449520110984</v>
+        <f t="shared" ref="K67:K86" si="2">SUM($E$88,G67,H67)</f>
+        <v>4884.0997454560747</v>
       </c>
       <c r="L67">
         <f t="shared" si="1"/>
-        <v>4.8219449520110986</v>
+        <v>4.8840997454560746</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
@@ -11930,12 +11933,12 @@
         <v>4265.86866378784</v>
       </c>
       <c r="K68">
-        <f t="shared" si="0"/>
-        <v>4649.0986347198432</v>
+        <f t="shared" si="2"/>
+        <v>4713.6025664247099</v>
       </c>
       <c r="L68">
         <f t="shared" si="1"/>
-        <v>4.6490986347198433</v>
+        <v>4.7136025664247097</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
@@ -11970,12 +11973,12 @@
         <v>3872.4808692932102</v>
       </c>
       <c r="K69">
-        <f t="shared" si="0"/>
-        <v>4262.803792953483</v>
+        <f t="shared" si="2"/>
+        <v>4321.7013117707793</v>
       </c>
       <c r="L69">
         <f t="shared" si="1"/>
-        <v>4.2628037929534832</v>
+        <v>4.321701311770779</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
@@ -12010,12 +12013,12 @@
         <v>3957.2315216064399</v>
       </c>
       <c r="K70">
-        <f t="shared" si="0"/>
-        <v>4261.1937522888129</v>
+        <f t="shared" si="2"/>
+        <v>4324.9786135591094</v>
       </c>
       <c r="L70">
         <f t="shared" si="1"/>
-        <v>4.261193752288813</v>
+        <v>4.3249786135591091</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
@@ -12050,12 +12053,12 @@
         <v>3931.0393333434999</v>
       </c>
       <c r="K71">
-        <f t="shared" si="0"/>
-        <v>4258.2798004150318</v>
+        <f t="shared" si="2"/>
+        <v>4317.1212908662383</v>
       </c>
       <c r="L71">
         <f t="shared" si="1"/>
-        <v>4.258279800415032</v>
+        <v>4.317121290866238</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
@@ -12090,12 +12093,12 @@
         <v>8301.6798496246302</v>
       </c>
       <c r="K72">
-        <f t="shared" ref="K72:K86" si="2">SUM(E72,G72,H72)</f>
-        <v>11381.009101867665</v>
+        <f t="shared" si="2"/>
+        <v>11439.992451373431</v>
       </c>
       <c r="L72">
         <f t="shared" ref="L72:L86" si="3">PRODUCT(K72,0.001)</f>
-        <v>11.381009101867665</v>
+        <v>11.439992451373431</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
@@ -12131,11 +12134,11 @@
       </c>
       <c r="K73">
         <f t="shared" si="2"/>
-        <v>11326.134681701657</v>
+        <v>11378.365063372952</v>
       </c>
       <c r="L73">
         <f t="shared" si="3"/>
-        <v>11.326134681701657</v>
+        <v>11.378365063372952</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
@@ -12171,11 +12174,11 @@
       </c>
       <c r="K74">
         <f t="shared" si="2"/>
-        <v>11342.938899993887</v>
+        <v>11396.692299548484</v>
       </c>
       <c r="L74">
         <f t="shared" si="3"/>
-        <v>11.342938899993888</v>
+        <v>11.396692299548484</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
@@ -12211,11 +12214,11 @@
       </c>
       <c r="K75">
         <f t="shared" si="2"/>
-        <v>11379.255056381211</v>
+        <v>11437.849783603047</v>
       </c>
       <c r="L75">
         <f t="shared" si="3"/>
-        <v>11.379255056381211</v>
+        <v>11.437849783603047</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
@@ -12251,11 +12254,11 @@
       </c>
       <c r="K76">
         <f t="shared" si="2"/>
-        <v>11533.36811065672</v>
+        <v>11593.969130221698</v>
       </c>
       <c r="L76">
         <f t="shared" si="3"/>
-        <v>11.533368110656721</v>
+        <v>11.593969130221698</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
@@ -12291,11 +12294,11 @@
       </c>
       <c r="K77">
         <f t="shared" si="2"/>
-        <v>4003.9508342742856</v>
+        <v>4070.5092188752715</v>
       </c>
       <c r="L77">
         <f t="shared" si="3"/>
-        <v>4.0039508342742858</v>
+        <v>4.0705092188752712</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
@@ -12331,11 +12334,11 @@
       </c>
       <c r="K78">
         <f t="shared" si="2"/>
-        <v>3754.7750473022434</v>
+        <v>3824.8512980378696</v>
       </c>
       <c r="L78">
         <f t="shared" si="3"/>
-        <v>3.7547750473022434</v>
+        <v>3.8248512980378697</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
@@ -12371,11 +12374,11 @@
       </c>
       <c r="K79">
         <f t="shared" si="2"/>
-        <v>3732.1190834045387</v>
+        <v>3796.8399760163852</v>
       </c>
       <c r="L79">
         <f t="shared" si="3"/>
-        <v>3.7321190834045388</v>
+        <v>3.7968399760163853</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
@@ -12411,11 +12414,11 @@
       </c>
       <c r="K80">
         <f t="shared" si="2"/>
-        <v>3801.4986515045107</v>
+        <v>3799.2038962281772</v>
       </c>
       <c r="L80">
         <f t="shared" si="3"/>
-        <v>3.8014986515045108</v>
+        <v>3.7992038962281773</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
@@ -12451,11 +12454,11 @@
       </c>
       <c r="K81">
         <f t="shared" si="2"/>
-        <v>3731.3332557678141</v>
+        <v>3798.0566260255405</v>
       </c>
       <c r="L81">
         <f t="shared" si="3"/>
-        <v>3.7313332557678143</v>
+        <v>3.7980566260255406</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.3">
@@ -12491,11 +12494,11 @@
       </c>
       <c r="K82">
         <f t="shared" si="2"/>
-        <v>4311.7396831512406</v>
+        <v>4367.7861925996367</v>
       </c>
       <c r="L82">
         <f t="shared" si="3"/>
-        <v>4.3117396831512407</v>
+        <v>4.3677861925996364</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.3">
@@ -12531,11 +12534,11 @@
       </c>
       <c r="K83">
         <f t="shared" si="2"/>
-        <v>3848.1552600860582</v>
+        <v>3918.9315077699243</v>
       </c>
       <c r="L83">
         <f t="shared" si="3"/>
-        <v>3.8481552600860582</v>
+        <v>3.9189315077699245</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.3">
@@ -12571,11 +12574,11 @@
       </c>
       <c r="K84">
         <f t="shared" si="2"/>
-        <v>3843.6944484710639</v>
+        <v>3890.7051321900904</v>
       </c>
       <c r="L84">
         <f t="shared" si="3"/>
-        <v>3.843694448471064</v>
+        <v>3.8907051321900905</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.3">
@@ -12611,11 +12614,11 @@
       </c>
       <c r="K85">
         <f t="shared" si="2"/>
-        <v>3886.9934082031177</v>
+        <v>3942.6584479249541</v>
       </c>
       <c r="L85">
         <f t="shared" si="3"/>
-        <v>3.8869934082031179</v>
+        <v>3.9426584479249542</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.3">
@@ -12651,11 +12654,20 @@
       </c>
       <c r="K86">
         <f t="shared" si="2"/>
-        <v>3897.390842437735</v>
+        <v>3942.7972075379912</v>
       </c>
       <c r="L86">
         <f t="shared" si="3"/>
-        <v>3.8973908424377353</v>
+        <v>3.9427972075379913</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D88" t="s">
+        <v>31</v>
+      </c>
+      <c r="E88">
+        <f>AVERAGE(E2:E86,'500_trees'!E2:E86,'1600_trees'!E2:E86)</f>
+        <v>3704.1723963655063</v>
       </c>
     </row>
   </sheetData>
@@ -12689,10 +12701,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BD88DE2-1B17-49A8-A540-6D5302188D9C}">
-  <dimension ref="A1:L86"/>
+  <dimension ref="A1:L88"/>
   <sheetViews>
     <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A70" sqref="A70:A71"/>
+      <selection activeCell="Q83" sqref="Q83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12770,12 +12782,12 @@
         <v>11730.572700500399</v>
       </c>
       <c r="K2">
-        <f>SUM(E2,G2,H2)</f>
-        <v>4763.1824016570972</v>
+        <f>SUM($E$88,G2,H2)</f>
+        <v>4735.4653117097441</v>
       </c>
       <c r="L2">
         <f>PRODUCT(K2,0.001)</f>
-        <v>4.7631824016570974</v>
+        <v>4.7354653117097438</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -12810,12 +12822,12 @@
         <v>7168.6527729034397</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K77" si="0">SUM(E3,G3,H3)</f>
-        <v>4049.0851402282665</v>
+        <f t="shared" ref="K3:K66" si="0">SUM($E$88,G3,H3)</f>
+        <v>4027.6992556489527</v>
       </c>
       <c r="L3">
         <f t="shared" ref="L3:L77" si="1">PRODUCT(K3,0.001)</f>
-        <v>4.0490851402282662</v>
+        <v>4.0276992556489528</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -12851,11 +12863,11 @@
       </c>
       <c r="K4">
         <f t="shared" si="0"/>
-        <v>3973.5772609710598</v>
+        <v>3972.0635649598662</v>
       </c>
       <c r="L4">
         <f t="shared" si="1"/>
-        <v>3.97357726097106</v>
+        <v>3.9720635649598663</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -12891,11 +12903,11 @@
       </c>
       <c r="K5">
         <f t="shared" si="0"/>
-        <v>3962.7659320831249</v>
+        <v>3970.2496764100611</v>
       </c>
       <c r="L5">
         <f t="shared" si="1"/>
-        <v>3.962765932083125</v>
+        <v>3.9702496764100612</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -12931,11 +12943,11 @@
       </c>
       <c r="K6">
         <f t="shared" si="0"/>
-        <v>3930.1326274871799</v>
+        <v>3951.072716418606</v>
       </c>
       <c r="L6">
         <f t="shared" si="1"/>
-        <v>3.93013262748718</v>
+        <v>3.9510727164186061</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -12971,11 +12983,11 @@
       </c>
       <c r="K7">
         <f t="shared" si="0"/>
-        <v>5193.1433677673249</v>
+        <v>5162.0946165956011</v>
       </c>
       <c r="L7">
         <f t="shared" si="1"/>
-        <v>5.1931433677673251</v>
+        <v>5.162094616595601</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -13011,11 +13023,11 @@
       </c>
       <c r="K8">
         <f t="shared" si="0"/>
-        <v>4522.6788520812916</v>
+        <v>4474.1699931062285</v>
       </c>
       <c r="L8">
         <f t="shared" si="1"/>
-        <v>4.5226788520812917</v>
+        <v>4.4741699931062282</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -13051,11 +13063,11 @@
       </c>
       <c r="K9">
         <f t="shared" si="0"/>
-        <v>4451.4961242675772</v>
+        <v>4421.4158293641631</v>
       </c>
       <c r="L9">
         <f t="shared" si="1"/>
-        <v>4.4514961242675772</v>
+        <v>4.4214158293641628</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -13101,11 +13113,11 @@
       </c>
       <c r="K12">
         <f t="shared" si="0"/>
-        <v>14249.711751937859</v>
+        <v>14234.921955767966</v>
       </c>
       <c r="L12">
         <f t="shared" si="1"/>
-        <v>14.249711751937859</v>
+        <v>14.234921955767966</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -13141,11 +13153,11 @@
       </c>
       <c r="K13">
         <f t="shared" si="0"/>
-        <v>12342.226028442361</v>
+        <v>12340.935253802625</v>
       </c>
       <c r="L13">
         <f t="shared" si="1"/>
-        <v>12.342226028442361</v>
+        <v>12.340935253802625</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -13181,11 +13193,11 @@
       </c>
       <c r="K14">
         <f t="shared" si="0"/>
-        <v>12408.300399780259</v>
+        <v>12401.912474337907</v>
       </c>
       <c r="L14">
         <f t="shared" si="1"/>
-        <v>12.408300399780259</v>
+        <v>12.401912474337907</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
@@ -13221,11 +13233,11 @@
       </c>
       <c r="K15">
         <f t="shared" si="0"/>
-        <v>12457.56912231444</v>
+        <v>12418.229603473046</v>
       </c>
       <c r="L15">
         <f t="shared" si="1"/>
-        <v>12.457569122314441</v>
+        <v>12.418229603473046</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
@@ -13261,11 +13273,11 @@
       </c>
       <c r="K16">
         <f t="shared" si="0"/>
-        <v>12329.761028289769</v>
+        <v>12301.110291186656</v>
       </c>
       <c r="L16">
         <f t="shared" si="1"/>
-        <v>12.32976102828977</v>
+        <v>12.301110291186657</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -13301,11 +13313,11 @@
       </c>
       <c r="K17">
         <f t="shared" si="0"/>
-        <v>4134.6502304077076</v>
+        <v>4128.2930609620635</v>
       </c>
       <c r="L17">
         <f t="shared" si="1"/>
-        <v>4.1346502304077077</v>
+        <v>4.1282930609620632</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -13341,11 +13353,11 @@
       </c>
       <c r="K18">
         <f t="shared" si="0"/>
-        <v>3884.707689285272</v>
+        <v>3880.0299403108183</v>
       </c>
       <c r="L18">
         <f t="shared" si="1"/>
-        <v>3.8847076892852721</v>
+        <v>3.8800299403108185</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
@@ -13381,11 +13393,11 @@
       </c>
       <c r="K19">
         <f t="shared" si="0"/>
-        <v>3876.2960433959938</v>
+        <v>3852.3514506257602</v>
       </c>
       <c r="L19">
         <f t="shared" si="1"/>
-        <v>3.8762960433959939</v>
+        <v>3.8523514506257603</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
@@ -13421,11 +13433,11 @@
       </c>
       <c r="K20">
         <f t="shared" si="0"/>
-        <v>3861.0935211181572</v>
+        <v>3851.6075846589633</v>
       </c>
       <c r="L20">
         <f t="shared" si="1"/>
-        <v>3.8610935211181574</v>
+        <v>3.8516075846589635</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -13461,11 +13473,11 @@
       </c>
       <c r="K21">
         <f t="shared" si="0"/>
-        <v>3842.4942493438707</v>
+        <v>3836.2257716096469</v>
       </c>
       <c r="L21">
         <f t="shared" si="1"/>
-        <v>3.8424942493438707</v>
+        <v>3.8362257716096471</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
@@ -13501,11 +13513,11 @@
       </c>
       <c r="K22">
         <f t="shared" si="0"/>
-        <v>4552.4568557739194</v>
+        <v>4530.2489039338652</v>
       </c>
       <c r="L22">
         <f t="shared" si="1"/>
-        <v>4.5524568557739196</v>
+        <v>4.5302489039338649</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
@@ -13541,11 +13553,11 @@
       </c>
       <c r="K23">
         <f t="shared" si="0"/>
-        <v>3941.8575763702302</v>
+        <v>3942.4004790223667</v>
       </c>
       <c r="L23">
         <f t="shared" si="1"/>
-        <v>3.9418575763702304</v>
+        <v>3.9424004790223668</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
@@ -13581,11 +13593,11 @@
       </c>
       <c r="K24">
         <f t="shared" si="0"/>
-        <v>3920.6621646881049</v>
+        <v>3917.1598193086211</v>
       </c>
       <c r="L24">
         <f t="shared" si="1"/>
-        <v>3.920662164688105</v>
+        <v>3.9171598193086212</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
@@ -13621,11 +13633,11 @@
       </c>
       <c r="K25">
         <f t="shared" si="0"/>
-        <v>3980.4558753967262</v>
+        <v>3966.3353201783725</v>
       </c>
       <c r="L25">
         <f t="shared" si="1"/>
-        <v>3.9804558753967263</v>
+        <v>3.9663353201783726</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
@@ -13661,11 +13673,11 @@
       </c>
       <c r="K26">
         <f t="shared" si="0"/>
-        <v>3976.6962528228687</v>
+        <v>3964.559340182645</v>
       </c>
       <c r="L26">
         <f t="shared" si="1"/>
-        <v>3.9766962528228689</v>
+        <v>3.9645593401826451</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
@@ -13701,11 +13713,11 @@
       </c>
       <c r="K27">
         <f t="shared" si="0"/>
-        <v>4722.2981452941867</v>
+        <v>4732.8305479920928</v>
       </c>
       <c r="L27">
         <f t="shared" si="1"/>
-        <v>4.7222981452941868</v>
+        <v>4.7328305479920925</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
@@ -13741,11 +13753,11 @@
       </c>
       <c r="K28">
         <f t="shared" si="0"/>
-        <v>4033.8771343231101</v>
+        <v>4027.8654333985864</v>
       </c>
       <c r="L28">
         <f t="shared" si="1"/>
-        <v>4.0338771343231103</v>
+        <v>4.0278654333985866</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
@@ -13781,11 +13793,11 @@
       </c>
       <c r="K29">
         <f t="shared" si="0"/>
-        <v>3949.4297504424944</v>
+        <v>3975.0051733888208</v>
       </c>
       <c r="L29">
         <f t="shared" si="1"/>
-        <v>3.9494297504424947</v>
+        <v>3.975005173388821</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
@@ -13821,11 +13833,11 @@
       </c>
       <c r="K30">
         <f t="shared" si="0"/>
-        <v>3959.3131542205738</v>
+        <v>3977.4151083863799</v>
       </c>
       <c r="L30">
         <f t="shared" si="1"/>
-        <v>3.9593131542205739</v>
+        <v>3.97741510838638</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
@@ -13861,11 +13873,11 @@
       </c>
       <c r="K31">
         <f t="shared" si="0"/>
-        <v>3933.5191249847403</v>
+        <v>3957.4947592652861</v>
       </c>
       <c r="L31">
         <f t="shared" si="1"/>
-        <v>3.9335191249847403</v>
+        <v>3.9574947592652863</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
@@ -13901,11 +13913,11 @@
       </c>
       <c r="K32">
         <f t="shared" si="0"/>
-        <v>5456.761598587027</v>
+        <v>5436.509155932763</v>
       </c>
       <c r="L32">
         <f t="shared" si="1"/>
-        <v>5.4567615985870273</v>
+        <v>5.4365091559327627</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
@@ -13941,11 +13953,11 @@
       </c>
       <c r="K33">
         <f t="shared" si="0"/>
-        <v>5192.2404766082691</v>
+        <v>5206.919932071065</v>
       </c>
       <c r="L33">
         <f t="shared" si="1"/>
-        <v>5.1922404766082693</v>
+        <v>5.2069199320710648</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
@@ -13981,11 +13993,11 @@
       </c>
       <c r="K34">
         <f t="shared" si="0"/>
-        <v>5079.5810222625587</v>
+        <v>5104.4547793305846</v>
       </c>
       <c r="L34">
         <f t="shared" si="1"/>
-        <v>5.079581022262559</v>
+        <v>5.1044547793305846</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
@@ -14031,11 +14043,11 @@
       </c>
       <c r="K37">
         <f t="shared" si="0"/>
-        <v>12415.389299392689</v>
+        <v>12417.305016223287</v>
       </c>
       <c r="L37">
         <f t="shared" si="1"/>
-        <v>12.41538929939269</v>
+        <v>12.417305016223287</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
@@ -14071,11 +14083,11 @@
       </c>
       <c r="K38">
         <f t="shared" si="0"/>
-        <v>12161.437034606919</v>
+        <v>12145.297312442155</v>
       </c>
       <c r="L38">
         <f t="shared" si="1"/>
-        <v>12.161437034606919</v>
+        <v>12.145297312442155</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
@@ -14111,11 +14123,11 @@
       </c>
       <c r="K39">
         <f t="shared" si="0"/>
-        <v>12087.559938430779</v>
+        <v>12056.890749636987</v>
       </c>
       <c r="L39">
         <f t="shared" si="1"/>
-        <v>12.087559938430779</v>
+        <v>12.056890749636986</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
@@ -14151,11 +14163,11 @@
       </c>
       <c r="K40">
         <f t="shared" si="0"/>
-        <v>12212.72063255309</v>
+        <v>12235.824608508447</v>
       </c>
       <c r="L40">
         <f t="shared" si="1"/>
-        <v>12.21272063255309</v>
+        <v>12.235824608508446</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
@@ -14191,11 +14203,11 @@
       </c>
       <c r="K41">
         <f t="shared" si="0"/>
-        <v>12168.55311393736</v>
+        <v>12186.263823214857</v>
       </c>
       <c r="L41">
         <f t="shared" si="1"/>
-        <v>12.16855311393736</v>
+        <v>12.186263823214857</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
@@ -14231,11 +14243,11 @@
       </c>
       <c r="K42">
         <f t="shared" si="0"/>
-        <v>4077.7013301849324</v>
+        <v>4122.7135893739287</v>
       </c>
       <c r="L42">
         <f t="shared" si="1"/>
-        <v>4.0777013301849321</v>
+        <v>4.1227135893739284</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
@@ -14271,11 +14283,11 @@
       </c>
       <c r="K43">
         <f t="shared" si="0"/>
-        <v>3859.6682548522926</v>
+        <v>3877.1796461976592</v>
       </c>
       <c r="L43">
         <f t="shared" si="1"/>
-        <v>3.8596682548522927</v>
+        <v>3.8771796461976593</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
@@ -14311,11 +14323,11 @@
       </c>
       <c r="K44">
         <f t="shared" si="0"/>
-        <v>3846.9347953796328</v>
+        <v>3851.3326880372592</v>
       </c>
       <c r="L44">
         <f t="shared" si="1"/>
-        <v>3.8469347953796329</v>
+        <v>3.8513326880372594</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
@@ -14351,11 +14363,11 @@
       </c>
       <c r="K45">
         <f t="shared" si="0"/>
-        <v>3846.6460704803408</v>
+        <v>3854.3584582246372</v>
       </c>
       <c r="L45">
         <f t="shared" si="1"/>
-        <v>3.8466460704803409</v>
+        <v>3.8543584582246373</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
@@ -14391,11 +14403,11 @@
       </c>
       <c r="K46">
         <f t="shared" si="0"/>
-        <v>3867.6989078521715</v>
+        <v>3850.5237337983676</v>
       </c>
       <c r="L46">
         <f t="shared" si="1"/>
-        <v>3.8676989078521715</v>
+        <v>3.8505237337983678</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
@@ -14431,11 +14443,11 @@
       </c>
       <c r="K47">
         <f t="shared" si="0"/>
-        <v>4745.4738616943341</v>
+        <v>4712.2938868440215</v>
       </c>
       <c r="L47">
         <f t="shared" si="1"/>
-        <v>4.7454738616943342</v>
+        <v>4.7122938868440212</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
@@ -14471,11 +14483,11 @@
       </c>
       <c r="K48">
         <f t="shared" si="0"/>
-        <v>3992.5904273986721</v>
+        <v>3958.5025545991484</v>
       </c>
       <c r="L48">
         <f t="shared" si="1"/>
-        <v>3.9925904273986723</v>
+        <v>3.9585025545991486</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
@@ -14511,11 +14523,11 @@
       </c>
       <c r="K49">
         <f t="shared" si="0"/>
-        <v>3909.5816612243602</v>
+        <v>3901.9899603761264</v>
       </c>
       <c r="L49">
         <f t="shared" si="1"/>
-        <v>3.9095816612243603</v>
+        <v>3.9019899603761266</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
@@ -14551,11 +14563,11 @@
       </c>
       <c r="K50">
         <f t="shared" si="0"/>
-        <v>3928.1244277954015</v>
+        <v>3926.358484927518</v>
       </c>
       <c r="L50">
         <f t="shared" si="1"/>
-        <v>3.9281244277954017</v>
+        <v>3.9263584849275182</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
@@ -14591,11 +14603,11 @@
       </c>
       <c r="K51">
         <f t="shared" si="0"/>
-        <v>3898.8101482391321</v>
+        <v>3896.928810778958</v>
       </c>
       <c r="L51">
         <f t="shared" si="1"/>
-        <v>3.8988101482391322</v>
+        <v>3.8969288107789581</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
@@ -14631,11 +14643,11 @@
       </c>
       <c r="K52">
         <f t="shared" si="0"/>
-        <v>17487.975120544412</v>
+        <v>17464.754604998907</v>
       </c>
       <c r="L52">
         <f t="shared" si="1"/>
-        <v>17.487975120544412</v>
+        <v>17.464754604998909</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
@@ -14671,11 +14683,11 @@
       </c>
       <c r="K53">
         <f t="shared" si="0"/>
-        <v>6718.2090282440004</v>
+        <v>6733.4244486726275</v>
       </c>
       <c r="L53">
         <f t="shared" si="1"/>
-        <v>6.7182090282440008</v>
+        <v>6.7334244486726273</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
@@ -14711,11 +14723,11 @@
       </c>
       <c r="K54">
         <f t="shared" si="0"/>
-        <v>5713.613271713255</v>
+        <v>5715.6107661164815</v>
       </c>
       <c r="L54">
         <f t="shared" si="1"/>
-        <v>5.7136132717132551</v>
+        <v>5.7156107661164812</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
@@ -14751,11 +14763,11 @@
       </c>
       <c r="K55">
         <f t="shared" si="0"/>
-        <v>5651.8707275390589</v>
+        <v>5667.4232718385247</v>
       </c>
       <c r="L55">
         <f t="shared" si="1"/>
-        <v>5.6518707275390589</v>
+        <v>5.6674232718385245</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
@@ -14791,11 +14803,11 @@
       </c>
       <c r="K56">
         <f t="shared" si="0"/>
-        <v>5681.7960739135615</v>
+        <v>5655.6322810090587</v>
       </c>
       <c r="L56">
         <f t="shared" si="1"/>
-        <v>5.6817960739135618</v>
+        <v>5.6556322810090585</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
@@ -14831,11 +14843,11 @@
       </c>
       <c r="K57">
         <f t="shared" si="0"/>
-        <v>17153.939962387012</v>
+        <v>17196.079754535</v>
       </c>
       <c r="L57">
         <f t="shared" si="1"/>
-        <v>17.153939962387014</v>
+        <v>17.196079754534999</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
@@ -14871,11 +14883,11 @@
       </c>
       <c r="K58">
         <f t="shared" si="0"/>
-        <v>6785.3393554687391</v>
+        <v>6588.310503665306</v>
       </c>
       <c r="L58">
         <f t="shared" si="1"/>
-        <v>6.7853393554687393</v>
+        <v>6.5883105036653058</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
@@ -14911,11 +14923,11 @@
       </c>
       <c r="K59">
         <f t="shared" si="0"/>
-        <v>5496.7064857482728</v>
+        <v>5533.0529448426696</v>
       </c>
       <c r="L59">
         <f t="shared" si="1"/>
-        <v>5.4967064857482733</v>
+        <v>5.5330529448426695</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
@@ -14951,11 +14963,11 @@
       </c>
       <c r="K60">
         <f t="shared" si="0"/>
-        <v>5463.2833003997712</v>
+        <v>5515.8360239900176</v>
       </c>
       <c r="L60">
         <f t="shared" si="1"/>
-        <v>5.4632833003997714</v>
+        <v>5.5158360239900173</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
@@ -14991,11 +15003,11 @@
       </c>
       <c r="K61">
         <f t="shared" si="0"/>
-        <v>5455.331325530994</v>
+        <v>5505.2278277314699</v>
       </c>
       <c r="L61">
         <f t="shared" si="1"/>
-        <v>5.4553313255309943</v>
+        <v>5.5052278277314697</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
@@ -15031,11 +15043,11 @@
       </c>
       <c r="K62">
         <f t="shared" si="0"/>
-        <v>4689.8303031921314</v>
+        <v>4740.9653899110381</v>
       </c>
       <c r="L62">
         <f t="shared" si="1"/>
-        <v>4.6898303031921316</v>
+        <v>4.7409653899110378</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
@@ -15071,11 +15083,11 @@
       </c>
       <c r="K63">
         <f t="shared" si="0"/>
-        <v>4011.4359855651819</v>
+        <v>4022.0535036958281</v>
       </c>
       <c r="L63">
         <f t="shared" si="1"/>
-        <v>4.011435985565182</v>
+        <v>4.0220535036958278</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
@@ -15111,11 +15123,11 @@
       </c>
       <c r="K64">
         <f t="shared" si="0"/>
-        <v>3969.2988395690827</v>
+        <v>3974.5440718568389</v>
       </c>
       <c r="L64">
         <f t="shared" si="1"/>
-        <v>3.9692988395690829</v>
+        <v>3.974544071856839</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
@@ -15151,11 +15163,11 @@
       </c>
       <c r="K65">
         <f t="shared" si="0"/>
-        <v>3955.1072120666404</v>
+        <v>3973.2151266969267</v>
       </c>
       <c r="L65">
         <f t="shared" si="1"/>
-        <v>3.9551072120666406</v>
+        <v>3.9732151266969269</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
@@ -15191,11 +15203,11 @@
       </c>
       <c r="K66">
         <f t="shared" si="0"/>
-        <v>3933.4375858306853</v>
+        <v>3958.0850836671416</v>
       </c>
       <c r="L66">
         <f t="shared" si="1"/>
-        <v>3.9334375858306854</v>
+        <v>3.9580850836671417</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
@@ -15230,12 +15242,12 @@
         <v>10181.9763183593</v>
       </c>
       <c r="K67">
-        <f t="shared" si="0"/>
-        <v>4888.0360126495234</v>
+        <f t="shared" ref="K67:K86" si="2">SUM($E$88,G67,H67)</f>
+        <v>4929.0943381226998</v>
       </c>
       <c r="L67">
         <f t="shared" si="1"/>
-        <v>4.8880360126495237</v>
+        <v>4.9290943381226997</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
@@ -15270,12 +15282,12 @@
         <v>9687.1883869171106</v>
       </c>
       <c r="K68">
-        <f t="shared" si="0"/>
-        <v>4462.2695446014359</v>
+        <f t="shared" si="2"/>
+        <v>4469.0127608216826</v>
       </c>
       <c r="L68">
         <f t="shared" si="1"/>
-        <v>4.462269544601436</v>
+        <v>4.4690127608216823</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
@@ -15310,12 +15322,12 @@
         <v>9714.3363952636701</v>
       </c>
       <c r="K69">
-        <f t="shared" si="0"/>
-        <v>4422.9576587676938</v>
+        <f t="shared" si="2"/>
+        <v>4428.0295607484404</v>
       </c>
       <c r="L69">
         <f t="shared" si="1"/>
-        <v>4.422957658767694</v>
+        <v>4.4280295607484401</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
@@ -15360,12 +15372,12 @@
         <v>12233.341693878099</v>
       </c>
       <c r="K72">
-        <f t="shared" si="0"/>
-        <v>12543.749570846539</v>
+        <f t="shared" si="2"/>
+        <v>12540.935778323495</v>
       </c>
       <c r="L72">
         <f t="shared" si="1"/>
-        <v>12.54374957084654</v>
+        <v>12.540935778323496</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
@@ -15400,12 +15412,12 @@
         <v>12338.9024734497</v>
       </c>
       <c r="K73">
-        <f t="shared" si="0"/>
-        <v>12421.789884567239</v>
+        <f t="shared" si="2"/>
+        <v>12418.137335482927</v>
       </c>
       <c r="L73">
         <f t="shared" si="1"/>
-        <v>12.421789884567239</v>
+        <v>12.418137335482927</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
@@ -15440,12 +15452,12 @@
         <v>12248.091936111399</v>
       </c>
       <c r="K74">
-        <f t="shared" si="0"/>
-        <v>12242.390394210801</v>
+        <f t="shared" si="2"/>
+        <v>12195.445561114637</v>
       </c>
       <c r="L74">
         <f t="shared" si="1"/>
-        <v>12.242390394210801</v>
+        <v>12.195445561114637</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
@@ -15480,12 +15492,12 @@
         <v>11816.281080245901</v>
       </c>
       <c r="K75">
-        <f t="shared" si="0"/>
-        <v>12184.44085121153</v>
+        <f t="shared" si="2"/>
+        <v>12176.247620288228</v>
       </c>
       <c r="L75">
         <f t="shared" si="1"/>
-        <v>12.18444085121153</v>
+        <v>12.176247620288228</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
@@ -15520,12 +15532,12 @@
         <v>12236.923694610499</v>
       </c>
       <c r="K76">
-        <f t="shared" si="0"/>
-        <v>12489.696741104111</v>
+        <f t="shared" si="2"/>
+        <v>12474.776291552877</v>
       </c>
       <c r="L76">
         <f t="shared" si="1"/>
-        <v>12.489696741104112</v>
+        <v>12.474776291552876</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
@@ -15560,12 +15572,12 @@
         <v>39716.9382572174</v>
       </c>
       <c r="K77">
-        <f t="shared" si="0"/>
-        <v>4124.1915225982648</v>
+        <f t="shared" si="2"/>
+        <v>4118.5970541871611</v>
       </c>
       <c r="L77">
         <f t="shared" si="1"/>
-        <v>4.1241915225982648</v>
+        <v>4.1185970541871608</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
@@ -15600,12 +15612,12 @@
         <v>37952.275037765503</v>
       </c>
       <c r="K78">
-        <f t="shared" ref="K78:K86" si="2">SUM(E78,G78,H78)</f>
-        <v>3832.3810100555411</v>
+        <f t="shared" si="2"/>
+        <v>3876.5936133302275</v>
       </c>
       <c r="L78">
         <f t="shared" ref="L78:L86" si="3">PRODUCT(K78,0.001)</f>
-        <v>3.8323810100555411</v>
+        <v>3.8765936133302277</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
@@ -15641,11 +15653,11 @@
       </c>
       <c r="K79">
         <f t="shared" si="2"/>
-        <v>3802.1941184997527</v>
+        <v>3848.9020106233188</v>
       </c>
       <c r="L79">
         <f t="shared" si="3"/>
-        <v>3.8021941184997528</v>
+        <v>3.8489020106233189</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
@@ -15681,11 +15693,11 @@
       </c>
       <c r="K80">
         <f t="shared" si="2"/>
-        <v>3804.6267032623255</v>
+        <v>3853.2638785279819</v>
       </c>
       <c r="L80">
         <f t="shared" si="3"/>
-        <v>3.8046267032623255</v>
+        <v>3.853263878527982</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
@@ -15721,11 +15733,11 @@
       </c>
       <c r="K81">
         <f t="shared" si="2"/>
-        <v>3856.5564155578518</v>
+        <v>3836.7350336946079</v>
       </c>
       <c r="L81">
         <f t="shared" si="3"/>
-        <v>3.856556415557852</v>
+        <v>3.836735033694608</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.3">
@@ -15761,11 +15773,11 @@
       </c>
       <c r="K82">
         <f t="shared" si="2"/>
-        <v>4454.6318054199137</v>
+        <v>4413.6147734559599</v>
       </c>
       <c r="L82">
         <f t="shared" si="3"/>
-        <v>4.4546318054199139</v>
+        <v>4.4136147734559597</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.3">
@@ -15801,11 +15813,11 @@
       </c>
       <c r="K83">
         <f t="shared" si="2"/>
-        <v>3927.7553558349505</v>
+        <v>3958.3144423402368</v>
       </c>
       <c r="L83">
         <f t="shared" si="3"/>
-        <v>3.9277553558349507</v>
+        <v>3.958314442340237</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.3">
@@ -15841,11 +15853,11 @@
       </c>
       <c r="K84">
         <f t="shared" si="2"/>
-        <v>3946.1369514465296</v>
+        <v>3934.248470965726</v>
       </c>
       <c r="L84">
         <f t="shared" si="3"/>
-        <v>3.9461369514465297</v>
+        <v>3.9342484709657262</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.3">
@@ -15881,11 +15893,11 @@
       </c>
       <c r="K85">
         <f t="shared" si="2"/>
-        <v>3991.6152954101481</v>
+        <v>3984.6692320741245</v>
       </c>
       <c r="L85">
         <f t="shared" si="3"/>
-        <v>3.9916152954101483</v>
+        <v>3.9846692320741246</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.3">
@@ -15921,11 +15933,20 @@
       </c>
       <c r="K86">
         <f t="shared" si="2"/>
-        <v>4009.1962814331009</v>
+        <v>3981.1203715241973</v>
       </c>
       <c r="L86">
         <f t="shared" si="3"/>
-        <v>4.009196281433101</v>
+        <v>3.9811203715241974</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D88" t="s">
+        <v>31</v>
+      </c>
+      <c r="E88">
+        <f>'10_trees'!E88</f>
+        <v>3704.1723963655063</v>
       </c>
     </row>
   </sheetData>
@@ -15959,10 +15980,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6069E8BF-236C-42C7-9E87-40F9BE888DB8}">
-  <dimension ref="A1:L86"/>
+  <dimension ref="A1:L88"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:A11"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16040,12 +16061,12 @@
         <v>17979.670524597099</v>
       </c>
       <c r="K2">
-        <f>SUM(E2,G2,H2)</f>
-        <v>4820.4967975616373</v>
+        <f>SUM($E$88,G2,H2)</f>
+        <v>4761.198305789334</v>
       </c>
       <c r="L2">
         <f>PRODUCT(K2,0.001)</f>
-        <v>4.8204967975616375</v>
+        <v>4.7611983057893337</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -16080,12 +16101,12 @@
         <v>13471.8191623687</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K77" si="0">SUM(E3,G3,H3)</f>
-        <v>4461.0030651092429</v>
+        <f t="shared" ref="K3:K66" si="0">SUM($E$88,G3,H3)</f>
+        <v>4422.6694342530791</v>
       </c>
       <c r="L3">
         <f t="shared" ref="L3:L77" si="1">PRODUCT(K3,0.001)</f>
-        <v>4.4610030651092432</v>
+        <v>4.4226694342530788</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -16121,11 +16142,11 @@
       </c>
       <c r="K4">
         <f t="shared" si="0"/>
-        <v>4421.3898181915274</v>
+        <v>4374.5539423860137</v>
       </c>
       <c r="L4">
         <f t="shared" si="1"/>
-        <v>4.4213898181915274</v>
+        <v>4.3745539423860134</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -16161,11 +16182,11 @@
       </c>
       <c r="K5">
         <f t="shared" si="0"/>
-        <v>4403.9616584777768</v>
+        <v>4370.5549475587432</v>
       </c>
       <c r="L5">
         <f t="shared" si="1"/>
-        <v>4.403961658477777</v>
+        <v>4.3705549475587429</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -16201,11 +16222,11 @@
       </c>
       <c r="K6">
         <f t="shared" si="0"/>
-        <v>4393.1708335876401</v>
+        <v>4356.6460844911162</v>
       </c>
       <c r="L6">
         <f t="shared" si="1"/>
-        <v>4.3931708335876403</v>
+        <v>4.3566460844911159</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -16241,11 +16262,11 @@
       </c>
       <c r="K7">
         <f t="shared" si="0"/>
-        <v>5239.1772270202464</v>
+        <v>5189.4166705049029</v>
       </c>
       <c r="L7">
         <f t="shared" si="1"/>
-        <v>5.2391772270202468</v>
+        <v>5.1894166705049027</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -16281,11 +16302,11 @@
       </c>
       <c r="K8">
         <f t="shared" si="0"/>
-        <v>4772.555589675896</v>
+        <v>4739.1624686158721</v>
       </c>
       <c r="L8">
         <f t="shared" si="1"/>
-        <v>4.7725555896758962</v>
+        <v>4.7391624686158718</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -16321,11 +16342,11 @@
       </c>
       <c r="K9">
         <f t="shared" si="0"/>
-        <v>4709.5069885253897</v>
+        <v>4682.8046080506865</v>
       </c>
       <c r="L9">
         <f t="shared" si="1"/>
-        <v>4.7095069885253897</v>
+        <v>4.6828046080506862</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -16371,11 +16392,11 @@
       </c>
       <c r="K12">
         <f t="shared" si="0"/>
-        <v>17886.11602783202</v>
+        <v>17802.171969119405</v>
       </c>
       <c r="L12">
         <f t="shared" si="1"/>
-        <v>17.886116027832021</v>
+        <v>17.802171969119406</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -16411,11 +16432,11 @@
       </c>
       <c r="K13">
         <f t="shared" si="0"/>
-        <v>14861.82594299314</v>
+        <v>14808.628582660047</v>
       </c>
       <c r="L13">
         <f t="shared" si="1"/>
-        <v>14.861825942993141</v>
+        <v>14.808628582660047</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -16451,11 +16472,11 @@
       </c>
       <c r="K14">
         <f t="shared" si="0"/>
-        <v>14017.943859100331</v>
+        <v>13988.697313968036</v>
       </c>
       <c r="L14">
         <f t="shared" si="1"/>
-        <v>14.017943859100331</v>
+        <v>13.988697313968036</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
@@ -16491,11 +16512,11 @@
       </c>
       <c r="K15">
         <f t="shared" si="0"/>
-        <v>14684.69381332396</v>
+        <v>14633.331560794206</v>
       </c>
       <c r="L15">
         <f t="shared" si="1"/>
-        <v>14.68469381332396</v>
+        <v>14.633331560794206</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
@@ -16531,11 +16552,11 @@
       </c>
       <c r="K16">
         <f t="shared" si="0"/>
-        <v>14552.36291885374</v>
+        <v>14543.885254565566</v>
       </c>
       <c r="L16">
         <f t="shared" si="1"/>
-        <v>14.55236291885374</v>
+        <v>14.543885254565566</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -16571,11 +16592,11 @@
       </c>
       <c r="K17">
         <f t="shared" si="0"/>
-        <v>4306.4270019531223</v>
+        <v>4251.176857653958</v>
       </c>
       <c r="L17">
         <f t="shared" si="1"/>
-        <v>4.3064270019531223</v>
+        <v>4.2511768576539577</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -16611,11 +16632,11 @@
       </c>
       <c r="K18">
         <f t="shared" si="0"/>
-        <v>4077.296733856198</v>
+        <v>4038.0299326814243</v>
       </c>
       <c r="L18">
         <f t="shared" si="1"/>
-        <v>4.0772967338561985</v>
+        <v>4.0380299326814244</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
@@ -16651,11 +16672,11 @@
       </c>
       <c r="K19">
         <f t="shared" si="0"/>
-        <v>4026.382684707638</v>
+        <v>4004.6515700257842</v>
       </c>
       <c r="L19">
         <f t="shared" si="1"/>
-        <v>4.026382684707638</v>
+        <v>4.0046515700257839</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
@@ -16691,11 +16712,11 @@
       </c>
       <c r="K20">
         <f t="shared" si="0"/>
-        <v>4047.370672225944</v>
+        <v>4017.3928973115503</v>
       </c>
       <c r="L20">
         <f t="shared" si="1"/>
-        <v>4.0473706722259442</v>
+        <v>4.0173928973115505</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -16731,11 +16752,11 @@
       </c>
       <c r="K21">
         <f t="shared" si="0"/>
-        <v>4020.486593246454</v>
+        <v>3995.0540301240503</v>
       </c>
       <c r="L21">
         <f t="shared" si="1"/>
-        <v>4.0204865932464537</v>
+        <v>3.9950540301240505</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
@@ -16771,11 +16792,11 @@
       </c>
       <c r="K22">
         <f t="shared" si="0"/>
-        <v>4690.0420188903736</v>
+        <v>4646.1985346711699</v>
       </c>
       <c r="L22">
         <f t="shared" si="1"/>
-        <v>4.6900420188903738</v>
+        <v>4.6461985346711696</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
@@ -16811,11 +16832,11 @@
       </c>
       <c r="K23">
         <f t="shared" si="0"/>
-        <v>4155.7791233062699</v>
+        <v>4010.8661887086455</v>
       </c>
       <c r="L23">
         <f t="shared" si="1"/>
-        <v>4.15577912330627</v>
+        <v>4.0108661887086452</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
@@ -16851,11 +16872,11 @@
       </c>
       <c r="K24">
         <f t="shared" si="0"/>
-        <v>4040.277481079092</v>
+        <v>3983.5508105195581</v>
       </c>
       <c r="L24">
         <f t="shared" si="1"/>
-        <v>4.0402774810790918</v>
+        <v>3.9835508105195583</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
@@ -16891,11 +16912,11 @@
       </c>
       <c r="K25">
         <f t="shared" si="0"/>
-        <v>4106.7631244659342</v>
+        <v>4028.1536814607207</v>
       </c>
       <c r="L25">
         <f t="shared" si="1"/>
-        <v>4.1067631244659344</v>
+        <v>4.0281536814607204</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
@@ -16931,11 +16952,11 @@
       </c>
       <c r="K26">
         <f t="shared" si="0"/>
-        <v>4081.1944007873471</v>
+        <v>4023.4213110841333</v>
       </c>
       <c r="L26">
         <f t="shared" si="1"/>
-        <v>4.0811944007873473</v>
+        <v>4.0234213110841335</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
@@ -16971,11 +16992,11 @@
       </c>
       <c r="K27">
         <f t="shared" si="0"/>
-        <v>4795.4523563384964</v>
+        <v>4744.2310091889922</v>
       </c>
       <c r="L27">
         <f t="shared" si="1"/>
-        <v>4.7954523563384965</v>
+        <v>4.7442310091889919</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
@@ -17011,11 +17032,11 @@
       </c>
       <c r="K28">
         <f t="shared" si="0"/>
-        <v>4464.4818305969211</v>
+        <v>4427.6960131562773</v>
       </c>
       <c r="L28">
         <f t="shared" si="1"/>
-        <v>4.4644818305969212</v>
+        <v>4.427696013156277</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
@@ -17051,11 +17072,11 @@
       </c>
       <c r="K29">
         <f t="shared" si="0"/>
-        <v>4429.5248985290464</v>
+        <v>4378.7257906831328</v>
       </c>
       <c r="L29">
         <f t="shared" si="1"/>
-        <v>4.4295248985290465</v>
+        <v>4.3787257906831325</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
@@ -17091,11 +17112,11 @@
       </c>
       <c r="K30">
         <f t="shared" si="0"/>
-        <v>4413.4781360626175</v>
+        <v>4405.0395724214141</v>
       </c>
       <c r="L30">
         <f t="shared" si="1"/>
-        <v>4.4134781360626176</v>
+        <v>4.4050395724214138</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
@@ -17131,11 +17152,11 @@
       </c>
       <c r="K31">
         <f t="shared" si="0"/>
-        <v>4382.3657035827555</v>
+        <v>4382.3430773652617</v>
       </c>
       <c r="L31">
         <f t="shared" si="1"/>
-        <v>4.3823657035827557</v>
+        <v>4.3823430773652614</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
@@ -17171,11 +17192,11 @@
       </c>
       <c r="K32">
         <f t="shared" si="0"/>
-        <v>5346.9791412353452</v>
+        <v>5305.6533572114513</v>
       </c>
       <c r="L32">
         <f t="shared" si="1"/>
-        <v>5.3469791412353453</v>
+        <v>5.305653357211451</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
@@ -17211,11 +17232,11 @@
       </c>
       <c r="K33">
         <f t="shared" si="0"/>
-        <v>5105.8981418609519</v>
+        <v>5050.4708525575188</v>
       </c>
       <c r="L33">
         <f t="shared" si="1"/>
-        <v>5.1058981418609521</v>
+        <v>5.0504708525575186</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
@@ -17251,11 +17272,11 @@
       </c>
       <c r="K34">
         <f t="shared" si="0"/>
-        <v>5326.1272907256989</v>
+        <v>5290.8389803803957</v>
       </c>
       <c r="L34">
         <f t="shared" si="1"/>
-        <v>5.3261272907256991</v>
+        <v>5.2908389803803955</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
@@ -17301,11 +17322,11 @@
       </c>
       <c r="K37">
         <f t="shared" si="0"/>
-        <v>14549.32856559752</v>
+        <v>14534.495138827657</v>
       </c>
       <c r="L37">
         <f t="shared" si="1"/>
-        <v>14.54932856559752</v>
+        <v>14.534495138827657</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
@@ -17341,11 +17362,11 @@
       </c>
       <c r="K38">
         <f t="shared" si="0"/>
-        <v>13440.06896018981</v>
+        <v>13310.907387439107</v>
       </c>
       <c r="L38">
         <f t="shared" si="1"/>
-        <v>13.44006896018981</v>
+        <v>13.310907387439107</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
@@ -17381,11 +17402,11 @@
       </c>
       <c r="K39">
         <f t="shared" si="0"/>
-        <v>13288.165807723979</v>
+        <v>13244.855665866226</v>
       </c>
       <c r="L39">
         <f t="shared" si="1"/>
-        <v>13.288165807723979</v>
+        <v>13.244855665866226</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
@@ -17421,11 +17442,11 @@
       </c>
       <c r="K40">
         <f t="shared" si="0"/>
-        <v>13941.31422042846</v>
+        <v>13916.848921481465</v>
       </c>
       <c r="L40">
         <f t="shared" si="1"/>
-        <v>13.94131422042846</v>
+        <v>13.916848921481465</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
@@ -17461,11 +17482,11 @@
       </c>
       <c r="K41">
         <f t="shared" si="0"/>
-        <v>13911.98658943175</v>
+        <v>13910.762810412736</v>
       </c>
       <c r="L41">
         <f t="shared" si="1"/>
-        <v>13.91198658943175</v>
+        <v>13.910762810412736</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
@@ -17501,11 +17522,11 @@
       </c>
       <c r="K42">
         <f t="shared" si="0"/>
-        <v>4289.0188694000226</v>
+        <v>4233.4709402955596</v>
       </c>
       <c r="L42">
         <f t="shared" si="1"/>
-        <v>4.2890188694000226</v>
+        <v>4.2334709402955593</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
@@ -17541,11 +17562,11 @@
       </c>
       <c r="K43">
         <f t="shared" si="0"/>
-        <v>4028.9566516876139</v>
+        <v>4006.1810252107202</v>
       </c>
       <c r="L43">
         <f t="shared" si="1"/>
-        <v>4.0289566516876141</v>
+        <v>4.0061810252107204</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
@@ -17581,11 +17602,11 @@
       </c>
       <c r="K44">
         <f t="shared" si="0"/>
-        <v>4213.1495475769034</v>
+        <v>3991.5194746888696</v>
       </c>
       <c r="L44">
         <f t="shared" si="1"/>
-        <v>4.2131495475769034</v>
+        <v>3.9915194746888698</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
@@ -17621,11 +17642,11 @@
       </c>
       <c r="K45">
         <f t="shared" si="0"/>
-        <v>4004.9443244934032</v>
+        <v>3993.9794775880396</v>
       </c>
       <c r="L45">
         <f t="shared" si="1"/>
-        <v>4.0049443244934029</v>
+        <v>3.9939794775880397</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
@@ -17661,11 +17682,11 @@
       </c>
       <c r="K46">
         <f t="shared" si="0"/>
-        <v>3969.2785739898677</v>
+        <v>3945.7526442445342</v>
       </c>
       <c r="L46">
         <f t="shared" si="1"/>
-        <v>3.9692785739898677</v>
+        <v>3.9457526442445343</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
@@ -17701,11 +17722,11 @@
       </c>
       <c r="K47">
         <f t="shared" si="0"/>
-        <v>4578.7286758422815</v>
+        <v>4547.096514407498</v>
       </c>
       <c r="L47">
         <f t="shared" si="1"/>
-        <v>4.5787286758422816</v>
+        <v>4.5470965144074977</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
@@ -17741,11 +17762,11 @@
       </c>
       <c r="K48">
         <f t="shared" si="0"/>
-        <v>4005.4857730865469</v>
+        <v>3994.4138762391631</v>
       </c>
       <c r="L48">
         <f t="shared" si="1"/>
-        <v>4.005485773086547</v>
+        <v>3.9944138762391632</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
@@ -17781,11 +17802,11 @@
       </c>
       <c r="K49">
         <f t="shared" si="0"/>
-        <v>3959.2070579528745</v>
+        <v>3958.5736033357207</v>
       </c>
       <c r="L49">
         <f t="shared" si="1"/>
-        <v>3.9592070579528746</v>
+        <v>3.9585736033357208</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
@@ -17821,11 +17842,11 @@
       </c>
       <c r="K50">
         <f t="shared" si="0"/>
-        <v>3992.419481277459</v>
+        <v>3971.1747404969751</v>
       </c>
       <c r="L50">
         <f t="shared" si="1"/>
-        <v>3.9924194812774592</v>
+        <v>3.9711747404969753</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
@@ -17861,11 +17882,11 @@
       </c>
       <c r="K51">
         <f t="shared" si="0"/>
-        <v>4002.9828548431337</v>
+        <v>3949.4290587342803</v>
       </c>
       <c r="L51">
         <f t="shared" si="1"/>
-        <v>4.0029828548431334</v>
+        <v>3.9494290587342804</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
@@ -17901,11 +17922,11 @@
       </c>
       <c r="K52">
         <f t="shared" si="0"/>
-        <v>40629.016399383487</v>
+        <v>40621.674084368999</v>
       </c>
       <c r="L52">
         <f t="shared" si="1"/>
-        <v>40.629016399383488</v>
+        <v>40.621674084368998</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
@@ -17941,11 +17962,11 @@
       </c>
       <c r="K53">
         <f t="shared" si="0"/>
-        <v>9144.3428993225025</v>
+        <v>9131.6535708344982</v>
       </c>
       <c r="L53">
         <f t="shared" si="1"/>
-        <v>9.1443428993225027</v>
+        <v>9.1316535708344979</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
@@ -17981,11 +18002,11 @@
       </c>
       <c r="K54">
         <f t="shared" si="0"/>
-        <v>6126.761913299546</v>
+        <v>6102.4708983338824</v>
       </c>
       <c r="L54">
         <f t="shared" si="1"/>
-        <v>6.1267619132995463</v>
+        <v>6.1024708983338822</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
@@ -18021,11 +18042,11 @@
       </c>
       <c r="K55">
         <f t="shared" si="0"/>
-        <v>5950.0067234039198</v>
+        <v>5906.6066977418459</v>
       </c>
       <c r="L55">
         <f t="shared" si="1"/>
-        <v>5.95000672340392</v>
+        <v>5.9066066977418457</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
@@ -18061,11 +18082,11 @@
       </c>
       <c r="K56">
         <f t="shared" si="0"/>
-        <v>5904.2451381683277</v>
+        <v>5861.0294100678939</v>
       </c>
       <c r="L56">
         <f t="shared" si="1"/>
-        <v>5.9042451381683279</v>
+        <v>5.8610294100678937</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
@@ -18101,11 +18122,11 @@
       </c>
       <c r="K57">
         <f t="shared" si="0"/>
-        <v>42654.654264450066</v>
+        <v>42624.593996707306</v>
       </c>
       <c r="L57">
         <f t="shared" si="1"/>
-        <v>42.654654264450066</v>
+        <v>42.624593996707304</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
@@ -18141,11 +18162,11 @@
       </c>
       <c r="K58">
         <f t="shared" si="0"/>
-        <v>8969.3362712859998</v>
+        <v>8946.0134741700676</v>
       </c>
       <c r="L58">
         <f t="shared" si="1"/>
-        <v>8.9693362712860001</v>
+        <v>8.9460134741700674</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
@@ -18181,11 +18202,11 @@
       </c>
       <c r="K59">
         <f t="shared" si="0"/>
-        <v>5946.2780952453577</v>
+        <v>5923.1584307588137</v>
       </c>
       <c r="L59">
         <f t="shared" si="1"/>
-        <v>5.9462780952453578</v>
+        <v>5.9231584307588134</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
@@ -18221,11 +18242,11 @@
       </c>
       <c r="K60">
         <f t="shared" si="0"/>
-        <v>5772.6354598998969</v>
+        <v>5759.6054312623528</v>
       </c>
       <c r="L60">
         <f t="shared" si="1"/>
-        <v>5.772635459899897</v>
+        <v>5.7596054312623526</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
@@ -18261,11 +18282,11 @@
       </c>
       <c r="K61">
         <f t="shared" si="0"/>
-        <v>5787.4498367309552</v>
+        <v>5736.9361159242217</v>
       </c>
       <c r="L61">
         <f t="shared" si="1"/>
-        <v>5.7874498367309553</v>
+        <v>5.7369361159242214</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
@@ -18301,11 +18322,11 @@
       </c>
       <c r="K62">
         <f t="shared" si="0"/>
-        <v>4755.7425498962339</v>
+        <v>4724.5836493409697</v>
       </c>
       <c r="L62">
         <f t="shared" si="1"/>
-        <v>4.755742549896234</v>
+        <v>4.7245836493409694</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
@@ -18341,11 +18362,11 @@
       </c>
       <c r="K63">
         <f t="shared" si="0"/>
-        <v>4470.7572460174506</v>
+        <v>4434.0224501527373</v>
       </c>
       <c r="L63">
         <f t="shared" si="1"/>
-        <v>4.4707572460174507</v>
+        <v>4.434022450152737</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
@@ -18381,11 +18402,11 @@
       </c>
       <c r="K64">
         <f t="shared" si="0"/>
-        <v>4430.8998584747314</v>
+        <v>4382.0417162812773</v>
       </c>
       <c r="L64">
         <f t="shared" si="1"/>
-        <v>4.4308998584747314</v>
+        <v>4.382041716281277</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
@@ -18421,11 +18442,11 @@
       </c>
       <c r="K65">
         <f t="shared" si="0"/>
-        <v>4489.2194271087637</v>
+        <v>4409.8596808351103</v>
       </c>
       <c r="L65">
         <f t="shared" si="1"/>
-        <v>4.4892194271087638</v>
+        <v>4.40985968083511</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
@@ -18461,11 +18482,11 @@
       </c>
       <c r="K66">
         <f t="shared" si="0"/>
-        <v>4460.7317447662344</v>
+        <v>4383.8346239961211</v>
       </c>
       <c r="L66">
         <f t="shared" si="1"/>
-        <v>4.4607317447662345</v>
+        <v>4.3838346239961208</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
@@ -18500,12 +18521,12 @@
         <v>23989.224195480299</v>
       </c>
       <c r="K67">
-        <f t="shared" si="0"/>
-        <v>4997.4510669708152</v>
+        <f t="shared" ref="K67:K86" si="2">SUM($E$88,G67,H67)</f>
+        <v>4969.0404173768511</v>
       </c>
       <c r="L67">
         <f t="shared" si="1"/>
-        <v>4.9974510669708154</v>
+        <v>4.969040417376851</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
@@ -18540,12 +18561,12 @@
         <v>23894.903659820498</v>
       </c>
       <c r="K68">
-        <f t="shared" si="0"/>
-        <v>4794.2295074462827</v>
+        <f t="shared" si="2"/>
+        <v>4745.0835940278594</v>
       </c>
       <c r="L68">
         <f t="shared" si="1"/>
-        <v>4.7942295074462828</v>
+        <v>4.7450835940278591</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
@@ -18580,12 +18601,12 @@
         <v>23713.0870819091</v>
       </c>
       <c r="K69">
-        <f t="shared" si="0"/>
-        <v>4692.5315856933539</v>
+        <f t="shared" si="2"/>
+        <v>4664.8299929536406</v>
       </c>
       <c r="L69">
         <f t="shared" si="1"/>
-        <v>4.692531585693354</v>
+        <v>4.6648299929536403</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
@@ -18630,12 +18651,12 @@
         <v>23147.1660137176</v>
       </c>
       <c r="K72">
-        <f t="shared" si="0"/>
-        <v>14715.207576751691</v>
+        <f t="shared" si="2"/>
+        <v>14685.160422030776</v>
       </c>
       <c r="L72">
         <f t="shared" si="1"/>
-        <v>14.715207576751691</v>
+        <v>14.685160422030776</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
@@ -18670,12 +18691,12 @@
         <v>21864.641189575101</v>
       </c>
       <c r="K73">
-        <f t="shared" si="0"/>
-        <v>14005.61118125913</v>
+        <f t="shared" si="2"/>
+        <v>13975.848459903085</v>
       </c>
       <c r="L73">
         <f t="shared" si="1"/>
-        <v>14.00561118125913</v>
+        <v>13.975848459903085</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
@@ -18710,12 +18731,12 @@
         <v>21854.5019626617</v>
       </c>
       <c r="K74">
-        <f t="shared" si="0"/>
-        <v>13143.539428710919</v>
+        <f t="shared" si="2"/>
+        <v>13145.605587664937</v>
       </c>
       <c r="L74">
         <f t="shared" si="1"/>
-        <v>13.14353942871092</v>
+        <v>13.145605587664937</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
@@ -18750,12 +18771,12 @@
         <v>23075.613737106301</v>
       </c>
       <c r="K75">
-        <f t="shared" si="0"/>
-        <v>13819.490909576401</v>
+        <f t="shared" si="2"/>
+        <v>13822.898173037856</v>
       </c>
       <c r="L75">
         <f t="shared" si="1"/>
-        <v>13.819490909576402</v>
+        <v>13.822898173037856</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
@@ -18790,12 +18811,12 @@
         <v>23250.867843627901</v>
       </c>
       <c r="K76">
-        <f t="shared" si="0"/>
-        <v>14014.050960540761</v>
+        <f t="shared" si="2"/>
+        <v>13989.373707476945</v>
       </c>
       <c r="L76">
         <f t="shared" si="1"/>
-        <v>14.014050960540761</v>
+        <v>13.989373707476945</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
@@ -18830,12 +18851,12 @@
         <v>53716.684103011998</v>
       </c>
       <c r="K77">
-        <f t="shared" si="0"/>
-        <v>4263.4582519531159</v>
+        <f t="shared" si="2"/>
+        <v>4231.2357661164824</v>
       </c>
       <c r="L77">
         <f t="shared" si="1"/>
-        <v>4.2634582519531161</v>
+        <v>4.2312357661164821</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
@@ -18870,12 +18891,12 @@
         <v>58708.216428756699</v>
       </c>
       <c r="K78">
-        <f t="shared" ref="K78:K86" si="2">SUM(E78,G78,H78)</f>
-        <v>4041.9921874999927</v>
+        <f t="shared" si="2"/>
+        <v>4026.2062785066191</v>
       </c>
       <c r="L78">
         <f t="shared" ref="L78:L86" si="3">PRODUCT(K78,0.001)</f>
-        <v>4.0419921874999929</v>
+        <v>4.0262062785066188</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
@@ -18911,11 +18932,11 @@
       </c>
       <c r="K79">
         <f t="shared" si="2"/>
-        <v>3981.561183929437</v>
+        <v>3973.2849833406035</v>
       </c>
       <c r="L79">
         <f t="shared" si="3"/>
-        <v>3.9815611839294371</v>
+        <v>3.9732849833406036</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
@@ -18951,11 +18972,11 @@
       </c>
       <c r="K80">
         <f t="shared" si="2"/>
-        <v>4005.2597522735509</v>
+        <v>3982.6143023408472</v>
       </c>
       <c r="L80">
         <f t="shared" si="3"/>
-        <v>4.0052597522735507</v>
+        <v>3.9826143023408473</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
@@ -18991,11 +19012,11 @@
       </c>
       <c r="K81">
         <f t="shared" si="2"/>
-        <v>4005.4376125335675</v>
+        <v>3986.6304633058139</v>
       </c>
       <c r="L81">
         <f t="shared" si="3"/>
-        <v>4.0054376125335676</v>
+        <v>3.9866304633058141</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.3">
@@ -19031,11 +19052,11 @@
       </c>
       <c r="K82">
         <f t="shared" si="2"/>
-        <v>4555.2361011505091</v>
+        <v>4522.5982901490752</v>
       </c>
       <c r="L82">
         <f t="shared" si="3"/>
-        <v>4.5552361011505091</v>
+        <v>4.5225982901490749</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.3">
@@ -19071,11 +19092,11 @@
       </c>
       <c r="K83">
         <f t="shared" si="2"/>
-        <v>4065.9506320953315</v>
+        <v>4052.6297327912876</v>
       </c>
       <c r="L83">
         <f t="shared" si="3"/>
-        <v>4.0659506320953316</v>
+        <v>4.0526297327912877</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.3">
@@ -19111,11 +19132,11 @@
       </c>
       <c r="K84">
         <f t="shared" si="2"/>
-        <v>4054.5752048492418</v>
+        <v>4045.2575919068881</v>
       </c>
       <c r="L84">
         <f t="shared" si="3"/>
-        <v>4.0545752048492423</v>
+        <v>4.0452575919068883</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.3">
@@ -19151,11 +19172,11 @@
       </c>
       <c r="K85">
         <f t="shared" si="2"/>
-        <v>4156.3887596130317</v>
+        <v>4091.3708445466577</v>
       </c>
       <c r="L85">
         <f t="shared" si="3"/>
-        <v>4.1563887596130318</v>
+        <v>4.0913708445466579</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.3">
@@ -19191,11 +19212,20 @@
       </c>
       <c r="K86">
         <f t="shared" si="2"/>
-        <v>4091.0215377807599</v>
+        <v>4087.3775717652861</v>
       </c>
       <c r="L86">
         <f t="shared" si="3"/>
-        <v>4.0910215377807599</v>
+        <v>4.0873775717652858</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D88" t="s">
+        <v>31</v>
+      </c>
+      <c r="E88">
+        <f>'10_trees'!E88</f>
+        <v>3704.1723963655063</v>
       </c>
     </row>
   </sheetData>
@@ -19231,8 +19261,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B5AD779-DEE6-4939-B35F-9679408944DA}">
   <dimension ref="A1:S17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="I49" sqref="I49"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="I87" sqref="I87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19280,19 +19310,19 @@
       </c>
       <c r="B3" s="1">
         <f>MIN('10_trees'!L2:'10_trees'!L6)</f>
-        <v>3.7620997428893976</v>
+        <v>3.7733657595552037</v>
       </c>
       <c r="C3" s="1">
         <f>MIN('10_trees'!L7:'10_trees'!L11)</f>
-        <v>4.253980159759517</v>
+        <v>4.3133995768464626</v>
       </c>
       <c r="D3" s="1">
         <f>MIN('10_trees'!L17:'10_trees'!L21)</f>
-        <v>3.7304422855377184</v>
+        <v>3.7964127299226353</v>
       </c>
       <c r="E3" s="1">
         <f>MIN('10_trees'!L22:'10_trees'!L26)</f>
-        <v>3.8343448638915927</v>
+        <v>3.8899255034364288</v>
       </c>
       <c r="H3">
         <v>4.5</v>
@@ -19323,19 +19353,19 @@
       </c>
       <c r="B4" s="1">
         <f>MIN('500_trees'!L2:'500_trees'!L6)</f>
-        <v>3.93013262748718</v>
+        <v>3.9510727164186061</v>
       </c>
       <c r="C4" s="1">
         <f>MIN('500_trees'!L7:'500_trees'!L11)</f>
-        <v>4.4514961242675772</v>
+        <v>4.4214158293641628</v>
       </c>
       <c r="D4" s="1">
         <f>MIN('500_trees'!L17:'500_trees'!L21)</f>
-        <v>3.8424942493438707</v>
+        <v>3.8362257716096471</v>
       </c>
       <c r="E4" s="1">
         <f>MIN('500_trees'!L22:'500_trees'!L26)</f>
-        <v>3.920662164688105</v>
+        <v>3.9171598193086212</v>
       </c>
       <c r="H4">
         <v>5.4</v>
@@ -19366,19 +19396,19 @@
       </c>
       <c r="B5" s="1">
         <f>MIN('1600_trees'!L2:'1600_trees'!L6)</f>
-        <v>4.3931708335876403</v>
+        <v>4.3566460844911159</v>
       </c>
       <c r="C5" s="1">
         <f>MIN('1600_trees'!L7:'1600_trees'!L11)</f>
-        <v>4.7095069885253897</v>
+        <v>4.6828046080506862</v>
       </c>
       <c r="D5" s="1">
         <f>MIN('1600_trees'!L17:'1600_trees'!L21)</f>
-        <v>4.0204865932464537</v>
+        <v>3.9950540301240505</v>
       </c>
       <c r="E5" s="1">
         <f>MIN('1600_trees'!L22:'1600_trees'!L26)</f>
-        <v>4.0402774810790918</v>
+        <v>3.9835508105195583</v>
       </c>
       <c r="H5">
         <v>6.8</v>
@@ -19452,24 +19482,24 @@
       </c>
       <c r="B9" s="1">
         <f>MIN('10_trees'!L27:'10_trees'!L31)</f>
-        <v>3.7153203487396191</v>
+        <v>3.7730760809815953</v>
       </c>
       <c r="C9" s="1">
         <f>MIN('10_trees'!L32:'10_trees'!L36)</f>
-        <v>4.6826474666595379</v>
+        <v>4.6966603037751735</v>
       </c>
       <c r="D9" s="1">
         <f>MIN('10_trees'!L42:'10_trees'!L46)</f>
-        <v>3.756667613983145</v>
+        <v>3.7971110579408238</v>
       </c>
       <c r="E9" s="1">
         <f>MIN('10_trees'!L47:'10_trees'!L51)</f>
-        <v>3.8332576751708967</v>
+        <v>3.8743772742188991</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1">
         <f>MIN('10_trees'!L57:'10_trees'!L61)</f>
-        <v>5.4619624614715443</v>
+        <v>5.434339308444355</v>
       </c>
       <c r="H9">
         <v>4.4000000000000004</v>
@@ -19505,24 +19535,24 @@
       </c>
       <c r="B10" s="1">
         <f>MIN('500_trees'!L27:'500_trees'!L31)</f>
-        <v>3.9335191249847403</v>
+        <v>3.9574947592652863</v>
       </c>
       <c r="C10" s="1">
         <f>MIN('500_trees'!L32:'500_trees'!L36)</f>
-        <v>5.079581022262559</v>
+        <v>5.1044547793305846</v>
       </c>
       <c r="D10" s="1">
         <f>MIN('500_trees'!L42:'500_trees'!L46)</f>
-        <v>3.8466460704803409</v>
+        <v>3.8505237337983678</v>
       </c>
       <c r="E10" s="1">
         <f>MIN('500_trees'!L47:'500_trees'!L51)</f>
-        <v>3.8988101482391322</v>
+        <v>3.8969288107789581</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1">
         <f>MIN('500_trees'!L57:'500_trees'!L61)</f>
-        <v>5.4553313255309943</v>
+        <v>5.5052278277314697</v>
       </c>
       <c r="H10">
         <v>4.9000000000000004</v>
@@ -19558,24 +19588,24 @@
       </c>
       <c r="B11" s="1">
         <f>MIN('1600_trees'!L27:'1600_trees'!L31)</f>
-        <v>4.3823657035827557</v>
+        <v>4.3787257906831325</v>
       </c>
       <c r="C11" s="1">
         <f>MIN('1600_trees'!L32:'1600_trees'!L36)</f>
-        <v>5.1058981418609521</v>
+        <v>5.0504708525575186</v>
       </c>
       <c r="D11" s="1">
         <f>MIN('1600_trees'!L42:'1600_trees'!L46)</f>
-        <v>3.9692785739898677</v>
+        <v>3.9457526442445343</v>
       </c>
       <c r="E11" s="1">
         <f>MIN('1600_trees'!L47:'1600_trees'!L51)</f>
-        <v>3.9592070579528746</v>
+        <v>3.9494290587342804</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1">
         <f>MIN('1600_trees'!L57:'1600_trees'!L61)</f>
-        <v>5.772635459899897</v>
+        <v>5.7369361159242214</v>
       </c>
       <c r="H11">
         <v>5.8</v>
@@ -19648,19 +19678,19 @@
       </c>
       <c r="B15" s="1">
         <f>MIN('10_trees'!L62:'10_trees'!L66)</f>
-        <v>3.7088706493377681</v>
+        <v>3.7728586432374547</v>
       </c>
       <c r="C15" s="1">
         <f>MIN('10_trees'!L67:'10_trees'!L71)</f>
-        <v>4.258279800415032</v>
+        <v>4.317121290866238</v>
       </c>
       <c r="D15" s="1">
         <f>MIN('10_trees'!L77:'10_trees'!L81)</f>
-        <v>3.7313332557678143</v>
+        <v>3.7968399760163853</v>
       </c>
       <c r="E15" s="1">
         <f>MIN('10_trees'!L82:'10_trees'!L86)</f>
-        <v>3.843694448471064</v>
+        <v>3.8907051321900905</v>
       </c>
       <c r="H15">
         <v>4.5</v>
@@ -19691,19 +19721,19 @@
       </c>
       <c r="B16" s="1">
         <f>MIN('500_trees'!L62:'500_trees'!L66)</f>
-        <v>3.9334375858306854</v>
+        <v>3.9580850836671417</v>
       </c>
       <c r="C16" s="1">
         <f>MIN('500_trees'!L67:'500_trees'!L71)</f>
-        <v>4.422957658767694</v>
+        <v>4.4280295607484401</v>
       </c>
       <c r="D16" s="1">
         <f>MIN('500_trees'!L77:'500_trees'!L81)</f>
-        <v>3.8021941184997528</v>
+        <v>3.836735033694608</v>
       </c>
       <c r="E16" s="1">
         <f>MIN('500_trees'!L82:'500_trees'!L86)</f>
-        <v>3.9277553558349507</v>
+        <v>3.9342484709657262</v>
       </c>
       <c r="H16">
         <v>4.8</v>
@@ -19734,19 +19764,19 @@
       </c>
       <c r="B17" s="1">
         <f>MIN('1600_trees'!L62:'1600_trees'!L66)</f>
-        <v>4.4308998584747314</v>
+        <v>4.382041716281277</v>
       </c>
       <c r="C17" s="1">
         <f>MIN('1600_trees'!L67:'1600_trees'!L71)</f>
-        <v>4.692531585693354</v>
+        <v>4.6648299929536403</v>
       </c>
       <c r="D17" s="1">
         <f>MIN('1600_trees'!L77:'1600_trees'!L81)</f>
-        <v>3.9815611839294371</v>
+        <v>3.9732849833406036</v>
       </c>
       <c r="E17" s="1">
         <f>MIN('1600_trees'!L82:'1600_trees'!L86)</f>
-        <v>4.0545752048492423</v>
+        <v>4.0452575919068883</v>
       </c>
       <c r="H17">
         <v>5.7</v>

--- a/model-inference/decisionTree/experiments/gpu_results/year/year.xlsx
+++ b/model-inference/decisionTree/experiments/gpu_results/year/year.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\11\netsdb\model-inference\decisionTree\experiments\gpu_results\year\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{120217F9-959A-4887-AA63-8E4CA3A282ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C5BF921-1853-478E-9F6A-054578862366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{EEF78A4B-2F60-4C97-92CE-0B76C8933FCE}"/>
+    <workbookView xWindow="-10044" yWindow="2508" windowWidth="17280" windowHeight="8964" activeTab="3" xr2:uid="{EEF78A4B-2F60-4C97-92CE-0B76C8933FCE}"/>
   </bookViews>
   <sheets>
     <sheet name="10_trees" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="32">
   <si>
     <t>query size</t>
   </si>
@@ -2133,13 +2133,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>3.7733657595552037</c:v>
+                  <c:v>3.7680978504763165</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.9510727164186061</c:v>
+                  <c:v>3.945703956280759</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.3566460844911159</c:v>
+                  <c:v>4.3512890068636452</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2257,13 +2257,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>4.3133995768464626</c:v>
+                  <c:v>4.3079132763491188</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.4214158293641628</c:v>
+                  <c:v>4.4156541554079567</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.6828046080506862</c:v>
+                  <c:v>4.6770181385622536</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2381,13 +2381,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>3.7964127299226353</c:v>
+                  <c:v>3.7905869213686505</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.8362257716096471</c:v>
+                  <c:v>3.8292855946169415</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.9950540301240505</c:v>
+                  <c:v>3.985191318188718</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2505,13 +2505,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>3.8899255034364288</c:v>
+                  <c:v>3.9112179009066139</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.9171598193086212</c:v>
+                  <c:v>3.9378747669802223</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.9835508105195583</c:v>
+                  <c:v>4.0042109219179665</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3296,13 +3296,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>3.7730760809815953</c:v>
+                  <c:v>3.7674519745455304</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.9574947592652863</c:v>
+                  <c:v>3.9519657818422829</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.3787257906831325</c:v>
+                  <c:v>4.3731467453585182</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3420,13 +3420,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>4.6966603037751735</c:v>
+                  <c:v>4.6906799999819313</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.1044547793305846</c:v>
+                  <c:v>5.0983204571352427</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.0504708525575186</c:v>
+                  <c:v>5.0428220955477236</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3544,13 +3544,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>3.7971110579408238</c:v>
+                  <c:v>3.7910978523836651</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.8505237337983678</c:v>
+                  <c:v>3.8444463936434308</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.9457526442445343</c:v>
+                  <c:v>3.9399215904818092</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3668,13 +3668,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>3.8743772742188991</c:v>
+                  <c:v>3.8965239254580051</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.8969288107789581</c:v>
+                  <c:v>3.9187602726564918</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.9494290587342804</c:v>
+                  <c:v>3.9712066380129372</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3792,13 +3792,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>5.434339308444355</c:v>
+                  <c:v>5.428263398800893</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.5052278277314697</c:v>
+                  <c:v>5.499981137906123</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.7369361159242214</c:v>
+                  <c:v>5.7314111916170631</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4456,13 +4456,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>3.7728586432374547</c:v>
+                  <c:v>3.7674154965029278</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.9580850836671417</c:v>
+                  <c:v>3.9518887726412331</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.382041716281277</c:v>
+                  <c:v>4.3759414879427467</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4580,13 +4580,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>4.317121290866238</c:v>
+                  <c:v>4.3086662022219215</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.4280295607484401</c:v>
+                  <c:v>4.4218175140963112</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.6648299929536403</c:v>
+                  <c:v>4.657208654080442</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4704,13 +4704,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>3.7968399760163853</c:v>
+                  <c:v>3.7910361019716778</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.836735033694608</c:v>
+                  <c:v>3.8308231560335675</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.9732849833406036</c:v>
+                  <c:v>3.9665109840975319</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4828,13 +4828,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>3.8907051321900905</c:v>
+                  <c:v>3.9114424912081271</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.9342484709657262</c:v>
+                  <c:v>3.9554092613802472</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0452575919068883</c:v>
+                  <c:v>4.0664155212984605</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9214,7 +9214,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C6EBCB7-83C1-4682-ABDD-EEB3228045BA}">
   <dimension ref="A1:L88"/>
   <sheetViews>
-    <sheetView topLeftCell="A62" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K86" sqref="K86"/>
     </sheetView>
   </sheetViews>
@@ -9293,12 +9293,12 @@
         <v>159295.368671417</v>
       </c>
       <c r="K2">
-        <f>SUM($E$88,G2,H2)</f>
-        <v>5152.0822283662319</v>
+        <f>SUM($E$88,G2,$H$88)</f>
+        <v>5144.1080299959631</v>
       </c>
       <c r="L2">
         <f>PRODUCT(K2,0.001)</f>
-        <v>5.1520822283662318</v>
+        <v>5.1441080299959632</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -9333,12 +9333,12 @@
         <v>4257.1122646331696</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K66" si="0">SUM($E$88,G3,H3)</f>
-        <v>3893.490814868313</v>
+        <f t="shared" ref="K3:K66" si="0">SUM($E$88,G3,$H$88)</f>
+        <v>3887.7372471437961</v>
       </c>
       <c r="L3">
         <f t="shared" ref="L3:L71" si="1">PRODUCT(K3,0.001)</f>
-        <v>3.8934908148683132</v>
+        <v>3.8877372471437961</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -9374,11 +9374,11 @@
       </c>
       <c r="K4">
         <f t="shared" si="0"/>
-        <v>3791.8489214814731</v>
+        <v>3785.827132855467</v>
       </c>
       <c r="L4">
         <f t="shared" si="1"/>
-        <v>3.7918489214814732</v>
+        <v>3.7858271328554669</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -9414,11 +9414,11 @@
       </c>
       <c r="K5">
         <f t="shared" si="0"/>
-        <v>3787.1618506349155</v>
+        <v>3781.308147107176</v>
       </c>
       <c r="L5">
         <f t="shared" si="1"/>
-        <v>3.7871618506349156</v>
+        <v>3.7813081471071759</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -9454,11 +9454,11 @@
       </c>
       <c r="K6">
         <f t="shared" si="0"/>
-        <v>3773.3657595552036</v>
+        <v>3768.0978504763166</v>
       </c>
       <c r="L6">
         <f t="shared" si="1"/>
-        <v>3.7733657595552037</v>
+        <v>3.7680978504763165</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -9494,11 +9494,11 @@
       </c>
       <c r="K7">
         <f t="shared" si="0"/>
-        <v>11338.588022891381</v>
+        <v>11332.744332943963</v>
       </c>
       <c r="L7">
         <f t="shared" si="1"/>
-        <v>11.338588022891381</v>
+        <v>11.332744332943964</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -9534,11 +9534,11 @@
       </c>
       <c r="K8">
         <f t="shared" si="0"/>
-        <v>7764.0614745057628</v>
+        <v>7756.0131279573934</v>
       </c>
       <c r="L8">
         <f t="shared" si="1"/>
-        <v>7.7640614745057626</v>
+        <v>7.7560131279573934</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -9574,11 +9574,11 @@
       </c>
       <c r="K9">
         <f t="shared" si="0"/>
-        <v>4323.2281443513457</v>
+        <v>4317.7118031130349</v>
       </c>
       <c r="L9">
         <f t="shared" si="1"/>
-        <v>4.3232281443513454</v>
+        <v>4.3177118031130348</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -9614,11 +9614,11 @@
       </c>
       <c r="K10">
         <f t="shared" si="0"/>
-        <v>4326.2462851441924</v>
+        <v>4320.4803196535622</v>
       </c>
       <c r="L10">
         <f t="shared" si="1"/>
-        <v>4.3262462851441921</v>
+        <v>4.3204803196535622</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -9654,11 +9654,11 @@
       </c>
       <c r="K11">
         <f t="shared" si="0"/>
-        <v>4313.3995768464629</v>
+        <v>4307.9132763491189</v>
       </c>
       <c r="L11">
         <f t="shared" si="1"/>
-        <v>4.3133995768464626</v>
+        <v>4.3079132763491188</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -9694,11 +9694,11 @@
       </c>
       <c r="K12">
         <f t="shared" si="0"/>
-        <v>82785.038256350803</v>
+        <v>76024.551126156803</v>
       </c>
       <c r="L12">
         <f t="shared" si="1"/>
-        <v>82.785038256350802</v>
+        <v>76.024551126156808</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -9734,11 +9734,11 @@
       </c>
       <c r="K13">
         <f t="shared" si="0"/>
-        <v>11355.830216113429</v>
+        <v>4687.7863136873757</v>
       </c>
       <c r="L13">
         <f t="shared" si="1"/>
-        <v>11.355830216113429</v>
+        <v>4.6877863136873756</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -9774,11 +9774,11 @@
       </c>
       <c r="K14">
         <f t="shared" si="0"/>
-        <v>11506.079458896016</v>
+        <v>4680.7412830935036</v>
       </c>
       <c r="L14">
         <f t="shared" si="1"/>
-        <v>11.506079458896016</v>
+        <v>4.6807412830935036</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
@@ -9814,11 +9814,11 @@
       </c>
       <c r="K15">
         <f t="shared" si="0"/>
-        <v>11450.899386111596</v>
+        <v>4688.8193813906228</v>
       </c>
       <c r="L15">
         <f t="shared" si="1"/>
-        <v>11.450899386111596</v>
+        <v>4.6888193813906227</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
@@ -9854,11 +9854,11 @@
       </c>
       <c r="K16">
         <f t="shared" si="0"/>
-        <v>11550.608181659079</v>
+        <v>4684.4186512575661</v>
       </c>
       <c r="L16">
         <f t="shared" si="1"/>
-        <v>11.550608181659079</v>
+        <v>4.6844186512575661</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -9894,11 +9894,11 @@
       </c>
       <c r="K17">
         <f t="shared" si="0"/>
-        <v>4070.2159640229766</v>
+        <v>4064.4967285738503</v>
       </c>
       <c r="L17">
         <f t="shared" si="1"/>
-        <v>4.0702159640229763</v>
+        <v>4.0644967285738502</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -9934,11 +9934,11 @@
       </c>
       <c r="K18">
         <f t="shared" si="0"/>
-        <v>3824.8775240815708</v>
+        <v>3819.2500797853986</v>
       </c>
       <c r="L18">
         <f t="shared" si="1"/>
-        <v>3.8248775240815709</v>
+        <v>3.8192500797853985</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
@@ -9974,11 +9974,11 @@
       </c>
       <c r="K19">
         <f t="shared" si="0"/>
-        <v>3796.4127299226352</v>
+        <v>3790.5869213686506</v>
       </c>
       <c r="L19">
         <f t="shared" si="1"/>
-        <v>3.7964127299226353</v>
+        <v>3.7905869213686505</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
@@ -10014,11 +10014,11 @@
       </c>
       <c r="K20">
         <f t="shared" si="0"/>
-        <v>3798.8410231507846</v>
+        <v>3793.0917469606916</v>
       </c>
       <c r="L20">
         <f t="shared" si="1"/>
-        <v>3.7988410231507848</v>
+        <v>3.7930917469606915</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -10054,11 +10054,11 @@
       </c>
       <c r="K21">
         <f t="shared" si="0"/>
-        <v>3797.2519633210727</v>
+        <v>3791.6192738161603</v>
       </c>
       <c r="L21">
         <f t="shared" si="1"/>
-        <v>3.7972519633210728</v>
+        <v>3.7916192738161603</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
@@ -10094,11 +10094,11 @@
       </c>
       <c r="K22">
         <f t="shared" si="0"/>
-        <v>7351.8440958894244</v>
+        <v>7373.252364789053</v>
       </c>
       <c r="L22">
         <f t="shared" si="1"/>
-        <v>7.3518440958894242</v>
+        <v>7.3732523647890531</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
@@ -10134,11 +10134,11 @@
       </c>
       <c r="K23">
         <f t="shared" si="0"/>
-        <v>3914.6850344575473</v>
+        <v>3936.0587326632062</v>
       </c>
       <c r="L23">
         <f t="shared" si="1"/>
-        <v>3.9146850344575475</v>
+        <v>3.9360587326632062</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
@@ -10174,11 +10174,11 @@
       </c>
       <c r="K24">
         <f t="shared" si="0"/>
-        <v>3889.9255034364287</v>
+        <v>3911.217900906614</v>
       </c>
       <c r="L24">
         <f t="shared" si="1"/>
-        <v>3.8899255034364288</v>
+        <v>3.9112179009066139</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
@@ -10214,11 +10214,11 @@
       </c>
       <c r="K25">
         <f t="shared" si="0"/>
-        <v>3941.431784335477</v>
+        <v>3962.9187313662092</v>
       </c>
       <c r="L25">
         <f t="shared" si="1"/>
-        <v>3.9414317843354771</v>
+        <v>3.9629187313662091</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
@@ -10254,11 +10254,11 @@
       </c>
       <c r="K26">
         <f t="shared" si="0"/>
-        <v>3940.6984087861597</v>
+        <v>3962.150546704343</v>
       </c>
       <c r="L26">
         <f t="shared" si="1"/>
-        <v>3.9406984087861598</v>
+        <v>3.962150546704343</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
@@ -10294,11 +10294,11 @@
       </c>
       <c r="K27">
         <f t="shared" si="0"/>
-        <v>4706.9003817475859</v>
+        <v>4701.2746063814675</v>
       </c>
       <c r="L27">
         <f t="shared" si="1"/>
-        <v>4.7069003817475856</v>
+        <v>4.7012746063814674</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
@@ -10334,11 +10334,11 @@
       </c>
       <c r="K28">
         <f t="shared" si="0"/>
-        <v>3899.8146292604033</v>
+        <v>3891.0197941408669</v>
       </c>
       <c r="L28">
         <f t="shared" si="1"/>
-        <v>3.8998146292604035</v>
+        <v>3.8910197941408668</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
@@ -10374,11 +10374,11 @@
       </c>
       <c r="K29">
         <f t="shared" si="0"/>
-        <v>3792.4611803926059</v>
+        <v>3786.0297886477033</v>
       </c>
       <c r="L29">
         <f t="shared" si="1"/>
-        <v>3.792461180392606</v>
+        <v>3.7860297886477032</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
@@ -10414,11 +10414,11 @@
       </c>
       <c r="K30">
         <f t="shared" si="0"/>
-        <v>3788.3448836244174</v>
+        <v>3781.2227932558576</v>
       </c>
       <c r="L30">
         <f t="shared" si="1"/>
-        <v>3.7883448836244176</v>
+        <v>3.7812227932558575</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
@@ -10454,11 +10454,11 @@
       </c>
       <c r="K31">
         <f t="shared" si="0"/>
-        <v>3773.0760809815952</v>
+        <v>3767.4519745455304</v>
       </c>
       <c r="L31">
         <f t="shared" si="1"/>
-        <v>3.7730760809815953</v>
+        <v>3.7674519745455304</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
@@ -10494,11 +10494,11 @@
       </c>
       <c r="K32">
         <f t="shared" si="0"/>
-        <v>5811.2461802400103</v>
+        <v>5798.6912457094631</v>
       </c>
       <c r="L32">
         <f t="shared" si="1"/>
-        <v>5.8112461802400102</v>
+        <v>5.7986912457094633</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
@@ -10534,11 +10534,11 @@
       </c>
       <c r="K33">
         <f t="shared" si="0"/>
-        <v>5634.9358794129839</v>
+        <v>5629.0480820284329</v>
       </c>
       <c r="L33">
         <f t="shared" si="1"/>
-        <v>5.6349358794129838</v>
+        <v>5.629048082028433</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
@@ -10574,11 +10574,11 @@
       </c>
       <c r="K34">
         <f t="shared" si="0"/>
-        <v>5090.6601187623519</v>
+        <v>5084.7477642641534</v>
       </c>
       <c r="L34">
         <f t="shared" si="1"/>
-        <v>5.0906601187623517</v>
+        <v>5.0847477642641534</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
@@ -10614,11 +10614,11 @@
       </c>
       <c r="K35">
         <f t="shared" si="0"/>
-        <v>5020.7827326692113</v>
+        <v>5014.3794743166427</v>
       </c>
       <c r="L35">
         <f t="shared" si="1"/>
-        <v>5.0207827326692112</v>
+        <v>5.0143794743166428</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
@@ -10654,11 +10654,11 @@
       </c>
       <c r="K36">
         <f t="shared" si="0"/>
-        <v>4696.6603037751738</v>
+        <v>4690.6799999819314</v>
       </c>
       <c r="L36">
         <f t="shared" si="1"/>
-        <v>4.6966603037751735</v>
+        <v>4.6906799999819313</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
@@ -10694,11 +10694,11 @@
       </c>
       <c r="K37">
         <f t="shared" si="0"/>
-        <v>11535.268330279689</v>
+        <v>4707.2274414644753</v>
       </c>
       <c r="L37">
         <f t="shared" si="1"/>
-        <v>11.535268330279688</v>
+        <v>4.7072274414644752</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
@@ -10734,11 +10734,11 @@
       </c>
       <c r="K38">
         <f t="shared" si="0"/>
-        <v>11354.131483737328</v>
+        <v>4679.897042904905</v>
       </c>
       <c r="L38">
         <f t="shared" si="1"/>
-        <v>11.354131483737328</v>
+        <v>4.6798970429049049</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
@@ -10774,11 +10774,11 @@
       </c>
       <c r="K39">
         <f t="shared" si="0"/>
-        <v>11695.387863818505</v>
+        <v>4679.8236099825417</v>
       </c>
       <c r="L39">
         <f t="shared" si="1"/>
-        <v>11.695387863818505</v>
+        <v>4.6798236099825417</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
@@ -10814,11 +10814,11 @@
       </c>
       <c r="K40">
         <f t="shared" si="0"/>
-        <v>11418.536209765773</v>
+        <v>4674.0338532076394</v>
       </c>
       <c r="L40">
         <f t="shared" si="1"/>
-        <v>11.418536209765772</v>
+        <v>4.6740338532076393</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
@@ -10854,11 +10854,11 @@
       </c>
       <c r="K41">
         <f t="shared" si="0"/>
-        <v>11405.031704608298</v>
+        <v>4670.9010330782448</v>
       </c>
       <c r="L41">
         <f t="shared" si="1"/>
-        <v>11.405031704608298</v>
+        <v>4.6709010330782448</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
@@ -10894,11 +10894,11 @@
       </c>
       <c r="K42">
         <f t="shared" si="0"/>
-        <v>4070.5394980348174</v>
+        <v>4064.7313324556862</v>
       </c>
       <c r="L42">
         <f t="shared" si="1"/>
-        <v>4.0705394980348171</v>
+        <v>4.0647313324556862</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
@@ -10934,11 +10934,11 @@
       </c>
       <c r="K43">
         <f t="shared" si="0"/>
-        <v>3825.2251383699008</v>
+        <v>3818.804952298216</v>
       </c>
       <c r="L43">
         <f t="shared" si="1"/>
-        <v>3.825225138369901</v>
+        <v>3.8188049522982159</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
@@ -10974,11 +10974,11 @@
       </c>
       <c r="K44">
         <f t="shared" si="0"/>
-        <v>3797.1110579408237</v>
+        <v>3791.0978523836652</v>
       </c>
       <c r="L44">
         <f t="shared" si="1"/>
-        <v>3.7971110579408238</v>
+        <v>3.7910978523836651</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
@@ -11014,11 +11014,11 @@
       </c>
       <c r="K45">
         <f t="shared" si="0"/>
-        <v>3798.9466425813266</v>
+        <v>3792.9367748842756</v>
       </c>
       <c r="L45">
         <f t="shared" si="1"/>
-        <v>3.7989466425813267</v>
+        <v>3.7929367748842755</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
@@ -11054,11 +11054,11 @@
       </c>
       <c r="K46">
         <f t="shared" si="0"/>
-        <v>3797.2402808106967</v>
+        <v>3791.3851467714826</v>
       </c>
       <c r="L46">
         <f t="shared" si="1"/>
-        <v>3.7972402808106969</v>
+        <v>3.7913851467714825</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
@@ -11094,11 +11094,11 @@
       </c>
       <c r="K47">
         <f t="shared" si="0"/>
-        <v>4530.9155222810332</v>
+        <v>4552.8814522371804</v>
       </c>
       <c r="L47">
         <f t="shared" si="1"/>
-        <v>4.5309155222810329</v>
+        <v>4.5528814522371803</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
@@ -11134,11 +11134,11 @@
       </c>
       <c r="K48">
         <f t="shared" si="0"/>
-        <v>3914.331936541897</v>
+        <v>3936.3679615603</v>
       </c>
       <c r="L48">
         <f t="shared" si="1"/>
-        <v>3.9143319365418972</v>
+        <v>3.9363679615603</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
@@ -11174,11 +11174,11 @@
       </c>
       <c r="K49">
         <f t="shared" si="0"/>
-        <v>3875.823759738309</v>
+        <v>3897.9847160921613</v>
       </c>
       <c r="L49">
         <f t="shared" si="1"/>
-        <v>3.8758237597383092</v>
+        <v>3.8979847160921612</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
@@ -11214,11 +11214,11 @@
       </c>
       <c r="K50">
         <f t="shared" si="0"/>
-        <v>3903.9013621247827</v>
+        <v>3925.0390259371311</v>
       </c>
       <c r="L50">
         <f t="shared" si="1"/>
-        <v>3.9039013621247829</v>
+        <v>3.9250390259371311</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
@@ -11254,11 +11254,11 @@
       </c>
       <c r="K51">
         <f t="shared" si="0"/>
-        <v>3874.3772742188989</v>
+        <v>3896.5239254580051</v>
       </c>
       <c r="L51">
         <f t="shared" si="1"/>
-        <v>3.8743772742188991</v>
+        <v>3.8965239254580051</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
@@ -11294,11 +11294,11 @@
       </c>
       <c r="K52">
         <f t="shared" si="0"/>
-        <v>32590.786242190647</v>
+        <v>32584.049674664493</v>
       </c>
       <c r="L52">
         <f t="shared" si="1"/>
-        <v>32.590786242190646</v>
+        <v>32.584049674664492</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
@@ -11334,11 +11334,11 @@
       </c>
       <c r="K53">
         <f t="shared" si="0"/>
-        <v>5628.9530035890102</v>
+        <v>5623.1755940065832</v>
       </c>
       <c r="L53">
         <f t="shared" si="1"/>
-        <v>5.6289530035890101</v>
+        <v>5.6231755940065833</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
@@ -11374,11 +11374,11 @@
       </c>
       <c r="K54">
         <f t="shared" si="0"/>
-        <v>5516.1373850739928</v>
+        <v>5506.1175552950326</v>
       </c>
       <c r="L54">
         <f t="shared" si="1"/>
-        <v>5.5161373850739928</v>
+        <v>5.5061175552950328</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
@@ -11414,11 +11414,11 @@
       </c>
       <c r="K55">
         <f t="shared" si="0"/>
-        <v>5515.8426997102279</v>
+        <v>5510.2796284304131</v>
       </c>
       <c r="L55">
         <f t="shared" si="1"/>
-        <v>5.5158426997102277</v>
+        <v>5.5102796284304132</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
@@ -11454,11 +11454,11 @@
       </c>
       <c r="K56">
         <f t="shared" si="0"/>
-        <v>5541.7838332093688</v>
+        <v>5535.8733860598031</v>
       </c>
       <c r="L56">
         <f t="shared" si="1"/>
-        <v>5.5417838332093687</v>
+        <v>5.5358733860598033</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
@@ -11494,11 +11494,11 @@
       </c>
       <c r="K57">
         <f t="shared" si="0"/>
-        <v>9363.2061716950866</v>
+        <v>9355.9870449648315</v>
       </c>
       <c r="L57">
         <f t="shared" si="1"/>
-        <v>9.3632061716950865</v>
+        <v>9.3559870449648326</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
@@ -11534,11 +11534,11 @@
       </c>
       <c r="K58">
         <f t="shared" si="0"/>
-        <v>5592.4403902925005</v>
+        <v>5585.3814808474026</v>
       </c>
       <c r="L58">
         <f t="shared" si="1"/>
-        <v>5.5924403902925004</v>
+        <v>5.5853814808474027</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
@@ -11574,11 +11574,11 @@
       </c>
       <c r="K59">
         <f t="shared" si="0"/>
-        <v>5441.9222113526866</v>
+        <v>5435.1806370363729</v>
       </c>
       <c r="L59">
         <f t="shared" si="1"/>
-        <v>5.4419222113526864</v>
+        <v>5.4351806370363729</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
@@ -11614,11 +11614,11 @@
       </c>
       <c r="K60">
         <f t="shared" si="0"/>
-        <v>5442.6558253205803</v>
+        <v>5436.0425201998232</v>
       </c>
       <c r="L60">
         <f t="shared" si="1"/>
-        <v>5.4426558253205801</v>
+        <v>5.4360425201998233</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
@@ -11654,11 +11654,11 @@
       </c>
       <c r="K61">
         <f t="shared" si="0"/>
-        <v>5434.3393084443551</v>
+        <v>5428.2633988008929</v>
       </c>
       <c r="L61">
         <f t="shared" si="1"/>
-        <v>5.434339308444355</v>
+        <v>5.428263398800893</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
@@ -11694,11 +11694,11 @@
       </c>
       <c r="K62">
         <f t="shared" si="0"/>
-        <v>4698.0378863252226</v>
+        <v>4691.9188229189431</v>
       </c>
       <c r="L62">
         <f t="shared" si="1"/>
-        <v>4.6980378863252223</v>
+        <v>4.691918822918943</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
@@ -11734,11 +11734,11 @@
       </c>
       <c r="K63">
         <f t="shared" si="0"/>
-        <v>3895.5893752015654</v>
+        <v>3889.2576424227273</v>
       </c>
       <c r="L63">
         <f t="shared" si="1"/>
-        <v>3.8955893752015656</v>
+        <v>3.8892576424227272</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
@@ -11774,11 +11774,11 @@
       </c>
       <c r="K64">
         <f t="shared" si="0"/>
-        <v>3791.0359141267368</v>
+        <v>3785.0115028963605</v>
       </c>
       <c r="L64">
         <f t="shared" si="1"/>
-        <v>3.7910359141267369</v>
+        <v>3.7850115028963605</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
@@ -11814,11 +11814,11 @@
       </c>
       <c r="K65">
         <f t="shared" si="0"/>
-        <v>3790.4258009828159</v>
+        <v>3781.8424431429426</v>
       </c>
       <c r="L65">
         <f t="shared" si="1"/>
-        <v>3.790425800982816</v>
+        <v>3.7818424431429425</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
@@ -11854,11 +11854,11 @@
       </c>
       <c r="K66">
         <f t="shared" si="0"/>
-        <v>3772.8586432374545</v>
+        <v>3767.4154965029279</v>
       </c>
       <c r="L66">
         <f t="shared" si="1"/>
-        <v>3.7728586432374547</v>
+        <v>3.7674154965029278</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
@@ -11893,12 +11893,12 @@
         <v>4419.3952083587601</v>
       </c>
       <c r="K67">
-        <f t="shared" ref="K67:K86" si="2">SUM($E$88,G67,H67)</f>
-        <v>4884.0997454560747</v>
+        <f t="shared" ref="K67:K86" si="2">SUM($E$88,G67,$H$88)</f>
+        <v>4878.1616417513333</v>
       </c>
       <c r="L67">
         <f t="shared" si="1"/>
-        <v>4.8840997454560746</v>
+        <v>4.8781616417513334</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
@@ -11934,11 +11934,11 @@
       </c>
       <c r="K68">
         <f t="shared" si="2"/>
-        <v>4713.6025664247099</v>
+        <v>4707.8900066957985</v>
       </c>
       <c r="L68">
         <f t="shared" si="1"/>
-        <v>4.7136025664247097</v>
+        <v>4.7078900066957985</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
@@ -11974,11 +11974,11 @@
       </c>
       <c r="K69">
         <f t="shared" si="2"/>
-        <v>4321.7013117707793</v>
+        <v>4315.8256737337624</v>
       </c>
       <c r="L69">
         <f t="shared" si="1"/>
-        <v>4.321701311770779</v>
+        <v>4.3158256737337624</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
@@ -12014,11 +12014,11 @@
       </c>
       <c r="K70">
         <f t="shared" si="2"/>
-        <v>4324.9786135591094</v>
+        <v>4319.2321983919655</v>
       </c>
       <c r="L70">
         <f t="shared" si="1"/>
-        <v>4.3249786135591091</v>
+        <v>4.3192321983919655</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
@@ -12054,11 +12054,11 @@
       </c>
       <c r="K71">
         <f t="shared" si="2"/>
-        <v>4317.1212908662383</v>
+        <v>4308.6662022219216</v>
       </c>
       <c r="L71">
         <f t="shared" si="1"/>
-        <v>4.317121290866238</v>
+        <v>4.3086662022219215</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
@@ -12094,11 +12094,11 @@
       </c>
       <c r="K72">
         <f t="shared" si="2"/>
-        <v>11439.992451373431</v>
+        <v>4709.1452805147683</v>
       </c>
       <c r="L72">
         <f t="shared" ref="L72:L86" si="3">PRODUCT(K72,0.001)</f>
-        <v>11.439992451373431</v>
+        <v>4.7091452805147682</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
@@ -12134,11 +12134,11 @@
       </c>
       <c r="K73">
         <f t="shared" si="2"/>
-        <v>11378.365063372952</v>
+        <v>4681.0476509676491</v>
       </c>
       <c r="L73">
         <f t="shared" si="3"/>
-        <v>11.378365063372952</v>
+        <v>4.6810476509676491</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
@@ -12174,11 +12174,11 @@
       </c>
       <c r="K74">
         <f t="shared" si="2"/>
-        <v>11396.692299548484</v>
+        <v>4671.8468395815407</v>
       </c>
       <c r="L74">
         <f t="shared" si="3"/>
-        <v>11.396692299548484</v>
+        <v>4.6718468395815407</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
@@ -12214,11 +12214,11 @@
       </c>
       <c r="K75">
         <f t="shared" si="2"/>
-        <v>11437.849783603047</v>
+        <v>4675.0461784945046</v>
       </c>
       <c r="L75">
         <f t="shared" si="3"/>
-        <v>11.437849783603047</v>
+        <v>4.6750461784945045</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
@@ -12254,11 +12254,11 @@
       </c>
       <c r="K76">
         <f t="shared" si="2"/>
-        <v>11593.969130221698</v>
+        <v>4671.2779728518044</v>
       </c>
       <c r="L76">
         <f t="shared" si="3"/>
-        <v>11.593969130221698</v>
+        <v>4.6712779728518043</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
@@ -12294,11 +12294,11 @@
       </c>
       <c r="K77">
         <f t="shared" si="2"/>
-        <v>4070.5092188752715</v>
+        <v>4064.4066063509499</v>
       </c>
       <c r="L77">
         <f t="shared" si="3"/>
-        <v>4.0705092188752712</v>
+        <v>4.0644066063509499</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
@@ -12334,11 +12334,11 @@
       </c>
       <c r="K78">
         <f t="shared" si="2"/>
-        <v>3824.8512980378696</v>
+        <v>3818.8900677309553</v>
       </c>
       <c r="L78">
         <f t="shared" si="3"/>
-        <v>3.8248512980378697</v>
+        <v>3.8188900677309552</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
@@ -12374,11 +12374,11 @@
       </c>
       <c r="K79">
         <f t="shared" si="2"/>
-        <v>3796.8399760163852</v>
+        <v>3791.0361019716779</v>
       </c>
       <c r="L79">
         <f t="shared" si="3"/>
-        <v>3.7968399760163853</v>
+        <v>3.7910361019716778</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
@@ -12414,11 +12414,11 @@
       </c>
       <c r="K80">
         <f t="shared" si="2"/>
-        <v>3799.2038962281772</v>
+        <v>3793.165418301634</v>
       </c>
       <c r="L80">
         <f t="shared" si="3"/>
-        <v>3.7992038962281773</v>
+        <v>3.7931654183016339</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
@@ -12454,11 +12454,11 @@
       </c>
       <c r="K81">
         <f t="shared" si="2"/>
-        <v>3798.0566260255405</v>
+        <v>3792.2723023043195</v>
       </c>
       <c r="L81">
         <f t="shared" si="3"/>
-        <v>3.7980566260255406</v>
+        <v>3.7922723023043194</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.3">
@@ -12494,11 +12494,11 @@
       </c>
       <c r="K82">
         <f t="shared" si="2"/>
-        <v>4367.7861925996367</v>
+        <v>4389.120790158323</v>
       </c>
       <c r="L82">
         <f t="shared" si="3"/>
-        <v>4.3677861925996364</v>
+        <v>4.3891207901583229</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.3">
@@ -12534,11 +12534,11 @@
       </c>
       <c r="K83">
         <f t="shared" si="2"/>
-        <v>3918.9315077699243</v>
+        <v>3940.2487007723362</v>
       </c>
       <c r="L83">
         <f t="shared" si="3"/>
-        <v>3.9189315077699245</v>
+        <v>3.9402487007723361</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.3">
@@ -12574,11 +12574,11 @@
       </c>
       <c r="K84">
         <f t="shared" si="2"/>
-        <v>3890.7051321900904</v>
+        <v>3911.4424912081272</v>
       </c>
       <c r="L84">
         <f t="shared" si="3"/>
-        <v>3.8907051321900905</v>
+        <v>3.9114424912081271</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.3">
@@ -12614,11 +12614,11 @@
       </c>
       <c r="K85">
         <f t="shared" si="2"/>
-        <v>3942.6584479249541</v>
+        <v>3963.942977582029</v>
       </c>
       <c r="L85">
         <f t="shared" si="3"/>
-        <v>3.9426584479249542</v>
+        <v>3.963942977582029</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.3">
@@ -12654,11 +12654,11 @@
       </c>
       <c r="K86">
         <f t="shared" si="2"/>
-        <v>3942.7972075379912</v>
+        <v>3963.299724255613</v>
       </c>
       <c r="L86">
         <f t="shared" si="3"/>
-        <v>3.9427972075379913</v>
+        <v>3.9632997242556129</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.3">
@@ -12669,9 +12669,28 @@
         <f>AVERAGE(E2:E86,'500_trees'!E2:E86,'1600_trees'!E2:E86)</f>
         <v>3704.1723963655063</v>
       </c>
+      <c r="G88" t="s">
+        <v>31</v>
+      </c>
+      <c r="H88">
+        <f>AVERAGE(H2:H11,H17:H36,H42:H71,H77:H86,'500_trees'!H2:H11,'500_trees'!H17:H36,'500_trees'!H42:H71,'500_trees'!H77:H86,'1600_trees'!H2:H11,'1600_trees'!H17:H36,'1600_trees'!H42:H71,'1600_trees'!H77:H86)</f>
+        <v>45.578667611786805</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="L2:L86">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G86">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -12683,7 +12702,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G86">
+  <conditionalFormatting sqref="H2:H86">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -12703,8 +12722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BD88DE2-1B17-49A8-A540-6D5302188D9C}">
   <dimension ref="A1:L88"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="Q83" sqref="Q83"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="D107" sqref="D107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12782,12 +12801,12 @@
         <v>11730.572700500399</v>
       </c>
       <c r="K2">
-        <f>SUM($E$88,G2,H2)</f>
-        <v>4735.4653117097441</v>
+        <f>SUM($E$88,G2,$H$88)</f>
+        <v>4730.1819054232155</v>
       </c>
       <c r="L2">
         <f>PRODUCT(K2,0.001)</f>
-        <v>4.7354653117097438</v>
+        <v>4.7301819054232155</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -12822,12 +12841,12 @@
         <v>7168.6527729034397</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K66" si="0">SUM($E$88,G3,H3)</f>
-        <v>4027.6992556489527</v>
+        <f t="shared" ref="K3:K66" si="0">SUM($E$88,G3,$H$88)</f>
+        <v>4022.037717495969</v>
       </c>
       <c r="L3">
         <f t="shared" ref="L3:L77" si="1">PRODUCT(K3,0.001)</f>
-        <v>4.0276992556489528</v>
+        <v>4.0220377174959694</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -12863,11 +12882,11 @@
       </c>
       <c r="K4">
         <f t="shared" si="0"/>
-        <v>3972.0635649598662</v>
+        <v>3966.4878574953591</v>
       </c>
       <c r="L4">
         <f t="shared" si="1"/>
-        <v>3.9720635649598663</v>
+        <v>3.966487857495359</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -12903,11 +12922,11 @@
       </c>
       <c r="K5">
         <f t="shared" si="0"/>
-        <v>3970.2496764100611</v>
+        <v>3964.8267952547581</v>
       </c>
       <c r="L5">
         <f t="shared" si="1"/>
-        <v>3.9702496764100612</v>
+        <v>3.964826795254758</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -12943,11 +12962,11 @@
       </c>
       <c r="K6">
         <f t="shared" si="0"/>
-        <v>3951.072716418606</v>
+        <v>3945.703956280759</v>
       </c>
       <c r="L6">
         <f t="shared" si="1"/>
-        <v>3.9510727164186061</v>
+        <v>3.945703956280759</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -12983,11 +13002,11 @@
       </c>
       <c r="K7">
         <f t="shared" si="0"/>
-        <v>5162.0946165956011</v>
+        <v>5156.2669006929837</v>
       </c>
       <c r="L7">
         <f t="shared" si="1"/>
-        <v>5.162094616595601</v>
+        <v>5.1562669006929838</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -13023,11 +13042,11 @@
       </c>
       <c r="K8">
         <f t="shared" si="0"/>
-        <v>4474.1699931062285</v>
+        <v>4468.4574333773171</v>
       </c>
       <c r="L8">
         <f t="shared" si="1"/>
-        <v>4.4741699931062282</v>
+        <v>4.468457433377317</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -13063,11 +13082,11 @@
       </c>
       <c r="K9">
         <f t="shared" si="0"/>
-        <v>4421.4158293641631</v>
+        <v>4415.6541554079568</v>
       </c>
       <c r="L9">
         <f t="shared" si="1"/>
-        <v>4.4214158293641628</v>
+        <v>4.4156541554079567</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -13113,11 +13132,11 @@
       </c>
       <c r="K12">
         <f t="shared" si="0"/>
-        <v>14234.921955767966</v>
+        <v>7583.9040009127129</v>
       </c>
       <c r="L12">
         <f t="shared" si="1"/>
-        <v>14.234921955767966</v>
+        <v>7.583904000912713</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -13153,11 +13172,11 @@
       </c>
       <c r="K13">
         <f t="shared" si="0"/>
-        <v>12340.935253802625</v>
+        <v>5649.8694149599532</v>
       </c>
       <c r="L13">
         <f t="shared" si="1"/>
-        <v>12.340935253802625</v>
+        <v>5.6498694149599533</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -13193,11 +13212,11 @@
       </c>
       <c r="K14">
         <f t="shared" si="0"/>
-        <v>12401.912474337907</v>
+        <v>5586.1863819704531</v>
       </c>
       <c r="L14">
         <f t="shared" si="1"/>
-        <v>12.401912474337907</v>
+        <v>5.5861863819704531</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
@@ -13233,11 +13252,11 @@
       </c>
       <c r="K15">
         <f t="shared" si="0"/>
-        <v>12418.229603473046</v>
+        <v>5629.2702881441628</v>
       </c>
       <c r="L15">
         <f t="shared" si="1"/>
-        <v>12.418229603473046</v>
+        <v>5.6292702881441627</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
@@ -13273,11 +13292,11 @@
       </c>
       <c r="K16">
         <f t="shared" si="0"/>
-        <v>12301.110291186656</v>
+        <v>5597.3679749117337</v>
       </c>
       <c r="L16">
         <f t="shared" si="1"/>
-        <v>12.301110291186657</v>
+        <v>5.5973679749117338</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -13313,11 +13332,11 @@
       </c>
       <c r="K17">
         <f t="shared" si="0"/>
-        <v>4128.2930609620635</v>
+        <v>4122.4462715731179</v>
       </c>
       <c r="L17">
         <f t="shared" si="1"/>
-        <v>4.1282930609620632</v>
+        <v>4.1224462715731178</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -13353,11 +13372,11 @@
       </c>
       <c r="K18">
         <f t="shared" si="0"/>
-        <v>3880.0299403108183</v>
+        <v>3874.3619648561989</v>
       </c>
       <c r="L18">
         <f t="shared" si="1"/>
-        <v>3.8800299403108185</v>
+        <v>3.8743619648561989</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
@@ -13393,11 +13412,11 @@
       </c>
       <c r="K19">
         <f t="shared" si="0"/>
-        <v>3852.3514506257602</v>
+        <v>3845.9558216677228</v>
       </c>
       <c r="L19">
         <f t="shared" si="1"/>
-        <v>3.8523514506257603</v>
+        <v>3.8459558216677228</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
@@ -13433,11 +13452,11 @@
       </c>
       <c r="K20">
         <f t="shared" si="0"/>
-        <v>3851.6075846589633</v>
+        <v>3845.8940712557355</v>
       </c>
       <c r="L20">
         <f t="shared" si="1"/>
-        <v>3.8516075846589635</v>
+        <v>3.8458940712557355</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -13473,11 +13492,11 @@
       </c>
       <c r="K21">
         <f t="shared" si="0"/>
-        <v>3836.2257716096469</v>
+        <v>3829.2855946169416</v>
       </c>
       <c r="L21">
         <f t="shared" si="1"/>
-        <v>3.8362257716096471</v>
+        <v>3.8292855946169415</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
@@ -13513,11 +13532,11 @@
       </c>
       <c r="K22">
         <f t="shared" si="0"/>
-        <v>4530.2489039338652</v>
+        <v>4551.3002602205788</v>
       </c>
       <c r="L22">
         <f t="shared" si="1"/>
-        <v>4.5302489039338649</v>
+        <v>4.5513002602205788</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
@@ -13553,11 +13572,11 @@
       </c>
       <c r="K23">
         <f t="shared" si="0"/>
-        <v>3942.4004790223667</v>
+        <v>3963.5503021822492</v>
       </c>
       <c r="L23">
         <f t="shared" si="1"/>
-        <v>3.9424004790223668</v>
+        <v>3.9635503021822491</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
@@ -13593,11 +13612,11 @@
       </c>
       <c r="K24">
         <f t="shared" si="0"/>
-        <v>3917.1598193086211</v>
+        <v>3937.8747669802224</v>
       </c>
       <c r="L24">
         <f t="shared" si="1"/>
-        <v>3.9171598193086212</v>
+        <v>3.9378747669802223</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
@@ -13633,11 +13652,11 @@
       </c>
       <c r="K25">
         <f t="shared" si="0"/>
-        <v>3966.3353201783725</v>
+        <v>3987.3964516268293</v>
       </c>
       <c r="L25">
         <f t="shared" si="1"/>
-        <v>3.9663353201783726</v>
+        <v>3.9873964516268292</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
@@ -13673,11 +13692,11 @@
       </c>
       <c r="K26">
         <f t="shared" si="0"/>
-        <v>3964.559340182645</v>
+        <v>3983.7529389009992</v>
       </c>
       <c r="L26">
         <f t="shared" si="1"/>
-        <v>3.9645593401826451</v>
+        <v>3.9837529389009991</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
@@ -13713,11 +13732,11 @@
       </c>
       <c r="K27">
         <f t="shared" si="0"/>
-        <v>4732.8305479920928</v>
+        <v>4727.3936001406228</v>
       </c>
       <c r="L27">
         <f t="shared" si="1"/>
-        <v>4.7328305479920925</v>
+        <v>4.7273936001406227</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
@@ -13753,11 +13772,11 @@
       </c>
       <c r="K28">
         <f t="shared" si="0"/>
-        <v>4027.8654333985864</v>
+        <v>4021.6154781923801</v>
       </c>
       <c r="L28">
         <f t="shared" si="1"/>
-        <v>4.0278654333985866</v>
+        <v>4.0216154781923805</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
@@ -13793,11 +13812,11 @@
       </c>
       <c r="K29">
         <f t="shared" si="0"/>
-        <v>3975.0051733888208</v>
+        <v>3968.8553539858372</v>
       </c>
       <c r="L29">
         <f t="shared" si="1"/>
-        <v>3.975005173388821</v>
+        <v>3.9688553539858371</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
@@ -13833,11 +13852,11 @@
       </c>
       <c r="K30">
         <f t="shared" si="0"/>
-        <v>3977.4151083863799</v>
+        <v>3971.7628685579812</v>
       </c>
       <c r="L30">
         <f t="shared" si="1"/>
-        <v>3.97741510838638</v>
+        <v>3.9717628685579811</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
@@ -13873,11 +13892,11 @@
       </c>
       <c r="K31">
         <f t="shared" si="0"/>
-        <v>3957.4947592652861</v>
+        <v>3951.9657818422829</v>
       </c>
       <c r="L31">
         <f t="shared" si="1"/>
-        <v>3.9574947592652863</v>
+        <v>3.9519657818422829</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
@@ -13913,11 +13932,11 @@
       </c>
       <c r="K32">
         <f t="shared" si="0"/>
-        <v>5436.509155932763</v>
+        <v>5430.7856289492129</v>
       </c>
       <c r="L32">
         <f t="shared" si="1"/>
-        <v>5.4365091559327627</v>
+        <v>5.4307856289492129</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
@@ -13953,11 +13972,11 @@
       </c>
       <c r="K33">
         <f t="shared" si="0"/>
-        <v>5206.919932071065</v>
+        <v>5199.1641251192532</v>
       </c>
       <c r="L33">
         <f t="shared" si="1"/>
-        <v>5.2069199320710648</v>
+        <v>5.1991641251192533</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
@@ -13993,11 +14012,11 @@
       </c>
       <c r="K34">
         <f t="shared" si="0"/>
-        <v>5104.4547793305846</v>
+        <v>5098.3204571352426</v>
       </c>
       <c r="L34">
         <f t="shared" si="1"/>
-        <v>5.1044547793305846</v>
+        <v>5.0983204571352427</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
@@ -14043,11 +14062,11 @@
       </c>
       <c r="K37">
         <f t="shared" si="0"/>
-        <v>12417.305016223287</v>
+        <v>5700.7901398287331</v>
       </c>
       <c r="L37">
         <f t="shared" si="1"/>
-        <v>12.417305016223287</v>
+        <v>5.7007901398287331</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
@@ -14083,11 +14102,11 @@
       </c>
       <c r="K38">
         <f t="shared" si="0"/>
-        <v>12145.297312442155</v>
+        <v>5509.1707436190127</v>
       </c>
       <c r="L38">
         <f t="shared" si="1"/>
-        <v>12.145297312442155</v>
+        <v>5.5091707436190127</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
@@ -14123,11 +14142,11 @@
       </c>
       <c r="K39">
         <f t="shared" si="0"/>
-        <v>12056.890749636987</v>
+        <v>5428.4586636171834</v>
       </c>
       <c r="L39">
         <f t="shared" si="1"/>
-        <v>12.056890749636986</v>
+        <v>5.4284586636171834</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
@@ -14163,11 +14182,11 @@
       </c>
       <c r="K40">
         <f t="shared" si="0"/>
-        <v>12235.824608508447</v>
+        <v>5444.5295063601034</v>
       </c>
       <c r="L40">
         <f t="shared" si="1"/>
-        <v>12.235824608508446</v>
+        <v>5.4445295063601034</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
@@ -14203,11 +14222,11 @@
       </c>
       <c r="K41">
         <f t="shared" si="0"/>
-        <v>12186.263823214857</v>
+        <v>5464.1766277895431</v>
       </c>
       <c r="L41">
         <f t="shared" si="1"/>
-        <v>12.186263823214857</v>
+        <v>5.4641766277895432</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
@@ -14243,11 +14262,11 @@
       </c>
       <c r="K42">
         <f t="shared" si="0"/>
-        <v>4122.7135893739287</v>
+        <v>4116.9070927248513</v>
       </c>
       <c r="L42">
         <f t="shared" si="1"/>
-        <v>4.1227135893739284</v>
+        <v>4.1169070927248512</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
@@ -14283,11 +14302,11 @@
       </c>
       <c r="K43">
         <f t="shared" si="0"/>
-        <v>3877.1796461976592</v>
+        <v>3871.2191311464821</v>
       </c>
       <c r="L43">
         <f t="shared" si="1"/>
-        <v>3.8771796461976593</v>
+        <v>3.8712191311464821</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
@@ -14323,11 +14342,11 @@
       </c>
       <c r="K44">
         <f t="shared" si="0"/>
-        <v>3851.3326880372592</v>
+        <v>3845.2584473238508</v>
       </c>
       <c r="L44">
         <f t="shared" si="1"/>
-        <v>3.8513326880372594</v>
+        <v>3.8452584473238507</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
@@ -14363,11 +14382,11 @@
       </c>
       <c r="K45">
         <f t="shared" si="0"/>
-        <v>3854.3584582246372</v>
+        <v>3848.3872143374006</v>
       </c>
       <c r="L45">
         <f t="shared" si="1"/>
-        <v>3.8543584582246373</v>
+        <v>3.8483872143374005</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
@@ -14403,11 +14422,11 @@
       </c>
       <c r="K46">
         <f t="shared" si="0"/>
-        <v>3850.5237337983676</v>
+        <v>3844.4463936434308</v>
       </c>
       <c r="L46">
         <f t="shared" si="1"/>
-        <v>3.8505237337983678</v>
+        <v>3.8444463936434308</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
@@ -14443,11 +14462,11 @@
       </c>
       <c r="K47">
         <f t="shared" si="0"/>
-        <v>4712.2938868440215</v>
+        <v>4734.0740887270485</v>
       </c>
       <c r="L47">
         <f t="shared" si="1"/>
-        <v>4.7122938868440212</v>
+        <v>4.7340740887270485</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
@@ -14483,11 +14502,11 @@
       </c>
       <c r="K48">
         <f t="shared" si="0"/>
-        <v>3958.5025545991484</v>
+        <v>3980.5869785891091</v>
       </c>
       <c r="L48">
         <f t="shared" si="1"/>
-        <v>3.9585025545991486</v>
+        <v>3.980586978589109</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
@@ -14523,11 +14542,11 @@
       </c>
       <c r="K49">
         <f t="shared" si="0"/>
-        <v>3901.9899603761264</v>
+        <v>3924.0679470644513</v>
       </c>
       <c r="L49">
         <f t="shared" si="1"/>
-        <v>3.9019899603761266</v>
+        <v>3.9240679470644513</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
@@ -14563,11 +14582,11 @@
       </c>
       <c r="K50">
         <f t="shared" si="0"/>
-        <v>3926.358484927518</v>
+        <v>3948.4209744082013</v>
       </c>
       <c r="L50">
         <f t="shared" si="1"/>
-        <v>3.9263584849275182</v>
+        <v>3.9484209744082013</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
@@ -14603,11 +14622,11 @@
       </c>
       <c r="K51">
         <f t="shared" si="0"/>
-        <v>3896.928810778958</v>
+        <v>3918.7602726564919</v>
       </c>
       <c r="L51">
         <f t="shared" si="1"/>
-        <v>3.8969288107789581</v>
+        <v>3.9187602726564918</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
@@ -14643,11 +14662,11 @@
       </c>
       <c r="K52">
         <f t="shared" si="0"/>
-        <v>17464.754604998907</v>
+        <v>17459.111663495092</v>
       </c>
       <c r="L52">
         <f t="shared" si="1"/>
-        <v>17.464754604998909</v>
+        <v>17.459111663495094</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
@@ -14683,11 +14702,11 @@
       </c>
       <c r="K53">
         <f t="shared" si="0"/>
-        <v>6733.4244486726275</v>
+        <v>6727.8187004671536</v>
       </c>
       <c r="L53">
         <f t="shared" si="1"/>
-        <v>6.7334244486726273</v>
+        <v>6.7278187004671537</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
@@ -14723,11 +14742,11 @@
       </c>
       <c r="K54">
         <f t="shared" si="0"/>
-        <v>5715.6107661164815</v>
+        <v>5710.2238861666228</v>
       </c>
       <c r="L54">
         <f t="shared" si="1"/>
-        <v>5.7156107661164812</v>
+        <v>5.7102238861666228</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
@@ -14763,11 +14782,11 @@
       </c>
       <c r="K55">
         <f t="shared" si="0"/>
-        <v>5667.4232718385247</v>
+        <v>5662.0478359804629</v>
       </c>
       <c r="L55">
         <f t="shared" si="1"/>
-        <v>5.6674232718385245</v>
+        <v>5.6620478359804629</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
@@ -14803,11 +14822,11 @@
       </c>
       <c r="K56">
         <f t="shared" si="0"/>
-        <v>5655.6322810090587</v>
+        <v>5650.3452984438436</v>
       </c>
       <c r="L56">
         <f t="shared" si="1"/>
-        <v>5.6556322810090585</v>
+        <v>5.6503452984438436</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
@@ -14843,11 +14862,11 @@
       </c>
       <c r="K57">
         <f t="shared" si="0"/>
-        <v>17196.079754535</v>
+        <v>17190.498325024593</v>
       </c>
       <c r="L57">
         <f t="shared" si="1"/>
-        <v>17.196079754534999</v>
+        <v>17.190498325024592</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
@@ -14883,11 +14902,11 @@
       </c>
       <c r="K58">
         <f t="shared" si="0"/>
-        <v>6588.310503665306</v>
+        <v>6583.0361572847833</v>
       </c>
       <c r="L58">
         <f t="shared" si="1"/>
-        <v>6.5883105036653058</v>
+        <v>6.5830361572847833</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
@@ -14923,11 +14942,11 @@
       </c>
       <c r="K59">
         <f t="shared" si="0"/>
-        <v>5533.0529448426696</v>
+        <v>5526.6358582125131</v>
       </c>
       <c r="L59">
         <f t="shared" si="1"/>
-        <v>5.5330529448426695</v>
+        <v>5.5266358582125132</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
@@ -14963,11 +14982,11 @@
       </c>
       <c r="K60">
         <f t="shared" si="0"/>
-        <v>5515.8360239900176</v>
+        <v>5510.5116097078835</v>
       </c>
       <c r="L60">
         <f t="shared" si="1"/>
-        <v>5.5158360239900173</v>
+        <v>5.5105116097078835</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
@@ -15003,11 +15022,11 @@
       </c>
       <c r="K61">
         <f t="shared" si="0"/>
-        <v>5505.2278277314699</v>
+        <v>5499.981137906123</v>
       </c>
       <c r="L61">
         <f t="shared" si="1"/>
-        <v>5.5052278277314697</v>
+        <v>5.499981137906123</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
@@ -15043,11 +15062,11 @@
       </c>
       <c r="K62">
         <f t="shared" si="0"/>
-        <v>4740.9653899110381</v>
+        <v>4735.0778309450661</v>
       </c>
       <c r="L62">
         <f t="shared" si="1"/>
-        <v>4.7409653899110378</v>
+        <v>4.7350778309450661</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
@@ -15083,11 +15102,11 @@
       </c>
       <c r="K63">
         <f t="shared" si="0"/>
-        <v>4022.0535036958281</v>
+        <v>4015.6938759432351</v>
       </c>
       <c r="L63">
         <f t="shared" si="1"/>
-        <v>4.0220535036958278</v>
+        <v>4.015693875943235</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
@@ -15123,11 +15142,11 @@
       </c>
       <c r="K64">
         <f t="shared" si="0"/>
-        <v>3974.5440718568389</v>
+        <v>3968.647452984861</v>
       </c>
       <c r="L64">
         <f t="shared" si="1"/>
-        <v>3.974544071856839</v>
+        <v>3.968647452984861</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
@@ -15163,11 +15182,11 @@
       </c>
       <c r="K65">
         <f t="shared" si="0"/>
-        <v>3973.2151266969267</v>
+        <v>3966.7019573793923</v>
       </c>
       <c r="L65">
         <f t="shared" si="1"/>
-        <v>3.9732151266969269</v>
+        <v>3.9667019573793922</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
@@ -15203,11 +15222,11 @@
       </c>
       <c r="K66">
         <f t="shared" si="0"/>
-        <v>3958.0850836671416</v>
+        <v>3951.8887726412331</v>
       </c>
       <c r="L66">
         <f t="shared" si="1"/>
-        <v>3.9580850836671417</v>
+        <v>3.9518887726412331</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
@@ -15242,12 +15261,12 @@
         <v>10181.9763183593</v>
       </c>
       <c r="K67">
-        <f t="shared" ref="K67:K86" si="2">SUM($E$88,G67,H67)</f>
-        <v>4929.0943381226998</v>
+        <f t="shared" ref="K67:K86" si="2">SUM($E$88,G67,$H$88)</f>
+        <v>4922.9771820650531</v>
       </c>
       <c r="L67">
         <f t="shared" si="1"/>
-        <v>4.9290943381226997</v>
+        <v>4.9229771820650532</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
@@ -15283,11 +15302,11 @@
       </c>
       <c r="K68">
         <f t="shared" si="2"/>
-        <v>4469.0127608216826</v>
+        <v>4463.2799355135476</v>
       </c>
       <c r="L68">
         <f t="shared" si="1"/>
-        <v>4.4690127608216823</v>
+        <v>4.4632799355135475</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
@@ -15323,11 +15342,11 @@
       </c>
       <c r="K69">
         <f t="shared" si="2"/>
-        <v>4428.0295607484404</v>
+        <v>4421.8175140963112</v>
       </c>
       <c r="L69">
         <f t="shared" si="1"/>
-        <v>4.4280295607484401</v>
+        <v>4.4218175140963112</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
@@ -15373,11 +15392,11 @@
       </c>
       <c r="K72">
         <f t="shared" si="2"/>
-        <v>12540.935778323495</v>
+        <v>5692.6197735414926</v>
       </c>
       <c r="L72">
         <f t="shared" si="1"/>
-        <v>12.540935778323496</v>
+        <v>5.6926197735414927</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
@@ -15413,11 +15432,11 @@
       </c>
       <c r="K73">
         <f t="shared" si="2"/>
-        <v>12418.137335482927</v>
+        <v>5514.0292374239434</v>
       </c>
       <c r="L73">
         <f t="shared" si="1"/>
-        <v>12.418137335482927</v>
+        <v>5.5140292374239435</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
@@ -15453,11 +15472,11 @@
       </c>
       <c r="K74">
         <f t="shared" si="2"/>
-        <v>12195.445561114637</v>
+        <v>5449.3467537508432</v>
       </c>
       <c r="L74">
         <f t="shared" si="1"/>
-        <v>12.195445561114637</v>
+        <v>5.4493467537508433</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
@@ -15493,11 +15512,11 @@
       </c>
       <c r="K75">
         <f t="shared" si="2"/>
-        <v>12176.247620288228</v>
+        <v>5493.2005135164736</v>
       </c>
       <c r="L75">
         <f t="shared" si="1"/>
-        <v>12.176247620288228</v>
+        <v>5.4932005135164736</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
@@ -15533,11 +15552,11 @@
       </c>
       <c r="K76">
         <f t="shared" si="2"/>
-        <v>12474.776291552877</v>
+        <v>5486.6811958895232</v>
       </c>
       <c r="L76">
         <f t="shared" si="1"/>
-        <v>12.474776291552876</v>
+        <v>5.4866811958895232</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
@@ -15573,11 +15592,11 @@
       </c>
       <c r="K77">
         <f t="shared" si="2"/>
-        <v>4118.5970541871611</v>
+        <v>4111.0889641390359</v>
       </c>
       <c r="L77">
         <f t="shared" si="1"/>
-        <v>4.1185970541871608</v>
+        <v>4.1110889641390358</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
@@ -15613,11 +15632,11 @@
       </c>
       <c r="K78">
         <f t="shared" si="2"/>
-        <v>3876.5936133302275</v>
+        <v>3870.2356545076882</v>
       </c>
       <c r="L78">
         <f t="shared" ref="L78:L86" si="3">PRODUCT(K78,0.001)</f>
-        <v>3.8765936133302277</v>
+        <v>3.8702356545076881</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
@@ -15653,11 +15672,11 @@
       </c>
       <c r="K79">
         <f t="shared" si="2"/>
-        <v>3848.9020106233188</v>
+        <v>3842.8027359591047</v>
       </c>
       <c r="L79">
         <f t="shared" si="3"/>
-        <v>3.8489020106233189</v>
+        <v>3.8428027359591046</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
@@ -15693,11 +15712,11 @@
       </c>
       <c r="K80">
         <f t="shared" si="2"/>
-        <v>3853.2638785279819</v>
+        <v>3847.1293179140607</v>
       </c>
       <c r="L80">
         <f t="shared" si="3"/>
-        <v>3.853263878527982</v>
+        <v>3.8471293179140607</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
@@ -15733,11 +15752,11 @@
       </c>
       <c r="K81">
         <f t="shared" si="2"/>
-        <v>3836.7350336946079</v>
+        <v>3830.8231560335676</v>
       </c>
       <c r="L81">
         <f t="shared" si="3"/>
-        <v>3.836735033694608</v>
+        <v>3.8308231560335675</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.3">
@@ -15773,11 +15792,11 @@
       </c>
       <c r="K82">
         <f t="shared" si="2"/>
-        <v>4413.6147734559599</v>
+        <v>4434.8156181917702</v>
       </c>
       <c r="L82">
         <f t="shared" si="3"/>
-        <v>4.4136147734559597</v>
+        <v>4.4348156181917702</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.3">
@@ -15813,11 +15832,11 @@
       </c>
       <c r="K83">
         <f t="shared" si="2"/>
-        <v>3958.3144423402368</v>
+        <v>3979.5906273470432</v>
       </c>
       <c r="L83">
         <f t="shared" si="3"/>
-        <v>3.958314442340237</v>
+        <v>3.9795906273470432</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.3">
@@ -15853,11 +15872,11 @@
       </c>
       <c r="K84">
         <f t="shared" si="2"/>
-        <v>3934.248470965726</v>
+        <v>3955.4092613802472</v>
       </c>
       <c r="L84">
         <f t="shared" si="3"/>
-        <v>3.9342484709657262</v>
+        <v>3.9554092613802472</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.3">
@@ -15893,11 +15912,11 @@
       </c>
       <c r="K85">
         <f t="shared" si="2"/>
-        <v>3984.6692320741245</v>
+        <v>4005.8054653749982</v>
       </c>
       <c r="L85">
         <f t="shared" si="3"/>
-        <v>3.9846692320741246</v>
+        <v>4.0058054653749986</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.3">
@@ -15932,12 +15951,12 @@
         <v>2924.5123863220201</v>
       </c>
       <c r="K86">
-        <f t="shared" si="2"/>
-        <v>3981.1203715241973</v>
+        <f>SUM($E$88,G86,$H$88)</f>
+        <v>4002.2759167299782</v>
       </c>
       <c r="L86">
         <f t="shared" si="3"/>
-        <v>3.9811203715241974</v>
+        <v>4.0022759167299782</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.3">
@@ -15948,9 +15967,28 @@
         <f>'10_trees'!E88</f>
         <v>3704.1723963655063</v>
       </c>
+      <c r="G88" t="s">
+        <v>31</v>
+      </c>
+      <c r="H88">
+        <f>'10_trees'!H88</f>
+        <v>45.578667611786805</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="L2:L86">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G86">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -15962,7 +16000,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G86">
+  <conditionalFormatting sqref="H2:H86">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -15983,7 +16021,7 @@
   <dimension ref="A1:L88"/>
   <sheetViews>
     <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="K10" sqref="K10:K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16061,12 +16099,12 @@
         <v>17979.670524597099</v>
       </c>
       <c r="K2">
-        <f>SUM($E$88,G2,H2)</f>
-        <v>4761.198305789334</v>
+        <f>SUM($E$88,G2,$H$88)</f>
+        <v>4755.7456223116433</v>
       </c>
       <c r="L2">
         <f>PRODUCT(K2,0.001)</f>
-        <v>4.7611983057893337</v>
+        <v>4.7557456223116432</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -16101,12 +16139,12 @@
         <v>13471.8191623687</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K66" si="0">SUM($E$88,G3,H3)</f>
-        <v>4422.6694342530791</v>
+        <f t="shared" ref="K3:K66" si="0">SUM($E$88,G3,$H$88)</f>
+        <v>4417.2224728212868</v>
       </c>
       <c r="L3">
         <f t="shared" ref="L3:L77" si="1">PRODUCT(K3,0.001)</f>
-        <v>4.4226694342530788</v>
+        <v>4.4172224728212868</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -16142,11 +16180,11 @@
       </c>
       <c r="K4">
         <f t="shared" si="0"/>
-        <v>4374.5539423860137</v>
+        <v>4368.7557903872048</v>
       </c>
       <c r="L4">
         <f t="shared" si="1"/>
-        <v>4.3745539423860134</v>
+        <v>4.3687557903872047</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -16182,11 +16220,11 @@
       </c>
       <c r="K5">
         <f t="shared" si="0"/>
-        <v>4370.5549475587432</v>
+        <v>4364.6728722200905</v>
       </c>
       <c r="L5">
         <f t="shared" si="1"/>
-        <v>4.3705549475587429</v>
+        <v>4.3646728722200905</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -16222,11 +16260,11 @@
       </c>
       <c r="K6">
         <f t="shared" si="0"/>
-        <v>4356.6460844911162</v>
+        <v>4351.2890068636452</v>
       </c>
       <c r="L6">
         <f t="shared" si="1"/>
-        <v>4.3566460844911159</v>
+        <v>4.3512890068636452</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -16262,11 +16300,11 @@
       </c>
       <c r="K7">
         <f t="shared" si="0"/>
-        <v>5189.4166705049029</v>
+        <v>5178.3909527407131</v>
       </c>
       <c r="L7">
         <f t="shared" si="1"/>
-        <v>5.1894166705049027</v>
+        <v>5.1783909527407133</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -16302,11 +16340,11 @@
       </c>
       <c r="K8">
         <f t="shared" si="0"/>
-        <v>4739.1624686158721</v>
+        <v>4733.0343453035866</v>
       </c>
       <c r="L8">
         <f t="shared" si="1"/>
-        <v>4.7391624686158718</v>
+        <v>4.7330343453035866</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -16342,11 +16380,11 @@
       </c>
       <c r="K9">
         <f t="shared" si="0"/>
-        <v>4682.8046080506865</v>
+        <v>4677.0181385622536</v>
       </c>
       <c r="L9">
         <f t="shared" si="1"/>
-        <v>4.6828046080506862</v>
+        <v>4.6770181385622536</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -16392,11 +16430,11 @@
       </c>
       <c r="K12">
         <f t="shared" si="0"/>
-        <v>17802.171969119405</v>
+        <v>11057.306739483882</v>
       </c>
       <c r="L12">
         <f t="shared" si="1"/>
-        <v>17.802171969119406</v>
+        <v>11.057306739483883</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -16432,11 +16470,11 @@
       </c>
       <c r="K13">
         <f t="shared" si="0"/>
-        <v>14808.628582660047</v>
+        <v>7980.8258740053634</v>
       </c>
       <c r="L13">
         <f t="shared" si="1"/>
-        <v>14.808628582660047</v>
+        <v>7.9808258740053635</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -16472,11 +16510,11 @@
       </c>
       <c r="K14">
         <f t="shared" si="0"/>
-        <v>13988.697313968036</v>
+        <v>7302.1564213381325</v>
       </c>
       <c r="L14">
         <f t="shared" si="1"/>
-        <v>13.988697313968036</v>
+        <v>7.3021564213381325</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
@@ -16512,11 +16550,11 @@
       </c>
       <c r="K15">
         <f t="shared" si="0"/>
-        <v>14633.331560794206</v>
+        <v>7765.4003826723538</v>
       </c>
       <c r="L15">
         <f t="shared" si="1"/>
-        <v>14.633331560794206</v>
+        <v>7.7654003826723539</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
@@ -16552,11 +16590,11 @@
       </c>
       <c r="K16">
         <f t="shared" si="0"/>
-        <v>14543.885254565566</v>
+        <v>7758.4695545778732</v>
       </c>
       <c r="L16">
         <f t="shared" si="1"/>
-        <v>14.543885254565566</v>
+        <v>7.7584695545778732</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -16592,11 +16630,11 @@
       </c>
       <c r="K17">
         <f t="shared" si="0"/>
-        <v>4251.176857653958</v>
+        <v>4245.0399128542458</v>
       </c>
       <c r="L17">
         <f t="shared" si="1"/>
-        <v>4.2511768576539577</v>
+        <v>4.2450399128542458</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -16632,11 +16670,11 @@
       </c>
       <c r="K18">
         <f t="shared" si="0"/>
-        <v>4038.0299326814243</v>
+        <v>4032.1819511995832</v>
       </c>
       <c r="L18">
         <f t="shared" si="1"/>
-        <v>4.0380299326814244</v>
+        <v>4.0321819511995836</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
@@ -16672,11 +16710,11 @@
       </c>
       <c r="K19">
         <f t="shared" si="0"/>
-        <v>4004.6515700257842</v>
+        <v>3998.8712994204079</v>
       </c>
       <c r="L19">
         <f t="shared" si="1"/>
-        <v>4.0046515700257839</v>
+        <v>3.9988712994204079</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
@@ -16712,11 +16750,11 @@
       </c>
       <c r="K20">
         <f t="shared" si="0"/>
-        <v>4017.3928973115503</v>
+        <v>4011.5658966646702</v>
       </c>
       <c r="L20">
         <f t="shared" si="1"/>
-        <v>4.0173928973115505</v>
+        <v>4.0115658966646706</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -16752,11 +16790,11 @@
       </c>
       <c r="K21">
         <f t="shared" si="0"/>
-        <v>3995.0540301240503</v>
+        <v>3985.191318188718</v>
       </c>
       <c r="L21">
         <f t="shared" si="1"/>
-        <v>3.9950540301240505</v>
+        <v>3.985191318188718</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
@@ -16792,11 +16830,11 @@
       </c>
       <c r="K22">
         <f t="shared" si="0"/>
-        <v>4646.1985346711699</v>
+        <v>4666.5897099123513</v>
       </c>
       <c r="L22">
         <f t="shared" si="1"/>
-        <v>4.6461985346711696</v>
+        <v>4.6665897099123512</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
@@ -16832,11 +16870,11 @@
       </c>
       <c r="K23">
         <f t="shared" si="0"/>
-        <v>4010.8661887086455</v>
+        <v>4028.675529156736</v>
       </c>
       <c r="L23">
         <f t="shared" si="1"/>
-        <v>4.0108661887086452</v>
+        <v>4.028675529156736</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
@@ -16872,11 +16910,11 @@
       </c>
       <c r="K24">
         <f t="shared" si="0"/>
-        <v>3983.5508105195581</v>
+        <v>4004.2109219179661</v>
       </c>
       <c r="L24">
         <f t="shared" si="1"/>
-        <v>3.9835508105195583</v>
+        <v>4.0042109219179665</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
@@ -16912,11 +16950,11 @@
       </c>
       <c r="K25">
         <f t="shared" si="0"/>
-        <v>4028.1536814607207</v>
+        <v>4048.5191074953591</v>
       </c>
       <c r="L25">
         <f t="shared" si="1"/>
-        <v>4.0281536814607204</v>
+        <v>4.048519107495359</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
@@ -16952,11 +16990,11 @@
       </c>
       <c r="K26">
         <f t="shared" si="0"/>
-        <v>4023.4213110841333</v>
+        <v>4044.4051949129612</v>
       </c>
       <c r="L26">
         <f t="shared" si="1"/>
-        <v>4.0234213110841335</v>
+        <v>4.0444051949129616</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
@@ -16992,11 +17030,11 @@
       </c>
       <c r="K27">
         <f t="shared" si="0"/>
-        <v>4744.2310091889922</v>
+        <v>4738.6479107485329</v>
       </c>
       <c r="L27">
         <f t="shared" si="1"/>
-        <v>4.7442310091889919</v>
+        <v>4.7386479107485329</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
@@ -17032,11 +17070,11 @@
       </c>
       <c r="K28">
         <f t="shared" si="0"/>
-        <v>4427.6960131562773</v>
+        <v>4421.9608036623513</v>
       </c>
       <c r="L28">
         <f t="shared" si="1"/>
-        <v>4.427696013156277</v>
+        <v>4.4219608036623512</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
@@ -17072,11 +17110,11 @@
       </c>
       <c r="K29">
         <f t="shared" si="0"/>
-        <v>4378.7257906831328</v>
+        <v>4373.1467453585183</v>
       </c>
       <c r="L29">
         <f t="shared" si="1"/>
-        <v>4.3787257906831325</v>
+        <v>4.3731467453585182</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
@@ -17112,11 +17150,11 @@
       </c>
       <c r="K30">
         <f t="shared" si="0"/>
-        <v>4405.0395724214141</v>
+        <v>4399.1586891756569</v>
       </c>
       <c r="L30">
         <f t="shared" si="1"/>
-        <v>4.4050395724214138</v>
+        <v>4.3991586891756569</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
@@ -17152,11 +17190,11 @@
       </c>
       <c r="K31">
         <f t="shared" si="0"/>
-        <v>4382.3430773652617</v>
+        <v>4376.4757839785134</v>
       </c>
       <c r="L31">
         <f t="shared" si="1"/>
-        <v>4.3823430773652614</v>
+        <v>4.3764757839785133</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
@@ -17192,11 +17230,11 @@
       </c>
       <c r="K32">
         <f t="shared" si="0"/>
-        <v>5305.6533572114513</v>
+        <v>5299.6718613253133</v>
       </c>
       <c r="L32">
         <f t="shared" si="1"/>
-        <v>5.305653357211451</v>
+        <v>5.2996718613253133</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
@@ -17232,11 +17270,11 @@
       </c>
       <c r="K33">
         <f t="shared" si="0"/>
-        <v>5050.4708525575188</v>
+        <v>5042.8220955477236</v>
       </c>
       <c r="L33">
         <f t="shared" si="1"/>
-        <v>5.0504708525575186</v>
+        <v>5.0428220955477236</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
@@ -17272,11 +17310,11 @@
       </c>
       <c r="K34">
         <f t="shared" si="0"/>
-        <v>5290.8389803803957</v>
+        <v>5282.5393406496532</v>
       </c>
       <c r="L34">
         <f t="shared" si="1"/>
-        <v>5.2908389803803955</v>
+        <v>5.2825393406496532</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
@@ -17322,11 +17360,11 @@
       </c>
       <c r="K37">
         <f t="shared" si="0"/>
-        <v>14534.495138827657</v>
+        <v>7652.2879330263631</v>
       </c>
       <c r="L37">
         <f t="shared" si="1"/>
-        <v>14.534495138827657</v>
+        <v>7.6522879330263631</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
@@ -17362,11 +17400,11 @@
       </c>
       <c r="K38">
         <f t="shared" si="0"/>
-        <v>13310.907387439107</v>
+        <v>6602.9903618441131</v>
       </c>
       <c r="L38">
         <f t="shared" si="1"/>
-        <v>13.310907387439107</v>
+        <v>6.602990361844113</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
@@ -17402,11 +17440,11 @@
       </c>
       <c r="K39">
         <f t="shared" si="0"/>
-        <v>13244.855665866226</v>
+        <v>6422.7626053438626</v>
       </c>
       <c r="L39">
         <f t="shared" si="1"/>
-        <v>13.244855665866226</v>
+        <v>6.4227626053438627</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
@@ -17442,11 +17480,11 @@
       </c>
       <c r="K40">
         <f t="shared" si="0"/>
-        <v>13916.848921481465</v>
+        <v>7212.1867863283633</v>
       </c>
       <c r="L40">
         <f t="shared" si="1"/>
-        <v>13.916848921481465</v>
+        <v>7.2121867863283633</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
@@ -17482,11 +17520,11 @@
       </c>
       <c r="K41">
         <f t="shared" si="0"/>
-        <v>13910.762810412736</v>
+        <v>7230.816098843623</v>
       </c>
       <c r="L41">
         <f t="shared" si="1"/>
-        <v>13.910762810412736</v>
+        <v>7.230816098843623</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
@@ -17522,11 +17560,11 @@
       </c>
       <c r="K42">
         <f t="shared" si="0"/>
-        <v>4233.4709402955596</v>
+        <v>4227.4720398531472</v>
       </c>
       <c r="L42">
         <f t="shared" si="1"/>
-        <v>4.2334709402955593</v>
+        <v>4.2274720398531471</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
@@ -17562,11 +17600,11 @@
       </c>
       <c r="K43">
         <f t="shared" si="0"/>
-        <v>4006.1810252107202</v>
+        <v>3998.7556664095432</v>
       </c>
       <c r="L43">
         <f t="shared" si="1"/>
-        <v>4.0061810252107204</v>
+        <v>3.9987556664095432</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
@@ -17602,11 +17640,11 @@
       </c>
       <c r="K44">
         <f t="shared" si="0"/>
-        <v>3991.5194746888696</v>
+        <v>3985.4075638399631</v>
       </c>
       <c r="L44">
         <f t="shared" si="1"/>
-        <v>3.9915194746888698</v>
+        <v>3.9854075638399631</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
@@ -17642,11 +17680,11 @@
       </c>
       <c r="K45">
         <f t="shared" si="0"/>
-        <v>3993.9794775880396</v>
+        <v>3985.5084148989231</v>
       </c>
       <c r="L45">
         <f t="shared" si="1"/>
-        <v>3.9939794775880397</v>
+        <v>3.985508414898923</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
@@ -17682,11 +17720,11 @@
       </c>
       <c r="K46">
         <f t="shared" si="0"/>
-        <v>3945.7526442445342</v>
+        <v>3939.9215904818093</v>
       </c>
       <c r="L46">
         <f t="shared" si="1"/>
-        <v>3.9457526442445343</v>
+        <v>3.9399215904818092</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
@@ -17722,11 +17760,11 @@
       </c>
       <c r="K47">
         <f t="shared" si="0"/>
-        <v>4547.096514407498</v>
+        <v>4568.9546791658913</v>
       </c>
       <c r="L47">
         <f t="shared" si="1"/>
-        <v>4.5470965144074977</v>
+        <v>4.5689546791658913</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
@@ -17762,11 +17800,11 @@
       </c>
       <c r="K48">
         <f t="shared" si="0"/>
-        <v>3994.4138762391631</v>
+        <v>4016.5369240389382</v>
       </c>
       <c r="L48">
         <f t="shared" si="1"/>
-        <v>3.9944138762391632</v>
+        <v>4.0165369240389381</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
@@ -17802,11 +17840,11 @@
       </c>
       <c r="K49">
         <f t="shared" si="0"/>
-        <v>3958.5736033357207</v>
+        <v>3980.6129662142312</v>
       </c>
       <c r="L49">
         <f t="shared" si="1"/>
-        <v>3.9585736033357208</v>
+        <v>3.9806129662142311</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
@@ -17842,11 +17880,11 @@
       </c>
       <c r="K50">
         <f t="shared" si="0"/>
-        <v>3971.1747404969751</v>
+        <v>3993.2386604891331</v>
       </c>
       <c r="L50">
         <f t="shared" si="1"/>
-        <v>3.9711747404969753</v>
+        <v>3.993238660489133</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
@@ -17882,11 +17920,11 @@
       </c>
       <c r="K51">
         <f t="shared" si="0"/>
-        <v>3949.4290587342803</v>
+        <v>3971.2066380129372</v>
       </c>
       <c r="L51">
         <f t="shared" si="1"/>
-        <v>3.9494290587342804</v>
+        <v>3.9712066380129372</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
@@ -17922,11 +17960,11 @@
       </c>
       <c r="K52">
         <f t="shared" si="0"/>
-        <v>40621.674084368999</v>
+        <v>40616.011592541698</v>
       </c>
       <c r="L52">
         <f t="shared" si="1"/>
-        <v>40.621674084368998</v>
+        <v>40.616011592541696</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
@@ -17962,11 +18000,11 @@
       </c>
       <c r="K53">
         <f t="shared" si="0"/>
-        <v>9131.6535708344982</v>
+        <v>9126.1939732180126</v>
       </c>
       <c r="L53">
         <f t="shared" si="1"/>
-        <v>9.1316535708344979</v>
+        <v>9.1261939732180135</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
@@ -18002,11 +18040,11 @@
       </c>
       <c r="K54">
         <f t="shared" si="0"/>
-        <v>6102.4708983338824</v>
+        <v>6095.2927795992337</v>
       </c>
       <c r="L54">
         <f t="shared" si="1"/>
-        <v>6.1024708983338822</v>
+        <v>6.0952927795992338</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
@@ -18042,11 +18080,11 @@
       </c>
       <c r="K55">
         <f t="shared" si="0"/>
-        <v>5906.6066977418459</v>
+        <v>5899.6181217775829</v>
       </c>
       <c r="L55">
         <f t="shared" si="1"/>
-        <v>5.9066066977418457</v>
+        <v>5.8996181217775829</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
@@ -18082,11 +18120,11 @@
       </c>
       <c r="K56">
         <f t="shared" si="0"/>
-        <v>5861.0294100678939</v>
+        <v>5855.6325165377129</v>
       </c>
       <c r="L56">
         <f t="shared" si="1"/>
-        <v>5.8610294100678937</v>
+        <v>5.855632516537713</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
@@ -18122,11 +18160,11 @@
       </c>
       <c r="K57">
         <f t="shared" si="0"/>
-        <v>42624.593996707306</v>
+        <v>42618.997785244996</v>
       </c>
       <c r="L57">
         <f t="shared" si="1"/>
-        <v>42.624593996707304</v>
+        <v>42.618997785245</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
@@ -18162,11 +18200,11 @@
       </c>
       <c r="K58">
         <f t="shared" si="0"/>
-        <v>8946.0134741700676</v>
+        <v>8940.6466213808526</v>
       </c>
       <c r="L58">
         <f t="shared" si="1"/>
-        <v>8.9460134741700674</v>
+        <v>8.9406466213808535</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
@@ -18202,11 +18240,11 @@
       </c>
       <c r="K59">
         <f t="shared" si="0"/>
-        <v>5923.1584307588137</v>
+        <v>5917.7348343477734</v>
       </c>
       <c r="L59">
         <f t="shared" si="1"/>
-        <v>5.9231584307588134</v>
+        <v>5.9177348343477734</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
@@ -18242,11 +18280,11 @@
       </c>
       <c r="K60">
         <f t="shared" si="0"/>
-        <v>5759.6054312623528</v>
+        <v>5754.1897026644228</v>
       </c>
       <c r="L60">
         <f t="shared" si="1"/>
-        <v>5.7596054312623526</v>
+        <v>5.7541897026644229</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
@@ -18282,11 +18320,11 @@
       </c>
       <c r="K61">
         <f t="shared" si="0"/>
-        <v>5736.9361159242217</v>
+        <v>5731.4111916170632</v>
       </c>
       <c r="L61">
         <f t="shared" si="1"/>
-        <v>5.7369361159242214</v>
+        <v>5.7314111916170631</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
@@ -18322,11 +18360,11 @@
       </c>
       <c r="K62">
         <f t="shared" si="0"/>
-        <v>4724.5836493409697</v>
+        <v>4714.1751972780739</v>
       </c>
       <c r="L62">
         <f t="shared" si="1"/>
-        <v>4.7245836493409694</v>
+        <v>4.7141751972780739</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
@@ -18362,11 +18400,11 @@
       </c>
       <c r="K63">
         <f t="shared" si="0"/>
-        <v>4434.0224501527373</v>
+        <v>4427.9947010622536</v>
       </c>
       <c r="L63">
         <f t="shared" si="1"/>
-        <v>4.434022450152737</v>
+        <v>4.4279947010622536</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
@@ -18402,11 +18440,11 @@
       </c>
       <c r="K64">
         <f t="shared" si="0"/>
-        <v>4382.0417162812773</v>
+        <v>4375.9414879427468</v>
       </c>
       <c r="L64">
         <f t="shared" si="1"/>
-        <v>4.382041716281277</v>
+        <v>4.3759414879427467</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
@@ -18442,11 +18480,11 @@
       </c>
       <c r="K65">
         <f t="shared" si="0"/>
-        <v>4409.8596808351103</v>
+        <v>4403.7167755709206</v>
       </c>
       <c r="L65">
         <f t="shared" si="1"/>
-        <v>4.40985968083511</v>
+        <v>4.4037167755709206</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
@@ -18482,11 +18520,11 @@
       </c>
       <c r="K66">
         <f t="shared" si="0"/>
-        <v>4383.8346239961211</v>
+        <v>4377.6354519472634</v>
       </c>
       <c r="L66">
         <f t="shared" si="1"/>
-        <v>4.3838346239961208</v>
+        <v>4.3776354519472633</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
@@ -18521,12 +18559,12 @@
         <v>23989.224195480299</v>
       </c>
       <c r="K67">
-        <f t="shared" ref="K67:K86" si="2">SUM($E$88,G67,H67)</f>
-        <v>4969.0404173768511</v>
+        <f t="shared" ref="K67:K86" si="2">SUM($E$88,G67,$H$88)</f>
+        <v>4962.7272812471829</v>
       </c>
       <c r="L67">
         <f t="shared" si="1"/>
-        <v>4.969040417376851</v>
+        <v>4.962727281247183</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
@@ -18562,11 +18600,11 @@
       </c>
       <c r="K68">
         <f t="shared" si="2"/>
-        <v>4745.0835940278594</v>
+        <v>4738.9962402926003</v>
       </c>
       <c r="L68">
         <f t="shared" si="1"/>
-        <v>4.7450835940278591</v>
+        <v>4.7389962402926002</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
@@ -18602,11 +18640,11 @@
       </c>
       <c r="K69">
         <f t="shared" si="2"/>
-        <v>4664.8299929536406</v>
+        <v>4657.2086540804421</v>
       </c>
       <c r="L69">
         <f t="shared" si="1"/>
-        <v>4.6648299929536403</v>
+        <v>4.657208654080442</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
@@ -18652,11 +18690,11 @@
       </c>
       <c r="K72">
         <f t="shared" si="2"/>
-        <v>14685.160422030776</v>
+        <v>7910.6414047823428</v>
       </c>
       <c r="L72">
         <f t="shared" si="1"/>
-        <v>14.685160422030776</v>
+        <v>7.9106414047823428</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
@@ -18692,11 +18730,11 @@
       </c>
       <c r="K73">
         <f t="shared" si="2"/>
-        <v>13975.848459903085</v>
+        <v>7075.644466076893</v>
       </c>
       <c r="L73">
         <f t="shared" si="1"/>
-        <v>13.975848459903085</v>
+        <v>7.0756444660768931</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
@@ -18732,11 +18770,11 @@
       </c>
       <c r="K74">
         <f t="shared" si="2"/>
-        <v>13145.605587664937</v>
+        <v>6363.5363308535134</v>
       </c>
       <c r="L74">
         <f t="shared" si="1"/>
-        <v>13.145605587664937</v>
+        <v>6.3635363308535133</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
@@ -18772,11 +18810,11 @@
       </c>
       <c r="K75">
         <f t="shared" si="2"/>
-        <v>13822.898173037856</v>
+        <v>7169.4831577883233</v>
       </c>
       <c r="L75">
         <f t="shared" si="1"/>
-        <v>13.822898173037856</v>
+        <v>7.1694831577883233</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
@@ -18812,11 +18850,11 @@
       </c>
       <c r="K76">
         <f t="shared" si="2"/>
-        <v>13989.373707476945</v>
+        <v>7179.7771183596133</v>
       </c>
       <c r="L76">
         <f t="shared" si="1"/>
-        <v>13.989373707476945</v>
+        <v>7.1797771183596133</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
@@ -18852,11 +18890,11 @@
       </c>
       <c r="K77">
         <f t="shared" si="2"/>
-        <v>4231.2357661164824</v>
+        <v>4224.6434418306862</v>
       </c>
       <c r="L77">
         <f t="shared" si="1"/>
-        <v>4.2312357661164821</v>
+        <v>4.2246434418306862</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
@@ -18892,11 +18930,11 @@
       </c>
       <c r="K78">
         <f t="shared" si="2"/>
-        <v>4026.2062785066191</v>
+        <v>4019.9360577211892</v>
       </c>
       <c r="L78">
         <f t="shared" ref="L78:L86" si="3">PRODUCT(K78,0.001)</f>
-        <v>4.0262062785066188</v>
+        <v>4.0199360577211891</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
@@ -18932,11 +18970,11 @@
       </c>
       <c r="K79">
         <f t="shared" si="2"/>
-        <v>3973.2849833406035</v>
+        <v>3966.5109840975319</v>
       </c>
       <c r="L79">
         <f t="shared" si="3"/>
-        <v>3.9732849833406036</v>
+        <v>3.9665109840975319</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
@@ -18972,11 +19010,11 @@
       </c>
       <c r="K80">
         <f t="shared" si="2"/>
-        <v>3982.6143023408472</v>
+        <v>3976.233216916135</v>
       </c>
       <c r="L80">
         <f t="shared" si="3"/>
-        <v>3.9826143023408473</v>
+        <v>3.976233216916135</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
@@ -19012,11 +19050,11 @@
       </c>
       <c r="K81">
         <f t="shared" si="2"/>
-        <v>3986.6304633058139</v>
+        <v>3979.9031941042463</v>
       </c>
       <c r="L81">
         <f t="shared" si="3"/>
-        <v>3.9866304633058141</v>
+        <v>3.9799031941042462</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.3">
@@ -19052,11 +19090,11 @@
       </c>
       <c r="K82">
         <f t="shared" si="2"/>
-        <v>4522.5982901490752</v>
+        <v>4543.59624067407</v>
       </c>
       <c r="L82">
         <f t="shared" si="3"/>
-        <v>4.5225982901490749</v>
+        <v>4.54359624067407</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.3">
@@ -19092,11 +19130,11 @@
       </c>
       <c r="K83">
         <f t="shared" si="2"/>
-        <v>4052.6297327912876</v>
+        <v>4073.9087788210431</v>
       </c>
       <c r="L83">
         <f t="shared" si="3"/>
-        <v>4.0526297327912877</v>
+        <v>4.0739087788210435</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.3">
@@ -19132,11 +19170,11 @@
       </c>
       <c r="K84">
         <f t="shared" si="2"/>
-        <v>4045.2575919068881</v>
+        <v>4066.4155212984601</v>
       </c>
       <c r="L84">
         <f t="shared" si="3"/>
-        <v>4.0452575919068883</v>
+        <v>4.0664155212984605</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.3">
@@ -19172,11 +19210,11 @@
       </c>
       <c r="K85">
         <f t="shared" si="2"/>
-        <v>4091.3708445466577</v>
+        <v>4112.4896732912566</v>
       </c>
       <c r="L85">
         <f t="shared" si="3"/>
-        <v>4.0913708445466579</v>
+        <v>4.1124896732912566</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.3">
@@ -19211,12 +19249,12 @@
         <v>3348.3157157897899</v>
       </c>
       <c r="K86">
-        <f t="shared" si="2"/>
-        <v>4087.3775717652861</v>
+        <f>SUM($E$88,G86,$H$88)</f>
+        <v>4108.5166660891091</v>
       </c>
       <c r="L86">
         <f t="shared" si="3"/>
-        <v>4.0873775717652858</v>
+        <v>4.108516666089109</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.3">
@@ -19227,9 +19265,28 @@
         <f>'10_trees'!E88</f>
         <v>3704.1723963655063</v>
       </c>
+      <c r="G88" t="s">
+        <v>31</v>
+      </c>
+      <c r="H88">
+        <f>'10_trees'!H88</f>
+        <v>45.578667611786805</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="L2:L86">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G86">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -19241,7 +19298,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G86">
+  <conditionalFormatting sqref="H2:H86">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -19261,8 +19318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B5AD779-DEE6-4939-B35F-9679408944DA}">
   <dimension ref="A1:S17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="I87" sqref="I87"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19310,19 +19367,19 @@
       </c>
       <c r="B3" s="1">
         <f>MIN('10_trees'!L2:'10_trees'!L6)</f>
-        <v>3.7733657595552037</v>
+        <v>3.7680978504763165</v>
       </c>
       <c r="C3" s="1">
         <f>MIN('10_trees'!L7:'10_trees'!L11)</f>
-        <v>4.3133995768464626</v>
+        <v>4.3079132763491188</v>
       </c>
       <c r="D3" s="1">
         <f>MIN('10_trees'!L17:'10_trees'!L21)</f>
-        <v>3.7964127299226353</v>
+        <v>3.7905869213686505</v>
       </c>
       <c r="E3" s="1">
         <f>MIN('10_trees'!L22:'10_trees'!L26)</f>
-        <v>3.8899255034364288</v>
+        <v>3.9112179009066139</v>
       </c>
       <c r="H3">
         <v>4.5</v>
@@ -19353,19 +19410,19 @@
       </c>
       <c r="B4" s="1">
         <f>MIN('500_trees'!L2:'500_trees'!L6)</f>
-        <v>3.9510727164186061</v>
+        <v>3.945703956280759</v>
       </c>
       <c r="C4" s="1">
         <f>MIN('500_trees'!L7:'500_trees'!L11)</f>
-        <v>4.4214158293641628</v>
+        <v>4.4156541554079567</v>
       </c>
       <c r="D4" s="1">
         <f>MIN('500_trees'!L17:'500_trees'!L21)</f>
-        <v>3.8362257716096471</v>
+        <v>3.8292855946169415</v>
       </c>
       <c r="E4" s="1">
         <f>MIN('500_trees'!L22:'500_trees'!L26)</f>
-        <v>3.9171598193086212</v>
+        <v>3.9378747669802223</v>
       </c>
       <c r="H4">
         <v>5.4</v>
@@ -19396,19 +19453,19 @@
       </c>
       <c r="B5" s="1">
         <f>MIN('1600_trees'!L2:'1600_trees'!L6)</f>
-        <v>4.3566460844911159</v>
+        <v>4.3512890068636452</v>
       </c>
       <c r="C5" s="1">
         <f>MIN('1600_trees'!L7:'1600_trees'!L11)</f>
-        <v>4.6828046080506862</v>
+        <v>4.6770181385622536</v>
       </c>
       <c r="D5" s="1">
         <f>MIN('1600_trees'!L17:'1600_trees'!L21)</f>
-        <v>3.9950540301240505</v>
+        <v>3.985191318188718</v>
       </c>
       <c r="E5" s="1">
         <f>MIN('1600_trees'!L22:'1600_trees'!L26)</f>
-        <v>3.9835508105195583</v>
+        <v>4.0042109219179665</v>
       </c>
       <c r="H5">
         <v>6.8</v>
@@ -19482,24 +19539,24 @@
       </c>
       <c r="B9" s="1">
         <f>MIN('10_trees'!L27:'10_trees'!L31)</f>
-        <v>3.7730760809815953</v>
+        <v>3.7674519745455304</v>
       </c>
       <c r="C9" s="1">
         <f>MIN('10_trees'!L32:'10_trees'!L36)</f>
-        <v>4.6966603037751735</v>
+        <v>4.6906799999819313</v>
       </c>
       <c r="D9" s="1">
         <f>MIN('10_trees'!L42:'10_trees'!L46)</f>
-        <v>3.7971110579408238</v>
+        <v>3.7910978523836651</v>
       </c>
       <c r="E9" s="1">
         <f>MIN('10_trees'!L47:'10_trees'!L51)</f>
-        <v>3.8743772742188991</v>
+        <v>3.8965239254580051</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1">
         <f>MIN('10_trees'!L57:'10_trees'!L61)</f>
-        <v>5.434339308444355</v>
+        <v>5.428263398800893</v>
       </c>
       <c r="H9">
         <v>4.4000000000000004</v>
@@ -19535,24 +19592,24 @@
       </c>
       <c r="B10" s="1">
         <f>MIN('500_trees'!L27:'500_trees'!L31)</f>
-        <v>3.9574947592652863</v>
+        <v>3.9519657818422829</v>
       </c>
       <c r="C10" s="1">
         <f>MIN('500_trees'!L32:'500_trees'!L36)</f>
-        <v>5.1044547793305846</v>
+        <v>5.0983204571352427</v>
       </c>
       <c r="D10" s="1">
         <f>MIN('500_trees'!L42:'500_trees'!L46)</f>
-        <v>3.8505237337983678</v>
+        <v>3.8444463936434308</v>
       </c>
       <c r="E10" s="1">
         <f>MIN('500_trees'!L47:'500_trees'!L51)</f>
-        <v>3.8969288107789581</v>
+        <v>3.9187602726564918</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1">
         <f>MIN('500_trees'!L57:'500_trees'!L61)</f>
-        <v>5.5052278277314697</v>
+        <v>5.499981137906123</v>
       </c>
       <c r="H10">
         <v>4.9000000000000004</v>
@@ -19588,24 +19645,24 @@
       </c>
       <c r="B11" s="1">
         <f>MIN('1600_trees'!L27:'1600_trees'!L31)</f>
-        <v>4.3787257906831325</v>
+        <v>4.3731467453585182</v>
       </c>
       <c r="C11" s="1">
         <f>MIN('1600_trees'!L32:'1600_trees'!L36)</f>
-        <v>5.0504708525575186</v>
+        <v>5.0428220955477236</v>
       </c>
       <c r="D11" s="1">
         <f>MIN('1600_trees'!L42:'1600_trees'!L46)</f>
-        <v>3.9457526442445343</v>
+        <v>3.9399215904818092</v>
       </c>
       <c r="E11" s="1">
         <f>MIN('1600_trees'!L47:'1600_trees'!L51)</f>
-        <v>3.9494290587342804</v>
+        <v>3.9712066380129372</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1">
         <f>MIN('1600_trees'!L57:'1600_trees'!L61)</f>
-        <v>5.7369361159242214</v>
+        <v>5.7314111916170631</v>
       </c>
       <c r="H11">
         <v>5.8</v>
@@ -19678,19 +19735,19 @@
       </c>
       <c r="B15" s="1">
         <f>MIN('10_trees'!L62:'10_trees'!L66)</f>
-        <v>3.7728586432374547</v>
+        <v>3.7674154965029278</v>
       </c>
       <c r="C15" s="1">
         <f>MIN('10_trees'!L67:'10_trees'!L71)</f>
-        <v>4.317121290866238</v>
+        <v>4.3086662022219215</v>
       </c>
       <c r="D15" s="1">
         <f>MIN('10_trees'!L77:'10_trees'!L81)</f>
-        <v>3.7968399760163853</v>
+        <v>3.7910361019716778</v>
       </c>
       <c r="E15" s="1">
         <f>MIN('10_trees'!L82:'10_trees'!L86)</f>
-        <v>3.8907051321900905</v>
+        <v>3.9114424912081271</v>
       </c>
       <c r="H15">
         <v>4.5</v>
@@ -19721,19 +19778,19 @@
       </c>
       <c r="B16" s="1">
         <f>MIN('500_trees'!L62:'500_trees'!L66)</f>
-        <v>3.9580850836671417</v>
+        <v>3.9518887726412331</v>
       </c>
       <c r="C16" s="1">
         <f>MIN('500_trees'!L67:'500_trees'!L71)</f>
-        <v>4.4280295607484401</v>
+        <v>4.4218175140963112</v>
       </c>
       <c r="D16" s="1">
         <f>MIN('500_trees'!L77:'500_trees'!L81)</f>
-        <v>3.836735033694608</v>
+        <v>3.8308231560335675</v>
       </c>
       <c r="E16" s="1">
         <f>MIN('500_trees'!L82:'500_trees'!L86)</f>
-        <v>3.9342484709657262</v>
+        <v>3.9554092613802472</v>
       </c>
       <c r="H16">
         <v>4.8</v>
@@ -19764,19 +19821,19 @@
       </c>
       <c r="B17" s="1">
         <f>MIN('1600_trees'!L62:'1600_trees'!L66)</f>
-        <v>4.382041716281277</v>
+        <v>4.3759414879427467</v>
       </c>
       <c r="C17" s="1">
         <f>MIN('1600_trees'!L67:'1600_trees'!L71)</f>
-        <v>4.6648299929536403</v>
+        <v>4.657208654080442</v>
       </c>
       <c r="D17" s="1">
         <f>MIN('1600_trees'!L77:'1600_trees'!L81)</f>
-        <v>3.9732849833406036</v>
+        <v>3.9665109840975319</v>
       </c>
       <c r="E17" s="1">
         <f>MIN('1600_trees'!L82:'1600_trees'!L86)</f>
-        <v>4.0452575919068883</v>
+        <v>4.0664155212984605</v>
       </c>
       <c r="H17">
         <v>5.7</v>
